--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
     <sheet name="Masjid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -81,6 +84,90 @@
   </si>
   <si>
     <t>Helmi Efendi ST</t>
+  </si>
+  <si>
+    <t>Hamba Allah Gawok</t>
+  </si>
+  <si>
+    <t>Hamba Allah NI 6b</t>
+  </si>
+  <si>
+    <t>Fino</t>
+  </si>
+  <si>
+    <t>Hamba Allah Sumber</t>
+  </si>
+  <si>
+    <t>Abu Hanif</t>
+  </si>
+  <si>
+    <t>HP 0821-3690-1985</t>
+  </si>
+  <si>
+    <t>Amin Gawok</t>
+  </si>
+  <si>
+    <t>Hamba Allah Solo</t>
+  </si>
+  <si>
+    <t>Abu Kafka</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Sum of Masuk</t>
+  </si>
+  <si>
+    <t>Sum of Keluar</t>
+  </si>
+  <si>
+    <t>Hamba Allah Talangabang</t>
+  </si>
+  <si>
+    <t>Abu Haikal Utsman</t>
+  </si>
+  <si>
+    <t>Abu Zerico Jatmiko</t>
+  </si>
+  <si>
+    <t>Saldo Pribadi</t>
+  </si>
+  <si>
+    <t>Hamba Allah via Abu Haikal</t>
+  </si>
+  <si>
+    <t>Hamba Allah via dr Dhiya</t>
+  </si>
+  <si>
+    <t>Sudadi</t>
+  </si>
+  <si>
+    <t>SIDIK DARUSULISTYO / Shidiq Abu Abdirrahman</t>
+  </si>
+  <si>
+    <t>Banin-Banat</t>
+  </si>
+  <si>
+    <t>Masjid</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total BP</t>
+  </si>
+  <si>
+    <t>Selisih</t>
   </si>
 </sst>
 </file>
@@ -89,7 +176,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -136,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -185,20 +272,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -211,16 +440,441 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tsic" refreshedDate="42852.540621527776" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="31">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:H150" sheet="Banin - Banat"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="No" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Tanggal" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-04-16T00:00:00" maxDate="2017-04-27T00:00:00"/>
+    </cacheField>
+    <cacheField name="Donatur / PIC" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Donatur / PIC2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Keterangan" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Transfer"/>
+        <s v="Cash"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Masuk" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="50000" maxValue="10000000"/>
+    </cacheField>
+    <cacheField name="Keluar" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Saldo" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100000" maxValue="24266000"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+  <r>
+    <n v="1"/>
+    <d v="2017-04-16T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Hamba Allah"/>
+    <x v="0"/>
+    <n v="100000"/>
+    <m/>
+    <n v="100000"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <d v="2017-04-17T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abu Haidar"/>
+    <x v="0"/>
+    <n v="500000"/>
+    <m/>
+    <n v="600000"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <d v="2017-04-19T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Hamba Allah"/>
+    <x v="0"/>
+    <n v="10000000"/>
+    <m/>
+    <n v="10600000"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <d v="2017-04-19T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Hamba Allah"/>
+    <x v="1"/>
+    <n v="1000000"/>
+    <m/>
+    <n v="11600000"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <d v="2017-04-19T00:00:00"/>
+    <s v="Hamba Allah Mantung"/>
+    <s v="Hamba Allah Mantung"/>
+    <x v="1"/>
+    <n v="50000"/>
+    <m/>
+    <n v="11650000"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <d v="2017-04-20T00:00:00"/>
+    <s v="Hamba Allah Weru"/>
+    <s v="Hamba Allah Weru"/>
+    <x v="1"/>
+    <n v="200000"/>
+    <m/>
+    <n v="11850000"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <d v="2017-04-20T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abu Yahya Lirim"/>
+    <x v="1"/>
+    <n v="600000"/>
+    <m/>
+    <n v="12450000"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <d v="2017-04-20T00:00:00"/>
+    <s v="Rosok "/>
+    <s v="Rosok "/>
+    <x v="1"/>
+    <n v="1016000"/>
+    <m/>
+    <n v="13466000"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <d v="2017-04-21T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abdullah Tuyar Al-Atsari"/>
+    <x v="0"/>
+    <n v="50000"/>
+    <m/>
+    <n v="13516000"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <d v="2017-04-22T00:00:00"/>
+    <s v="Hamba Allah Semarang"/>
+    <s v="Helmi Efendi ST"/>
+    <x v="0"/>
+    <n v="5000000"/>
+    <m/>
+    <n v="18516000"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <d v="2017-04-22T00:00:00"/>
+    <s v="Hamba Allah Gawok"/>
+    <s v="Abu Mas'ud Said"/>
+    <x v="1"/>
+    <n v="2000000"/>
+    <m/>
+    <n v="20516000"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <d v="2017-04-22T00:00:00"/>
+    <s v="Hamba Allah NI 6b"/>
+    <s v="Fino"/>
+    <x v="1"/>
+    <n v="50000"/>
+    <m/>
+    <n v="20566000"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <d v="2017-04-22T00:00:00"/>
+    <s v="Hamba Allah Sumber"/>
+    <s v="Abu Hanif"/>
+    <x v="1"/>
+    <n v="200000"/>
+    <m/>
+    <n v="20766000"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <d v="2017-04-22T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="HP 0821-3690-1985"/>
+    <x v="0"/>
+    <n v="300000"/>
+    <m/>
+    <n v="21066000"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <d v="2017-04-22T00:00:00"/>
+    <s v="Hamba Allah Gawok"/>
+    <s v="Amin Gawok"/>
+    <x v="1"/>
+    <n v="500000"/>
+    <m/>
+    <n v="21566000"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <d v="2017-04-22T00:00:00"/>
+    <s v="Hamba Allah Solo"/>
+    <s v="Abu Kafka"/>
+    <x v="1"/>
+    <n v="100000"/>
+    <m/>
+    <n v="21666000"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <d v="2017-04-24T00:00:00"/>
+    <s v="Hamba Allah Talangabang"/>
+    <s v="Abu Haikal Utsman"/>
+    <x v="1"/>
+    <n v="200000"/>
+    <m/>
+    <n v="21866000"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <d v="2017-04-25T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abu Zerico Jatmiko"/>
+    <x v="0"/>
+    <n v="500000"/>
+    <m/>
+    <n v="22366000"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <d v="2017-04-26T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abdullah Tuyar Al-Atsari"/>
+    <x v="0"/>
+    <n v="50000"/>
+    <m/>
+    <n v="22416000"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <d v="2017-04-26T00:00:00"/>
+    <s v="Hamba Allah via Abu Haikal"/>
+    <s v="Hamba Allah via Abu Haikal"/>
+    <x v="1"/>
+    <n v="500000"/>
+    <m/>
+    <n v="22916000"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <d v="2017-04-26T00:00:00"/>
+    <s v="Hamba Allah via dr Dhiya"/>
+    <s v="Hamba Allah via dr Dhiya"/>
+    <x v="1"/>
+    <n v="1000000"/>
+    <m/>
+    <n v="23916000"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <d v="2017-04-26T00:00:00"/>
+    <s v="Hamba Allah Mantung"/>
+    <s v="Sudadi"/>
+    <x v="1"/>
+    <n v="350000"/>
+    <m/>
+    <n v="24266000"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J2:L7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Masuk" fld="5" baseField="0" baseItem="0" numFmtId="43"/>
+    <dataField name="Sum of Keluar" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,74 +1162,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="N2" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="26">
+        <v>397597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -599,8 +1278,15 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="19">
+        <v>7766000</v>
+      </c>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -624,8 +1310,15 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="20">
+        <v>16500000</v>
+      </c>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -649,8 +1342,13 @@
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -671,11 +1369,18 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
-        <f t="shared" ref="H7:H13" si="0">H6+F7-G7</f>
+        <f t="shared" ref="H7:H25" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="21">
+        <v>24266000</v>
+      </c>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -700,7 +1405,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -724,8 +1429,11 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="N9">
+        <v>-147597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -749,8 +1457,23 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -774,8 +1497,28 @@
         <f t="shared" si="0"/>
         <v>13466000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="28">
+        <f>GETPIVOTDATA("Sum of Masuk",$J$2)</f>
+        <v>24266000</v>
+      </c>
+      <c r="K11" s="28">
+        <f>Masjid!H24</f>
+        <v>28500000</v>
+      </c>
+      <c r="L11" s="28">
+        <f>J11+K11</f>
+        <v>52766000</v>
+      </c>
+      <c r="M11" s="28">
+        <f>47563597+1850000+3500000</f>
+        <v>52913597</v>
+      </c>
+      <c r="N11" s="28">
+        <f>L11-M11</f>
+        <v>-147597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -799,21 +1542,22 @@
         <f t="shared" si="0"/>
         <v>13516000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>42847</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4">
@@ -824,6 +1568,654 @@
         <f t="shared" si="0"/>
         <v>18516000</v>
       </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>42847</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>20516000</v>
+      </c>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7">
+        <v>42847</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>20566000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>42847</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>20766000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>42847</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <v>300000</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>21066000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7">
+        <v>42847</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4">
+        <v>500000</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>21566000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7">
+        <v>42847</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>21666000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7">
+        <v>42849</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4">
+        <v>200000</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>21866000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7">
+        <v>42850</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>500000</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>22366000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42851</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <v>50000</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>22416000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="27">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42851</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="28">
+        <v>500000</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29">
+        <f t="shared" si="0"/>
+        <v>22916000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="27">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42851</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="28">
+        <v>1000000</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28">
+        <f t="shared" si="0"/>
+        <v>23916000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="27">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>42851</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="28">
+        <v>350000</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28">
+        <f t="shared" si="0"/>
+        <v>24266000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="27">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="27">
+        <v>25</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="27">
+        <v>26</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="27">
+        <v>27</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="27">
+        <v>28</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="27">
+        <v>29</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="27">
+        <v>30</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42844</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>500000</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5">
+        <f>F4-G4</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42845</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5">
+        <f>H4+F5-G5</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42851</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25000000</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H7" si="0">H5+F6-G6</f>
+        <v>26500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42851</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>28500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
@@ -945,355 +2337,19 @@
       <c r="G23" s="4"/>
       <c r="H23" s="2"/>
     </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-  </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>42844</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
-        <v>500000</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5">
-        <f>F4-G4</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>42845</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5">
-        <f>H4+F5-G5</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
+    <row r="24" spans="1:8">
+      <c r="F24" s="32">
+        <f>SUM(F4:F23)</f>
+        <v>28500000</v>
+      </c>
+      <c r="G24" s="32">
+        <f>SUM(G4:G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
+        <f>F24-G24</f>
+        <v>28500000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Abdullah Tuyar Al-Atsari</t>
   </si>
   <si>
-    <t>Penggalangan Dana Pembangunan Kanopi Masjid Ibnu Taimiyah</t>
-  </si>
-  <si>
     <t>Abu Mas'ud Said</t>
   </si>
   <si>
@@ -168,6 +165,51 @@
   </si>
   <si>
     <t>Selisih</t>
+  </si>
+  <si>
+    <t>Iuran Mudarisat dan Santriwati Banat</t>
+  </si>
+  <si>
+    <t>Abu Zufar Helmi Efendi</t>
+  </si>
+  <si>
+    <t>Abdullah Sapto</t>
+  </si>
+  <si>
+    <t>Abu Musa Zakaria</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Abu Attar</t>
+  </si>
+  <si>
+    <t>Abu Umar Qudwah</t>
+  </si>
+  <si>
+    <t>Sholih Gatak</t>
+  </si>
+  <si>
+    <t>Abu Ihsan</t>
+  </si>
+  <si>
+    <t>Abu Yusuf Haryanto</t>
+  </si>
+  <si>
+    <t>Abu Ummar Qudwah</t>
+  </si>
+  <si>
+    <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
+  </si>
+  <si>
+    <t>Hendy Abu Hamzah</t>
+  </si>
+  <si>
+    <t>DP dan Belanja Kanopi</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk YUSTANTO DWIANTORO DP dan Belanja Kanopi</t>
   </si>
 </sst>
 </file>
@@ -209,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,6 +476,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,15 +489,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -458,7 +508,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tsic" refreshedDate="42852.540621527776" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="31">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tsic" refreshedDate="42856.208867361114" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="31">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:H150" sheet="Banin - Banat"/>
   </cacheSource>
@@ -467,7 +517,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
     </cacheField>
     <cacheField name="Tanggal" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-04-16T00:00:00" maxDate="2017-04-27T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-04-16T00:00:00" maxDate="2017-04-30T00:00:00"/>
     </cacheField>
     <cacheField name="Donatur / PIC" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -489,7 +539,7 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Saldo" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100000" maxValue="24266000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100000" maxValue="33269000"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
@@ -719,83 +769,83 @@
   </r>
   <r>
     <n v="23"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-28T00:00:00"/>
+    <s v="Iuran Mudarisat dan Santriwati Banat"/>
+    <s v="Iuran Mudarisat dan Santriwati Banat"/>
+    <x v="1"/>
+    <n v="4253000"/>
+    <m/>
+    <n v="28519000"/>
   </r>
   <r>
     <n v="24"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abdullah Sapto"/>
+    <x v="1"/>
+    <n v="500000"/>
+    <m/>
+    <n v="29019000"/>
   </r>
   <r>
     <n v="25"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abu Musa Zakaria"/>
+    <x v="1"/>
+    <n v="400000"/>
+    <m/>
+    <n v="29419000"/>
   </r>
   <r>
     <n v="26"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="Abdullah"/>
+    <s v="Abu Attar"/>
+    <x v="1"/>
+    <n v="500000"/>
+    <m/>
+    <n v="29919000"/>
   </r>
   <r>
     <n v="27"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abu Umar Qudwah"/>
+    <x v="1"/>
+    <n v="2000000"/>
+    <m/>
+    <n v="31919000"/>
   </r>
   <r>
     <n v="28"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Sholih Gatak"/>
+    <x v="1"/>
+    <n v="300000"/>
+    <m/>
+    <n v="32219000"/>
   </r>
   <r>
     <n v="29"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abu Ihsan"/>
+    <x v="1"/>
+    <n v="50000"/>
+    <m/>
+    <n v="32269000"/>
   </r>
   <r>
     <n v="30"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2017-04-29T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Abu Yusuf Haryanto"/>
+    <x v="0"/>
+    <n v="1000000"/>
+    <m/>
+    <n v="33269000"/>
   </r>
   <r>
     <m/>
@@ -811,7 +861,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J2:L7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -863,7 +913,7 @@
     <dataField name="Sum of Keluar" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1165,15 +1215,15 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
@@ -1185,16 +1235,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="8"/>
@@ -1202,18 +1252,18 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="8"/>
       <c r="J2" s="9"/>
       <c r="K2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="10"/>
       <c r="N2" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1242,13 +1292,13 @@
         <v>6</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="N3" s="26">
         <v>397597</v>
@@ -1282,9 +1332,13 @@
         <v>12</v>
       </c>
       <c r="K4" s="19">
-        <v>7766000</v>
+        <v>15769000</v>
       </c>
       <c r="L4" s="16"/>
+      <c r="N4" s="24">
+        <f>N3-250000</f>
+        <v>147597</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2">
@@ -1314,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="20">
-        <v>16500000</v>
+        <v>17500000</v>
       </c>
       <c r="L5" s="17"/>
     </row>
@@ -1343,7 +1397,7 @@
         <v>10600000</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="17"/>
@@ -1369,14 +1423,14 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5">
-        <f t="shared" ref="H7:H25" si="0">H6+F7-G7</f>
+        <f t="shared" ref="H7:H33" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="21">
-        <v>24266000</v>
+        <v>33269000</v>
       </c>
       <c r="L7" s="18"/>
     </row>
@@ -1429,7 +1483,7 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="23">
         <v>-147597</v>
       </c>
     </row>
@@ -1458,19 +1512,19 @@
         <v>12450000</v>
       </c>
       <c r="J10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="L10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="M10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="N10" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1499,23 +1553,23 @@
       </c>
       <c r="J11" s="28">
         <f>GETPIVOTDATA("Sum of Masuk",$J$2)</f>
-        <v>24266000</v>
+        <v>33269000</v>
       </c>
       <c r="K11" s="28">
         <f>Masjid!H24</f>
-        <v>28500000</v>
+        <v>6300000</v>
       </c>
       <c r="L11" s="28">
         <f>J11+K11</f>
-        <v>52766000</v>
+        <v>39569000</v>
       </c>
       <c r="M11" s="28">
-        <f>47563597+1850000+3500000</f>
-        <v>52913597</v>
+        <f>49813597+5000000+9803000</f>
+        <v>64616597</v>
       </c>
       <c r="N11" s="28">
         <f>L11-M11</f>
-        <v>-147597</v>
+        <v>-25047597</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1552,10 +1606,10 @@
         <v>42847</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>10</v>
@@ -1577,10 +1631,10 @@
         <v>42847</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -1603,10 +1657,10 @@
         <v>42847</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -1628,10 +1682,10 @@
         <v>42847</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -1644,8 +1698,11 @@
         <f t="shared" si="0"/>
         <v>20766000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="L16">
+        <v>47813597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1656,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1669,8 +1726,12 @@
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="L17" s="34">
+        <f>L11-L16</f>
+        <v>-8244597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1678,10 +1739,10 @@
         <v>42847</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -1695,7 +1756,7 @@
         <v>21566000</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1703,10 +1764,10 @@
         <v>42847</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -1720,7 +1781,7 @@
         <v>21666000</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1728,10 +1789,10 @@
         <v>42849</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>12</v>
@@ -1745,7 +1806,7 @@
         <v>21866000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1756,7 +1817,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1770,7 +1831,7 @@
         <v>22366000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1795,7 +1856,7 @@
         <v>22416000</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:12">
       <c r="A23" s="27">
         <v>20</v>
       </c>
@@ -1803,10 +1864,10 @@
         <v>42851</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>12</v>
@@ -1820,7 +1881,7 @@
         <v>22916000</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:12">
       <c r="A24" s="27">
         <v>21</v>
       </c>
@@ -1828,10 +1889,10 @@
         <v>42851</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>12</v>
@@ -1845,7 +1906,7 @@
         <v>23916000</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:12">
       <c r="A25" s="27">
         <v>22</v>
       </c>
@@ -1856,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>12</v>
@@ -1870,101 +1931,205 @@
         <v>24266000</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:12">
       <c r="A26" s="27">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="B26" s="3">
+        <v>42853</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="28">
+        <v>4253000</v>
+      </c>
       <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26" s="28">
+        <f t="shared" si="0"/>
+        <v>28519000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="27">
         <v>24</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="28">
+        <v>500000</v>
+      </c>
       <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="28">
+        <f t="shared" si="0"/>
+        <v>29019000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="27">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
+      <c r="B28" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="28">
+        <v>400000</v>
+      </c>
       <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28" s="28">
+        <f t="shared" si="0"/>
+        <v>29419000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="27">
         <v>26</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
+      <c r="B29" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="28">
+        <v>500000</v>
+      </c>
       <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29" s="28">
+        <f t="shared" si="0"/>
+        <v>29919000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="27">
         <v>27</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="28">
+        <v>2000000</v>
+      </c>
       <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="28">
+        <f t="shared" si="0"/>
+        <v>31919000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="27">
         <v>28</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="28">
+        <v>300000</v>
+      </c>
       <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="28">
+        <f t="shared" si="0"/>
+        <v>32219000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="27">
         <v>29</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="28">
+        <v>50000</v>
+      </c>
       <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
+      <c r="H32" s="28">
+        <f t="shared" si="0"/>
+        <v>32269000</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="27">
         <v>30</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
+      <c r="B33" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="28">
+        <v>1000000</v>
+      </c>
       <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+      <c r="H33" s="28">
+        <f t="shared" si="0"/>
+        <v>33269000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1981,69 +2146,70 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="35"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
@@ -2081,7 +2247,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -2106,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -2116,7 +2282,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H7" si="0">H5+F6-G6</f>
+        <f t="shared" ref="H6:H13" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
@@ -2128,10 +2294,10 @@
         <v>42851</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -2149,73 +2315,151 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="3">
+        <v>42853</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>250000</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>28750000</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>500000</v>
+      </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>29250000</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1000000</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>30250000</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="3">
+        <v>42854</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1000000</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>31250000</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="3">
+        <v>42855</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
+        <v>50000</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>31300000</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2">
+      <c r="A13" s="39">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
+      <c r="B13" s="40">
+        <v>42856</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41">
+        <v>25000000</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
@@ -2340,15 +2584,15 @@
     <row r="24" spans="1:8">
       <c r="F24" s="32">
         <f>SUM(F4:F23)</f>
-        <v>28500000</v>
+        <v>31300000</v>
       </c>
       <c r="G24" s="32">
         <f>SUM(G4:G23)</f>
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="H24" s="32">
         <f>F24-G24</f>
-        <v>28500000</v>
+        <v>6300000</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>TRANSFER KE Bpk YUSTANTO DWIANTORO DP dan Belanja Kanopi</t>
+  </si>
+  <si>
+    <t>Ummu Fathin/Hamzah</t>
+  </si>
+  <si>
+    <t>Ahmad Padang</t>
+  </si>
+  <si>
+    <t>Abu Mubarok Joko</t>
+  </si>
+  <si>
+    <t>Penjualan Sepeda</t>
+  </si>
+  <si>
+    <t>Abu Harits Aceh</t>
+  </si>
+  <si>
+    <t>Walisantri Syumailah 1A</t>
+  </si>
+  <si>
+    <t>Abu Hammim Risman</t>
   </si>
 </sst>
 </file>
@@ -251,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,8 +291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -418,12 +445,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,11 +470,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -456,9 +489,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -477,7 +507,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,16 +538,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -508,16 +556,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tsic" refreshedDate="42856.208867361114" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="31">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tsic" refreshedDate="42858.240451157406" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="36">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:H150" sheet="Banin - Banat"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
     </cacheField>
     <cacheField name="Tanggal" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-04-16T00:00:00" maxDate="2017-04-30T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2017-04-16T00:00:00" maxDate="2017-05-03T00:00:00"/>
     </cacheField>
     <cacheField name="Donatur / PIC" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -539,14 +587,14 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Saldo" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100000" maxValue="33269000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100000" maxValue="37169000"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
   <r>
     <n v="1"/>
     <d v="2017-04-16T00:00:00"/>
@@ -848,6 +896,56 @@
     <n v="33269000"/>
   </r>
   <r>
+    <n v="31"/>
+    <d v="2017-05-01T00:00:00"/>
+    <s v="Hamba Allah"/>
+    <s v="Ummu Fathin/Hamzah"/>
+    <x v="1"/>
+    <n v="500000"/>
+    <m/>
+    <n v="33769000"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <d v="2017-05-01T00:00:00"/>
+    <s v="Rosok "/>
+    <s v="Penjualan Sepeda"/>
+    <x v="1"/>
+    <n v="400000"/>
+    <m/>
+    <n v="34169000"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <d v="2017-05-02T00:00:00"/>
+    <s v="Walisantri Syumailah 1A"/>
+    <s v="Abu Harits Aceh"/>
+    <x v="0"/>
+    <n v="2500000"/>
+    <m/>
+    <n v="36669000"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <d v="2017-05-02T00:00:00"/>
+    <s v="Abu Hammim Risman"/>
+    <s v="Abu Hammim Risman"/>
+    <x v="0"/>
+    <n v="500000"/>
+    <m/>
+    <n v="37169000"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -861,7 +959,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J2:L7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -913,7 +1011,7 @@
     <dataField name="Sum of Keluar" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1212,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1228,6 +1326,7 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
@@ -1235,900 +1334,1000 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="36" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="36"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="7"/>
+      <c r="N2" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="22">
         <v>397597</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="38">
         <v>42841</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="24">
         <v>100000</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5">
+      <c r="G4" s="24"/>
+      <c r="H4" s="25">
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="19">
-        <v>15769000</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="N4" s="24">
+      <c r="J4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="16">
+        <v>16669000</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="N4" s="20">
         <f>N3-250000</f>
         <v>147597</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="38">
         <v>42842</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="24">
         <v>500000</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5">
+      <c r="G5" s="24"/>
+      <c r="H5" s="25">
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="20">
-        <v>17500000</v>
-      </c>
-      <c r="L5" s="17"/>
+      <c r="K5" s="17">
+        <v>20500000</v>
+      </c>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="38">
         <v>42844</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="24">
         <v>10000000</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5">
+      <c r="G6" s="24"/>
+      <c r="H6" s="25">
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="38">
         <v>42844</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="C7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="24">
         <v>1000000</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5">
-        <f t="shared" ref="H7:H33" si="0">H6+F7-G7</f>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25">
+        <f t="shared" ref="H7:H37" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
+        <v>37169000</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" s="38">
+        <v>42844</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="24">
+        <v>50000</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="38">
+        <v>42845</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="24">
+        <v>200000</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>11850000</v>
+      </c>
+      <c r="N9" s="19">
+        <v>-147597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="B10" s="38">
+        <v>42845</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24">
+        <v>600000</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>12450000</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="23">
+        <v>8</v>
+      </c>
+      <c r="B11" s="38">
+        <v>42845</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1016000</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25">
+        <f t="shared" si="0"/>
+        <v>13466000</v>
+      </c>
+      <c r="J11" s="24">
+        <f>GETPIVOTDATA("Sum of Masuk",$J$2)</f>
+        <v>37169000</v>
+      </c>
+      <c r="K11" s="24">
+        <f>Masjid!H24</f>
+        <v>7000000</v>
+      </c>
+      <c r="L11" s="24">
+        <f>J11+K11</f>
+        <v>44169000</v>
+      </c>
+      <c r="M11" s="24">
+        <f>25813597+18000000+150000+23000+25000</f>
+        <v>44011597</v>
+      </c>
+      <c r="N11" s="24">
+        <f>L11-M11</f>
+        <v>157403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="23">
+        <v>9</v>
+      </c>
+      <c r="B12" s="38">
+        <v>42846</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="24">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25">
+        <f t="shared" si="0"/>
+        <v>13516000</v>
+      </c>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="23">
+        <v>10</v>
+      </c>
+      <c r="B13" s="39">
+        <v>42847</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="24">
+        <v>5000000</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>18516000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="23">
+        <v>11</v>
+      </c>
+      <c r="B14" s="39">
+        <v>42847</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>20516000</v>
+      </c>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="23">
+        <v>12</v>
+      </c>
+      <c r="B15" s="39">
+        <v>42847</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="24">
+        <v>50000</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>20566000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="23">
+        <v>13</v>
+      </c>
+      <c r="B16" s="39">
+        <v>42847</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="24">
+        <v>200000</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25">
+        <f t="shared" si="0"/>
+        <v>20766000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="23">
+        <v>14</v>
+      </c>
+      <c r="B17" s="39">
+        <v>42847</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="24">
+        <v>300000</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>21066000</v>
+      </c>
+      <c r="L17" s="30"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="23">
+        <v>15</v>
+      </c>
+      <c r="B18" s="39">
+        <v>42847</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="24">
+        <v>500000</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25">
+        <f t="shared" si="0"/>
+        <v>21566000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="23">
+        <v>16</v>
+      </c>
+      <c r="B19" s="39">
+        <v>42847</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="24">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>21666000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="23">
+        <v>17</v>
+      </c>
+      <c r="B20" s="39">
+        <v>42849</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="24">
+        <v>200000</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25">
+        <f t="shared" si="0"/>
+        <v>21866000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="23">
+        <v>18</v>
+      </c>
+      <c r="B21" s="39">
+        <v>42850</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="24">
+        <v>500000</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25">
+        <f t="shared" si="0"/>
+        <v>22366000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="23">
+        <v>19</v>
+      </c>
+      <c r="B22" s="38">
+        <v>42851</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="24">
+        <v>50000</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25">
+        <f t="shared" si="0"/>
+        <v>22416000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="38">
+        <v>42851</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="24">
+        <v>500000</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25">
+        <f t="shared" si="0"/>
+        <v>22916000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="23">
+        <v>21</v>
+      </c>
+      <c r="B24" s="38">
+        <v>42851</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24">
+        <f t="shared" si="0"/>
+        <v>23916000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="23">
+        <v>22</v>
+      </c>
+      <c r="B25" s="38">
+        <v>42851</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="24">
+        <v>350000</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24">
+        <f t="shared" si="0"/>
+        <v>24266000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="23">
+        <v>23</v>
+      </c>
+      <c r="B26" s="38">
+        <v>42853</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="24">
+        <v>4253000</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24">
+        <f t="shared" si="0"/>
+        <v>28519000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="23">
+        <v>24</v>
+      </c>
+      <c r="B27" s="38">
+        <v>42854</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="24">
+        <v>500000</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24">
+        <f t="shared" si="0"/>
+        <v>29019000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="23">
+        <v>25</v>
+      </c>
+      <c r="B28" s="38">
+        <v>42854</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="24">
+        <v>400000</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24">
+        <f t="shared" si="0"/>
+        <v>29419000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="23">
+        <v>26</v>
+      </c>
+      <c r="B29" s="38">
+        <v>42854</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="24">
+        <v>500000</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24">
+        <f t="shared" si="0"/>
+        <v>29919000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="23">
+        <v>27</v>
+      </c>
+      <c r="B30" s="38">
+        <v>42854</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24">
+        <f t="shared" si="0"/>
+        <v>31919000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="23">
+        <v>28</v>
+      </c>
+      <c r="B31" s="38">
+        <v>42854</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="24">
+        <v>300000</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24">
+        <f t="shared" si="0"/>
+        <v>32219000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="23">
+        <v>29</v>
+      </c>
+      <c r="B32" s="38">
+        <v>42854</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="24">
+        <v>50000</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24">
+        <f t="shared" si="0"/>
+        <v>32269000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="23">
+        <v>30</v>
+      </c>
+      <c r="B33" s="38">
+        <v>42854</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24">
+        <f t="shared" si="0"/>
         <v>33269000</v>
       </c>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>42844</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4">
-        <v>50000</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>11650000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>42845</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>11850000</v>
-      </c>
-      <c r="N9" s="23">
-        <v>-147597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>42845</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4">
-        <v>600000</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>12450000</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>42845</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="41">
+        <v>31</v>
+      </c>
+      <c r="B34" s="38">
+        <v>42856</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="42">
+        <v>500000</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24">
+        <f t="shared" si="0"/>
+        <v>33769000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="41">
+        <v>32</v>
+      </c>
+      <c r="B35" s="38">
+        <v>42856</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1016000</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>13466000</v>
-      </c>
-      <c r="J11" s="28">
-        <f>GETPIVOTDATA("Sum of Masuk",$J$2)</f>
-        <v>33269000</v>
-      </c>
-      <c r="K11" s="28">
-        <f>Masjid!H24</f>
-        <v>6300000</v>
-      </c>
-      <c r="L11" s="28">
-        <f>J11+K11</f>
-        <v>39569000</v>
-      </c>
-      <c r="M11" s="28">
-        <f>49813597+5000000+9803000</f>
-        <v>64616597</v>
-      </c>
-      <c r="N11" s="28">
-        <f>L11-M11</f>
-        <v>-25047597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>42846</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D35" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="42">
+        <v>400000</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24">
+        <f t="shared" si="0"/>
+        <v>34169000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="41">
+        <v>33</v>
+      </c>
+      <c r="B36" s="38">
+        <v>42857</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
-        <v>50000</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>13516000</v>
-      </c>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2">
+      <c r="F36" s="42">
+        <v>2500000</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24">
+        <f t="shared" si="0"/>
+        <v>36669000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="41">
+        <v>34</v>
+      </c>
+      <c r="B37" s="38">
+        <v>42857</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <v>42847</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>5000000</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>18516000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7">
-        <v>42847</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2000000</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>20516000</v>
-      </c>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7">
-        <v>42847</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4">
-        <v>50000</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5">
-        <f t="shared" si="0"/>
-        <v>20566000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>42847</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>20766000</v>
-      </c>
-      <c r="L16">
-        <v>47813597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7">
-        <v>42847</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <v>300000</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5">
-        <f t="shared" si="0"/>
-        <v>21066000</v>
-      </c>
-      <c r="L17" s="34">
-        <f>L11-L16</f>
-        <v>-8244597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7">
-        <v>42847</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="F37" s="24">
         <v>500000</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>21566000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7">
-        <v>42847</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4">
-        <v>100000</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>21666000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7">
-        <v>42849</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="4">
-        <v>200000</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>21866000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7">
-        <v>42850</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4">
-        <v>500000</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>22366000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>42851</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4">
-        <v>50000</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>22416000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="27">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>42851</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="28">
-        <v>500000</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29">
-        <f t="shared" si="0"/>
-        <v>22916000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="27">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>42851</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="28">
-        <v>1000000</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28">
-        <f t="shared" si="0"/>
-        <v>23916000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="27">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>42851</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="28">
-        <v>350000</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28">
-        <f t="shared" si="0"/>
-        <v>24266000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="27">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>42853</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="28">
-        <v>4253000</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28">
-        <f t="shared" si="0"/>
-        <v>28519000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>42854</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="28">
-        <v>500000</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28">
-        <f t="shared" si="0"/>
-        <v>29019000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="27">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
-        <v>42854</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="28">
-        <v>400000</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28">
-        <f t="shared" si="0"/>
-        <v>29419000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="27">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3">
-        <v>42854</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="28">
-        <v>500000</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28">
-        <f t="shared" si="0"/>
-        <v>29919000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="27">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3">
-        <v>42854</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="28">
-        <v>2000000</v>
-      </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28">
-        <f t="shared" si="0"/>
-        <v>31919000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="27">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3">
-        <v>42854</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="28">
-        <v>300000</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28">
-        <f t="shared" si="0"/>
-        <v>32219000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="27">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3">
-        <v>42854</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="28">
-        <v>50000</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28">
-        <f t="shared" si="0"/>
-        <v>32269000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="27">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3">
-        <v>42854</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="28">
-        <v>1000000</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28">
-        <f t="shared" si="0"/>
-        <v>33269000</v>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24">
+        <f t="shared" si="0"/>
+        <v>37169000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2146,14 +2345,14 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
@@ -2162,54 +2361,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
@@ -2282,7 +2481,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:H13" si="0">H5+F6-G6</f>
+        <f t="shared" ref="H6:H20" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
@@ -2437,26 +2636,26 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="39">
+      <c r="A13" s="31">
         <v>10</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="32">
         <v>42856</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33">
         <v>25000000</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="35">
         <f t="shared" si="0"/>
         <v>6300000</v>
       </c>
@@ -2465,37 +2664,76 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="3">
+        <v>42856</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100000</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="35">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="3">
+        <v>42856</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4">
+        <v>100000</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="35">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="38">
+        <v>42857</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>500000</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="35">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
@@ -2507,7 +2745,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="35">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
@@ -2519,7 +2760,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="35">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
@@ -2531,7 +2775,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="35">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
@@ -2543,7 +2790,10 @@
       <c r="E20" s="2"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="35">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
@@ -2582,17 +2832,17 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="F24" s="32">
+      <c r="F24" s="28">
         <f>SUM(F4:F23)</f>
-        <v>31300000</v>
-      </c>
-      <c r="G24" s="32">
+        <v>32000000</v>
+      </c>
+      <c r="G24" s="28">
         <f>SUM(G4:G23)</f>
         <v>25000000</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="28">
         <f>F24-G24</f>
-        <v>6300000</v>
+        <v>7000000</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -203,6 +203,9 @@
     <t>Abu Hammim Risman</t>
   </si>
   <si>
+    <t>Hamba Allah via Abu Thalhah</t>
+  </si>
+  <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
   </si>
   <si>
@@ -228,6 +231,9 @@
   </si>
   <si>
     <t>Abu Mubarok Joko</t>
+  </si>
+  <si>
+    <t>Abu Muhammad</t>
   </si>
   <si>
     <t>Abu Muhammad Salafy</t>
@@ -238,9 +244,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -262,6 +268,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -269,14 +282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,15 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,9 +319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,11 +334,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,9 +352,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,25 +390,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,13 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -438,7 +444,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,25 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,152 +628,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -670,17 +676,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -840,6 +835,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -873,17 +879,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -908,7 +903,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -924,130 +919,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,31 +1076,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1902,10 +1897,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2112,7 +2107,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8">
-        <f t="shared" ref="H7:H38" si="0">H6+F7-G7</f>
+        <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
       <c r="J7" s="35" t="s">
@@ -2247,11 +2242,11 @@
       </c>
       <c r="K11" s="7">
         <f>Masjid!H24</f>
-        <v>7550000</v>
+        <v>7600000</v>
       </c>
       <c r="L11" s="7">
         <f>J11+K11</f>
-        <v>44719000</v>
+        <v>44769000</v>
       </c>
       <c r="M11" s="7">
         <f>44363597+178000+30000+150000</f>
@@ -2259,7 +2254,7 @@
       </c>
       <c r="N11" s="7">
         <f>L11-M11</f>
-        <v>-2597</v>
+        <v>47403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2916,28 +2911,53 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>35</v>
       </c>
       <c r="B38" s="6">
-        <v>42858</v>
-      </c>
-      <c r="C38" s="20" t="s">
+        <v>42859</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="20">
+      <c r="E38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5">
         <v>100000</v>
       </c>
-      <c r="G38" s="20"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
         <v>37269000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="19">
+        <v>36</v>
+      </c>
+      <c r="B39" s="20">
+        <v>42860</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="19">
+        <v>50000</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="7">
+        <f t="shared" si="0"/>
+        <v>37319000</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2977,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2972,7 +2992,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3081,7 +3101,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3131,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -3181,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -3231,7 +3251,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
@@ -3253,13 +3273,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -3281,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>15</v>
@@ -3306,7 +3326,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
@@ -3353,10 +3373,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -3375,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>45</v>
@@ -3399,15 +3419,25 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="6">
+        <v>42860</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7">
+        <v>50000</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="12">
         <f t="shared" si="0"/>
-        <v>7550000</v>
+        <v>7600000</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3422,7 +3452,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="12">
         <f t="shared" si="0"/>
-        <v>7550000</v>
+        <v>7600000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3464,7 +3494,7 @@
     <row r="24" spans="6:8">
       <c r="F24" s="13">
         <f>SUM(F4:F23)</f>
-        <v>32550000</v>
+        <v>32600000</v>
       </c>
       <c r="G24" s="13">
         <f>SUM(G4:G23)</f>
@@ -3472,7 +3502,7 @@
       </c>
       <c r="H24" s="13">
         <f>F24-G24</f>
-        <v>7550000</v>
+        <v>7600000</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Hamba Allah via Abu Thalhah</t>
+  </si>
+  <si>
+    <t>Abu Zain Cilacap</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -244,11 +247,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -268,21 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,15 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -313,14 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,17 +307,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +340,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +358,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,6 +394,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,7 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +483,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,31 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,121 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,41 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -873,6 +841,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,14 +883,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,134 +922,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,22 +1065,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1111,7 +1115,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1897,10 +1901,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1941,12 +1945,12 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="14"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="N2" s="24" t="s">
+      <c r="L2" s="24"/>
+      <c r="N2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1975,16 +1979,16 @@
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="28">
         <v>397597</v>
       </c>
     </row>
@@ -2012,14 +2016,14 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="30">
         <v>16669000</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="N4" s="31">
+      <c r="L4" s="31"/>
+      <c r="N4" s="32">
         <f>N3-250000</f>
         <v>147597</v>
       </c>
@@ -2048,13 +2052,13 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="34">
         <v>20500000</v>
       </c>
-      <c r="L5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5">
@@ -2080,11 +2084,11 @@
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5">
@@ -2110,14 +2114,14 @@
         <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="37">
         <v>37169000</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="N7" s="31"/>
+      <c r="L7" s="38"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5">
@@ -2168,7 +2172,7 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="39">
         <v>-147597</v>
       </c>
     </row>
@@ -2196,19 +2200,19 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="42" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2281,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>13516000</v>
       </c>
-      <c r="N12" s="38"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5">
@@ -2332,7 +2336,7 @@
         <f t="shared" si="0"/>
         <v>20516000</v>
       </c>
-      <c r="N14" s="31"/>
+      <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
@@ -2408,7 +2412,7 @@
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-      <c r="L17" s="42"/>
+      <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5">
@@ -2926,7 +2930,7 @@
       <c r="E38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="19">
         <v>100000</v>
       </c>
       <c r="G38" s="5"/>
@@ -2936,28 +2940,222 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="6">
         <v>42860</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F39" s="19">
         <v>50000</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="7">
         <f t="shared" si="0"/>
         <v>37319000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6">
+        <v>42860</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="7">
+        <f t="shared" ref="H40:H53" si="1">H39+F40-G40</f>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>39319000</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +3190,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3101,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3151,7 +3349,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -3201,7 +3399,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -3251,7 +3449,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
@@ -3273,13 +3471,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -3301,7 +3499,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>15</v>
@@ -3326,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
@@ -3373,10 +3571,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Abu Haidar</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -209,6 +206,15 @@
     <t>Abu Zain Cilacap</t>
   </si>
   <si>
+    <t>Hasan Windan</t>
+  </si>
+  <si>
+    <t>Abu Amjad</t>
+  </si>
+  <si>
+    <t>Mbah Srini,Sufyan,Zai</t>
+  </si>
+  <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
   </si>
   <si>
@@ -240,6 +246,9 @@
   </si>
   <si>
     <t>Abu Muhammad Salafy</t>
+  </si>
+  <si>
+    <t>Abu Ahmad Sutris</t>
   </si>
 </sst>
 </file>
@@ -247,11 +256,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -279,7 +288,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,8 +316,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,22 +358,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,15 +377,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,37 +417,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +486,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,163 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +781,7 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="65"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -785,7 +794,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="65"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -798,10 +807,25 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="65"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,30 +841,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,24 +862,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,22 +882,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,134 +931,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1065,23 +1074,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1115,7 +1126,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,7 +1184,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" enableRefresh="1" refreshedBy="tsic" refreshedDate="42859.2344212963" recordCount="36">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" enableRefresh="1" refreshedBy="tsic" refreshedDate="42863.2158564815" recordCount="36">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:H39" sheet="Banin - Banat"/>
   </cacheSource>
@@ -1540,30 +1551,30 @@
   </r>
   <r>
     <n v="35"/>
+    <d v="2017-05-04T00:00:00"/>
+    <s v="Hamba Allah via dr Dhiya"/>
+    <s v="Hamba Allah via dr Dhiya"/>
+    <x v="1"/>
+    <n v="100000"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="37269000"/>
   </r>
   <r>
+    <n v="36"/>
+    <d v="2017-05-05T00:00:00"/>
+    <s v="Hamba Allah via Abu Thalhah"/>
+    <s v="Hamba Allah via Abu Thalhah"/>
+    <x v="1"/>
+    <n v="50000"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="37319000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataPosition="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" useAutoFormatting="1" compact="0" compactData="0" gridDropZones="1">
-  <location ref="J2:L7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="J2:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
@@ -1584,15 +1595,12 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -1903,8 +1911,8 @@
   <sheetPr/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1935,39 +1943,39 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="14"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
+      <c r="H2" s="15"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="L2" s="26"/>
+      <c r="N2" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1979,16 +1987,16 @@
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="30">
         <v>397597</v>
       </c>
     </row>
@@ -2016,14 +2024,14 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="30">
-        <v>16669000</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="N4" s="32">
+      <c r="J4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="32">
+        <v>16819000</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="N4" s="34">
         <f>N3-250000</f>
         <v>147597</v>
       </c>
@@ -2052,13 +2060,13 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="36">
         <v>20500000</v>
       </c>
-      <c r="L5" s="35"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="5">
@@ -2084,11 +2092,13 @@
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
+      <c r="K6" s="39">
+        <v>37319000</v>
+      </c>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5">
@@ -2114,14 +2124,7 @@
         <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="37">
-        <v>37169000</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="N7" s="32"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5">
@@ -2131,10 +2134,10 @@
         <v>42844</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>15</v>
@@ -2156,10 +2159,10 @@
         <v>42845</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
@@ -2172,7 +2175,7 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="41">
         <v>-147597</v>
       </c>
     </row>
@@ -2187,7 +2190,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -2200,20 +2203,20 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="L10" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="M10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="41" t="s">
+      <c r="N10" s="44" t="s">
         <v>25</v>
-      </c>
-      <c r="N10" s="42" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2224,10 +2227,10 @@
         <v>42845</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>15</v>
@@ -2242,15 +2245,15 @@
       </c>
       <c r="J11" s="7">
         <f>GETPIVOTDATA("Sum of Masuk",$J$2)</f>
-        <v>37169000</v>
+        <v>37319000</v>
       </c>
       <c r="K11" s="7">
         <f>Masjid!H24</f>
-        <v>7600000</v>
+        <v>8112000</v>
       </c>
       <c r="L11" s="7">
         <f>J11+K11</f>
-        <v>44769000</v>
+        <v>45431000</v>
       </c>
       <c r="M11" s="7">
         <f>44363597+178000+30000+150000</f>
@@ -2258,7 +2261,7 @@
       </c>
       <c r="N11" s="7">
         <f>L11-M11</f>
-        <v>47403</v>
+        <v>709403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2272,7 +2275,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>14</v>
@@ -2285,22 +2288,22 @@
         <f t="shared" si="0"/>
         <v>13516000</v>
       </c>
-      <c r="N12" s="39"/>
+      <c r="N12" s="41"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>42847</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7">
@@ -2316,14 +2319,14 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>42847</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>15</v>
@@ -2336,20 +2339,20 @@
         <f t="shared" si="0"/>
         <v>20516000</v>
       </c>
-      <c r="N14" s="32"/>
+      <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>42847</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
@@ -2367,14 +2370,14 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <v>42847</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>15</v>
@@ -2392,14 +2395,14 @@
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>42847</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -2412,20 +2415,20 @@
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>42847</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>15</v>
@@ -2443,14 +2446,14 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="16">
         <v>42847</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>15</v>
@@ -2468,14 +2471,14 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>42849</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>15</v>
@@ -2493,14 +2496,14 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="16">
         <v>42850</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>14</v>
@@ -2525,7 +2528,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>14</v>
@@ -2547,10 +2550,10 @@
         <v>42851</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>15</v>
@@ -2572,10 +2575,10 @@
         <v>42851</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>15</v>
@@ -2597,10 +2600,10 @@
         <v>42851</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>15</v>
@@ -2622,10 +2625,10 @@
         <v>42853</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>15</v>
@@ -2650,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>15</v>
@@ -2675,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>15</v>
@@ -2697,10 +2700,10 @@
         <v>42854</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>15</v>
@@ -2725,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>15</v>
@@ -2750,7 +2753,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>15</v>
@@ -2775,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>15</v>
@@ -2800,7 +2803,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>14</v>
@@ -2815,22 +2818,22 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17">
+      <c r="A34" s="18">
         <v>31</v>
       </c>
       <c r="B34" s="6">
         <v>42856</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="18">
+      <c r="D34" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="19">
         <v>500000</v>
       </c>
       <c r="G34" s="5"/>
@@ -2840,22 +2843,22 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17">
+      <c r="A35" s="18">
         <v>32</v>
       </c>
       <c r="B35" s="6">
         <v>42856</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="C35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="19">
         <v>400000</v>
       </c>
       <c r="G35" s="5"/>
@@ -2865,22 +2868,22 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17">
+      <c r="A36" s="18">
         <v>33</v>
       </c>
       <c r="B36" s="6">
         <v>42857</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>2500000</v>
       </c>
       <c r="G36" s="5"/>
@@ -2890,17 +2893,17 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="17">
+      <c r="A37" s="18">
         <v>34</v>
       </c>
       <c r="B37" s="6">
         <v>42857</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>14</v>
@@ -2915,22 +2918,22 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="17">
+      <c r="A38" s="18">
         <v>35</v>
       </c>
       <c r="B38" s="6">
         <v>42859</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="13">
         <v>100000</v>
       </c>
       <c r="G38" s="5"/>
@@ -2947,15 +2950,15 @@
         <v>42860</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="13">
         <v>50000</v>
       </c>
       <c r="G39" s="5"/>
@@ -2965,197 +2968,259 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="5">
+      <c r="A40" s="20">
         <v>37</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="21">
         <v>42860</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="22">
         <v>2000000</v>
       </c>
       <c r="G40" s="20"/>
-      <c r="H40" s="7">
+      <c r="H40" s="23">
         <f t="shared" ref="H40:H53" si="1">H39+F40-G40</f>
         <v>39319000</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20"/>
+      <c r="A41" s="5">
+        <v>38</v>
+      </c>
+      <c r="B41" s="6">
+        <v>42861</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="13">
+        <v>25000</v>
+      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39344000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
+      <c r="A42" s="5">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6">
+        <v>42861</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="13">
+        <v>35000</v>
+      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39379000</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
+      <c r="A43" s="5">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42861</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="13">
+        <v>150000</v>
+      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39529000</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
+      <c r="A44" s="5">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6">
+        <v>42862</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="13">
+        <v>12000</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20"/>
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20"/>
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20"/>
+      <c r="A47" s="5">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20"/>
+      <c r="A48" s="5">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20"/>
+      <c r="A49" s="5">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20"/>
+      <c r="A50" s="5">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
+      <c r="A51" s="5">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="7">
         <f t="shared" si="1"/>
-        <v>39319000</v>
+        <v>39541000</v>
       </c>
     </row>
   </sheetData>
@@ -3174,8 +3239,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3190,7 +3255,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3274,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>15</v>
@@ -3299,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3321,10 +3386,10 @@
         <v>42851</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
@@ -3349,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -3371,10 +3436,10 @@
         <v>42854</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
@@ -3399,7 +3464,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -3424,7 +3489,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>14</v>
@@ -3449,7 +3514,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
@@ -3471,13 +3536,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -3499,7 +3564,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>15</v>
@@ -3524,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
@@ -3546,10 +3611,10 @@
         <v>42857</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>14</v>
@@ -3571,10 +3636,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -3596,10 +3661,10 @@
         <v>42859</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>15</v>
@@ -3621,10 +3686,10 @@
         <v>42860</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>15</v>
@@ -3642,28 +3707,51 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="6">
+        <v>42861</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7">
+        <v>500000</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="12">
         <f t="shared" si="0"/>
-        <v>7600000</v>
+        <v>8100000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
+      <c r="B21" s="6">
+        <v>42862</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="13">
+        <v>12000</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="12">
+        <f>H20+F21-G21</f>
+        <v>8112000</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5">
@@ -3690,17 +3778,17 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="6:8">
-      <c r="F24" s="13">
+      <c r="F24" s="14">
         <f>SUM(F4:F23)</f>
-        <v>32600000</v>
-      </c>
-      <c r="G24" s="13">
+        <v>33112000</v>
+      </c>
+      <c r="G24" s="14">
         <f>SUM(G4:G23)</f>
         <v>25000000</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="14">
         <f>F24-G24</f>
-        <v>7600000</v>
+        <v>8112000</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>Mbah Srini,Sufyan,Zai</t>
+  </si>
+  <si>
+    <t>Hamba Allah via Abu Dzaki</t>
+  </si>
+  <si>
+    <t>Abu Azzam Pati</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -257,9 +263,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -286,9 +292,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +338,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -309,8 +353,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,14 +379,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,37 +387,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,17 +401,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,16 +422,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +462,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,25 +558,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,25 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,109 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,17 +821,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,40 +871,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,10 +900,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -931,130 +937,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1911,15 +1917,16 @@
   <sheetPr/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="34.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="34.2857142857143" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -3096,15 +3103,25 @@
       <c r="A45" s="5">
         <v>42</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="13"/>
+      <c r="B45" s="6">
+        <v>42863</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="13">
+        <v>10000000</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3119,7 +3136,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3134,7 +3151,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3149,7 +3166,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3164,7 +3181,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3179,7 +3196,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3194,7 +3211,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3207,7 +3224,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3220,7 +3237,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="7">
         <f t="shared" si="1"/>
-        <v>39541000</v>
+        <v>49541000</v>
       </c>
     </row>
   </sheetData>
@@ -3239,7 +3256,7 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -3255,7 +3272,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3364,7 +3381,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
@@ -3374,7 +3391,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:H20" si="0">H5+F6-G6</f>
+        <f t="shared" ref="H6:H21" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
@@ -3414,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -3464,7 +3481,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -3514,7 +3531,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
@@ -3536,13 +3553,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -3564,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>15</v>
@@ -3589,7 +3606,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
@@ -3636,10 +3653,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>14</v>
@@ -3714,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>15</v>
@@ -3749,7 +3766,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="12">
-        <f>H20+F21-G21</f>
+        <f t="shared" si="0"/>
         <v>8112000</v>
       </c>
     </row>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Donatur / PIC</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
     <t>Nominal</t>
   </si>
   <si>
@@ -32,18 +44,6 @@
     <t>Saldo Pribadi</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Donatur / PIC</t>
-  </si>
-  <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
     <t>Masuk</t>
   </si>
   <si>
@@ -221,6 +221,18 @@
     <t>Abu Azzam Pati</t>
   </si>
   <si>
+    <t>Ummu Sufyan</t>
+  </si>
+  <si>
+    <t>Abu Zuhair Sa'da (Dibungkus Tisu)</t>
+  </si>
+  <si>
+    <t>Ahmad Padang</t>
+  </si>
+  <si>
+    <t>Abu Hambali</t>
+  </si>
+  <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
   </si>
   <si>
@@ -242,9 +254,6 @@
     <t>DP dan Belanja Kanopi</t>
   </si>
   <si>
-    <t>Ahmad Padang</t>
-  </si>
-  <si>
     <t>Abu Mubarok Joko</t>
   </si>
   <si>
@@ -255,6 +264,15 @@
   </si>
   <si>
     <t>Abu Ahmad Sutris</t>
+  </si>
+  <si>
+    <t>Ronald Yusuf</t>
+  </si>
+  <si>
+    <t>Al Ghuroba</t>
+  </si>
+  <si>
+    <t>Hamba Allah via Abu Umamah</t>
   </si>
 </sst>
 </file>
@@ -263,10 +281,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -292,6 +310,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -308,87 +341,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,9 +357,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -422,8 +401,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,7 +480,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,19 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,55 +636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,90 +660,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -704,24 +722,13 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -742,6 +749,28 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -821,6 +850,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -837,51 +881,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,10 +917,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -937,159 +966,186 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1099,29 +1155,29 @@
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1917,17 +1973,16 @@
   <sheetPr/>
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:H45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="34.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="34.2857142857143" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1428571428571" customWidth="1"/>
+    <col min="3" max="4" width="34.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
@@ -1938,1312 +1993,1356 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="2" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="15"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="N2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="N2" s="36" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="39">
         <v>397597</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>42841</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>100000</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11">
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="32">
+      <c r="J4" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="41">
         <v>16819000</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="N4" s="34">
+      <c r="L4" s="42"/>
+      <c r="N4" s="43">
         <f>N3-250000</f>
         <v>147597</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>42842</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>500000</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="G5" s="10"/>
+      <c r="H5" s="11">
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="45">
         <v>20500000</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>42844</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>10000000</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8">
+      <c r="G6" s="10"/>
+      <c r="H6" s="11">
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="48">
         <v>37319000</v>
       </c>
-      <c r="L6" s="40"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>42844</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10">
         <v>1000000</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8">
+      <c r="G7" s="10"/>
+      <c r="H7" s="11">
         <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-      <c r="N7" s="34"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>42844</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10">
         <v>50000</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8">
+      <c r="G8" s="10"/>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>11650000</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>42845</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10">
         <v>200000</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="50">
         <v>-147597</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>42845</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10">
         <v>600000</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8">
+      <c r="G10" s="10"/>
+      <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="44" t="s">
+      <c r="N10" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>42845</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10">
         <v>1016000</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8">
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
         <f t="shared" si="0"/>
         <v>13466000</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="10">
         <f>GETPIVOTDATA("Sum of Masuk",$J$2)</f>
         <v>37319000</v>
       </c>
-      <c r="K11" s="7">
-        <f>Masjid!H24</f>
-        <v>8112000</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="K11" s="10">
+        <f>Masjid!H34</f>
+        <v>8697200</v>
+      </c>
+      <c r="L11" s="10">
         <f>J11+K11</f>
-        <v>45431000</v>
-      </c>
-      <c r="M11" s="7">
+        <v>46016200</v>
+      </c>
+      <c r="M11" s="10">
         <f>44363597+178000+30000+150000</f>
         <v>44721597</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="10">
         <f>L11-M11</f>
-        <v>709403</v>
+        <v>1294603</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>42846</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="10">
         <v>50000</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8">
+      <c r="G12" s="10"/>
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>13516000</v>
       </c>
-      <c r="N12" s="41"/>
+      <c r="N12" s="50"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="25">
         <v>42847</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="10">
         <v>5000000</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8">
+      <c r="G13" s="10"/>
+      <c r="H13" s="11">
         <f t="shared" si="0"/>
         <v>18516000</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="25">
         <v>42847</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10">
         <v>2000000</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11">
         <f t="shared" si="0"/>
         <v>20516000</v>
       </c>
-      <c r="N14" s="34"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="25">
         <v>42847</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10">
         <v>50000</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11">
         <f t="shared" si="0"/>
         <v>20566000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="16">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="25">
         <v>42847</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10">
         <v>200000</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8">
+      <c r="G16" s="10"/>
+      <c r="H16" s="11">
         <f t="shared" si="0"/>
         <v>20766000</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="25">
         <v>42847</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="10">
         <v>300000</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8">
+      <c r="G17" s="10"/>
+      <c r="H17" s="11">
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-      <c r="L17" s="45"/>
+      <c r="L17" s="54"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25">
         <v>42847</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="10">
         <v>500000</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8">
+      <c r="G18" s="10"/>
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
         <v>21566000</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="25">
         <v>42847</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10">
         <v>100000</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8">
+      <c r="G19" s="10"/>
+      <c r="H19" s="11">
         <f t="shared" si="0"/>
         <v>21666000</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="25">
         <v>42849</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10">
         <v>200000</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8">
+      <c r="G20" s="10"/>
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
         <v>21866000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="25">
         <v>42850</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="10">
         <v>500000</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>22366000</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>42851</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="10">
         <v>50000</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8">
+      <c r="G22" s="10"/>
+      <c r="H22" s="11">
         <f t="shared" si="0"/>
         <v>22416000</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="8">
         <v>42851</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10">
         <v>500000</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8">
+      <c r="G23" s="10"/>
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
         <v>22916000</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <v>42851</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10">
         <v>1000000</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>23916000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="8">
         <v>42851</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10">
         <v>350000</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>24266000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="8">
         <v>42853</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="10">
         <v>4253000</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>28519000</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="8">
         <v>42854</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10">
         <v>500000</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>29019000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="8">
         <v>42854</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10">
         <v>400000</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <f t="shared" si="0"/>
         <v>29419000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="8">
         <v>42854</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10">
         <v>500000</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>29919000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5">
+      <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="8">
         <v>42854</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="10">
         <v>2000000</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>31919000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5">
+      <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="8">
         <v>42854</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="E31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="10">
         <v>300000</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
         <f t="shared" si="0"/>
         <v>32219000</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5">
+      <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="8">
         <v>42854</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="10">
         <v>50000</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
         <f t="shared" si="0"/>
         <v>32269000</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5">
+      <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="8">
         <v>42854</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="10">
         <v>1000000</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
         <f t="shared" si="0"/>
         <v>33269000</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="18">
+      <c r="A34" s="27">
         <v>31</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="8">
         <v>42856</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="19">
+      <c r="E34" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="28">
         <v>500000</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="7">
+      <c r="G34" s="7"/>
+      <c r="H34" s="10">
         <f t="shared" si="0"/>
         <v>33769000</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="18">
+      <c r="A35" s="27">
         <v>32</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="8">
         <v>42856</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="E35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="28">
         <v>400000</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7">
+      <c r="G35" s="7"/>
+      <c r="H35" s="10">
         <f t="shared" si="0"/>
         <v>34169000</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="18">
+      <c r="A36" s="27">
         <v>33</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="8">
         <v>42857</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="28">
         <v>2500000</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7">
+      <c r="G36" s="7"/>
+      <c r="H36" s="10">
         <f t="shared" si="0"/>
         <v>36669000</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="18">
+      <c r="A37" s="27">
         <v>34</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="8">
         <v>42857</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="10">
         <v>500000</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7">
+      <c r="G37" s="7"/>
+      <c r="H37" s="10">
         <f t="shared" si="0"/>
         <v>37169000</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="18">
+      <c r="A38" s="27">
         <v>35</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="8">
         <v>42859</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="E38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="18">
         <v>100000</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="7">
+      <c r="G38" s="7"/>
+      <c r="H38" s="10">
         <f t="shared" si="0"/>
         <v>37269000</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="5">
+      <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="8">
         <v>42860</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="13">
+      <c r="E39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="18">
         <v>50000</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="7">
+      <c r="G39" s="7"/>
+      <c r="H39" s="10">
         <f t="shared" si="0"/>
         <v>37319000</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="20">
+      <c r="A40" s="29">
         <v>37</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="30">
         <v>42860</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="31">
         <v>2000000</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="23">
+      <c r="G40" s="29"/>
+      <c r="H40" s="32">
         <f t="shared" ref="H40:H53" si="1">H39+F40-G40</f>
         <v>39319000</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="5">
+      <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="8">
         <v>42861</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="E41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="18">
         <v>25000</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="7">
+      <c r="G41" s="7"/>
+      <c r="H41" s="10">
         <f t="shared" si="1"/>
         <v>39344000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="5">
+      <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="8">
         <v>42861</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="18">
         <v>35000</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="7">
+      <c r="G42" s="7"/>
+      <c r="H42" s="10">
         <f t="shared" si="1"/>
         <v>39379000</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="5">
+      <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="8">
         <v>42861</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="13">
+      <c r="E43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="18">
         <v>150000</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="7">
+      <c r="G43" s="7"/>
+      <c r="H43" s="10">
         <f t="shared" si="1"/>
         <v>39529000</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="5">
+      <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="8">
         <v>42862</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="13">
+      <c r="E44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="18">
         <v>12000</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="7">
+      <c r="G44" s="7"/>
+      <c r="H44" s="10">
         <f t="shared" si="1"/>
         <v>39541000</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="5">
+      <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="8">
         <v>42863</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="E45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="18">
         <v>10000000</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="7">
+      <c r="G45" s="7"/>
+      <c r="H45" s="10">
         <f t="shared" si="1"/>
         <v>49541000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5">
+      <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="7">
+      <c r="B46" s="8">
+        <v>42864</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="18">
+        <v>50000</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>49591000</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="5">
+      <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="7">
+      <c r="B47" s="8">
+        <v>42865</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="18">
+        <v>500000</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>50091000</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="5">
+      <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="7">
+      <c r="B48" s="8">
+        <v>42865</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="18">
+        <v>155000</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>50246000</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="5">
+      <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="7">
+      <c r="B49" s="8">
+        <v>42865</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="18">
+        <v>250000</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>50496000</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="5">
+      <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="7">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>50496000</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="5">
+      <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="7">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>50496000</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="7">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>50496000</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="7">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="10">
         <f t="shared" si="1"/>
-        <v>49541000</v>
+        <v>50496000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3254,558 +3353,717 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="20.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="59.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="8" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>42844</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10">
         <v>500000</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11">
         <f>F4-G4</f>
         <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>42845</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10">
         <v>1000000</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8">
+      <c r="G5" s="10"/>
+      <c r="H5" s="11">
         <f>H4+F5-G5</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5">
+    <row r="6" ht="30" spans="1:8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>42851</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>25000000</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8">
-        <f t="shared" ref="H6:H21" si="0">H5+F6-G6</f>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H24" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>42851</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10">
         <v>2000000</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8">
+      <c r="G7" s="10"/>
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>28500000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>42853</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10">
+        <v>250000</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11">
+        <f t="shared" si="0"/>
+        <v>28750000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>42854</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10">
+        <v>500000</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11">
+        <f t="shared" si="0"/>
+        <v>29250000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>42854</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11">
+        <f t="shared" si="0"/>
+        <v>30250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>42854</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11">
+        <f t="shared" si="0"/>
+        <v>31250000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8">
+        <v>42855</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11">
+        <f t="shared" si="0"/>
+        <v>31300000</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:8">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14">
+        <v>42856</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
+        <v>25000000</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8">
+        <v>42856</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>42856</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>42857</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
-        <v>250000</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>28750000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>42854</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="F16" s="10">
         <v>500000</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
-        <v>29250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <v>42854</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>30250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>42854</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="F11" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>31250000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <v>42855</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="B17" s="8">
+        <v>42858</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10">
+        <v>500000</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="17">
+        <f t="shared" si="0"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42859</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="10">
         <v>50000</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>31300000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10">
-        <v>42856</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="G18" s="10"/>
+      <c r="H18" s="17">
+        <f t="shared" si="0"/>
+        <v>7550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42860</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10">
+        <v>50000</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8">
+        <v>42861</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10">
+        <v>500000</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="17">
+        <f t="shared" si="0"/>
+        <v>8100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8">
+        <v>42862</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="18">
+        <v>12000</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="17">
+        <f t="shared" si="0"/>
+        <v>8112000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8">
+        <v>42864</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="17">
+        <f t="shared" si="0"/>
+        <v>8212000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8">
+        <v>42864</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10">
+        <v>85200</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="17">
+        <f t="shared" si="0"/>
+        <v>8297200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8">
+        <v>42864</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10">
+        <v>400000</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>8697200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>27</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>28</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
+        <v>30</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="19">
+        <f>SUM(F4:F33)</f>
+        <v>33697200</v>
+      </c>
+      <c r="G34" s="19">
+        <f>SUM(G4:G33)</f>
         <v>25000000</v>
       </c>
-      <c r="H13" s="12">
-        <f t="shared" si="0"/>
-        <v>6300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6">
-        <v>42856</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="12">
-        <f t="shared" si="0"/>
-        <v>6400000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <v>42856</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="12">
-        <f t="shared" si="0"/>
-        <v>6500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <v>42857</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7">
-        <v>500000</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="12">
-        <f t="shared" si="0"/>
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6">
-        <v>42858</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="7">
-        <v>500000</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="12">
-        <f t="shared" si="0"/>
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6">
-        <v>42859</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="12">
-        <f t="shared" si="0"/>
-        <v>7550000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6">
-        <v>42860</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="12">
-        <f t="shared" si="0"/>
-        <v>7600000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6">
-        <v>42861</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7">
-        <v>500000</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="12">
-        <f t="shared" si="0"/>
-        <v>8100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6">
-        <v>42862</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="13">
-        <v>12000</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="12">
-        <f t="shared" si="0"/>
-        <v>8112000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="6:8">
-      <c r="F24" s="14">
-        <f>SUM(F4:F23)</f>
-        <v>33112000</v>
-      </c>
-      <c r="G24" s="14">
-        <f>SUM(G4:G23)</f>
-        <v>25000000</v>
-      </c>
-      <c r="H24" s="14">
-        <f>F24-G24</f>
-        <v>8112000</v>
+      <c r="H34" s="19">
+        <f>F34-G34</f>
+        <v>8697200</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Values</t>
   </si>
   <si>
-    <t>Saldo Pribadi</t>
-  </si>
-  <si>
     <t>Masuk</t>
   </si>
   <si>
@@ -80,42 +77,48 @@
     <t>Hamba Allah Weru</t>
   </si>
   <si>
+    <t>Alokasi</t>
+  </si>
+  <si>
+    <t>Penyimpanan</t>
+  </si>
+  <si>
     <t>Abu Yahya Lirim</t>
   </si>
   <si>
-    <t>Banin-Banat</t>
+    <t>Banin/Banat</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosok </t>
   </si>
   <si>
     <t>Masjid</t>
   </si>
   <si>
+    <t>Abdullah Tuyar Al-Atsari</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Total BP</t>
+    <t>Hamba Allah Semarang</t>
+  </si>
+  <si>
+    <t>Helmi Efendi ST</t>
+  </si>
+  <si>
+    <t>Hamba Allah Gawok</t>
+  </si>
+  <si>
+    <t>Abu Mas'ud Said</t>
   </si>
   <si>
     <t>Selisih</t>
   </si>
   <si>
-    <t xml:space="preserve">Rosok </t>
-  </si>
-  <si>
-    <t>Abdullah Tuyar Al-Atsari</t>
-  </si>
-  <si>
-    <t>Hamba Allah Semarang</t>
-  </si>
-  <si>
-    <t>Helmi Efendi ST</t>
-  </si>
-  <si>
-    <t>Hamba Allah Gawok</t>
-  </si>
-  <si>
-    <t>Abu Mas'ud Said</t>
-  </si>
-  <si>
     <t>Hamba Allah NI 6b</t>
   </si>
   <si>
@@ -231,6 +234,15 @@
   </si>
   <si>
     <t>Abu Hambali</t>
+  </si>
+  <si>
+    <t>Ummu Ahmad Arifin</t>
+  </si>
+  <si>
+    <t>Hamba Allah (Kelebihan Transfer)</t>
+  </si>
+  <si>
+    <t>Didik Bandung</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -280,11 +292,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -304,7 +316,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,14 +338,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +353,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +375,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -356,13 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -372,17 +406,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +428,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -410,15 +436,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,21 +454,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,7 +492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,7 +534,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,115 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,25 +606,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,13 +877,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,24 +925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -933,24 +940,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -966,134 +978,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1178,16 +1190,40 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1971,23 +2007,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="34.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="34.2857142857143" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
     <col min="11" max="12" width="14.7142857142857" customWidth="1"/>
     <col min="13" max="14" width="14.2857142857143" customWidth="1"/>
   </cols>
@@ -2028,9 +2065,7 @@
         <v>6</v>
       </c>
       <c r="L2" s="35"/>
-      <c r="N2" s="36" t="s">
-        <v>7</v>
-      </c>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="24"/>
@@ -2041,26 +2076,24 @@
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="39">
-        <v>397597</v>
-      </c>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="7">
@@ -2070,13 +2103,13 @@
         <v>42841</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="10">
         <v>100000</v>
@@ -2087,16 +2120,13 @@
         <v>100000</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="41">
         <v>16819000</v>
       </c>
       <c r="L4" s="42"/>
-      <c r="N4" s="43">
-        <f>N3-250000</f>
-        <v>147597</v>
-      </c>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7">
@@ -2106,13 +2136,13 @@
         <v>42842</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="10">
         <v>500000</v>
@@ -2123,7 +2153,7 @@
         <v>600000</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="45">
         <v>20500000</v>
@@ -2138,13 +2168,13 @@
         <v>42844</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="10">
         <v>10000000</v>
@@ -2155,7 +2185,7 @@
         <v>10600000</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="48">
         <v>37319000</v>
@@ -2170,13 +2200,13 @@
         <v>42844</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="10">
         <v>1000000</v>
@@ -2196,13 +2226,13 @@
         <v>42844</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="10">
         <v>50000</v>
@@ -2221,13 +2251,13 @@
         <v>42845</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
         <v>200000</v>
@@ -2237,8 +2267,17 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="N9" s="50">
-        <v>-147597</v>
+      <c r="J9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2249,13 +2288,13 @@
         <v>42845</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="10">
         <v>600000</v>
@@ -2265,20 +2304,19 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="J10" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="52" t="s">
+      <c r="J10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="K10" s="53">
+        <f>F63</f>
+        <v>50701000</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="53" t="s">
-        <v>25</v>
+      <c r="N10" s="56">
+        <v>57013597</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2289,13 +2327,13 @@
         <v>42845</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10">
         <v>1016000</v>
@@ -2305,25 +2343,20 @@
         <f t="shared" si="0"/>
         <v>13466000</v>
       </c>
-      <c r="J11" s="10">
-        <f>GETPIVOTDATA("Sum of Masuk",$J$2)</f>
-        <v>37319000</v>
+      <c r="J11" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="K11" s="10">
         <f>Masjid!H34</f>
-        <v>8697200</v>
-      </c>
-      <c r="L11" s="10">
-        <f>J11+K11</f>
-        <v>46016200</v>
-      </c>
-      <c r="M11" s="10">
-        <f>44363597+178000+30000+150000</f>
-        <v>44721597</v>
+        <v>9097200</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="M11" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="N11" s="10">
-        <f>L11-M11</f>
-        <v>1294603</v>
+        <f>136200+2000000+50000+20000+10000+600000</f>
+        <v>2816200</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2334,13 +2367,13 @@
         <v>42846</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F12" s="10">
         <v>50000</v>
@@ -2350,7 +2383,20 @@
         <f t="shared" si="0"/>
         <v>13516000</v>
       </c>
-      <c r="N12" s="50"/>
+      <c r="J12" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="60">
+        <f>SUM(K10:K11)</f>
+        <v>59798200</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="62">
+        <f>SUM(N10:N11)</f>
+        <v>59829797</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7">
@@ -2366,7 +2412,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10">
         <v>5000000</v>
@@ -2391,7 +2437,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="10">
         <v>2000000</v>
@@ -2401,6 +2447,13 @@
         <f t="shared" si="0"/>
         <v>20516000</v>
       </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="63">
+        <f>K12-N12</f>
+        <v>-31597</v>
+      </c>
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:8">
@@ -2411,13 +2464,13 @@
         <v>42847</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="10">
         <v>50000</v>
@@ -2436,13 +2489,13 @@
         <v>42847</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="10">
         <v>200000</v>
@@ -2461,13 +2514,13 @@
         <v>42847</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="10">
         <v>300000</v>
@@ -2477,7 +2530,7 @@
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-      <c r="L17" s="54"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
@@ -2490,10 +2543,10 @@
         <v>30</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="10">
         <v>500000</v>
@@ -2512,13 +2565,13 @@
         <v>42847</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="10">
         <v>100000</v>
@@ -2537,13 +2590,13 @@
         <v>42849</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="10">
         <v>200000</v>
@@ -2562,13 +2615,13 @@
         <v>42850</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F21" s="10">
         <v>500000</v>
@@ -2587,13 +2640,13 @@
         <v>42851</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F22" s="10">
         <v>50000</v>
@@ -2612,13 +2665,13 @@
         <v>42851</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="10">
         <v>500000</v>
@@ -2637,13 +2690,13 @@
         <v>42851</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="10">
         <v>1000000</v>
@@ -2662,13 +2715,13 @@
         <v>42851</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="10">
         <v>350000</v>
@@ -2687,13 +2740,13 @@
         <v>42853</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="10">
         <v>4253000</v>
@@ -2712,13 +2765,13 @@
         <v>42854</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="10">
         <v>500000</v>
@@ -2737,13 +2790,13 @@
         <v>42854</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="10">
         <v>400000</v>
@@ -2762,13 +2815,13 @@
         <v>42854</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="10">
         <v>500000</v>
@@ -2787,13 +2840,13 @@
         <v>42854</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="10">
         <v>2000000</v>
@@ -2812,13 +2865,13 @@
         <v>42854</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="10">
         <v>300000</v>
@@ -2837,13 +2890,13 @@
         <v>42854</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="10">
         <v>50000</v>
@@ -2862,13 +2915,13 @@
         <v>42854</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F33" s="10">
         <v>1000000</v>
@@ -2887,13 +2940,13 @@
         <v>42856</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="28">
         <v>500000</v>
@@ -2912,13 +2965,13 @@
         <v>42856</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="28">
         <v>400000</v>
@@ -2937,13 +2990,13 @@
         <v>42857</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="28">
         <v>2500000</v>
@@ -2962,13 +3015,13 @@
         <v>42857</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="10">
         <v>500000</v>
@@ -2987,13 +3040,13 @@
         <v>42859</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="18">
         <v>100000</v>
@@ -3012,13 +3065,13 @@
         <v>42860</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
         <v>50000</v>
@@ -3037,13 +3090,13 @@
         <v>42860</v>
       </c>
       <c r="C40" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>13</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>14</v>
       </c>
       <c r="F40" s="31">
         <v>2000000</v>
@@ -3062,13 +3115,13 @@
         <v>42861</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" s="18">
         <v>25000</v>
@@ -3087,13 +3140,13 @@
         <v>42861</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="18">
         <v>35000</v>
@@ -3112,13 +3165,13 @@
         <v>42861</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
         <v>150000</v>
@@ -3137,13 +3190,13 @@
         <v>42862</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
         <v>12000</v>
@@ -3162,13 +3215,13 @@
         <v>42863</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="18">
         <v>10000000</v>
@@ -3187,13 +3240,13 @@
         <v>42864</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="18">
         <v>50000</v>
@@ -3212,13 +3265,13 @@
         <v>42865</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
         <v>500000</v>
@@ -3237,13 +3290,13 @@
         <v>42865</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="18">
         <v>155000</v>
@@ -3262,13 +3315,13 @@
         <v>42865</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" s="18">
         <v>250000</v>
@@ -3283,30 +3336,50 @@
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="18"/>
+      <c r="B50" s="8">
+        <v>42866</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="18">
+        <v>200000</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="10">
         <f t="shared" si="1"/>
-        <v>50496000</v>
+        <v>50696000</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="18"/>
+      <c r="B51" s="8">
+        <v>42866</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="18">
+        <v>5000</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="10">
         <f t="shared" si="1"/>
-        <v>50496000</v>
+        <v>50701000</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3319,7 +3392,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="10">
         <f t="shared" si="1"/>
-        <v>50496000</v>
+        <v>50701000</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3332,7 +3405,13 @@
       <c r="G53" s="7"/>
       <c r="H53" s="10">
         <f t="shared" si="1"/>
-        <v>50496000</v>
+        <v>50701000</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63">
+        <f>SUM(F4:F62)</f>
+        <v>50701000</v>
       </c>
     </row>
   </sheetData>
@@ -3355,8 +3434,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3371,7 +3450,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3402,7 +3481,7 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3412,10 +3491,10 @@
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -3427,13 +3506,13 @@
         <v>42844</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="10">
         <v>500000</v>
@@ -3452,13 +3531,13 @@
         <v>42845</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="10">
         <v>1000000</v>
@@ -3477,20 +3556,20 @@
         <v>42851</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="10">
         <v>25000000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11">
-        <f t="shared" ref="H6:H24" si="0">H5+F6-G6</f>
+        <f t="shared" ref="H6:H25" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
@@ -3502,13 +3581,13 @@
         <v>42851</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="10">
         <v>2000000</v>
@@ -3527,13 +3606,13 @@
         <v>42853</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F8" s="10">
         <v>250000</v>
@@ -3552,13 +3631,13 @@
         <v>42854</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
         <v>500000</v>
@@ -3577,13 +3656,13 @@
         <v>42854</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="10">
         <v>1000000</v>
@@ -3602,13 +3681,13 @@
         <v>42854</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F11" s="10">
         <v>1000000</v>
@@ -3627,13 +3706,13 @@
         <v>42855</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="10">
         <v>50000</v>
@@ -3652,13 +3731,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3677,13 +3756,13 @@
         <v>42856</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="10">
         <v>100000</v>
@@ -3702,13 +3781,13 @@
         <v>42856</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="10">
         <v>100000</v>
@@ -3727,13 +3806,13 @@
         <v>42857</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="10">
         <v>500000</v>
@@ -3752,13 +3831,13 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="10">
         <v>500000</v>
@@ -3777,13 +3856,13 @@
         <v>42859</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="10">
         <v>50000</v>
@@ -3802,13 +3881,13 @@
         <v>42860</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="10">
         <v>50000</v>
@@ -3827,13 +3906,13 @@
         <v>42861</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="10">
         <v>500000</v>
@@ -3852,13 +3931,13 @@
         <v>42862</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
         <v>12000</v>
@@ -3877,13 +3956,13 @@
         <v>42864</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="10">
         <v>100000</v>
@@ -3902,13 +3981,13 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="10">
         <v>85200</v>
@@ -3927,13 +4006,13 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="10">
         <v>400000</v>
@@ -3948,13 +4027,26 @@
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="8">
+        <v>42869</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="10">
+        <v>400000</v>
+      </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>9097200</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="7">
@@ -4055,7 +4147,7 @@
     <row r="34" spans="6:8">
       <c r="F34" s="19">
         <f>SUM(F4:F33)</f>
-        <v>33697200</v>
+        <v>34097200</v>
       </c>
       <c r="G34" s="19">
         <f>SUM(G4:G33)</f>
@@ -4063,7 +4155,7 @@
       </c>
       <c r="H34" s="19">
         <f>F34-G34</f>
-        <v>8697200</v>
+        <v>9097200</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>Didik Bandung</t>
+  </si>
+  <si>
+    <t>Hamba Allah Via Sufyan</t>
+  </si>
+  <si>
+    <t>Abdurrasyid</t>
+  </si>
+  <si>
+    <t>Hamba Allah Weru Via Pak Utsman</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -292,11 +301,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -315,6 +324,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -323,7 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,29 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,14 +363,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -397,6 +377,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -405,8 +401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,14 +411,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,9 +432,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +448,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +501,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,49 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,19 +555,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,43 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,43 +669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,6 +871,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -872,21 +892,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -949,20 +954,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -978,134 +987,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1167,6 +1176,8 @@
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1208,9 +1219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1219,10 +1227,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -2009,16 +2013,15 @@
   <sheetPr/>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="34.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="34.2857142857143" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="34.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -2060,12 +2063,12 @@
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="N2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="24"/>
@@ -2084,16 +2087,16 @@
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="7">
@@ -2119,14 +2122,14 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="41">
+      <c r="J4" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="43">
         <v>16819000</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="L4" s="44"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7">
@@ -2152,13 +2155,13 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="47">
         <v>20500000</v>
       </c>
-      <c r="L5" s="46"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7">
@@ -2184,13 +2187,13 @@
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="50">
         <v>37319000</v>
       </c>
-      <c r="L6" s="49"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7">
@@ -2216,7 +2219,7 @@
         <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-      <c r="N7" s="43"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -2267,16 +2270,16 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="53" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2304,18 +2307,18 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="55">
         <f>F63</f>
-        <v>50701000</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55" t="s">
+        <v>53116000</v>
+      </c>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="53">
         <v>57013597</v>
       </c>
     </row>
@@ -2343,15 +2346,15 @@
         <f t="shared" si="0"/>
         <v>13466000</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="58" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="10">
         <f>Masjid!H34</f>
         <v>9097200</v>
       </c>
-      <c r="L11" s="58"/>
-      <c r="M11" s="57" t="s">
+      <c r="L11" s="59"/>
+      <c r="M11" s="58" t="s">
         <v>14</v>
       </c>
       <c r="N11" s="10">
@@ -2383,17 +2386,17 @@
         <f t="shared" si="0"/>
         <v>13516000</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="61">
         <f>SUM(K10:K11)</f>
-        <v>59798200</v>
-      </c>
-      <c r="M12" s="61" t="s">
+        <v>62213200</v>
+      </c>
+      <c r="M12" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="10">
         <f>SUM(N10:N11)</f>
         <v>59829797</v>
       </c>
@@ -2450,11 +2453,11 @@
       <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="62">
         <f>K12-N12</f>
-        <v>-31597</v>
-      </c>
-      <c r="N14" s="43"/>
+        <v>2383403</v>
+      </c>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7">
@@ -2530,7 +2533,7 @@
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-      <c r="L17" s="64"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
@@ -3103,7 +3106,7 @@
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="32">
-        <f t="shared" ref="H40:H53" si="1">H39+F40-G40</f>
+        <f t="shared" ref="H40:H54" si="1">H39+F40-G40</f>
         <v>39319000</v>
       </c>
     </row>
@@ -3383,35 +3386,180 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="18"/>
+      <c r="A52" s="7">
+        <v>49</v>
+      </c>
+      <c r="B52" s="8">
+        <v>42870</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="18">
+        <v>5000</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="10">
         <f t="shared" si="1"/>
-        <v>50701000</v>
+        <v>50706000</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="A53" s="7">
+        <v>50</v>
+      </c>
+      <c r="B53" s="8">
+        <v>42870</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="G53" s="18"/>
       <c r="H53" s="10">
         <f t="shared" si="1"/>
-        <v>50701000</v>
-      </c>
+        <v>52206000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7">
+        <v>51</v>
+      </c>
+      <c r="B54" s="8">
+        <v>42870</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="34">
+        <v>910000</v>
+      </c>
+      <c r="G54" s="34"/>
+      <c r="H54" s="10">
+        <f t="shared" si="1"/>
+        <v>53116000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7">
+        <v>52</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="7">
+        <v>53</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="7">
+        <v>54</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="7">
+        <v>55</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="7">
+        <v>56</v>
+      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="7">
+        <v>57</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="7">
+        <v>58</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="7">
+        <v>59</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="6:6">
       <c r="F63">
         <f>SUM(F4:F62)</f>
-        <v>50701000</v>
+        <v>53116000</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3598,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3559,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3609,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -3659,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -3709,7 +3857,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -3731,13 +3879,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3784,7 +3932,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -3831,10 +3979,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
@@ -3909,7 +4057,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -3959,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -3981,10 +4129,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -4006,10 +4154,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Hamba Allah Weru Via Pak Utsman</t>
+  </si>
+  <si>
+    <t>Hamba Allah Limo</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -324,7 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -333,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,12 +350,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -369,6 +387,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -379,14 +412,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -401,16 +426,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,16 +449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,21 +465,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,7 +504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,37 +534,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,43 +564,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +606,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,55 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,17 +874,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -902,6 +894,36 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,21 +952,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -954,24 +961,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -987,134 +990,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1176,8 +1179,6 @@
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -2014,7 +2015,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2063,12 +2064,12 @@
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="L2" s="35"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="24"/>
@@ -2087,16 +2088,16 @@
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="7">
@@ -2122,14 +2123,14 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="43">
+      <c r="J4" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="41">
         <v>16819000</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="N4" s="45"/>
+      <c r="L4" s="42"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="7">
@@ -2155,13 +2156,13 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="45">
         <v>20500000</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7">
@@ -2187,13 +2188,13 @@
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="48">
         <v>37319000</v>
       </c>
-      <c r="L6" s="51"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7">
@@ -2219,7 +2220,7 @@
         <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-      <c r="N7" s="45"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -2270,16 +2271,16 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="52" t="s">
+      <c r="K9" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="52" t="s">
+      <c r="M9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="51" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2307,18 +2308,18 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="J10" s="54" t="s">
+      <c r="J10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="53">
         <f>F63</f>
-        <v>53116000</v>
-      </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57" t="s">
+        <v>53316000</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="53">
+      <c r="N10" s="51">
         <v>57013597</v>
       </c>
     </row>
@@ -2346,15 +2347,15 @@
         <f t="shared" si="0"/>
         <v>13466000</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="56" t="s">
         <v>25</v>
       </c>
       <c r="K11" s="10">
         <f>Masjid!H34</f>
         <v>9097200</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="58" t="s">
+      <c r="L11" s="57"/>
+      <c r="M11" s="56" t="s">
         <v>14</v>
       </c>
       <c r="N11" s="10">
@@ -2386,14 +2387,14 @@
         <f t="shared" si="0"/>
         <v>13516000</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="59">
         <f>SUM(K10:K11)</f>
-        <v>62213200</v>
-      </c>
-      <c r="M12" s="57" t="s">
+        <v>62413200</v>
+      </c>
+      <c r="M12" s="55" t="s">
         <v>27</v>
       </c>
       <c r="N12" s="10">
@@ -2453,11 +2454,11 @@
       <c r="J14" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="60">
         <f>K12-N12</f>
-        <v>2383403</v>
-      </c>
-      <c r="N14" s="45"/>
+        <v>2583403</v>
+      </c>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7">
@@ -2533,7 +2534,7 @@
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-      <c r="L17" s="63"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
@@ -3106,7 +3107,7 @@
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="32">
-        <f t="shared" ref="H40:H54" si="1">H39+F40-G40</f>
+        <f t="shared" ref="H40:H55" si="1">H39+F40-G40</f>
         <v>39319000</v>
       </c>
     </row>
@@ -3442,19 +3443,19 @@
       <c r="B54" s="8">
         <v>42870</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="34">
+      <c r="E54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="18">
         <v>910000</v>
       </c>
-      <c r="G54" s="34"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="10">
         <f t="shared" si="1"/>
         <v>53116000</v>
@@ -3464,102 +3465,115 @@
       <c r="A55" s="7">
         <v>52</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="B55" s="8">
+        <v>42870</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="10">
+        <f t="shared" si="1"/>
+        <v>53316000</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>57</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
         <v>58</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>59</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
     </row>
     <row r="63" spans="6:6">
       <c r="F63">
         <f>SUM(F4:F62)</f>
-        <v>53116000</v>
+        <v>53316000</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3612,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3707,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3757,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -3807,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -3857,7 +3871,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -3879,13 +3893,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3932,7 +3946,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -3979,10 +3993,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
@@ -4057,7 +4071,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -4107,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -4129,10 +4143,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -4154,10 +4168,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19890" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Hamba Allah Limo</t>
+  </si>
+  <si>
+    <t>Abu Ilyas</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -304,11 +307,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -327,15 +330,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,9 +398,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,84 +461,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,14 +469,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +561,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,85 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,49 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +877,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -899,16 +911,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,31 +944,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,7 +977,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -990,130 +993,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2014,8 +2017,8 @@
   <sheetPr/>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="K10" s="53">
         <f>F63</f>
-        <v>53316000</v>
+        <v>53371000</v>
       </c>
       <c r="L10" s="54"/>
       <c r="M10" s="55" t="s">
@@ -2352,7 +2355,7 @@
       </c>
       <c r="K11" s="10">
         <f>Masjid!H34</f>
-        <v>9097200</v>
+        <v>9117200</v>
       </c>
       <c r="L11" s="57"/>
       <c r="M11" s="56" t="s">
@@ -2392,7 +2395,7 @@
       </c>
       <c r="K12" s="59">
         <f>SUM(K10:K11)</f>
-        <v>62413200</v>
+        <v>62488200</v>
       </c>
       <c r="M12" s="55" t="s">
         <v>27</v>
@@ -2456,7 +2459,7 @@
       </c>
       <c r="K14" s="60">
         <f>K12-N12</f>
-        <v>2583403</v>
+        <v>2658403</v>
       </c>
       <c r="N14" s="43"/>
     </row>
@@ -3490,13 +3493,26 @@
       <c r="A56" s="7">
         <v>53</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="18"/>
+      <c r="B56" s="8">
+        <v>42877</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="18">
+        <v>55000</v>
+      </c>
       <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="H56" s="10">
+        <f>H55+F56-G56</f>
+        <v>53371000</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="7">
@@ -3573,7 +3589,7 @@
     <row r="63" spans="6:6">
       <c r="F63">
         <f>SUM(F4:F62)</f>
-        <v>53316000</v>
+        <v>53371000</v>
       </c>
     </row>
   </sheetData>
@@ -3596,8 +3612,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3605,14 +3621,14 @@
     <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="8" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3721,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3731,7 +3747,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11">
-        <f t="shared" ref="H6:H25" si="0">H5+F6-G6</f>
+        <f t="shared" ref="H6:H26" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
@@ -3771,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
@@ -3821,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -3871,7 +3887,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -3893,13 +3909,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3946,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -3993,10 +4009,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
@@ -4071,7 +4087,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -4121,7 +4137,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -4143,10 +4159,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -4168,10 +4184,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -4214,13 +4230,26 @@
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="8">
+        <v>42877</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10">
+        <v>20000</v>
+      </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>9117200</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="7">
@@ -4309,7 +4338,7 @@
     <row r="34" spans="6:8">
       <c r="F34" s="19">
         <f>SUM(F4:F33)</f>
-        <v>34097200</v>
+        <v>34117200</v>
       </c>
       <c r="G34" s="19">
         <f>SUM(G4:G33)</f>
@@ -4317,7 +4346,7 @@
       </c>
       <c r="H34" s="19">
         <f>F34-G34</f>
-        <v>9097200</v>
+        <v>9117200</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -11,14 +11,11 @@
     <sheet name="Masjid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -38,7 +35,7 @@
     <t>Nominal</t>
   </si>
   <si>
-    <t>Values</t>
+    <t>Rekapan</t>
   </si>
   <si>
     <t>Masuk</t>
@@ -50,10 +47,7 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>Sum of Masuk</t>
-  </si>
-  <si>
-    <t>Sum of Keluar</t>
+    <t>Banin Banat</t>
   </si>
   <si>
     <t>Hamba Allah</t>
@@ -62,48 +56,33 @@
     <t>Transfer</t>
   </si>
   <si>
+    <t>Kanopi</t>
+  </si>
+  <si>
+    <t>Abu Haidar</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Abu Haidar</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Hamba Allah Mantung</t>
   </si>
   <si>
     <t>Hamba Allah Weru</t>
   </si>
   <si>
-    <t>Alokasi</t>
-  </si>
-  <si>
-    <t>Penyimpanan</t>
-  </si>
-  <si>
     <t>Abu Yahya Lirim</t>
   </si>
   <si>
-    <t>Banin/Banat</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rosok </t>
   </si>
   <si>
-    <t>Masjid</t>
-  </si>
-  <si>
     <t>Abdullah Tuyar Al-Atsari</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Hamba Allah Semarang</t>
   </si>
   <si>
@@ -116,9 +95,6 @@
     <t>Abu Mas'ud Said</t>
   </si>
   <si>
-    <t>Selisih</t>
-  </si>
-  <si>
     <t>Hamba Allah NI 6b</t>
   </si>
   <si>
@@ -258,6 +234,15 @@
   </si>
   <si>
     <t>Abu Ilyas</t>
+  </si>
+  <si>
+    <t>Abu Zakaria Amin S</t>
+  </si>
+  <si>
+    <t>Hamba Allah Via Abu Zufar</t>
+  </si>
+  <si>
+    <t>Saudaranya Abu Zufar</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -307,11 +292,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -330,45 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -376,6 +322,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -392,9 +339,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,9 +385,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,30 +446,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -458,23 +458,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,7 +486,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,91 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,90 +666,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -779,108 +758,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -897,30 +780,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,7 +803,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,18 +840,25 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -993,134 +874,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1182,57 +1063,18 @@
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,447 +1129,6 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" enableRefresh="1" refreshedBy="tsic" refreshedDate="42863.2158564815" recordCount="36">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:H39" sheet="Banin - Banat"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="No"/>
-    <cacheField name="Tanggal"/>
-    <cacheField name="Donatur / PIC"/>
-    <cacheField name="Donatur / PIC2"/>
-    <cacheField name="Keterangan">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Transfer"/>
-        <s v="Cash"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Masuk"/>
-    <cacheField name="Keluar"/>
-    <cacheField name="Saldo"/>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="36">
-  <r>
-    <n v="1"/>
-    <d v="2017-04-16T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Hamba Allah"/>
-    <x v="0"/>
-    <n v="100000"/>
-    <m/>
-    <n v="100000"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <d v="2017-04-17T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abu Haidar"/>
-    <x v="0"/>
-    <n v="500000"/>
-    <m/>
-    <n v="600000"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <d v="2017-04-19T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Hamba Allah"/>
-    <x v="0"/>
-    <n v="10000000"/>
-    <m/>
-    <n v="10600000"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <d v="2017-04-19T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Hamba Allah"/>
-    <x v="1"/>
-    <n v="1000000"/>
-    <m/>
-    <n v="11600000"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <d v="2017-04-19T00:00:00"/>
-    <s v="Hamba Allah Mantung"/>
-    <s v="Hamba Allah Mantung"/>
-    <x v="1"/>
-    <n v="50000"/>
-    <m/>
-    <n v="11650000"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <d v="2017-04-20T00:00:00"/>
-    <s v="Hamba Allah Weru"/>
-    <s v="Hamba Allah Weru"/>
-    <x v="1"/>
-    <n v="200000"/>
-    <m/>
-    <n v="11850000"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <d v="2017-04-20T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abu Yahya Lirim"/>
-    <x v="1"/>
-    <n v="600000"/>
-    <m/>
-    <n v="12450000"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <d v="2017-04-20T00:00:00"/>
-    <s v="Rosok "/>
-    <s v="Rosok "/>
-    <x v="1"/>
-    <n v="1016000"/>
-    <m/>
-    <n v="13466000"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <d v="2017-04-21T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abdullah Tuyar Al-Atsari"/>
-    <x v="0"/>
-    <n v="50000"/>
-    <m/>
-    <n v="13516000"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <d v="2017-04-22T00:00:00"/>
-    <s v="Hamba Allah Semarang"/>
-    <s v="Helmi Efendi ST"/>
-    <x v="0"/>
-    <n v="5000000"/>
-    <m/>
-    <n v="18516000"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <d v="2017-04-22T00:00:00"/>
-    <s v="Hamba Allah Gawok"/>
-    <s v="Abu Mas'ud Said"/>
-    <x v="1"/>
-    <n v="2000000"/>
-    <m/>
-    <n v="20516000"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <d v="2017-04-22T00:00:00"/>
-    <s v="Hamba Allah NI 6b"/>
-    <s v="Fino"/>
-    <x v="1"/>
-    <n v="50000"/>
-    <m/>
-    <n v="20566000"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <d v="2017-04-22T00:00:00"/>
-    <s v="Hamba Allah Sumber"/>
-    <s v="Abu Hanif"/>
-    <x v="1"/>
-    <n v="200000"/>
-    <m/>
-    <n v="20766000"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <d v="2017-04-22T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="HP 0821-3690-1985"/>
-    <x v="0"/>
-    <n v="300000"/>
-    <m/>
-    <n v="21066000"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <d v="2017-04-22T00:00:00"/>
-    <s v="Hamba Allah Gawok"/>
-    <s v="Amin Gawok"/>
-    <x v="1"/>
-    <n v="500000"/>
-    <m/>
-    <n v="21566000"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <d v="2017-04-22T00:00:00"/>
-    <s v="Hamba Allah Solo"/>
-    <s v="Abu Kafka"/>
-    <x v="1"/>
-    <n v="100000"/>
-    <m/>
-    <n v="21666000"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <d v="2017-04-24T00:00:00"/>
-    <s v="Hamba Allah Talangabang"/>
-    <s v="Abu Haikal Utsman"/>
-    <x v="1"/>
-    <n v="200000"/>
-    <m/>
-    <n v="21866000"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <d v="2017-04-25T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abu Zerico Jatmiko"/>
-    <x v="0"/>
-    <n v="500000"/>
-    <m/>
-    <n v="22366000"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <d v="2017-04-26T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abdullah Tuyar Al-Atsari"/>
-    <x v="0"/>
-    <n v="50000"/>
-    <m/>
-    <n v="22416000"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <d v="2017-04-26T00:00:00"/>
-    <s v="Hamba Allah via Abu Haikal"/>
-    <s v="Hamba Allah via Abu Haikal"/>
-    <x v="1"/>
-    <n v="500000"/>
-    <m/>
-    <n v="22916000"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <d v="2017-04-26T00:00:00"/>
-    <s v="Hamba Allah via dr Dhiya"/>
-    <s v="Hamba Allah via dr Dhiya"/>
-    <x v="1"/>
-    <n v="1000000"/>
-    <m/>
-    <n v="23916000"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <d v="2017-04-26T00:00:00"/>
-    <s v="Hamba Allah Mantung"/>
-    <s v="Sudadi"/>
-    <x v="1"/>
-    <n v="350000"/>
-    <m/>
-    <n v="24266000"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <d v="2017-04-28T00:00:00"/>
-    <s v="Iuran Mudarisat dan Santriwati Banat"/>
-    <s v="Iuran Mudarisat dan Santriwati Banat"/>
-    <x v="1"/>
-    <n v="4253000"/>
-    <m/>
-    <n v="28519000"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <d v="2017-04-29T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abdullah Sapto"/>
-    <x v="1"/>
-    <n v="500000"/>
-    <m/>
-    <n v="29019000"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <d v="2017-04-29T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abu Musa Zakaria"/>
-    <x v="1"/>
-    <n v="400000"/>
-    <m/>
-    <n v="29419000"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <d v="2017-04-29T00:00:00"/>
-    <s v="Abdullah"/>
-    <s v="Abu Attar"/>
-    <x v="1"/>
-    <n v="500000"/>
-    <m/>
-    <n v="29919000"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <d v="2017-04-29T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abu Umar Qudwah"/>
-    <x v="1"/>
-    <n v="2000000"/>
-    <m/>
-    <n v="31919000"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <d v="2017-04-29T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Sholih Gatak"/>
-    <x v="1"/>
-    <n v="300000"/>
-    <m/>
-    <n v="32219000"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <d v="2017-04-29T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abu Ihsan"/>
-    <x v="1"/>
-    <n v="50000"/>
-    <m/>
-    <n v="32269000"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <d v="2017-04-29T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Abu Yusuf Haryanto"/>
-    <x v="0"/>
-    <n v="1000000"/>
-    <m/>
-    <n v="33269000"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <d v="2017-05-01T00:00:00"/>
-    <s v="Hamba Allah"/>
-    <s v="Ummu Fathin/Hamzah"/>
-    <x v="1"/>
-    <n v="500000"/>
-    <m/>
-    <n v="33769000"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <d v="2017-05-01T00:00:00"/>
-    <s v="Rosok "/>
-    <s v="Penjualan Sepeda"/>
-    <x v="1"/>
-    <n v="400000"/>
-    <m/>
-    <n v="34169000"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <d v="2017-05-02T00:00:00"/>
-    <s v="Walisantri Syumailah 1A"/>
-    <s v="Abu Harits Aceh"/>
-    <x v="0"/>
-    <n v="2500000"/>
-    <m/>
-    <n v="36669000"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <d v="2017-05-02T00:00:00"/>
-    <s v="Abu Hammim Risman"/>
-    <s v="Abu Hammim Risman"/>
-    <x v="0"/>
-    <n v="500000"/>
-    <m/>
-    <n v="37169000"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <d v="2017-05-04T00:00:00"/>
-    <s v="Hamba Allah via dr Dhiya"/>
-    <s v="Hamba Allah via dr Dhiya"/>
-    <x v="1"/>
-    <n v="100000"/>
-    <m/>
-    <n v="37269000"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <d v="2017-05-05T00:00:00"/>
-    <s v="Hamba Allah via Abu Thalhah"/>
-    <s v="Hamba Allah via Abu Thalhah"/>
-    <x v="1"/>
-    <n v="50000"/>
-    <m/>
-    <n v="37319000"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataPosition="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" useAutoFormatting="1" compact="0" compactData="0" gridDropZones="1">
-  <location ref="J2:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of Masuk" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Keluar" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2015,10 +1416,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2031,9 +1432,8 @@
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="13.5714285714286" customWidth="1"/>
-    <col min="11" max="12" width="14.7142857142857" customWidth="1"/>
-    <col min="13" max="14" width="14.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="12.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:8">
@@ -2048,7 +1448,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:11">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2067,14 +1467,14 @@
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
-      <c r="J2" s="33"/>
+      <c r="J2" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="K2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="35"/>
-      <c r="N2" s="36"/>
-    </row>
-    <row r="3" spans="1:14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -2091,18 +1491,15 @@
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="37" t="s">
+      <c r="J3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="39"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K3" s="36">
+        <f>H63</f>
+        <v>54871000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2110,13 +1507,13 @@
         <v>42841</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="10">
         <v>100000</v>
@@ -2126,16 +1523,15 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="41">
-        <v>16819000</v>
-      </c>
-      <c r="L4" s="42"/>
-      <c r="N4" s="43"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="36">
+        <f>Masjid!H34</f>
+        <v>12117200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2143,13 +1539,13 @@
         <v>42842</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="10">
         <v>500000</v>
@@ -2159,15 +1555,10 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="45">
-        <v>20500000</v>
-      </c>
-      <c r="L5" s="46"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2175,13 +1566,13 @@
         <v>42844</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="10">
         <v>10000000</v>
@@ -2191,15 +1582,15 @@
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="48">
-        <v>37319000</v>
-      </c>
-      <c r="L6" s="49"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="J6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="36">
+        <f>SUM(K3:K5)</f>
+        <v>66988200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2207,13 +1598,13 @@
         <v>42844</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10">
         <v>1000000</v>
@@ -2223,7 +1614,6 @@
         <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
         <v>11600000</v>
       </c>
-      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -2239,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10">
         <v>50000</v>
@@ -2250,7 +1640,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:8">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2264,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="10">
         <v>200000</v>
@@ -2274,20 +1664,8 @@
         <f t="shared" si="0"/>
         <v>11850000</v>
       </c>
-      <c r="J9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2295,13 +1673,13 @@
         <v>42845</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10">
         <v>600000</v>
@@ -2311,22 +1689,8 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="J10" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="53">
-        <f>F63</f>
-        <v>53371000</v>
-      </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="51">
-        <v>57013597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2334,13 +1698,13 @@
         <v>42845</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="10">
         <v>1016000</v>
@@ -2350,23 +1714,8 @@
         <f t="shared" si="0"/>
         <v>13466000</v>
       </c>
-      <c r="J11" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="10">
-        <f>Masjid!H34</f>
-        <v>9117200</v>
-      </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11" s="10">
-        <f>136200+2000000+50000+20000+10000+600000</f>
-        <v>2816200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2374,13 +1723,13 @@
         <v>42846</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F12" s="10">
         <v>50000</v>
@@ -2389,20 +1738,6 @@
       <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>13516000</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="59">
-        <f>SUM(K10:K11)</f>
-        <v>62488200</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="10">
-        <f>SUM(N10:N11)</f>
-        <v>59829797</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2413,13 +1748,13 @@
         <v>42847</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="10">
         <v>5000000</v>
@@ -2430,7 +1765,7 @@
         <v>18516000</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -2438,13 +1773,13 @@
         <v>42847</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="10">
         <v>2000000</v>
@@ -2454,14 +1789,6 @@
         <f t="shared" si="0"/>
         <v>20516000</v>
       </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="60">
-        <f>K12-N12</f>
-        <v>2658403</v>
-      </c>
-      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="7">
@@ -2471,13 +1798,13 @@
         <v>42847</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" s="10">
         <v>50000</v>
@@ -2496,13 +1823,13 @@
         <v>42847</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" s="10">
         <v>200000</v>
@@ -2513,7 +1840,7 @@
         <v>20766000</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -2521,13 +1848,13 @@
         <v>42847</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F17" s="10">
         <v>300000</v>
@@ -2537,7 +1864,6 @@
         <f t="shared" si="0"/>
         <v>21066000</v>
       </c>
-      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
@@ -2547,13 +1873,13 @@
         <v>42847</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="10">
         <v>500000</v>
@@ -2572,13 +1898,13 @@
         <v>42847</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10">
         <v>100000</v>
@@ -2597,13 +1923,13 @@
         <v>42849</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" s="10">
         <v>200000</v>
@@ -2622,13 +1948,13 @@
         <v>42850</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F21" s="10">
         <v>500000</v>
@@ -2647,13 +1973,13 @@
         <v>42851</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F22" s="10">
         <v>50000</v>
@@ -2672,13 +1998,13 @@
         <v>42851</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F23" s="10">
         <v>500000</v>
@@ -2697,13 +2023,13 @@
         <v>42851</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24" s="10">
         <v>1000000</v>
@@ -2725,10 +2051,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="10">
         <v>350000</v>
@@ -2747,13 +2073,13 @@
         <v>42853</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10">
         <v>4253000</v>
@@ -2772,13 +2098,13 @@
         <v>42854</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="10">
         <v>500000</v>
@@ -2797,13 +2123,13 @@
         <v>42854</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" s="10">
         <v>400000</v>
@@ -2822,13 +2148,13 @@
         <v>42854</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" s="10">
         <v>500000</v>
@@ -2847,13 +2173,13 @@
         <v>42854</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="10">
         <v>2000000</v>
@@ -2872,13 +2198,13 @@
         <v>42854</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31" s="10">
         <v>300000</v>
@@ -2897,13 +2223,13 @@
         <v>42854</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="10">
         <v>50000</v>
@@ -2922,13 +2248,13 @@
         <v>42854</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F33" s="10">
         <v>1000000</v>
@@ -2947,13 +2273,13 @@
         <v>42856</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" s="28">
         <v>500000</v>
@@ -2972,13 +2298,13 @@
         <v>42856</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F35" s="28">
         <v>400000</v>
@@ -2997,13 +2323,13 @@
         <v>42857</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="28">
         <v>2500000</v>
@@ -3022,13 +2348,13 @@
         <v>42857</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="10">
         <v>500000</v>
@@ -3047,13 +2373,13 @@
         <v>42859</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" s="18">
         <v>100000</v>
@@ -3072,13 +2398,13 @@
         <v>42860</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
         <v>50000</v>
@@ -3097,20 +2423,20 @@
         <v>42860</v>
       </c>
       <c r="C40" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>12</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>13</v>
       </c>
       <c r="F40" s="31">
         <v>2000000</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="32">
-        <f t="shared" ref="H40:H55" si="1">H39+F40-G40</f>
+        <f t="shared" ref="H40:H56" si="1">H39+F40-G40</f>
         <v>39319000</v>
       </c>
     </row>
@@ -3122,13 +2448,13 @@
         <v>42861</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18">
         <v>25000</v>
@@ -3147,13 +2473,13 @@
         <v>42861</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
         <v>35000</v>
@@ -3172,13 +2498,13 @@
         <v>42861</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F43" s="18">
         <v>150000</v>
@@ -3197,13 +2523,13 @@
         <v>42862</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
         <v>12000</v>
@@ -3222,13 +2548,13 @@
         <v>42863</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="18">
         <v>10000000</v>
@@ -3247,13 +2573,13 @@
         <v>42864</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
         <v>50000</v>
@@ -3272,13 +2598,13 @@
         <v>42865</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
         <v>500000</v>
@@ -3297,13 +2623,13 @@
         <v>42865</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F48" s="18">
         <v>155000</v>
@@ -3322,13 +2648,13 @@
         <v>42865</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
         <v>250000</v>
@@ -3347,13 +2673,13 @@
         <v>42866</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F50" s="18">
         <v>200000</v>
@@ -3372,13 +2698,13 @@
         <v>42866</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" s="18">
         <v>5000</v>
@@ -3397,13 +2723,13 @@
         <v>42870</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>5000</v>
@@ -3422,13 +2748,13 @@
         <v>42870</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
         <v>1500000</v>
@@ -3447,13 +2773,13 @@
         <v>42870</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54" s="18">
         <v>910000</v>
@@ -3472,13 +2798,13 @@
         <v>42870</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="18">
         <v>200000</v>
@@ -3494,23 +2820,23 @@
         <v>53</v>
       </c>
       <c r="B56" s="8">
-        <v>42877</v>
+        <v>42871</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
         <v>55000</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="10">
-        <f>H55+F56-G56</f>
+        <f t="shared" si="1"/>
         <v>53371000</v>
       </c>
     </row>
@@ -3518,25 +2844,47 @@
       <c r="A57" s="7">
         <v>54</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="18"/>
+      <c r="B57" s="8">
+        <v>42872</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1500000</v>
+      </c>
       <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="H57" s="10">
+        <f t="shared" ref="H57:H62" si="2">H56+F57-G57</f>
+        <v>54871000</v>
+      </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>55</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="B58" s="8">
+        <v>42876</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E58" s="7"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="H58" s="10">
+        <f t="shared" si="2"/>
+        <v>54871000</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
@@ -3548,7 +2896,10 @@
       <c r="E59" s="7"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
+      <c r="H59" s="10">
+        <f t="shared" si="2"/>
+        <v>54871000</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
@@ -3560,7 +2911,10 @@
       <c r="E60" s="7"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="H60" s="10">
+        <f t="shared" si="2"/>
+        <v>54871000</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="7">
@@ -3572,7 +2926,10 @@
       <c r="E61" s="7"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="H61" s="10">
+        <f t="shared" si="2"/>
+        <v>54871000</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
@@ -3584,18 +2941,27 @@
       <c r="E62" s="7"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="6:6">
-      <c r="F63">
+      <c r="H62" s="10">
+        <f t="shared" si="2"/>
+        <v>54871000</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" s="33">
         <f>SUM(F4:F62)</f>
-        <v>53371000</v>
+        <v>54871000</v>
+      </c>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33">
+        <f>F63-G63</f>
+        <v>54871000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -3612,8 +2978,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3628,7 +2994,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3684,13 +3050,13 @@
         <v>42844</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="10">
         <v>500000</v>
@@ -3709,13 +3075,13 @@
         <v>42845</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10">
         <v>1000000</v>
@@ -3734,20 +3100,20 @@
         <v>42851</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="10">
         <v>25000000</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11">
-        <f t="shared" ref="H6:H26" si="0">H5+F6-G6</f>
+        <f t="shared" ref="H6:H27" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
@@ -3759,13 +3125,13 @@
         <v>42851</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10">
         <v>2000000</v>
@@ -3784,13 +3150,13 @@
         <v>42853</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F8" s="10">
         <v>250000</v>
@@ -3809,13 +3175,13 @@
         <v>42854</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="10">
         <v>500000</v>
@@ -3834,13 +3200,13 @@
         <v>42854</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10">
         <v>1000000</v>
@@ -3859,13 +3225,13 @@
         <v>42854</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F11" s="10">
         <v>1000000</v>
@@ -3884,13 +3250,13 @@
         <v>42855</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10">
         <v>50000</v>
@@ -3909,13 +3275,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3934,13 +3300,13 @@
         <v>42856</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="10">
         <v>100000</v>
@@ -3959,13 +3325,13 @@
         <v>42856</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" s="10">
         <v>100000</v>
@@ -3984,13 +3350,13 @@
         <v>42857</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="10">
         <v>500000</v>
@@ -4009,13 +3375,13 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="10">
         <v>500000</v>
@@ -4034,13 +3400,13 @@
         <v>42859</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="10">
         <v>50000</v>
@@ -4059,13 +3425,13 @@
         <v>42860</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10">
         <v>50000</v>
@@ -4084,13 +3450,13 @@
         <v>42861</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" s="10">
         <v>500000</v>
@@ -4109,13 +3475,13 @@
         <v>42862</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>12000</v>
@@ -4134,13 +3500,13 @@
         <v>42864</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="10">
         <v>100000</v>
@@ -4159,13 +3525,13 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F23" s="10">
         <v>85200</v>
@@ -4184,13 +3550,13 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24" s="10">
         <v>400000</v>
@@ -4209,13 +3575,13 @@
         <v>42869</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="10">
         <v>400000</v>
@@ -4231,16 +3597,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="8">
-        <v>42877</v>
+        <v>42871</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10">
         <v>20000</v>
@@ -4255,13 +3621,26 @@
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="8">
+        <v>42876</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="10">
+        <v>3000000</v>
+      </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>12117200</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="7">
@@ -4338,7 +3717,7 @@
     <row r="34" spans="6:8">
       <c r="F34" s="19">
         <f>SUM(F4:F33)</f>
-        <v>34117200</v>
+        <v>37117200</v>
       </c>
       <c r="G34" s="19">
         <f>SUM(G4:G33)</f>
@@ -4346,7 +3725,7 @@
       </c>
       <c r="H34" s="19">
         <f>F34-G34</f>
-        <v>9117200</v>
+        <v>12117200</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Hamba Allah via Abu Umamah</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk YUSTANTO DWIANTORO Untuk Finishing Kanopi</t>
   </si>
 </sst>
 </file>
@@ -293,10 +296,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -324,7 +327,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,14 +380,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -369,14 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -387,54 +441,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,15 +454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +489,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +519,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,127 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +621,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -661,6 +652,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,32 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -808,17 +785,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,6 +824,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -849,16 +850,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -874,127 +877,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,9 +1040,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,16 +1069,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1418,15 +1423,16 @@
   <sheetPr/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="34.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="34.2857142857143" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -1449,39 +1455,39 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="J2" s="34" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="36" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1491,10 +1497,10 @@
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="10">
         <f>H63</f>
         <v>54871000</v>
       </c>
@@ -1523,11 +1529,11 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="36">
-        <f>Masjid!H34</f>
+      <c r="K4" s="10">
+        <f>Masjid!H30</f>
         <v>12117200</v>
       </c>
     </row>
@@ -1582,10 +1588,10 @@
         <f>H5+F6-G6</f>
         <v>10600000</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="10">
         <f>SUM(K3:K5)</f>
         <v>66988200</v>
       </c>
@@ -1744,16 +1750,16 @@
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="30">
         <v>42847</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10">
@@ -1769,7 +1775,7 @@
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="30">
         <v>42847</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1794,7 +1800,7 @@
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="30">
         <v>42847</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1819,7 +1825,7 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="30">
         <v>42847</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1844,7 +1850,7 @@
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="30">
         <v>42847</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1869,7 +1875,7 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="30">
         <v>42847</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1894,7 +1900,7 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="30">
         <v>42847</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1919,7 +1925,7 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="30">
         <v>42849</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1944,7 +1950,7 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="30">
         <v>42850</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -2266,22 +2272,22 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="27">
+      <c r="A34" s="32">
         <v>31</v>
       </c>
       <c r="B34" s="8">
         <v>42856</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="27" t="s">
+      <c r="C34" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="28">
+      <c r="E34" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="33">
         <v>500000</v>
       </c>
       <c r="G34" s="7"/>
@@ -2291,22 +2297,22 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="27">
+      <c r="A35" s="32">
         <v>32</v>
       </c>
       <c r="B35" s="8">
         <v>42856</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="28">
+      <c r="E35" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="33">
         <v>400000</v>
       </c>
       <c r="G35" s="7"/>
@@ -2316,22 +2322,22 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="27">
+      <c r="A36" s="32">
         <v>33</v>
       </c>
       <c r="B36" s="8">
         <v>42857</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="33">
         <v>2500000</v>
       </c>
       <c r="G36" s="7"/>
@@ -2341,7 +2347,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="27">
+      <c r="A37" s="32">
         <v>34</v>
       </c>
       <c r="B37" s="8">
@@ -2366,7 +2372,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="27">
+      <c r="A38" s="32">
         <v>35</v>
       </c>
       <c r="B38" s="8">
@@ -2381,7 +2387,7 @@
       <c r="E38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>100000</v>
       </c>
       <c r="G38" s="7"/>
@@ -2406,7 +2412,7 @@
       <c r="E39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>50000</v>
       </c>
       <c r="G39" s="7"/>
@@ -2416,26 +2422,26 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="29">
+      <c r="A40" s="20">
         <v>37</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="21">
         <v>42860</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="29" t="s">
+      <c r="C40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="34">
         <v>2000000</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="32">
+      <c r="G40" s="20"/>
+      <c r="H40" s="23">
         <f t="shared" ref="H40:H56" si="1">H39+F40-G40</f>
         <v>39319000</v>
       </c>
@@ -2456,7 +2462,7 @@
       <c r="E41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>25000</v>
       </c>
       <c r="G41" s="7"/>
@@ -2481,7 +2487,7 @@
       <c r="E42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>35000</v>
       </c>
       <c r="G42" s="7"/>
@@ -2506,7 +2512,7 @@
       <c r="E43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>150000</v>
       </c>
       <c r="G43" s="7"/>
@@ -2531,7 +2537,7 @@
       <c r="E44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>12000</v>
       </c>
       <c r="G44" s="7"/>
@@ -2556,7 +2562,7 @@
       <c r="E45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>10000000</v>
       </c>
       <c r="G45" s="7"/>
@@ -2581,7 +2587,7 @@
       <c r="E46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>50000</v>
       </c>
       <c r="G46" s="7"/>
@@ -2606,7 +2612,7 @@
       <c r="E47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>500000</v>
       </c>
       <c r="G47" s="7"/>
@@ -2631,7 +2637,7 @@
       <c r="E48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>155000</v>
       </c>
       <c r="G48" s="7"/>
@@ -2656,7 +2662,7 @@
       <c r="E49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>250000</v>
       </c>
       <c r="G49" s="7"/>
@@ -2681,7 +2687,7 @@
       <c r="E50" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>200000</v>
       </c>
       <c r="G50" s="7"/>
@@ -2706,7 +2712,7 @@
       <c r="E51" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>5000</v>
       </c>
       <c r="G51" s="7"/>
@@ -2731,7 +2737,7 @@
       <c r="E52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>5000</v>
       </c>
       <c r="G52" s="7"/>
@@ -2756,10 +2762,10 @@
       <c r="E53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>1500000</v>
       </c>
-      <c r="G53" s="18"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="10">
         <f t="shared" si="1"/>
         <v>52206000</v>
@@ -2781,10 +2787,10 @@
       <c r="E54" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>910000</v>
       </c>
-      <c r="G54" s="18"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="10">
         <f t="shared" si="1"/>
         <v>53116000</v>
@@ -2806,10 +2812,10 @@
       <c r="E55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="19">
         <v>200000</v>
       </c>
-      <c r="G55" s="18"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="10">
         <f t="shared" si="1"/>
         <v>53316000</v>
@@ -2831,10 +2837,10 @@
       <c r="E56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>55000</v>
       </c>
-      <c r="G56" s="18"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="10">
         <f t="shared" si="1"/>
         <v>53371000</v>
@@ -2856,10 +2862,10 @@
       <c r="E57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>1500000</v>
       </c>
-      <c r="G57" s="18"/>
+      <c r="G57" s="19"/>
       <c r="H57" s="10">
         <f t="shared" ref="H57:H62" si="2">H56+F57-G57</f>
         <v>54871000</v>
@@ -2879,8 +2885,8 @@
         <v>75</v>
       </c>
       <c r="E58" s="7"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="10">
         <f t="shared" si="2"/>
         <v>54871000</v>
@@ -2894,8 +2900,8 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="10">
         <f t="shared" si="2"/>
         <v>54871000</v>
@@ -2909,8 +2915,8 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="10">
         <f t="shared" si="2"/>
         <v>54871000</v>
@@ -2924,8 +2930,8 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
       <c r="H61" s="10">
         <f t="shared" si="2"/>
         <v>54871000</v>
@@ -2939,20 +2945,20 @@
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="10">
         <f t="shared" si="2"/>
         <v>54871000</v>
       </c>
     </row>
     <row r="63" spans="6:8">
-      <c r="F63" s="33">
+      <c r="F63" s="35">
         <f>SUM(F4:F62)</f>
         <v>54871000</v>
       </c>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33">
+      <c r="G63" s="35"/>
+      <c r="H63" s="35">
         <f>F63-G63</f>
         <v>54871000</v>
       </c>
@@ -2976,10 +2982,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2987,7 +2993,7 @@
     <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="8" width="11.5714285714286" customWidth="1"/>
   </cols>
@@ -3113,7 +3119,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11">
-        <f t="shared" ref="H6:H27" si="0">H5+F6-G6</f>
+        <f t="shared" ref="H6:H29" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
@@ -3312,7 +3318,7 @@
         <v>100000</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="17">
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>100000</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="17">
+      <c r="H15" s="18">
         <f t="shared" si="0"/>
         <v>6500000</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>500000</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="17">
+      <c r="H16" s="18">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>500000</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="17">
+      <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>7500000</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>50000</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="17">
+      <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>7550000</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>50000</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="17">
+      <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>7600000</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>500000</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="17">
+      <c r="H20" s="18">
         <f t="shared" si="0"/>
         <v>8100000</v>
       </c>
@@ -3483,11 +3489,11 @@
       <c r="E21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>12000</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="17">
+      <c r="H21" s="18">
         <f t="shared" si="0"/>
         <v>8112000</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>100000</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="17">
+      <c r="H22" s="18">
         <f t="shared" si="0"/>
         <v>8212000</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>85200</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="17">
+      <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>8297200</v>
       </c>
@@ -3562,7 +3568,7 @@
         <v>400000</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="17">
+      <c r="H24" s="18">
         <f t="shared" si="0"/>
         <v>8697200</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>400000</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="17">
+      <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>9097200</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>20000</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="17">
+      <c r="H26" s="18">
         <f t="shared" si="0"/>
         <v>9117200</v>
       </c>
@@ -3637,94 +3643,70 @@
         <v>3000000</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="17">
+      <c r="H27" s="18">
         <f t="shared" si="0"/>
         <v>12117200</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="7">
+    <row r="28" ht="30" spans="1:8">
+      <c r="A28" s="20">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="B28" s="21">
+        <v>42880</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="23">
+        <v>15000000</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>27117200</v>
+      </c>
+    </row>
+    <row r="29" ht="45" spans="1:8">
+      <c r="A29" s="13">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7">
-        <v>27</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="7">
-        <v>28</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7">
-        <v>29</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="7">
-        <v>30</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="6:8">
-      <c r="F34" s="19">
-        <f>SUM(F4:F33)</f>
-        <v>37117200</v>
-      </c>
-      <c r="G34" s="19">
-        <f>SUM(G4:G33)</f>
-        <v>25000000</v>
-      </c>
-      <c r="H34" s="19">
-        <f>F34-G34</f>
+      <c r="B29" s="14">
+        <v>42880</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16">
+        <v>15000000</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>12117200</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" s="24">
+        <f>SUM(F4:F29)</f>
+        <v>52117200</v>
+      </c>
+      <c r="G30" s="24">
+        <f>SUM(G4:G29)</f>
+        <v>40000000</v>
+      </c>
+      <c r="H30" s="24">
+        <f>F30-G30</f>
         <v>12117200</v>
       </c>
     </row>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -71,9 +71,15 @@
     <t>Hamba Allah Mantung</t>
   </si>
   <si>
+    <t>Rekening</t>
+  </si>
+  <si>
     <t>Hamba Allah Weru</t>
   </si>
   <si>
+    <t>Selisih</t>
+  </si>
+  <si>
     <t>Abu Yahya Lirim</t>
   </si>
   <si>
@@ -239,52 +245,67 @@
     <t>Abu Zakaria Amin S</t>
   </si>
   <si>
+    <t>Anonim Konfirmasi via SMS</t>
+  </si>
+  <si>
+    <t> SETIYO UTOMO</t>
+  </si>
+  <si>
+    <t>Abu Muhammad Banjar</t>
+  </si>
+  <si>
+    <t>Hamba Allah Pucang Sawit</t>
+  </si>
+  <si>
+    <t>Mas Ari Pucang Sawit</t>
+  </si>
+  <si>
+    <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
+  </si>
+  <si>
+    <t>SIDIK DARUSULISTYO / Shidiq Abu Abdirrahman</t>
+  </si>
+  <si>
+    <t>Abu Zufar Helmi Efendi</t>
+  </si>
+  <si>
+    <t>Abu Ummar Qudwah</t>
+  </si>
+  <si>
+    <t>Hendy Abu Hamzah</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk YUSTANTO DWIANTORO DP dan Belanja Kanopi</t>
+  </si>
+  <si>
+    <t>DP dan Belanja Kanopi</t>
+  </si>
+  <si>
+    <t>Abu Mubarok Joko</t>
+  </si>
+  <si>
+    <t>Abu Muhammad</t>
+  </si>
+  <si>
+    <t>Abu Muhammad Salafy</t>
+  </si>
+  <si>
+    <t>Abu Ahmad Sutris</t>
+  </si>
+  <si>
+    <t>Ronald Yusuf</t>
+  </si>
+  <si>
+    <t>Al Ghuroba</t>
+  </si>
+  <si>
+    <t>Hamba Allah via Abu Umamah</t>
+  </si>
+  <si>
     <t>Hamba Allah Via Abu Zufar</t>
   </si>
   <si>
     <t>Saudaranya Abu Zufar</t>
-  </si>
-  <si>
-    <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
-  </si>
-  <si>
-    <t>SIDIK DARUSULISTYO / Shidiq Abu Abdirrahman</t>
-  </si>
-  <si>
-    <t>Abu Zufar Helmi Efendi</t>
-  </si>
-  <si>
-    <t>Abu Ummar Qudwah</t>
-  </si>
-  <si>
-    <t>Hendy Abu Hamzah</t>
-  </si>
-  <si>
-    <t>TRANSFER KE Bpk YUSTANTO DWIANTORO DP dan Belanja Kanopi</t>
-  </si>
-  <si>
-    <t>DP dan Belanja Kanopi</t>
-  </si>
-  <si>
-    <t>Abu Mubarok Joko</t>
-  </si>
-  <si>
-    <t>Abu Muhammad</t>
-  </si>
-  <si>
-    <t>Abu Muhammad Salafy</t>
-  </si>
-  <si>
-    <t>Abu Ahmad Sutris</t>
-  </si>
-  <si>
-    <t>Ronald Yusuf</t>
-  </si>
-  <si>
-    <t>Al Ghuroba</t>
-  </si>
-  <si>
-    <t>Hamba Allah via Abu Umamah</t>
   </si>
   <si>
     <t>TRANSFER KE Bpk YUSTANTO DWIANTORO Untuk Finishing Kanopi</t>
@@ -296,10 +317,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -327,7 +348,91 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,35 +447,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -378,31 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,47 +469,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +510,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,19 +582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,13 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,103 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +643,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,6 +782,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -781,45 +832,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,10 +870,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -877,134 +898,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1070,6 +1091,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1421,10 +1446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1439,7 +1464,7 @@
     <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="12.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="11.7142857142857" customWidth="1"/>
+    <col min="11" max="11" width="16.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:8">
@@ -1473,10 +1498,10 @@
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1501,8 +1526,8 @@
         <v>10</v>
       </c>
       <c r="K3" s="10">
-        <f>H63</f>
-        <v>54871000</v>
+        <f>H64</f>
+        <v>76371000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1561,8 +1586,8 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
@@ -1593,7 +1618,7 @@
       </c>
       <c r="K6" s="10">
         <f>SUM(K3:K5)</f>
-        <v>66988200</v>
+        <v>88488200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1621,7 +1646,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1645,8 +1670,14 @@
         <f t="shared" si="0"/>
         <v>11650000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="39">
+        <v>85435797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1654,10 +1685,10 @@
         <v>42845</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -1669,6 +1700,13 @@
       <c r="H9" s="11">
         <f t="shared" si="0"/>
         <v>11850000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="39">
+        <f>K6-K8</f>
+        <v>3052403</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1682,7 +1720,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -1704,10 +1742,10 @@
         <v>42845</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
@@ -1732,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -1754,10 +1792,10 @@
         <v>42847</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>12</v>
@@ -1779,10 +1817,10 @@
         <v>42847</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
@@ -1804,10 +1842,10 @@
         <v>42847</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -1829,10 +1867,10 @@
         <v>42847</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>16</v>
@@ -1857,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
@@ -1879,10 +1917,10 @@
         <v>42847</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>16</v>
@@ -1904,10 +1942,10 @@
         <v>42847</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
@@ -1929,10 +1967,10 @@
         <v>42849</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
@@ -1957,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>12</v>
@@ -1982,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>12</v>
@@ -2004,10 +2042,10 @@
         <v>42851</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>16</v>
@@ -2029,10 +2067,10 @@
         <v>42851</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>16</v>
@@ -2057,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>16</v>
@@ -2079,10 +2117,10 @@
         <v>42853</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>16</v>
@@ -2107,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>16</v>
@@ -2132,7 +2170,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>16</v>
@@ -2154,10 +2192,10 @@
         <v>42854</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>16</v>
@@ -2182,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>16</v>
@@ -2207,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>16</v>
@@ -2232,7 +2270,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>16</v>
@@ -2257,7 +2295,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>12</v>
@@ -2282,7 +2320,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>16</v>
@@ -2304,10 +2342,10 @@
         <v>42856</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>16</v>
@@ -2329,10 +2367,10 @@
         <v>42857</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>12</v>
@@ -2354,10 +2392,10 @@
         <v>42857</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>12</v>
@@ -2379,10 +2417,10 @@
         <v>42859</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>16</v>
@@ -2404,10 +2442,10 @@
         <v>42860</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>16</v>
@@ -2432,7 +2470,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>12</v>
@@ -2457,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>16</v>
@@ -2482,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>16</v>
@@ -2507,7 +2545,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>16</v>
@@ -2532,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>16</v>
@@ -2554,10 +2592,10 @@
         <v>42863</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>16</v>
@@ -2582,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>16</v>
@@ -2607,7 +2645,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>16</v>
@@ -2632,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>16</v>
@@ -2657,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>16</v>
@@ -2682,7 +2720,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>16</v>
@@ -2704,10 +2742,10 @@
         <v>42866</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>16</v>
@@ -2729,10 +2767,10 @@
         <v>42870</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>16</v>
@@ -2754,10 +2792,10 @@
         <v>42870</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>16</v>
@@ -2779,10 +2817,10 @@
         <v>42870</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>16</v>
@@ -2804,10 +2842,10 @@
         <v>42870</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>12</v>
@@ -2832,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>16</v>
@@ -2857,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>12</v>
@@ -2867,7 +2905,7 @@
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="10">
-        <f t="shared" ref="H57:H62" si="2">H56+F57-G57</f>
+        <f t="shared" ref="H57:H60" si="2">H56+F57-G57</f>
         <v>54871000</v>
       </c>
     </row>
@@ -2876,91 +2914,150 @@
         <v>55</v>
       </c>
       <c r="B58" s="8">
-        <v>42876</v>
+        <v>42882</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="19">
+        <v>3000000</v>
+      </c>
       <c r="G58" s="19"/>
       <c r="H58" s="10">
         <f t="shared" si="2"/>
-        <v>54871000</v>
+        <v>57871000</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="7">
         <v>56</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="19"/>
+      <c r="B59" s="8">
+        <v>42885</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="19">
+        <v>5200000</v>
+      </c>
       <c r="G59" s="19"/>
       <c r="H59" s="10">
         <f t="shared" si="2"/>
-        <v>54871000</v>
+        <v>63071000</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="7">
         <v>57</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="19"/>
+      <c r="B60" s="8">
+        <v>42885</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="19">
+        <v>300000</v>
+      </c>
       <c r="G60" s="19"/>
       <c r="H60" s="10">
         <f t="shared" si="2"/>
-        <v>54871000</v>
+        <v>63371000</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7">
+      <c r="A61" s="35">
         <v>58</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="10">
-        <f t="shared" si="2"/>
-        <v>54871000</v>
+      <c r="B61" s="36">
+        <v>42886</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="37">
+        <v>10000000</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38">
+        <f>H60+F61-G61</f>
+        <v>73371000</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>59</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="19"/>
+      <c r="B62" s="8">
+        <v>42886</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="19">
+        <v>3000000</v>
+      </c>
       <c r="G62" s="19"/>
       <c r="H62" s="10">
-        <f t="shared" si="2"/>
-        <v>54871000</v>
-      </c>
-    </row>
-    <row r="63" spans="6:8">
-      <c r="F63" s="35">
-        <f>SUM(F4:F62)</f>
-        <v>54871000</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35">
-        <f>F63-G63</f>
-        <v>54871000</v>
+        <f>H61+F62-G62</f>
+        <v>76371000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="7">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="10">
+        <f>H62+F63-G63</f>
+        <v>76371000</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" s="39">
+        <f>SUM(F4:F63)</f>
+        <v>76371000</v>
+      </c>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39">
+        <f>F64-G64</f>
+        <v>76371000</v>
       </c>
     </row>
   </sheetData>
@@ -2984,8 +3081,8 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3000,7 +3097,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3084,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -3109,7 +3206,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -3131,10 +3228,10 @@
         <v>42851</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>
@@ -3159,7 +3256,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -3181,10 +3278,10 @@
         <v>42854</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
@@ -3209,7 +3306,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -3234,7 +3331,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -3259,7 +3356,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -3281,13 +3378,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3309,7 +3406,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>16</v>
@@ -3334,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -3356,10 +3453,10 @@
         <v>42857</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>12</v>
@@ -3381,10 +3478,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
@@ -3406,10 +3503,10 @@
         <v>42859</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>16</v>
@@ -3431,10 +3528,10 @@
         <v>42860</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>16</v>
@@ -3459,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
@@ -3484,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
@@ -3509,7 +3606,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>16</v>
@@ -3531,10 +3628,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>16</v>
@@ -3556,10 +3653,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>16</v>
@@ -3584,7 +3681,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>16</v>
@@ -3609,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>16</v>
@@ -3631,10 +3728,10 @@
         <v>42876</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
@@ -3659,7 +3756,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>12</v>
@@ -3681,7 +3778,7 @@
         <v>42880</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="13" t="s">

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>Mas Ari Pucang Sawit</t>
+  </si>
+  <si>
+    <t>SPP Blmdiambil</t>
+  </si>
+  <si>
+    <t>Abu Hanif Banyuanyar</t>
+  </si>
+  <si>
+    <t>Abu Ismail Bin Ibrahim</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -317,10 +326,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -336,50 +345,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,19 +364,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,16 +388,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,8 +433,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,8 +454,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,13 +487,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,13 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,85 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,13 +561,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,37 +675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,6 +791,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -793,6 +820,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,50 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,19 +888,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -898,134 +907,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1091,10 +1100,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1446,18 +1453,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="34.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="34.2857142857143" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="34.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -1498,10 +1504,10 @@
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="28"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="38" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1526,8 +1532,8 @@
         <v>10</v>
       </c>
       <c r="K3" s="10">
-        <f>H64</f>
-        <v>76371000</v>
+        <f>H74</f>
+        <v>76396000</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1586,8 +1592,8 @@
         <f>H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
@@ -1618,7 +1624,7 @@
       </c>
       <c r="K6" s="10">
         <f>SUM(K3:K5)</f>
-        <v>88488200</v>
+        <v>88513200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1673,7 +1679,7 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="37">
         <v>85435797</v>
       </c>
     </row>
@@ -1704,9 +1710,9 @@
       <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="37">
         <f>K6-K8</f>
-        <v>3052403</v>
+        <v>3077403</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2905,7 +2911,7 @@
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="10">
-        <f t="shared" ref="H57:H60" si="2">H56+F57-G57</f>
+        <f t="shared" ref="H57:H63" si="2">H56+F57-G57</f>
         <v>54871000</v>
       </c>
     </row>
@@ -2985,27 +2991,27 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="35">
+      <c r="A61" s="32">
         <v>58</v>
       </c>
-      <c r="B61" s="36">
+      <c r="B61" s="35">
         <v>42886</v>
       </c>
-      <c r="C61" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="35" t="s">
+      <c r="C61" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="37">
+      <c r="F61" s="36">
         <v>10000000</v>
       </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38">
-        <f>H60+F61-G61</f>
+      <c r="G61" s="36"/>
+      <c r="H61" s="33">
+        <f t="shared" si="2"/>
         <v>73371000</v>
       </c>
     </row>
@@ -3030,34 +3036,217 @@
       </c>
       <c r="G62" s="19"/>
       <c r="H62" s="10">
-        <f>H61+F62-G62</f>
+        <f t="shared" si="2"/>
         <v>76371000</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:10">
       <c r="A63" s="7">
         <v>60</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="19"/>
+      <c r="B63" s="8">
+        <v>42887</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="19">
+        <v>25000</v>
+      </c>
       <c r="G63" s="19"/>
       <c r="H63" s="10">
-        <f>H62+F63-G63</f>
-        <v>76371000</v>
-      </c>
-    </row>
-    <row r="64" spans="6:8">
-      <c r="F64" s="39">
+        <f t="shared" si="2"/>
+        <v>76396000</v>
+      </c>
+      <c r="J63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="7">
+        <v>61</v>
+      </c>
+      <c r="B64" s="8">
+        <v>42887</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="19">
+        <v>50000</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="10">
+        <f t="shared" ref="H64:H73" si="3">H63+F64-G64</f>
+        <v>76446000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="7">
+        <v>62</v>
+      </c>
+      <c r="B65" s="8">
+        <v>42887</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="37">
+        <v>150000</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="10">
+        <f t="shared" si="3"/>
+        <v>76596000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="7">
+        <v>63</v>
+      </c>
+      <c r="B66" s="8">
+        <v>42887</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="37">
+        <v>100000</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7">
+        <v>64</v>
+      </c>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7">
+        <v>65</v>
+      </c>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7">
+        <v>66</v>
+      </c>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7">
+        <v>67</v>
+      </c>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7">
+        <v>68</v>
+      </c>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7">
+        <v>69</v>
+      </c>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7">
+        <v>70</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="10">
+        <f t="shared" si="3"/>
+        <v>76696000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7">
+        <v>71</v>
+      </c>
+      <c r="F74" s="37">
         <f>SUM(F4:F63)</f>
-        <v>76371000</v>
-      </c>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39">
-        <f>F64-G64</f>
-        <v>76371000</v>
+        <v>76396000</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37">
+        <f>F74-G74</f>
+        <v>76396000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3286,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3206,7 +3395,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -3256,7 +3445,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -3306,7 +3495,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -3356,7 +3545,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -3378,13 +3567,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3431,7 +3620,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -3478,10 +3667,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
@@ -3556,7 +3745,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
@@ -3606,7 +3795,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>16</v>
@@ -3628,10 +3817,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>16</v>
@@ -3653,10 +3842,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>16</v>
@@ -3728,10 +3917,10 @@
         <v>42876</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
@@ -3756,7 +3945,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>12</v>
@@ -3778,7 +3967,7 @@
         <v>42880</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="13" t="s">

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -260,13 +260,73 @@
     <t>Mas Ari Pucang Sawit</t>
   </si>
   <si>
-    <t>SPP Blmdiambil</t>
+    <t>Sdh diambil</t>
   </si>
   <si>
     <t>Abu Hanif Banyuanyar</t>
   </si>
   <si>
     <t>Abu Ismail Bin Ibrahim</t>
+  </si>
+  <si>
+    <t>Mas Mulyono</t>
+  </si>
+  <si>
+    <t>Biaya Pemasangan Kanopi Banat Via Abu Suhailah</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk YUSTANTO DWIANTORO Belanja pembangunan Kelas Banat Periode I</t>
+  </si>
+  <si>
+    <t>Abu Uthbah</t>
+  </si>
+  <si>
+    <t>Santri Banat</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Rosok Kardus</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Banat + Anting2 (Anting2 tdk ada)</t>
+  </si>
+  <si>
+    <t>Banat</t>
+  </si>
+  <si>
+    <t>Abu Abdirrozaq</t>
+  </si>
+  <si>
+    <t>Abu Hambali Dadi</t>
+  </si>
+  <si>
+    <t>Penyerahan uang dari bendahara banat</t>
+  </si>
+  <si>
+    <t>Hamba Allah (Banat)</t>
+  </si>
+  <si>
+    <t>Uang receh</t>
+  </si>
+  <si>
+    <t>Diserahkan ke abu hisyam (info dr WA BMW)</t>
+  </si>
+  <si>
+    <t>Penyerahan uang untuk kebutuhan pembangunan ke Abu Suhailah</t>
+  </si>
+  <si>
+    <t>Dari abu hisyam langsung diserahkan ke mas icok (sesuai info wa dr dr dhiya)</t>
+  </si>
+  <si>
+    <t>Belanja material dan bayar tenaga via Abu Suhailah dan mas Martopo</t>
+  </si>
+  <si>
+    <t>Cash via ATM BNI belakang alifah gas (pinjam SPP)</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -325,11 +385,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -349,40 +409,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,8 +431,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,15 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -440,6 +522,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -448,45 +546,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,7 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +597,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,13 +657,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,73 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,42 +759,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -768,17 +828,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -791,20 +840,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,32 +870,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,30 +908,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,134 +956,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1059,8 +1108,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1069,49 +1118,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,17 +1513,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="34.2857142857143" style="25" customWidth="1"/>
+    <col min="4" max="4" width="34.2857142857143" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -1471,6 +1532,7 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="12.2857142857143" customWidth="1"/>
     <col min="11" max="11" width="16.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="14.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:8">
@@ -1478,47 +1540,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="J2" s="38" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1532,21 +1594,24 @@
         <v>10</v>
       </c>
       <c r="K3" s="10">
-        <f>H74</f>
-        <v>76396000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <f>H89</f>
+        <v>123459800</v>
+      </c>
+      <c r="M3">
+        <v>58296000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="8">
         <v>42841</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1567,6 +1632,9 @@
         <f>Masjid!H30</f>
         <v>12117200</v>
       </c>
+      <c r="M4" s="10">
+        <v>12117200</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7">
@@ -1575,10 +1643,10 @@
       <c r="B5" s="8">
         <v>42842</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1589,23 +1657,23 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11">
-        <f>H4+F5-G5</f>
+        <f t="shared" ref="H5:H68" si="0">H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="8">
         <v>42844</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1616,7 +1684,7 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11">
-        <f>H5+F6-G6</f>
+        <f t="shared" si="0"/>
         <v>10600000</v>
       </c>
       <c r="J6" s="31" t="s">
@@ -1624,7 +1692,11 @@
       </c>
       <c r="K6" s="10">
         <f>SUM(K3:K5)</f>
-        <v>88513200</v>
+        <v>135577000</v>
+      </c>
+      <c r="M6" s="10">
+        <f>SUM(M3:M5)</f>
+        <v>70413200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1634,10 +1706,10 @@
       <c r="B7" s="8">
         <v>42844</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1648,21 +1720,21 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="11">
-        <f t="shared" ref="H7:H39" si="0">H6+F7-G7</f>
+        <f t="shared" si="0"/>
         <v>11600000</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="8">
         <v>42844</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1679,21 +1751,24 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="37">
-        <v>85435797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="42">
+        <v>135101797</v>
+      </c>
+      <c r="M8" s="43">
+        <v>68535797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="8">
         <v>42845</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1710,22 +1785,26 @@
       <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="42">
         <f>K6-K8</f>
-        <v>3077403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>475203</v>
+      </c>
+      <c r="M9" s="43">
+        <f>M6-M8</f>
+        <v>1877403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="8">
         <v>42845</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1738,6 +1817,9 @@
       <c r="H10" s="11">
         <f t="shared" si="0"/>
         <v>12450000</v>
+      </c>
+      <c r="K10" s="19">
+        <v>124200</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1747,10 +1829,10 @@
       <c r="B11" s="8">
         <v>42845</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1765,17 +1847,17 @@
         <v>13466000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="8">
         <v>42846</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1788,19 +1870,23 @@
       <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>13516000</v>
+      </c>
+      <c r="K12">
+        <f>K9-K10</f>
+        <v>351003</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>42847</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -1819,13 +1905,13 @@
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>42847</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1844,13 +1930,13 @@
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>42847</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1869,13 +1955,13 @@
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>42847</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="28" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1894,13 +1980,13 @@
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>42847</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1919,13 +2005,13 @@
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>42847</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1944,13 +2030,13 @@
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>42847</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1969,13 +2055,13 @@
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>42849</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -1994,13 +2080,13 @@
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="29">
         <v>42850</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2022,10 +2108,10 @@
       <c r="B22" s="8">
         <v>42851</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -2047,10 +2133,10 @@
       <c r="B23" s="8">
         <v>42851</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -2072,10 +2158,10 @@
       <c r="B24" s="8">
         <v>42851</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -2085,7 +2171,7 @@
         <v>1000000</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="10">
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>23916000</v>
       </c>
@@ -2097,10 +2183,10 @@
       <c r="B25" s="8">
         <v>42851</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -2110,7 +2196,7 @@
         <v>350000</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>24266000</v>
       </c>
@@ -2122,10 +2208,10 @@
       <c r="B26" s="8">
         <v>42853</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -2135,7 +2221,7 @@
         <v>4253000</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="10">
+      <c r="H26" s="11">
         <f t="shared" si="0"/>
         <v>28519000</v>
       </c>
@@ -2147,10 +2233,10 @@
       <c r="B27" s="8">
         <v>42854</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="28" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -2160,7 +2246,7 @@
         <v>500000</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="10">
+      <c r="H27" s="11">
         <f t="shared" si="0"/>
         <v>29019000</v>
       </c>
@@ -2172,10 +2258,10 @@
       <c r="B28" s="8">
         <v>42854</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -2185,7 +2271,7 @@
         <v>400000</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="10">
+      <c r="H28" s="11">
         <f t="shared" si="0"/>
         <v>29419000</v>
       </c>
@@ -2197,10 +2283,10 @@
       <c r="B29" s="8">
         <v>42854</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="28" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -2210,7 +2296,7 @@
         <v>500000</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="10">
+      <c r="H29" s="11">
         <f t="shared" si="0"/>
         <v>29919000</v>
       </c>
@@ -2222,10 +2308,10 @@
       <c r="B30" s="8">
         <v>42854</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -2235,7 +2321,7 @@
         <v>2000000</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="10">
+      <c r="H30" s="11">
         <f t="shared" si="0"/>
         <v>31919000</v>
       </c>
@@ -2247,10 +2333,10 @@
       <c r="B31" s="8">
         <v>42854</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -2260,7 +2346,7 @@
         <v>300000</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="10">
+      <c r="H31" s="11">
         <f t="shared" si="0"/>
         <v>32219000</v>
       </c>
@@ -2272,10 +2358,10 @@
       <c r="B32" s="8">
         <v>42854</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -2285,7 +2371,7 @@
         <v>50000</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="10">
+      <c r="H32" s="11">
         <f t="shared" si="0"/>
         <v>32269000</v>
       </c>
@@ -2297,10 +2383,10 @@
       <c r="B33" s="8">
         <v>42854</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="28" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -2310,7 +2396,7 @@
         <v>1000000</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="10">
+      <c r="H33" s="11">
         <f t="shared" si="0"/>
         <v>33269000</v>
       </c>
@@ -2322,20 +2408,20 @@
       <c r="B34" s="8">
         <v>42856</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="32" t="s">
+      <c r="C34" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="34">
         <v>500000</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="10">
+      <c r="H34" s="11">
         <f t="shared" si="0"/>
         <v>33769000</v>
       </c>
@@ -2347,20 +2433,20 @@
       <c r="B35" s="8">
         <v>42856</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="34">
         <v>400000</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="10">
+      <c r="H35" s="11">
         <f t="shared" si="0"/>
         <v>34169000</v>
       </c>
@@ -2372,20 +2458,20 @@
       <c r="B36" s="8">
         <v>42857</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="34">
         <v>2500000</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="10">
+      <c r="H36" s="11">
         <f t="shared" si="0"/>
         <v>36669000</v>
       </c>
@@ -2397,10 +2483,10 @@
       <c r="B37" s="8">
         <v>42857</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -2410,7 +2496,7 @@
         <v>500000</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="10">
+      <c r="H37" s="11">
         <f t="shared" si="0"/>
         <v>37169000</v>
       </c>
@@ -2422,10 +2508,10 @@
       <c r="B38" s="8">
         <v>42859</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -2435,7 +2521,7 @@
         <v>100000</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="10">
+      <c r="H38" s="11">
         <f t="shared" si="0"/>
         <v>37269000</v>
       </c>
@@ -2447,10 +2533,10 @@
       <c r="B39" s="8">
         <v>42860</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="28" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -2460,7 +2546,7 @@
         <v>50000</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="10">
+      <c r="H39" s="11">
         <f t="shared" si="0"/>
         <v>37319000</v>
       </c>
@@ -2472,21 +2558,21 @@
       <c r="B40" s="21">
         <v>42860</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="34">
+      <c r="F40" s="36">
         <v>2000000</v>
       </c>
       <c r="G40" s="20"/>
-      <c r="H40" s="23">
-        <f t="shared" ref="H40:H56" si="1">H39+F40-G40</f>
+      <c r="H40" s="11">
+        <f t="shared" si="0"/>
         <v>39319000</v>
       </c>
     </row>
@@ -2497,10 +2583,10 @@
       <c r="B41" s="8">
         <v>42861</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -2510,8 +2596,8 @@
         <v>25000</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="10">
-        <f t="shared" si="1"/>
+      <c r="H41" s="11">
+        <f t="shared" si="0"/>
         <v>39344000</v>
       </c>
     </row>
@@ -2522,10 +2608,10 @@
       <c r="B42" s="8">
         <v>42861</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -2535,8 +2621,8 @@
         <v>35000</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="10">
-        <f t="shared" si="1"/>
+      <c r="H42" s="11">
+        <f t="shared" si="0"/>
         <v>39379000</v>
       </c>
     </row>
@@ -2547,10 +2633,10 @@
       <c r="B43" s="8">
         <v>42861</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="28" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -2560,8 +2646,8 @@
         <v>150000</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="10">
-        <f t="shared" si="1"/>
+      <c r="H43" s="11">
+        <f t="shared" si="0"/>
         <v>39529000</v>
       </c>
     </row>
@@ -2572,10 +2658,10 @@
       <c r="B44" s="8">
         <v>42862</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -2585,8 +2671,8 @@
         <v>12000</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="10">
-        <f t="shared" si="1"/>
+      <c r="H44" s="11">
+        <f t="shared" si="0"/>
         <v>39541000</v>
       </c>
     </row>
@@ -2597,10 +2683,10 @@
       <c r="B45" s="8">
         <v>42863</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="28" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -2610,8 +2696,8 @@
         <v>10000000</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="10">
-        <f t="shared" si="1"/>
+      <c r="H45" s="11">
+        <f t="shared" si="0"/>
         <v>49541000</v>
       </c>
     </row>
@@ -2622,10 +2708,10 @@
       <c r="B46" s="8">
         <v>42864</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="28" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -2635,8 +2721,8 @@
         <v>50000</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="10">
-        <f t="shared" si="1"/>
+      <c r="H46" s="11">
+        <f t="shared" si="0"/>
         <v>49591000</v>
       </c>
     </row>
@@ -2647,10 +2733,10 @@
       <c r="B47" s="8">
         <v>42865</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="28" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -2660,8 +2746,8 @@
         <v>500000</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="10">
-        <f t="shared" si="1"/>
+      <c r="H47" s="11">
+        <f t="shared" si="0"/>
         <v>50091000</v>
       </c>
     </row>
@@ -2672,10 +2758,10 @@
       <c r="B48" s="8">
         <v>42865</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="28" t="s">
         <v>65</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -2685,8 +2771,8 @@
         <v>155000</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="10">
-        <f t="shared" si="1"/>
+      <c r="H48" s="11">
+        <f t="shared" si="0"/>
         <v>50246000</v>
       </c>
     </row>
@@ -2697,10 +2783,10 @@
       <c r="B49" s="8">
         <v>42865</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -2710,8 +2796,8 @@
         <v>250000</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="10">
-        <f t="shared" si="1"/>
+      <c r="H49" s="11">
+        <f t="shared" si="0"/>
         <v>50496000</v>
       </c>
     </row>
@@ -2722,10 +2808,10 @@
       <c r="B50" s="8">
         <v>42866</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -2735,8 +2821,8 @@
         <v>200000</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="10">
-        <f t="shared" si="1"/>
+      <c r="H50" s="11">
+        <f t="shared" si="0"/>
         <v>50696000</v>
       </c>
     </row>
@@ -2747,10 +2833,10 @@
       <c r="B51" s="8">
         <v>42866</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -2760,8 +2846,8 @@
         <v>5000</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="10">
-        <f t="shared" si="1"/>
+      <c r="H51" s="11">
+        <f t="shared" si="0"/>
         <v>50701000</v>
       </c>
     </row>
@@ -2772,10 +2858,10 @@
       <c r="B52" s="8">
         <v>42870</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -2785,8 +2871,8 @@
         <v>5000</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="10">
-        <f t="shared" si="1"/>
+      <c r="H52" s="11">
+        <f t="shared" si="0"/>
         <v>50706000</v>
       </c>
     </row>
@@ -2797,10 +2883,10 @@
       <c r="B53" s="8">
         <v>42870</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -2810,8 +2896,8 @@
         <v>1500000</v>
       </c>
       <c r="G53" s="19"/>
-      <c r="H53" s="10">
-        <f t="shared" si="1"/>
+      <c r="H53" s="11">
+        <f t="shared" si="0"/>
         <v>52206000</v>
       </c>
     </row>
@@ -2822,10 +2908,10 @@
       <c r="B54" s="8">
         <v>42870</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -2835,8 +2921,8 @@
         <v>910000</v>
       </c>
       <c r="G54" s="19"/>
-      <c r="H54" s="10">
-        <f t="shared" si="1"/>
+      <c r="H54" s="11">
+        <f t="shared" si="0"/>
         <v>53116000</v>
       </c>
     </row>
@@ -2847,10 +2933,10 @@
       <c r="B55" s="8">
         <v>42870</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="28" t="s">
         <v>73</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -2860,8 +2946,8 @@
         <v>200000</v>
       </c>
       <c r="G55" s="19"/>
-      <c r="H55" s="10">
-        <f t="shared" si="1"/>
+      <c r="H55" s="11">
+        <f t="shared" si="0"/>
         <v>53316000</v>
       </c>
     </row>
@@ -2872,10 +2958,10 @@
       <c r="B56" s="8">
         <v>42871</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>74</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -2885,8 +2971,8 @@
         <v>55000</v>
       </c>
       <c r="G56" s="19"/>
-      <c r="H56" s="10">
-        <f t="shared" si="1"/>
+      <c r="H56" s="11">
+        <f t="shared" si="0"/>
         <v>53371000</v>
       </c>
     </row>
@@ -2897,10 +2983,10 @@
       <c r="B57" s="8">
         <v>42872</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="28" t="s">
         <v>75</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -2910,8 +2996,8 @@
         <v>1500000</v>
       </c>
       <c r="G57" s="19"/>
-      <c r="H57" s="10">
-        <f t="shared" ref="H57:H63" si="2">H56+F57-G57</f>
+      <c r="H57" s="11">
+        <f t="shared" si="0"/>
         <v>54871000</v>
       </c>
     </row>
@@ -2922,10 +3008,10 @@
       <c r="B58" s="8">
         <v>42882</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="7" t="s">
@@ -2935,8 +3021,8 @@
         <v>3000000</v>
       </c>
       <c r="G58" s="19"/>
-      <c r="H58" s="10">
-        <f t="shared" si="2"/>
+      <c r="H58" s="11">
+        <f t="shared" si="0"/>
         <v>57871000</v>
       </c>
     </row>
@@ -2947,10 +3033,10 @@
       <c r="B59" s="8">
         <v>42885</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="28" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="7" t="s">
@@ -2960,8 +3046,8 @@
         <v>5200000</v>
       </c>
       <c r="G59" s="19"/>
-      <c r="H59" s="10">
-        <f t="shared" si="2"/>
+      <c r="H59" s="11">
+        <f t="shared" si="0"/>
         <v>63071000</v>
       </c>
     </row>
@@ -2972,10 +3058,10 @@
       <c r="B60" s="8">
         <v>42885</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="28" t="s">
         <v>77</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -2985,8 +3071,8 @@
         <v>300000</v>
       </c>
       <c r="G60" s="19"/>
-      <c r="H60" s="10">
-        <f t="shared" si="2"/>
+      <c r="H60" s="11">
+        <f t="shared" si="0"/>
         <v>63371000</v>
       </c>
     </row>
@@ -2994,24 +3080,24 @@
       <c r="A61" s="32">
         <v>58</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B61" s="37">
         <v>42886</v>
       </c>
-      <c r="C61" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="32" t="s">
+      <c r="C61" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E61" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="38">
         <v>10000000</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="33">
-        <f t="shared" si="2"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="11">
+        <f t="shared" si="0"/>
         <v>73371000</v>
       </c>
     </row>
@@ -3022,10 +3108,10 @@
       <c r="B62" s="8">
         <v>42886</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="28" t="s">
         <v>80</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -3035,8 +3121,8 @@
         <v>3000000</v>
       </c>
       <c r="G62" s="19"/>
-      <c r="H62" s="10">
-        <f t="shared" si="2"/>
+      <c r="H62" s="11">
+        <f t="shared" si="0"/>
         <v>76371000</v>
       </c>
     </row>
@@ -3047,10 +3133,10 @@
       <c r="B63" s="8">
         <v>42887</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -3060,8 +3146,8 @@
         <v>25000</v>
       </c>
       <c r="G63" s="19"/>
-      <c r="H63" s="10">
-        <f t="shared" si="2"/>
+      <c r="H63" s="11">
+        <f t="shared" si="0"/>
         <v>76396000</v>
       </c>
       <c r="J63" t="s">
@@ -3075,10 +3161,10 @@
       <c r="B64" s="8">
         <v>42887</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="28" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -3087,9 +3173,9 @@
       <c r="F64" s="19">
         <v>50000</v>
       </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="10">
-        <f t="shared" ref="H64:H73" si="3">H63+F64-G64</f>
+      <c r="G64" s="19"/>
+      <c r="H64" s="11">
+        <f t="shared" si="0"/>
         <v>76446000</v>
       </c>
     </row>
@@ -3100,21 +3186,21 @@
       <c r="B65" s="8">
         <v>42887</v>
       </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="37">
+      <c r="E65" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="19">
         <v>150000</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="10">
-        <f t="shared" si="3"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="11">
+        <f t="shared" si="0"/>
         <v>76596000</v>
       </c>
     </row>
@@ -3125,21 +3211,21 @@
       <c r="B66" s="8">
         <v>42887</v>
       </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="37">
+      <c r="E66" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="19">
         <v>100000</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="10">
-        <f t="shared" si="3"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="11">
+        <f t="shared" si="0"/>
         <v>76696000</v>
       </c>
     </row>
@@ -3147,106 +3233,564 @@
       <c r="A67" s="7">
         <v>64</v>
       </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="10">
-        <f t="shared" si="3"/>
-        <v>76696000</v>
+      <c r="B67" s="8">
+        <v>42888</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="19">
+        <v>500000</v>
+      </c>
+      <c r="G67" s="19"/>
+      <c r="H67" s="11">
+        <f t="shared" si="0"/>
+        <v>77196000</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>65</v>
       </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="10">
-        <f t="shared" si="3"/>
-        <v>76696000</v>
+      <c r="B68" s="8">
+        <v>42889</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="19">
+        <v>2000000</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="11">
+        <f t="shared" si="0"/>
+        <v>79196000</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="7">
         <v>66</v>
       </c>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="10">
-        <f t="shared" si="3"/>
-        <v>76696000</v>
+      <c r="B69" s="8">
+        <v>42890</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="19">
+        <v>200000</v>
+      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="11">
+        <f t="shared" ref="H69:H88" si="1">H68+F69-G69</f>
+        <v>79396000</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>67</v>
       </c>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="10">
-        <f t="shared" si="3"/>
-        <v>76696000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="7">
+      <c r="B70" s="8">
+        <v>42893</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="19">
+        <v>400000</v>
+      </c>
+      <c r="G70" s="19"/>
+      <c r="H70" s="11">
+        <f t="shared" si="1"/>
+        <v>79796000</v>
+      </c>
+    </row>
+    <row r="71" ht="30" spans="1:8">
+      <c r="A71" s="13">
         <v>68</v>
       </c>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="10">
-        <f t="shared" si="3"/>
-        <v>76696000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="7">
+      <c r="B71" s="14">
+        <v>42893</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="44"/>
+      <c r="E71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45">
+        <v>1500000</v>
+      </c>
+      <c r="H71" s="17">
+        <f t="shared" si="1"/>
+        <v>78296000</v>
+      </c>
+    </row>
+    <row r="72" ht="45" spans="1:8">
+      <c r="A72" s="13">
         <v>69</v>
       </c>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="10">
-        <f t="shared" si="3"/>
-        <v>76696000</v>
+      <c r="B72" s="14">
+        <v>42895</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="44"/>
+      <c r="E72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45">
+        <v>20000000</v>
+      </c>
+      <c r="H72" s="17">
+        <f t="shared" si="1"/>
+        <v>58296000</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7">
         <v>70</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="10">
-        <f t="shared" si="3"/>
-        <v>76696000</v>
+      <c r="B73" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="38">
+        <v>800000</v>
+      </c>
+      <c r="G73" s="19"/>
+      <c r="H73" s="11">
+        <f t="shared" si="1"/>
+        <v>59096000</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>71</v>
       </c>
-      <c r="F74" s="37">
-        <f>SUM(F4:F63)</f>
-        <v>76396000</v>
-      </c>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37">
-        <f>F74-G74</f>
-        <v>76396000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="38">
+        <v>1025000</v>
+      </c>
+      <c r="G74" s="19"/>
+      <c r="H74" s="11">
+        <f t="shared" si="1"/>
+        <v>60121000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="7">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="G75" s="19"/>
+      <c r="H75" s="11">
+        <f t="shared" si="1"/>
+        <v>61121000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="38">
+        <v>106000</v>
+      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="11">
+        <f t="shared" si="1"/>
+        <v>61227000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="7">
         <v>74</v>
+      </c>
+      <c r="B77" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="G77" s="19"/>
+      <c r="H77" s="11">
+        <f t="shared" si="1"/>
+        <v>62227000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7">
+        <v>75</v>
+      </c>
+      <c r="B78" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="38">
+        <v>652000</v>
+      </c>
+      <c r="G78" s="19"/>
+      <c r="H78" s="11">
+        <f t="shared" si="1"/>
+        <v>62879000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7">
+        <v>76</v>
+      </c>
+      <c r="B79" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="38">
+        <v>106600</v>
+      </c>
+      <c r="G79" s="19"/>
+      <c r="H79" s="11">
+        <f t="shared" si="1"/>
+        <v>62985600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7">
+        <v>77</v>
+      </c>
+      <c r="B80" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="19">
+        <v>50000</v>
+      </c>
+      <c r="G80" s="19"/>
+      <c r="H80" s="11">
+        <f t="shared" si="1"/>
+        <v>63035600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7">
+        <v>78</v>
+      </c>
+      <c r="B81" s="8">
+        <v>42899</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="19">
+        <v>300000</v>
+      </c>
+      <c r="G81" s="19"/>
+      <c r="H81" s="11">
+        <f t="shared" si="1"/>
+        <v>63335600</v>
+      </c>
+    </row>
+    <row r="82" ht="30" spans="1:8">
+      <c r="A82" s="7">
+        <v>79</v>
+      </c>
+      <c r="B82" s="8">
+        <v>42902</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="19">
+        <v>70000000</v>
+      </c>
+      <c r="G82" s="19"/>
+      <c r="H82" s="11">
+        <f t="shared" si="1"/>
+        <v>133335600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7">
+        <v>80</v>
+      </c>
+      <c r="B83" s="8">
+        <v>42902</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="19">
+        <v>124200</v>
+      </c>
+      <c r="G83" s="19"/>
+      <c r="H83" s="11">
+        <f t="shared" si="1"/>
+        <v>133459800</v>
+      </c>
+    </row>
+    <row r="84" ht="30" spans="1:8">
+      <c r="A84" s="7">
+        <v>81</v>
+      </c>
+      <c r="B84" s="8">
+        <v>42902</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="G84" s="19"/>
+      <c r="H84" s="11">
+        <f t="shared" si="1"/>
+        <v>134459800</v>
+      </c>
+    </row>
+    <row r="85" ht="45" spans="1:8">
+      <c r="A85" s="7">
+        <v>82</v>
+      </c>
+      <c r="B85" s="8">
+        <v>42902</v>
+      </c>
+      <c r="C85" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45">
+        <v>1000000</v>
+      </c>
+      <c r="H85" s="17">
+        <f t="shared" si="1"/>
+        <v>133459800</v>
+      </c>
+    </row>
+    <row r="86" ht="30" spans="1:8">
+      <c r="A86" s="7">
+        <v>83</v>
+      </c>
+      <c r="B86" s="8">
+        <v>42903</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45">
+        <v>10000000</v>
+      </c>
+      <c r="H86" s="17">
+        <f t="shared" si="1"/>
+        <v>123459800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7">
+        <v>84</v>
+      </c>
+      <c r="B87" s="8">
+        <v>42903</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="11">
+        <f t="shared" si="1"/>
+        <v>123459800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7">
+        <v>85</v>
+      </c>
+      <c r="B88" s="8">
+        <v>42903</v>
+      </c>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="11">
+        <f t="shared" si="1"/>
+        <v>123459800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7">
+        <v>86</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="19">
+        <f>SUM(F4:F88)</f>
+        <v>155959800</v>
+      </c>
+      <c r="G89" s="19">
+        <f>SUM(G4:G88)</f>
+        <v>32500000</v>
+      </c>
+      <c r="H89" s="10">
+        <f>F89-G89</f>
+        <v>123459800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="7">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3270,8 +3814,8 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3286,7 +3830,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3395,7 +3939,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -3445,7 +3989,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -3495,7 +4039,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -3545,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -3567,13 +4111,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -3620,7 +4164,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -3667,10 +4211,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
@@ -3745,7 +4289,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
@@ -3795,7 +4339,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>16</v>
@@ -3817,10 +4361,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>16</v>
@@ -3842,10 +4386,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>16</v>
@@ -3917,10 +4461,10 @@
         <v>42876</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
@@ -3945,7 +4489,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>12</v>
@@ -3967,7 +4511,7 @@
         <v>42880</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="13" t="s">

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -77,12 +77,12 @@
     <t>Hamba Allah Weru</t>
   </si>
   <si>
+    <t>Abu Yahya Lirim</t>
+  </si>
+  <si>
     <t>Selisih</t>
   </si>
   <si>
-    <t>Abu Yahya Lirim</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rosok </t>
   </si>
   <si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>Cash via ATM BNI belakang alifah gas (pinjam SPP)</t>
+  </si>
+  <si>
+    <t>Malam hari via pak utsman pas dijajakke siomay</t>
+  </si>
+  <si>
+    <t>Hamba Allah NI 4B</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -408,16 +414,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -446,16 +451,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,23 +488,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,14 +520,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -523,7 +528,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -539,14 +544,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,13 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +603,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,31 +681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,31 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +735,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,74 +769,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -841,6 +847,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -872,17 +893,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -901,15 +911,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,14 +934,34 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -956,31 +977,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,101 +1010,101 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1172,6 +1193,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,18 +1548,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="34.2857142857143" style="25" customWidth="1"/>
-    <col min="4" max="4" width="34.2857142857143" style="25" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="34.2857142857143" style="25" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -1594,8 +1628,8 @@
         <v>10</v>
       </c>
       <c r="K3" s="10">
-        <f>H89</f>
-        <v>123459800</v>
+        <f>H94</f>
+        <v>123835300</v>
       </c>
       <c r="M3">
         <v>58296000</v>
@@ -1692,7 +1726,7 @@
       </c>
       <c r="K6" s="10">
         <f>SUM(K3:K5)</f>
-        <v>135577000</v>
+        <v>135952500</v>
       </c>
       <c r="M6" s="10">
         <f>SUM(M3:M5)</f>
@@ -1783,11 +1817,11 @@
         <v>11850000</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="42">
-        <f>K6-K8</f>
-        <v>475203</v>
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <f>F83+375500</f>
+        <v>499700</v>
       </c>
       <c r="M9" s="43">
         <f>M6-M8</f>
@@ -1805,7 +1839,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -1818,8 +1852,12 @@
         <f t="shared" si="0"/>
         <v>12450000</v>
       </c>
-      <c r="K10" s="19">
-        <v>124200</v>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="42">
+        <f>K6-K8-K9</f>
+        <v>351003</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1847,7 +1885,7 @@
         <v>13466000</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1870,10 +1908,6 @@
       <c r="H12" s="11">
         <f t="shared" si="0"/>
         <v>13516000</v>
-      </c>
-      <c r="K12">
-        <f>K9-K10</f>
-        <v>351003</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3723,21 +3757,29 @@
         <v>123459800</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" ht="30" spans="1:8">
       <c r="A87" s="7">
         <v>84</v>
       </c>
       <c r="B87" s="8">
-        <v>42903</v>
-      </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="19"/>
+        <v>42904</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="19">
+        <v>75500</v>
+      </c>
       <c r="G87" s="19"/>
       <c r="H87" s="11">
         <f t="shared" si="1"/>
-        <v>123459800</v>
+        <v>123535300</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3745,52 +3787,154 @@
         <v>85</v>
       </c>
       <c r="B88" s="8">
-        <v>42903</v>
-      </c>
-      <c r="C88" s="28"/>
+        <v>42904</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="D88" s="28"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="19"/>
+      <c r="E88" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="19">
+        <v>150000</v>
+      </c>
       <c r="G88" s="19"/>
       <c r="H88" s="11">
         <f t="shared" si="1"/>
-        <v>123459800</v>
+        <v>123685300</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7">
         <v>86</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="7"/>
+      <c r="B89" s="8">
+        <v>42904</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F89" s="19">
-        <f>SUM(F4:F88)</f>
-        <v>155959800</v>
-      </c>
-      <c r="G89" s="19">
-        <f>SUM(G4:G88)</f>
-        <v>32500000</v>
-      </c>
-      <c r="H89" s="10">
-        <f>F89-G89</f>
-        <v>123459800</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>50000</v>
+      </c>
+      <c r="G89" s="19"/>
+      <c r="H89" s="11">
+        <f>H88+F89-G89</f>
+        <v>123735300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="7">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="8">
+        <v>42904</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="19">
+        <v>100000</v>
+      </c>
+      <c r="G90" s="19"/>
+      <c r="H90" s="11">
+        <f>H89+F90-G90</f>
+        <v>123835300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="7">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="8">
+        <v>42904</v>
+      </c>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="11"/>
+      <c r="J91" t="b">
+        <f>H90=H94</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>89</v>
+      </c>
+      <c r="B92" s="8">
+        <v>42904</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" ht="15.75" spans="1:8">
+      <c r="A93" s="46">
+        <v>90</v>
+      </c>
+      <c r="B93" s="47">
+        <v>42904</v>
+      </c>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="50"/>
+    </row>
+    <row r="94" ht="15.75" spans="1:8">
+      <c r="A94" s="51">
+        <v>91</v>
+      </c>
+      <c r="B94" s="51"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="53">
+        <f>SUM(F4:F93)</f>
+        <v>156335300</v>
+      </c>
+      <c r="G94" s="54">
+        <f>SUM(G4:G93)</f>
+        <v>32500000</v>
+      </c>
+      <c r="H94" s="55">
+        <f>F94-G94</f>
+        <v>123835300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="7">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3974,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3939,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>12</v>
@@ -3989,7 +4133,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -4039,7 +4183,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
@@ -4089,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>16</v>
@@ -4111,13 +4255,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -4164,7 +4308,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>16</v>
@@ -4211,10 +4355,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
@@ -4289,7 +4433,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>16</v>
@@ -4339,7 +4483,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>16</v>
@@ -4361,10 +4505,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>16</v>
@@ -4386,10 +4530,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>16</v>
@@ -4461,10 +4605,10 @@
         <v>42876</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
@@ -4489,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>12</v>
@@ -4511,7 +4655,7 @@
         <v>42880</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="13" t="s">

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -335,6 +335,78 @@
     <t>Hamba Allah NI 4B</t>
   </si>
   <si>
+    <t>Tranfer BNI tidak terdeteksi dari mana</t>
+  </si>
+  <si>
+    <t>Abu Mas'ud Said / Suyono transfer ke rek SPP</t>
+  </si>
+  <si>
+    <t>Sdh ditransfer</t>
+  </si>
+  <si>
+    <t>Tranfer ke Rek BCA a.n Bustanut Taufiq untuk pembelian material via mas martopo</t>
+  </si>
+  <si>
+    <t>Tranfer via ATM Menggunakan uang SPP</t>
+  </si>
+  <si>
+    <t>Biaya Administrasi Transfer ke BCA</t>
+  </si>
+  <si>
+    <t>Transfer ke Abu Khalid untuk pembelian pasir dan split</t>
+  </si>
+  <si>
+    <t>Transfer via inet BNI</t>
+  </si>
+  <si>
+    <t>Transfer ke bagian pembangunan via rek Mas Icok</t>
+  </si>
+  <si>
+    <t>Rek mas icok yang BNI</t>
+  </si>
+  <si>
+    <t>Abu Abdil Muis</t>
+  </si>
+  <si>
+    <t>Diserahkan ke Abu Haikal</t>
+  </si>
+  <si>
+    <t>Untuk pencatatan saja karena dari awal uang tidak pernah masuk ke rek bendahara</t>
+  </si>
+  <si>
+    <t>Abu Fathin</t>
+  </si>
+  <si>
+    <t>Uang receh via Abu Haikal</t>
+  </si>
+  <si>
+    <t>Uang rosok via Abu Haikal</t>
+  </si>
+  <si>
+    <t>Hamba Allah via Ust. Idral</t>
+  </si>
+  <si>
+    <t>Dalam amplop</t>
+  </si>
+  <si>
+    <t>Nisa' B</t>
+  </si>
+  <si>
+    <t>Rosok</t>
+  </si>
+  <si>
+    <t>Abu Khansa</t>
+  </si>
+  <si>
+    <t>Penyerahan uang ke Mas Icok</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk AGUS WAHYUDI Bayar pasir abu batu oleh mas icok ke Abu Khalid</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk YUSTANTO DWIANTORO Belanja Roof Top</t>
+  </si>
+  <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
   </si>
   <si>
@@ -384,6 +456,9 @@
   </si>
   <si>
     <t>TRANSFER KE Bpk YUSTANTO DWIANTORO Untuk Finishing Kanopi</t>
+  </si>
+  <si>
+    <t>Hamba Allah Gemolong Via Ummu Yahya</t>
   </si>
 </sst>
 </file>
@@ -391,11 +466,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -414,67 +489,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,30 +502,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,6 +520,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -535,9 +566,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,7 +613,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +660,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,37 +750,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,43 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,49 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,13 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,17 +936,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,8 +989,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,53 +1025,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -977,135 +1052,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1149,6 +1225,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1167,16 +1257,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,20 +1280,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,1640 +1637,1705 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.2857142857143" style="25" customWidth="1"/>
+    <col min="3" max="3" width="34.2857142857143" style="36" customWidth="1"/>
+    <col min="4" max="4" width="34.2857142857143" style="36" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
     <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="12.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="20.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="16.4285714285714" customWidth="1"/>
     <col min="13" max="13" width="14.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="J2" s="39" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="10">
-        <f>H94</f>
-        <v>123835300</v>
+      <c r="K3" s="11">
+        <f>H117</f>
+        <v>20365900</v>
       </c>
       <c r="M3">
         <v>58296000</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>42841</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>100000</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12">
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="10">
-        <f>Masjid!H30</f>
+      <c r="K4" s="11">
+        <f>Masjid!H35</f>
+        <v>13117200</v>
+      </c>
+      <c r="M4" s="11">
         <v>12117200</v>
       </c>
-      <c r="M4" s="10">
-        <v>12117200</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>42842</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>500000</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11">
-        <f t="shared" ref="H5:H68" si="0">H4+F5-G5</f>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5:H68" si="1">H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>42844</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>10000000</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11">
-        <f t="shared" si="0"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
         <v>10600000</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="11">
         <f>SUM(K3:K5)</f>
-        <v>135952500</v>
-      </c>
-      <c r="M6" s="10">
+        <v>33483100</v>
+      </c>
+      <c r="M6" s="11">
         <f>SUM(M3:M5)</f>
         <v>70413200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>42844</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="C7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11">
         <v>1000000</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
         <v>11600000</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>42844</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="11">
         <v>50000</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11">
-        <f t="shared" si="0"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
         <v>11650000</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="42">
-        <v>135101797</v>
-      </c>
-      <c r="M8" s="43">
+      <c r="K8" s="50">
+        <v>108074297</v>
+      </c>
+      <c r="M8" s="51">
         <v>68535797</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>42845</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="11">
         <v>200000</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
         <v>11850000</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9">
-        <f>F83+375500</f>
-        <v>499700</v>
-      </c>
-      <c r="M9" s="43">
+      <c r="K9" s="50">
+        <f>3000000+450000+20000+1700+35000+452200</f>
+        <v>3958900</v>
+      </c>
+      <c r="M9" s="51">
         <f>M6-M8</f>
         <v>1877403</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>42845</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11">
         <v>600000</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
         <v>12450000</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="50">
         <f>K6-K8-K9</f>
-        <v>351003</v>
+        <v>-78550097</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>42845</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11">
         <v>1016000</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11">
-        <f t="shared" si="0"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
         <v>13466000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>42846</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="11">
         <v>50000</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
         <v>13516000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="40">
         <v>42847</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="11">
         <v>5000000</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
         <v>18516000</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="40">
         <v>42847</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="11">
         <v>2000000</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12">
+        <f t="shared" si="1"/>
         <v>20516000</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="40">
         <v>42847</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="E15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
         <v>50000</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
         <v>20566000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="40">
         <v>42847</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="E16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="11">
         <v>200000</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12">
+        <f t="shared" si="1"/>
         <v>20766000</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="7">
+    <row r="17" spans="1:11">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="40">
         <v>42847</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>300000</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11">
-        <f t="shared" si="0"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12">
+        <f t="shared" si="1"/>
         <v>21066000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="7">
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="40">
         <v>42847</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="11">
         <v>500000</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11">
-        <f t="shared" si="0"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12">
+        <f t="shared" si="1"/>
         <v>21566000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="29">
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="40">
         <v>42847</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11">
         <v>100000</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11">
-        <f t="shared" si="0"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
         <v>21666000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7">
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="40">
         <v>42849</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="11">
         <v>200000</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11">
-        <f t="shared" si="0"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12">
+        <f t="shared" si="1"/>
         <v>21866000</v>
       </c>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="40">
         <v>42850</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="11">
         <v>500000</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11">
-        <f t="shared" si="0"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12">
+        <f t="shared" si="1"/>
         <v>22366000</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="7">
+    <row r="22" spans="1:11">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>42851</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="11">
         <v>50000</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11">
-        <f t="shared" si="0"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12">
+        <f t="shared" si="1"/>
         <v>22416000</v>
       </c>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>42851</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="11">
         <v>500000</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11">
-        <f t="shared" si="0"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
         <v>22916000</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>42851</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="E24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="11">
         <v>1000000</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11">
-        <f t="shared" si="0"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12">
+        <f t="shared" si="1"/>
         <v>23916000</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>42851</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="11">
         <v>350000</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11">
-        <f t="shared" si="0"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12">
+        <f t="shared" si="1"/>
         <v>24266000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>42853</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="E26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="11">
         <v>4253000</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11">
-        <f t="shared" si="0"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12">
+        <f t="shared" si="1"/>
         <v>28519000</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>42854</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="E27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="11">
         <v>500000</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11">
-        <f t="shared" si="0"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12">
+        <f t="shared" si="1"/>
         <v>29019000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="9">
         <v>42854</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="E28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="11">
         <v>400000</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11">
-        <f t="shared" si="0"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12">
+        <f t="shared" si="1"/>
         <v>29419000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="9">
         <v>42854</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="E29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="11">
         <v>500000</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11">
-        <f t="shared" si="0"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12">
+        <f t="shared" si="1"/>
         <v>29919000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="9">
         <v>42854</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="E30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="11">
         <v>2000000</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11">
-        <f t="shared" si="0"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12">
+        <f t="shared" si="1"/>
         <v>31919000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="9">
         <v>42854</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="E31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="11">
         <v>300000</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11">
-        <f t="shared" si="0"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12">
+        <f t="shared" si="1"/>
         <v>32219000</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="9">
         <v>42854</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="E32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="11">
         <v>50000</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11">
-        <f t="shared" si="0"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12">
+        <f t="shared" si="1"/>
         <v>32269000</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="9">
         <v>42854</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="28" t="s">
+      <c r="C33" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="11">
         <v>1000000</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11">
-        <f t="shared" si="0"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12">
+        <f t="shared" si="1"/>
         <v>33269000</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="32">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="9">
         <v>42856</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="33" t="s">
+      <c r="C34" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="34">
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="32">
         <v>500000</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="11">
-        <f t="shared" si="0"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="12">
+        <f t="shared" si="1"/>
         <v>33769000</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="32">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>42856</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="34">
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="32">
         <v>400000</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="11">
-        <f t="shared" si="0"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="12">
+        <f t="shared" si="1"/>
         <v>34169000</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="32">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="9">
         <v>42857</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="32">
         <v>2500000</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="11">
-        <f t="shared" si="0"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="12">
+        <f t="shared" si="1"/>
         <v>36669000</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="32">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="9">
         <v>42857</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="11">
         <v>500000</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="11">
-        <f t="shared" si="0"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="12">
+        <f t="shared" si="1"/>
         <v>37169000</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="32">
+      <c r="A38" s="8">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>42859</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="19">
+      <c r="E38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="20">
         <v>100000</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="11">
-        <f t="shared" si="0"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="12">
+        <f t="shared" si="1"/>
         <v>37269000</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>42860</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="19">
+      <c r="E39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="20">
         <v>50000</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="11">
-        <f t="shared" si="0"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="12">
+        <f t="shared" si="1"/>
         <v>37319000</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="20">
+      <c r="A40" s="8">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="22">
         <v>42860</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="C40" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="45">
         <v>2000000</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="11">
-        <f t="shared" si="0"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="12">
+        <f t="shared" si="1"/>
         <v>39319000</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>42861</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="28" t="s">
+      <c r="C41" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="19">
+      <c r="E41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="20">
         <v>25000</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="11">
-        <f t="shared" si="0"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="12">
+        <f t="shared" si="1"/>
         <v>39344000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>42861</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="19">
+      <c r="E42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="20">
         <v>35000</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="11">
-        <f t="shared" si="0"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="12">
+        <f t="shared" si="1"/>
         <v>39379000</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>42861</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="28" t="s">
+      <c r="C43" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="19">
+      <c r="E43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="20">
         <v>150000</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="11">
-        <f t="shared" si="0"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="12">
+        <f t="shared" si="1"/>
         <v>39529000</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>42862</v>
       </c>
-      <c r="C44" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="28" t="s">
+      <c r="C44" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="19">
+      <c r="E44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="20">
         <v>12000</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="11">
-        <f t="shared" si="0"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="12">
+        <f t="shared" si="1"/>
         <v>39541000</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>42863</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="19">
+      <c r="E45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="20">
         <v>10000000</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="11">
-        <f t="shared" si="0"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="12">
+        <f t="shared" si="1"/>
         <v>49541000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>42864</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="28" t="s">
+      <c r="C46" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="19">
+      <c r="E46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="20">
         <v>50000</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="11">
-        <f t="shared" si="0"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="12">
+        <f t="shared" si="1"/>
         <v>49591000</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>42865</v>
       </c>
-      <c r="C47" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="19">
+      <c r="E47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="20">
         <v>500000</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="11">
-        <f t="shared" si="0"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="12">
+        <f t="shared" si="1"/>
         <v>50091000</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7">
+      <c r="A48" s="8">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>42865</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="28" t="s">
+      <c r="C48" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="19">
+      <c r="E48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="20">
         <v>155000</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="11">
-        <f t="shared" si="0"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="12">
+        <f t="shared" si="1"/>
         <v>50246000</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>42865</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="28" t="s">
+      <c r="C49" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="E49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="20">
         <v>250000</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="11">
-        <f t="shared" si="0"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="12">
+        <f t="shared" si="1"/>
         <v>50496000</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="9">
         <v>42866</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="28" t="s">
+      <c r="C50" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="19">
+      <c r="E50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="20">
         <v>200000</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="11">
-        <f t="shared" si="0"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="12">
+        <f t="shared" si="1"/>
         <v>50696000</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
+      <c r="A51" s="8">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="9">
         <v>42866</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="19">
+      <c r="E51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="20">
         <v>5000</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="11">
-        <f t="shared" si="0"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="12">
+        <f t="shared" si="1"/>
         <v>50701000</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="9">
         <v>42870</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="19">
+      <c r="E52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="20">
         <v>5000</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="11">
-        <f t="shared" si="0"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="12">
+        <f t="shared" si="1"/>
         <v>50706000</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="9">
         <v>42870</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="19">
+      <c r="E53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="20">
         <v>1500000</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="11">
-        <f t="shared" si="0"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="12">
+        <f t="shared" si="1"/>
         <v>52206000</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7">
+      <c r="A54" s="8">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="9">
         <v>42870</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="19">
+      <c r="E54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="20">
         <v>910000</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="11">
-        <f t="shared" si="0"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="12">
+        <f t="shared" si="1"/>
         <v>53116000</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="9">
         <v>42870</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="20">
         <v>200000</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="11">
-        <f t="shared" si="0"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="12">
+        <f t="shared" si="1"/>
         <v>53316000</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <v>42871</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="28" t="s">
+      <c r="C56" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="19">
+      <c r="E56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="20">
         <v>55000</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="11">
-        <f t="shared" si="0"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="12">
+        <f t="shared" si="1"/>
         <v>53371000</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="9">
         <v>42872</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="28" t="s">
+      <c r="C57" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="20">
         <v>1500000</v>
       </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="11">
-        <f t="shared" si="0"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="12">
+        <f t="shared" si="1"/>
         <v>54871000</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="7">
+      <c r="A58" s="8">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="9">
         <v>42882</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="28" t="s">
+      <c r="C58" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="20">
         <v>3000000</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="11">
-        <f t="shared" si="0"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="12">
+        <f t="shared" si="1"/>
         <v>57871000</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="9">
         <v>42885</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="28" t="s">
+      <c r="C59" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="20">
         <v>5200000</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="11">
-        <f t="shared" si="0"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="12">
+        <f t="shared" si="1"/>
         <v>63071000</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="9">
         <v>42885</v>
       </c>
-      <c r="C60" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="28" t="s">
+      <c r="C60" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="20">
         <v>300000</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="11">
-        <f t="shared" si="0"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="12">
+        <f t="shared" si="1"/>
         <v>63371000</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="32">
+      <c r="A61" s="8">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="30">
         <v>42886</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="33" t="s">
+      <c r="C61" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="46">
         <v>10000000</v>
       </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="11">
-        <f t="shared" si="0"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="12">
+        <f t="shared" si="1"/>
         <v>73371000</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="7">
+      <c r="A62" s="8">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="9">
         <v>42886</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="19">
+      <c r="E62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="20">
         <v>3000000</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="11">
-        <f t="shared" si="0"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="12">
+        <f t="shared" si="1"/>
         <v>76371000</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="9">
         <v>42887</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="28" t="s">
+      <c r="C63" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="19">
+      <c r="E63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="20">
         <v>25000</v>
       </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="11">
-        <f t="shared" si="0"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="12">
+        <f t="shared" si="1"/>
         <v>76396000</v>
       </c>
       <c r="J63" t="s">
@@ -3189,753 +3343,1383 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="7">
+      <c r="A64" s="8">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="9">
         <v>42887</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="28" t="s">
+      <c r="C64" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="19">
+      <c r="E64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="20">
         <v>50000</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="11">
-        <f t="shared" si="0"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="12">
+        <f t="shared" si="1"/>
         <v>76446000</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>42887</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="28" t="s">
+      <c r="C65" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="19">
+      <c r="E65" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="20">
         <v>150000</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="11">
-        <f t="shared" si="0"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="12">
+        <f t="shared" si="1"/>
         <v>76596000</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="9">
         <v>42887</v>
       </c>
-      <c r="C66" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="28" t="s">
+      <c r="C66" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="19">
+      <c r="E66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="20">
         <v>100000</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="11">
-        <f t="shared" si="0"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="12">
+        <f t="shared" si="1"/>
         <v>76696000</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="9">
         <v>42888</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="7" t="s">
+      <c r="C67" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="20">
         <v>500000</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="11">
-        <f t="shared" si="0"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="12">
+        <f t="shared" si="1"/>
         <v>77196000</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="9">
         <v>42889</v>
       </c>
-      <c r="C68" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="7" t="s">
+      <c r="C68" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F68" s="20">
         <v>2000000</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="11">
-        <f t="shared" si="0"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="12">
+        <f t="shared" si="1"/>
         <v>79196000</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
+        <f t="shared" ref="A69:A111" si="2">A68+1</f>
         <v>66</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="9">
         <v>42890</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="7" t="s">
+      <c r="C69" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F69" s="20">
         <v>200000</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="11">
-        <f t="shared" ref="H69:H88" si="1">H68+F69-G69</f>
+      <c r="G69" s="20"/>
+      <c r="H69" s="12">
+        <f t="shared" ref="H69:H116" si="3">H68+F69-G69</f>
         <v>79396000</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="7">
+      <c r="A70" s="8">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="9">
         <v>42893</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="28" t="s">
+      <c r="C70" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="20">
         <v>400000</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="11">
-        <f t="shared" si="1"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="12">
+        <f t="shared" si="3"/>
         <v>79796000</v>
       </c>
     </row>
     <row r="71" ht="30" spans="1:8">
-      <c r="A71" s="13">
+      <c r="A71" s="8">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="15">
         <v>42893</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45">
+      <c r="D71" s="52"/>
+      <c r="E71" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53">
         <v>1500000</v>
       </c>
-      <c r="H71" s="17">
-        <f t="shared" si="1"/>
+      <c r="H71" s="18">
+        <f t="shared" si="3"/>
         <v>78296000</v>
       </c>
     </row>
     <row r="72" ht="45" spans="1:8">
-      <c r="A72" s="13">
+      <c r="A72" s="8">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="15">
         <v>42895</v>
       </c>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="13" t="s">
+      <c r="D72" s="52"/>
+      <c r="E72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45">
+      <c r="F72" s="53"/>
+      <c r="G72" s="53">
         <v>20000000</v>
       </c>
-      <c r="H72" s="17">
-        <f t="shared" si="1"/>
+      <c r="H72" s="18">
+        <f t="shared" si="3"/>
         <v>58296000</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="9">
         <v>42899</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="28" t="s">
+      <c r="C73" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="38">
+      <c r="E73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="46">
         <v>800000</v>
       </c>
-      <c r="G73" s="19"/>
-      <c r="H73" s="11">
-        <f t="shared" si="1"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="12">
+        <f t="shared" si="3"/>
         <v>59096000</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="9">
         <v>42899</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="28" t="s">
+      <c r="C74" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="38">
+      <c r="E74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="46">
         <v>1025000</v>
       </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="11">
-        <f t="shared" si="1"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="12">
+        <f t="shared" si="3"/>
         <v>60121000</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="9">
         <v>42899</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="28" t="s">
+      <c r="C75" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="38">
+      <c r="E75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="46">
         <v>1000000</v>
       </c>
-      <c r="G75" s="19"/>
-      <c r="H75" s="11">
-        <f t="shared" si="1"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="12">
+        <f t="shared" si="3"/>
         <v>61121000</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="9">
         <v>42899</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="38">
+      <c r="E76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="46">
         <v>106000</v>
       </c>
-      <c r="G76" s="19"/>
-      <c r="H76" s="11">
-        <f t="shared" si="1"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="12">
+        <f t="shared" si="3"/>
         <v>61227000</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="9">
         <v>42899</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="28" t="s">
+      <c r="C77" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="38">
+      <c r="E77" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="46">
         <v>1000000</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="11">
-        <f t="shared" si="1"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="12">
+        <f t="shared" si="3"/>
         <v>62227000</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="7">
+      <c r="A78" s="8">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="9">
         <v>42899</v>
       </c>
-      <c r="C78" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="28" t="s">
+      <c r="C78" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="38">
+      <c r="E78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="46">
         <v>652000</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="11">
-        <f t="shared" si="1"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="12">
+        <f t="shared" si="3"/>
         <v>62879000</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="9">
         <v>42899</v>
       </c>
-      <c r="C79" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="28" t="s">
+      <c r="C79" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="38">
+      <c r="E79" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="46">
         <v>106600</v>
       </c>
-      <c r="G79" s="19"/>
-      <c r="H79" s="11">
-        <f t="shared" si="1"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="12">
+        <f t="shared" si="3"/>
         <v>62985600</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="7">
+      <c r="A80" s="8">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="9">
         <v>42899</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="28" t="s">
+      <c r="C80" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="19">
+      <c r="E80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="20">
         <v>50000</v>
       </c>
-      <c r="G80" s="19"/>
-      <c r="H80" s="11">
-        <f t="shared" si="1"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="12">
+        <f t="shared" si="3"/>
         <v>63035600</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
+      <c r="A81" s="8">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="9">
         <v>42899</v>
       </c>
-      <c r="C81" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="28" t="s">
+      <c r="C81" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="19">
+      <c r="E81" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="20">
         <v>300000</v>
       </c>
-      <c r="G81" s="19"/>
-      <c r="H81" s="11">
-        <f t="shared" si="1"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="12">
+        <f t="shared" si="3"/>
         <v>63335600</v>
       </c>
     </row>
     <row r="82" ht="30" spans="1:8">
-      <c r="A82" s="7">
+      <c r="A82" s="8">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="9">
         <v>42902</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="19">
+      <c r="D82" s="39"/>
+      <c r="E82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="20">
         <v>70000000</v>
       </c>
-      <c r="G82" s="19"/>
-      <c r="H82" s="11">
-        <f t="shared" si="1"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="12">
+        <f t="shared" si="3"/>
         <v>133335600</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="9">
         <v>42902</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="19">
+      <c r="E83" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="20">
         <v>124200</v>
       </c>
-      <c r="G83" s="19"/>
-      <c r="H83" s="11">
-        <f t="shared" si="1"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="12">
+        <f t="shared" si="3"/>
         <v>133459800</v>
       </c>
     </row>
     <row r="84" ht="30" spans="1:8">
-      <c r="A84" s="7">
+      <c r="A84" s="8">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="9">
         <v>42902</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="19">
+      <c r="E84" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="20">
         <v>1000000</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="11">
-        <f t="shared" si="1"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="12">
+        <f t="shared" si="3"/>
         <v>134459800</v>
       </c>
     </row>
     <row r="85" ht="45" spans="1:8">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="15">
         <v>42902</v>
       </c>
-      <c r="C85" s="44" t="s">
+      <c r="C85" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="44" t="s">
+      <c r="D85" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45">
+      <c r="E85" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53">
         <v>1000000</v>
       </c>
-      <c r="H85" s="17">
-        <f t="shared" si="1"/>
+      <c r="H85" s="18">
+        <f t="shared" si="3"/>
         <v>133459800</v>
       </c>
     </row>
     <row r="86" ht="30" spans="1:8">
-      <c r="A86" s="7">
+      <c r="A86" s="8">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="15">
         <v>42903</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="44" t="s">
+      <c r="D86" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45">
+      <c r="E86" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53">
         <v>10000000</v>
       </c>
-      <c r="H86" s="17">
-        <f t="shared" si="1"/>
+      <c r="H86" s="18">
+        <f t="shared" si="3"/>
         <v>123459800</v>
       </c>
     </row>
     <row r="87" ht="30" spans="1:8">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="9">
         <v>42904</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E87" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="19">
+      <c r="E87" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="20">
         <v>75500</v>
       </c>
-      <c r="G87" s="19"/>
-      <c r="H87" s="11">
-        <f t="shared" si="1"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="12">
+        <f t="shared" si="3"/>
         <v>123535300</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="9">
         <v>42904</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="19">
+      <c r="D88" s="39"/>
+      <c r="E88" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="20">
         <v>150000</v>
       </c>
-      <c r="G88" s="19"/>
-      <c r="H88" s="11">
-        <f t="shared" si="1"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="12">
+        <f t="shared" si="3"/>
         <v>123685300</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="9">
         <v>42904</v>
       </c>
-      <c r="C89" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="28" t="s">
+      <c r="C89" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="19">
+      <c r="E89" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="20">
         <v>50000</v>
       </c>
-      <c r="G89" s="19"/>
-      <c r="H89" s="11">
-        <f>H88+F89-G89</f>
+      <c r="G89" s="20"/>
+      <c r="H89" s="12">
+        <f t="shared" si="3"/>
         <v>123735300</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="7">
+      <c r="A90" s="8">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="9">
         <v>42904</v>
       </c>
-      <c r="C90" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="28" t="s">
+      <c r="C90" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="19">
+      <c r="E90" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="20">
         <v>100000</v>
       </c>
-      <c r="G90" s="19"/>
-      <c r="H90" s="11">
-        <f>H89+F90-G90</f>
+      <c r="G90" s="20"/>
+      <c r="H90" s="12">
+        <f t="shared" si="3"/>
         <v>123835300</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="7">
+    <row r="91" spans="1:8">
+      <c r="A91" s="8">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B91" s="8">
-        <v>42904</v>
-      </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="11"/>
-      <c r="J91" t="b">
-        <f>H90=H94</f>
+      <c r="B91" s="9">
+        <v>42905</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="H91" s="12">
+        <f t="shared" si="3"/>
+        <v>124835300</v>
+      </c>
+    </row>
+    <row r="92" ht="30" spans="1:10">
+      <c r="A92" s="8">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="9">
+        <v>42907</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="20">
+        <v>5000000</v>
+      </c>
+      <c r="G92" s="20"/>
+      <c r="H92" s="12">
+        <f t="shared" si="3"/>
+        <v>129835300</v>
+      </c>
+      <c r="J92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" ht="45" spans="1:10">
+      <c r="A93" s="8">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="15">
+        <v>42908</v>
+      </c>
+      <c r="C93" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53">
+        <v>13621000</v>
+      </c>
+      <c r="H93" s="18">
+        <f t="shared" si="3"/>
+        <v>116214300</v>
+      </c>
+      <c r="J93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="8">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B94" s="15">
+        <v>42908</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53">
+        <v>6500</v>
+      </c>
+      <c r="H94" s="18">
+        <f t="shared" si="3"/>
+        <v>116207800</v>
+      </c>
+    </row>
+    <row r="95" ht="30" spans="1:8">
+      <c r="A95" s="8">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B95" s="15">
+        <v>42908</v>
+      </c>
+      <c r="C95" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53">
+        <v>2900000</v>
+      </c>
+      <c r="H95" s="18">
+        <f t="shared" si="3"/>
+        <v>113307800</v>
+      </c>
+    </row>
+    <row r="96" ht="30" spans="1:8">
+      <c r="A96" s="8">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="15">
+        <v>42908</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="55"/>
+      <c r="G96" s="55">
+        <v>20000000</v>
+      </c>
+      <c r="H96" s="18">
+        <f t="shared" si="3"/>
+        <v>93307800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="8">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B97" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="58">
+        <v>25000000</v>
+      </c>
+      <c r="G97" s="58"/>
+      <c r="H97" s="12">
+        <f t="shared" si="3"/>
+        <v>118307800</v>
+      </c>
+    </row>
+    <row r="98" ht="45" spans="1:8">
+      <c r="A98" s="8">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="15">
+        <v>42909</v>
+      </c>
+      <c r="C98" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55">
+        <v>25000000</v>
+      </c>
+      <c r="H98" s="18">
+        <f t="shared" si="3"/>
+        <v>93307800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="8">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C99" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" s="56"/>
+      <c r="E99" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="58">
+        <v>500000</v>
+      </c>
+      <c r="G99" s="58"/>
+      <c r="H99" s="12">
+        <f t="shared" si="3"/>
+        <v>93807800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="8">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C100" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="58">
+        <v>100000</v>
+      </c>
+      <c r="G100" s="58"/>
+      <c r="H100" s="12">
+        <f t="shared" si="3"/>
+        <v>93907800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="8">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B101" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C101" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D101" s="56"/>
+      <c r="E101" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="58">
+        <v>500000</v>
+      </c>
+      <c r="G101" s="58"/>
+      <c r="H101" s="12">
+        <f t="shared" si="3"/>
+        <v>94407800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="8">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B102" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="56"/>
+      <c r="E102" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="58">
+        <v>250000</v>
+      </c>
+      <c r="G102" s="58"/>
+      <c r="H102" s="12">
+        <f t="shared" si="3"/>
+        <v>94657800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C103" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="56"/>
+      <c r="E103" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="58">
+        <v>370100</v>
+      </c>
+      <c r="G103" s="58"/>
+      <c r="H103" s="12">
+        <f t="shared" si="3"/>
+        <v>95027900</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="8">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="58">
+        <v>105000</v>
+      </c>
+      <c r="G104" s="58"/>
+      <c r="H104" s="12">
+        <f t="shared" si="3"/>
+        <v>95132900</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="8">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C105" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D105" s="56"/>
+      <c r="E105" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="58">
+        <v>3000</v>
+      </c>
+      <c r="G105" s="58"/>
+      <c r="H105" s="12">
+        <f t="shared" si="3"/>
+        <v>95135900</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="8">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B106" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C106" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="56"/>
+      <c r="E106" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="58">
+        <v>250000</v>
+      </c>
+      <c r="G106" s="58"/>
+      <c r="H106" s="12">
+        <f t="shared" si="3"/>
+        <v>95385900</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="8">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B107" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="58">
+        <v>30000</v>
+      </c>
+      <c r="G107" s="58"/>
+      <c r="H107" s="12">
+        <f t="shared" si="3"/>
+        <v>95415900</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="8">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B108" s="9">
+        <v>42909</v>
+      </c>
+      <c r="C108" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E108" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="58">
+        <v>3500000</v>
+      </c>
+      <c r="G108" s="58"/>
+      <c r="H108" s="12">
+        <f t="shared" si="3"/>
+        <v>98915900</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="8">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B109" s="9">
+        <v>42928</v>
+      </c>
+      <c r="C109" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="58">
+        <v>3000000</v>
+      </c>
+      <c r="G109" s="58"/>
+      <c r="H109" s="12">
+        <f t="shared" si="3"/>
+        <v>101915900</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="59">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B110" s="15">
+        <v>42931</v>
+      </c>
+      <c r="C110" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55">
+        <v>5000000</v>
+      </c>
+      <c r="H110" s="18">
+        <f t="shared" si="3"/>
+        <v>96915900</v>
+      </c>
+    </row>
+    <row r="111" ht="45" spans="1:8">
+      <c r="A111" s="59">
+        <f t="shared" ref="A111:A117" si="4">A110+1</f>
+        <v>108</v>
+      </c>
+      <c r="B111" s="15">
+        <v>42932</v>
+      </c>
+      <c r="C111" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55">
+        <v>1550000</v>
+      </c>
+      <c r="H111" s="18">
+        <f t="shared" si="3"/>
+        <v>95365900</v>
+      </c>
+    </row>
+    <row r="112" ht="30" spans="1:8">
+      <c r="A112" s="59">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B112" s="15">
+        <v>42934</v>
+      </c>
+      <c r="C112" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="55"/>
+      <c r="G112" s="55">
+        <v>25000000</v>
+      </c>
+      <c r="H112" s="18">
+        <f t="shared" si="3"/>
+        <v>70365900</v>
+      </c>
+    </row>
+    <row r="113" ht="30" spans="1:8">
+      <c r="A113" s="59">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B113" s="15">
+        <v>42935</v>
+      </c>
+      <c r="C113" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="55"/>
+      <c r="G113" s="55">
+        <v>25000000</v>
+      </c>
+      <c r="H113" s="18">
+        <f t="shared" si="3"/>
+        <v>45365900</v>
+      </c>
+    </row>
+    <row r="114" ht="30" spans="1:8">
+      <c r="A114" s="59">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="15">
+        <v>42939</v>
+      </c>
+      <c r="C114" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55">
+        <v>25000000</v>
+      </c>
+      <c r="H114" s="18">
+        <f t="shared" si="3"/>
+        <v>20365900</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="12">
+        <f t="shared" si="3"/>
+        <v>20365900</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="8">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B116" s="9">
+        <v>42928</v>
+      </c>
+      <c r="C116" s="56"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="12">
+        <f t="shared" si="3"/>
+        <v>20365900</v>
+      </c>
+      <c r="J116" t="b">
+        <f>H116=H117</f>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="7">
-        <v>89</v>
-      </c>
-      <c r="B92" s="8">
-        <v>42904</v>
-      </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" ht="15.75" spans="1:8">
-      <c r="A93" s="46">
-        <v>90</v>
-      </c>
-      <c r="B93" s="47">
-        <v>42904</v>
-      </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="50"/>
-    </row>
-    <row r="94" ht="15.75" spans="1:8">
-      <c r="A94" s="51">
-        <v>91</v>
-      </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="53">
-        <f>SUM(F4:F93)</f>
-        <v>156335300</v>
-      </c>
-      <c r="G94" s="54">
-        <f>SUM(G4:G93)</f>
-        <v>32500000</v>
-      </c>
-      <c r="H94" s="55">
-        <f>F94-G94</f>
-        <v>123835300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="7">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="7">
-        <v>94</v>
-      </c>
+    <row r="117" spans="1:8">
+      <c r="A117" s="8">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B117" s="60"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="61"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="62">
+        <f>SUM(F4:F116)</f>
+        <v>195943400</v>
+      </c>
+      <c r="G117" s="63">
+        <f>SUM(G4:G116)</f>
+        <v>175577500</v>
+      </c>
+      <c r="H117" s="62">
+        <f>F117-G117</f>
+        <v>20365900</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="8"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3956,732 +4740,815 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29.2857142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="8" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>42844</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="11">
         <v>500000</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12">
         <f>F4-G4</f>
         <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>42845</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="11">
         <v>1000000</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12">
         <f>H4+F5-G5</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>42851</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>25000000</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11">
-        <f t="shared" ref="H6:H29" si="0">H5+F6-G6</f>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H34" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>42851</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11">
         <v>2000000</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>28500000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>42853</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>250000</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
         <v>28750000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>42854</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="11">
         <v>500000</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11">
+      <c r="G9" s="11"/>
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>29250000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>42854</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11">
         <v>1000000</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11">
+      <c r="G10" s="11"/>
+      <c r="H10" s="12">
         <f t="shared" si="0"/>
         <v>30250000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>42854</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>1000000</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11">
+      <c r="G11" s="11"/>
+      <c r="H11" s="12">
         <f t="shared" si="0"/>
         <v>31250000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>42855</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11">
         <v>50000</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11">
+      <c r="G12" s="11"/>
+      <c r="H12" s="12">
         <f t="shared" si="0"/>
         <v>31300000</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:8">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="15">
         <v>42856</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16">
+      <c r="C13" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
         <v>25000000</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
         <v>6300000</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
         <v>42856</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="11">
         <v>100000</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="18">
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <f t="shared" si="0"/>
         <v>6400000</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>42856</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="11">
         <v>100000</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="18">
+      <c r="G15" s="11"/>
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>6500000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>42857</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="11">
         <v>500000</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="18">
+      <c r="G16" s="11"/>
+      <c r="H16" s="19">
         <f t="shared" si="0"/>
         <v>7000000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>42858</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="11">
         <v>500000</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="18">
+      <c r="G17" s="11"/>
+      <c r="H17" s="19">
         <f t="shared" si="0"/>
         <v>7500000</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="9">
         <v>42859</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="11">
         <v>50000</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="18">
+      <c r="G18" s="11"/>
+      <c r="H18" s="19">
         <f t="shared" si="0"/>
         <v>7550000</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
         <v>42860</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11">
         <v>50000</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="18">
+      <c r="G19" s="11"/>
+      <c r="H19" s="19">
         <f t="shared" si="0"/>
         <v>7600000</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="9">
         <v>42861</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="C20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="11">
         <v>500000</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="18">
+      <c r="G20" s="11"/>
+      <c r="H20" s="19">
         <f t="shared" si="0"/>
         <v>8100000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="9">
         <v>42862</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="19">
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="20">
         <v>12000</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="18">
+      <c r="G21" s="11"/>
+      <c r="H21" s="19">
         <f t="shared" si="0"/>
         <v>8112000</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>42864</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="C22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="11">
         <v>100000</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="18">
+      <c r="G22" s="11"/>
+      <c r="H22" s="19">
         <f t="shared" si="0"/>
         <v>8212000</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="9">
         <v>42864</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="C23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="11">
         <v>85200</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="18">
+      <c r="G23" s="11"/>
+      <c r="H23" s="19">
         <f t="shared" si="0"/>
         <v>8297200</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="9">
         <v>42864</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="C24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="11">
         <v>400000</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="18">
+      <c r="G24" s="11"/>
+      <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>8697200</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>22</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>42869</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="11">
         <v>400000</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="18">
+      <c r="G25" s="11"/>
+      <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>9097200</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>23</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="9">
         <v>42871</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="10">
+      <c r="E26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="11">
         <v>20000</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="18">
+      <c r="G26" s="11"/>
+      <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>9117200</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>24</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="9">
         <v>42876</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="11">
         <v>3000000</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="18">
+      <c r="G27" s="11"/>
+      <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>12117200</v>
       </c>
     </row>
     <row r="28" ht="30" spans="1:8">
-      <c r="A28" s="20">
+      <c r="A28" s="21">
         <v>25</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>42880</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="C28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="24">
         <v>15000000</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="18">
+      <c r="G28" s="24"/>
+      <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>27117200</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:8">
-      <c r="A29" s="13">
+      <c r="A29" s="25">
         <v>26</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="26">
         <v>42880</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13" t="s">
+      <c r="C29" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28">
         <v>15000000</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="29">
         <f t="shared" si="0"/>
         <v>12117200</v>
       </c>
     </row>
-    <row r="30" spans="6:8">
-      <c r="F30" s="24">
-        <f>SUM(F4:F29)</f>
-        <v>52117200</v>
-      </c>
-      <c r="G30" s="24">
-        <f>SUM(G4:G29)</f>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="30">
+        <v>42906</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="32">
+        <v>500000</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33">
+        <f t="shared" si="0"/>
+        <v>12617200</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:8">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="30">
+        <v>42907</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="32">
+        <v>500000</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33">
+        <f t="shared" si="0"/>
+        <v>13117200</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="2:8">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33">
+        <f t="shared" si="0"/>
+        <v>13117200</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:8">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33">
+        <f t="shared" si="0"/>
+        <v>13117200</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="2:9">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="34">
+        <f t="shared" si="0"/>
+        <v>13117200</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <f>H34=H35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="35">
+        <f>SUM(F4:F34)</f>
+        <v>53117200</v>
+      </c>
+      <c r="G35" s="35">
+        <f>SUM(G4:G34)</f>
         <v>40000000</v>
       </c>
-      <c r="H30" s="24">
-        <f>F30-G30</f>
-        <v>12117200</v>
+      <c r="H35" s="35">
+        <f>F35-G35</f>
+        <v>13117200</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>TRANSFER KE Bpk YUSTANTO DWIANTORO Belanja Roof Top</t>
+  </si>
+  <si>
+    <t>Ummu Yahya Hakim</t>
+  </si>
+  <si>
+    <t>Tendean</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk NUR PANCA ADI PUTRA Transfer ke mas Icok 10jt</t>
+  </si>
+  <si>
+    <t>Dana dari TN</t>
   </si>
   <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
@@ -466,11 +478,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -489,48 +501,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,16 +524,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,7 +555,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,7 +616,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,28 +640,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +768,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,13 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,91 +834,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,6 +948,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -962,35 +989,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,6 +1011,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1024,23 +1045,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1052,134 +1064,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1205,8 +1217,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1215,31 +1227,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1263,8 +1275,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,28 +1286,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,6 +1360,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1637,18 +1653,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="34.2857142857143" style="36" customWidth="1"/>
-    <col min="4" max="4" width="34.2857142857143" style="36" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="34.2857142857143" style="36" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -1718,8 +1733,8 @@
         <v>10</v>
       </c>
       <c r="K3" s="11">
-        <f>H117</f>
-        <v>20365900</v>
+        <f>H129</f>
+        <v>13858100</v>
       </c>
       <c r="M3">
         <v>58296000</v>
@@ -1818,7 +1833,7 @@
       </c>
       <c r="K6" s="11">
         <f>SUM(K3:K5)</f>
-        <v>33483100</v>
+        <v>26975300</v>
       </c>
       <c r="M6" s="11">
         <f>SUM(M3:M5)</f>
@@ -1880,7 +1895,8 @@
         <v>18</v>
       </c>
       <c r="K8" s="50">
-        <v>108074297</v>
+        <f>24495097-12000</f>
+        <v>24483097</v>
       </c>
       <c r="M8" s="51">
         <v>68535797</v>
@@ -1915,8 +1931,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="50">
-        <f>3000000+450000+20000+1700+35000+452200</f>
-        <v>3958900</v>
+        <v>2492200</v>
       </c>
       <c r="M9" s="51">
         <f>M6-M8</f>
@@ -1953,7 +1968,7 @@
       </c>
       <c r="K10" s="50">
         <f>K6-K8-K9</f>
-        <v>-78550097</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3474,7 +3489,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="8">
-        <f t="shared" ref="A69:A111" si="2">A68+1</f>
+        <f t="shared" ref="A69:A114" si="2">A68+1</f>
         <v>66</v>
       </c>
       <c r="B69" s="9">
@@ -3494,7 +3509,7 @@
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="12">
-        <f t="shared" ref="H69:H116" si="3">H68+F69-G69</f>
+        <f t="shared" ref="H69:H125" si="3">H68+F69-G69</f>
         <v>79396000</v>
       </c>
     </row>
@@ -4523,7 +4538,7 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="59">
+      <c r="A110" s="1">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
@@ -4549,8 +4564,8 @@
       </c>
     </row>
     <row r="111" ht="45" spans="1:8">
-      <c r="A111" s="59">
-        <f t="shared" ref="A111:A117" si="4">A110+1</f>
+      <c r="A111" s="1">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B111" s="15">
@@ -4575,8 +4590,8 @@
       </c>
     </row>
     <row r="112" ht="30" spans="1:8">
-      <c r="A112" s="59">
-        <f t="shared" si="4"/>
+      <c r="A112" s="1">
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B112" s="15">
@@ -4601,8 +4616,8 @@
       </c>
     </row>
     <row r="113" ht="30" spans="1:8">
-      <c r="A113" s="59">
-        <f t="shared" si="4"/>
+      <c r="A113" s="1">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B113" s="15">
@@ -4627,8 +4642,8 @@
       </c>
     </row>
     <row r="114" ht="30" spans="1:8">
-      <c r="A114" s="59">
-        <f t="shared" si="4"/>
+      <c r="A114" s="1">
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B114" s="15">
@@ -4653,73 +4668,349 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="8">
+      <c r="A115" s="8"/>
+      <c r="B115" s="9">
+        <v>42938</v>
+      </c>
+      <c r="C115" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="58">
+        <v>10000</v>
+      </c>
+      <c r="G115" s="58"/>
+      <c r="H115" s="34">
+        <f t="shared" ref="H115:H126" si="4">H114+F115-G115</f>
+        <v>20375900</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="8"/>
+      <c r="B116" s="9">
+        <v>42938</v>
+      </c>
+      <c r="C116" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="58">
+        <v>50000</v>
+      </c>
+      <c r="G116" s="58"/>
+      <c r="H116" s="34">
         <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="B115" s="9"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="12">
-        <f t="shared" si="3"/>
-        <v>20365900</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="8">
-        <f t="shared" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="B116" s="9">
-        <v>42928</v>
-      </c>
-      <c r="C116" s="56"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="12">
-        <f t="shared" si="3"/>
-        <v>20365900</v>
-      </c>
-      <c r="J116" t="b">
-        <f>H116=H117</f>
-        <v>1</v>
+        <v>20425900</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="8">
+        <f>A114+1</f>
+        <v>112</v>
+      </c>
+      <c r="B117" s="9">
+        <v>42941</v>
+      </c>
+      <c r="C117" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="58">
+        <v>202200</v>
+      </c>
+      <c r="G117" s="58"/>
+      <c r="H117" s="34">
         <f t="shared" si="4"/>
+        <v>20628100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="8"/>
+      <c r="B118" s="9">
+        <v>42941</v>
+      </c>
+      <c r="C118" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E118" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="58">
+        <v>500000</v>
+      </c>
+      <c r="G118" s="58"/>
+      <c r="H118" s="34">
+        <f t="shared" si="4"/>
+        <v>21128100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="8"/>
+      <c r="B119" s="9">
+        <v>42941</v>
+      </c>
+      <c r="C119" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="58">
+        <v>500000</v>
+      </c>
+      <c r="G119" s="58"/>
+      <c r="H119" s="34">
+        <f t="shared" si="4"/>
+        <v>21628100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="8"/>
+      <c r="B120" s="9">
+        <v>42941</v>
+      </c>
+      <c r="C120" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="58">
+        <v>30000</v>
+      </c>
+      <c r="G120" s="58"/>
+      <c r="H120" s="34">
+        <f t="shared" si="4"/>
+        <v>21658100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="8"/>
+      <c r="B121" s="9">
+        <v>42941</v>
+      </c>
+      <c r="C121" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E121" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="58">
+        <v>200000</v>
+      </c>
+      <c r="G121" s="58"/>
+      <c r="H121" s="34">
+        <f t="shared" si="4"/>
+        <v>21858100</v>
+      </c>
+    </row>
+    <row r="122" ht="30" spans="1:8">
+      <c r="A122" s="8"/>
+      <c r="B122" s="15">
+        <v>42941</v>
+      </c>
+      <c r="C122" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E122" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="55"/>
+      <c r="G122" s="55">
+        <v>10000000</v>
+      </c>
+      <c r="H122" s="18">
+        <f t="shared" ref="H122:H128" si="5">H121+F122-G122</f>
+        <v>11858100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="8"/>
+      <c r="B123" s="9">
+        <v>42941</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="58">
+        <v>12000000</v>
+      </c>
+      <c r="G123" s="58"/>
+      <c r="H123" s="34">
+        <f t="shared" si="5"/>
+        <v>23858100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="8"/>
+      <c r="B124" s="9">
+        <v>42942</v>
+      </c>
+      <c r="C124" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="G124" s="58"/>
+      <c r="H124" s="34">
+        <f t="shared" si="5"/>
+        <v>24858100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="8"/>
+      <c r="B125" s="15">
+        <v>42942</v>
+      </c>
+      <c r="C125" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55">
+        <v>12000000</v>
+      </c>
+      <c r="H125" s="18">
+        <f t="shared" si="5"/>
+        <v>12858100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="8"/>
+      <c r="B126" s="9">
+        <v>42949</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="58">
+        <v>1000000</v>
+      </c>
+      <c r="G126" s="58"/>
+      <c r="H126" s="34">
+        <f t="shared" si="5"/>
+        <v>13858100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="8"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="34">
+        <f t="shared" si="5"/>
+        <v>13858100</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" spans="1:10">
+      <c r="A128" s="8">
+        <f>A117+1</f>
+        <v>113</v>
+      </c>
+      <c r="B128" s="9">
+        <v>42928</v>
+      </c>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="34">
+        <f t="shared" si="5"/>
+        <v>13858100</v>
+      </c>
+      <c r="J128" t="b">
+        <f>H128=H129</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" spans="1:8">
+      <c r="A129" s="8">
+        <f>A128+1</f>
         <v>114</v>
       </c>
-      <c r="B117" s="60"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="61"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="62">
-        <f>SUM(F4:F116)</f>
-        <v>195943400</v>
-      </c>
-      <c r="G117" s="63">
-        <f>SUM(G4:G116)</f>
-        <v>175577500</v>
-      </c>
-      <c r="H117" s="62">
-        <f>F117-G117</f>
-        <v>20365900</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="8"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="8"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="61">
+        <f>SUM(F4:F128)</f>
+        <v>211435600</v>
+      </c>
+      <c r="G129" s="62">
+        <f>SUM(G4:G128)</f>
+        <v>197577500</v>
+      </c>
+      <c r="H129" s="61">
+        <f>F129-G129</f>
+        <v>13858100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="8"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="8"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4743,7 +5034,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4758,7 +5049,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -4867,7 +5158,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
@@ -4917,7 +5208,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
@@ -4967,7 +5258,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>16</v>
@@ -5017,7 +5308,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
@@ -5039,13 +5330,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17">
@@ -5092,7 +5383,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -5139,10 +5430,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
@@ -5217,7 +5508,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>16</v>
@@ -5267,7 +5558,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>16</v>
@@ -5289,10 +5580,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
@@ -5314,10 +5605,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -5389,10 +5680,10 @@
         <v>42876</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>12</v>
@@ -5417,7 +5708,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>12</v>
@@ -5439,7 +5730,7 @@
         <v>42880</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="25" t="s">
@@ -5462,7 +5753,7 @@
         <v>42906</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="1" t="s">

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -419,6 +419,27 @@
     <t>Dana dari TN</t>
   </si>
   <si>
+    <t>TRANSFER KE Bpk AGUS WAHYUDI Pembelian pasir mahad</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk NUR PANCA ADI PUTRA Uang pembangunan banin-banat</t>
+  </si>
+  <si>
+    <t>Pinjam Uang Banin</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk NUR PANCA ADI PUTRA Uang pembangunan MTS pinjam dana opr Banin</t>
+  </si>
+  <si>
+    <t>Penyerahan uang ke Mas Icok untuk MTS pinjam dana opr Banin</t>
+  </si>
+  <si>
+    <t>Sisa uang yang dibawa Pak Utsman</t>
+  </si>
+  <si>
+    <t>Ikhwan Mojolaban</t>
+  </si>
+  <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
   </si>
   <si>
@@ -471,6 +492,9 @@
   </si>
   <si>
     <t>Hamba Allah Gemolong Via Ummu Yahya</t>
+  </si>
+  <si>
+    <t>TRANSFER KE Bpk YULI RAHMANTO Untuk ahmad padang</t>
   </si>
 </sst>
 </file>
@@ -481,8 +505,8 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -508,8 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,101 +555,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,6 +572,98 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +696,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,31 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,43 +852,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,73 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,6 +972,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -959,6 +998,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,65 +1064,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1064,130 +1088,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,6 +1274,10 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1292,10 +1320,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1653,17 +1677,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.2857142857143" style="36" customWidth="1"/>
+    <col min="3" max="4" width="34.2857142857143" style="38" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -1679,8 +1703,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1693,10 +1717,10 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1705,18 +1729,18 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="5"/>
@@ -1729,12 +1753,12 @@
       <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="44" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11">
-        <f>H129</f>
-        <v>13858100</v>
+        <f>H137</f>
+        <v>3655100</v>
       </c>
       <c r="M3">
         <v>58296000</v>
@@ -1747,10 +1771,10 @@
       <c r="B4" s="9">
         <v>42841</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1764,12 +1788,12 @@
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="44" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="11">
         <f>Masjid!H35</f>
-        <v>13117200</v>
+        <v>3117200</v>
       </c>
       <c r="M4" s="11">
         <v>12117200</v>
@@ -1783,10 +1807,10 @@
       <c r="B5" s="9">
         <v>42842</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1800,8 +1824,8 @@
         <f t="shared" ref="H5:H68" si="1">H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="8">
@@ -1811,10 +1835,10 @@
       <c r="B6" s="9">
         <v>42844</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1828,12 +1852,12 @@
         <f t="shared" si="1"/>
         <v>10600000</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="44" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="11">
         <f>SUM(K3:K5)</f>
-        <v>26975300</v>
+        <v>6772300</v>
       </c>
       <c r="M6" s="11">
         <f>SUM(M3:M5)</f>
@@ -1848,10 +1872,10 @@
       <c r="B7" s="9">
         <v>42844</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1874,10 +1898,10 @@
       <c r="B8" s="9">
         <v>42844</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1894,11 +1918,11 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="52">
         <f>24495097-12000</f>
         <v>24483097</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="53">
         <v>68535797</v>
       </c>
     </row>
@@ -1910,10 +1934,10 @@
       <c r="B9" s="9">
         <v>42845</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1930,10 +1954,10 @@
       <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="52">
         <v>2492200</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="53">
         <f>M6-M8</f>
         <v>1877403</v>
       </c>
@@ -1946,10 +1970,10 @@
       <c r="B10" s="9">
         <v>42845</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1966,9 +1990,9 @@
       <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="52">
         <f>K6-K8-K9</f>
-        <v>3</v>
+        <v>-20202997</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1979,10 +2003,10 @@
       <c r="B11" s="9">
         <v>42845</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -2005,10 +2029,10 @@
       <c r="B12" s="9">
         <v>42846</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2028,16 +2052,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="42">
         <v>42847</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="11">
@@ -2054,13 +2078,13 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="42">
         <v>42847</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="41" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -2080,13 +2104,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="42">
         <v>42847</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2106,13 +2130,13 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="42">
         <v>42847</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="41" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2132,13 +2156,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="42">
         <v>42847</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2152,20 +2176,20 @@
         <f t="shared" si="1"/>
         <v>21066000</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="42">
         <v>42847</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="41" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2179,20 +2203,20 @@
         <f t="shared" si="1"/>
         <v>21566000</v>
       </c>
-      <c r="K18" s="50"/>
+      <c r="K18" s="52"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="42">
         <v>42847</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2206,20 +2230,20 @@
         <f t="shared" si="1"/>
         <v>21666000</v>
       </c>
-      <c r="K19" s="50"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="42">
         <v>42849</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2233,20 +2257,20 @@
         <f t="shared" si="1"/>
         <v>21866000</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="40">
+      <c r="B21" s="42">
         <v>42850</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2269,10 +2293,10 @@
       <c r="B22" s="9">
         <v>42851</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2286,7 +2310,7 @@
         <f t="shared" si="1"/>
         <v>22416000</v>
       </c>
-      <c r="K22" s="50"/>
+      <c r="K22" s="52"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8">
@@ -2296,10 +2320,10 @@
       <c r="B23" s="9">
         <v>42851</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="41" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="8" t="s">
@@ -2322,10 +2346,10 @@
       <c r="B24" s="9">
         <v>42851</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="41" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -2348,10 +2372,10 @@
       <c r="B25" s="9">
         <v>42851</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="41" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -2374,10 +2398,10 @@
       <c r="B26" s="9">
         <v>42853</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -2400,10 +2424,10 @@
       <c r="B27" s="9">
         <v>42854</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="41" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -2426,10 +2450,10 @@
       <c r="B28" s="9">
         <v>42854</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="39" t="s">
+      <c r="C28" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -2452,10 +2476,10 @@
       <c r="B29" s="9">
         <v>42854</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="41" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="8" t="s">
@@ -2478,10 +2502,10 @@
       <c r="B30" s="9">
         <v>42854</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="8" t="s">
@@ -2504,10 +2528,10 @@
       <c r="B31" s="9">
         <v>42854</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="41" t="s">
         <v>48</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -2530,10 +2554,10 @@
       <c r="B32" s="9">
         <v>42854</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="39" t="s">
+      <c r="C32" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="41" t="s">
         <v>49</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -2556,10 +2580,10 @@
       <c r="B33" s="9">
         <v>42854</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="41" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -2582,10 +2606,10 @@
       <c r="B34" s="9">
         <v>42856</v>
       </c>
-      <c r="C34" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -2608,10 +2632,10 @@
       <c r="B35" s="9">
         <v>42856</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="45" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2634,10 +2658,10 @@
       <c r="B36" s="9">
         <v>42857</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="45" t="s">
         <v>54</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2660,10 +2684,10 @@
       <c r="B37" s="9">
         <v>42857</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="41" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="8" t="s">
@@ -2686,10 +2710,10 @@
       <c r="B38" s="9">
         <v>42859</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="41" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="8" t="s">
@@ -2712,10 +2736,10 @@
       <c r="B39" s="9">
         <v>42860</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="39" t="s">
+      <c r="D39" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -2738,16 +2762,16 @@
       <c r="B40" s="22">
         <v>42860</v>
       </c>
-      <c r="C40" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="44" t="s">
+      <c r="C40" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>57</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="47">
         <v>2000000</v>
       </c>
       <c r="G40" s="21"/>
@@ -2764,10 +2788,10 @@
       <c r="B41" s="9">
         <v>42861</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="39" t="s">
+      <c r="C41" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="41" t="s">
         <v>58</v>
       </c>
       <c r="E41" s="8" t="s">
@@ -2790,10 +2814,10 @@
       <c r="B42" s="9">
         <v>42861</v>
       </c>
-      <c r="C42" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="39" t="s">
+      <c r="C42" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -2816,10 +2840,10 @@
       <c r="B43" s="9">
         <v>42861</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="39" t="s">
+      <c r="C43" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -2842,10 +2866,10 @@
       <c r="B44" s="9">
         <v>42862</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="39" t="s">
+      <c r="C44" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -2868,10 +2892,10 @@
       <c r="B45" s="9">
         <v>42863</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="41" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -2894,10 +2918,10 @@
       <c r="B46" s="9">
         <v>42864</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="39" t="s">
+      <c r="C46" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="41" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -2920,10 +2944,10 @@
       <c r="B47" s="9">
         <v>42865</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="41" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="8" t="s">
@@ -2946,10 +2970,10 @@
       <c r="B48" s="9">
         <v>42865</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="C48" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="41" t="s">
         <v>65</v>
       </c>
       <c r="E48" s="8" t="s">
@@ -2972,10 +2996,10 @@
       <c r="B49" s="9">
         <v>42865</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="39" t="s">
+      <c r="C49" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -2998,10 +3022,10 @@
       <c r="B50" s="9">
         <v>42866</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="39" t="s">
+      <c r="C50" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -3024,10 +3048,10 @@
       <c r="B51" s="9">
         <v>42866</v>
       </c>
-      <c r="C51" s="39" t="s">
+      <c r="C51" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -3050,10 +3074,10 @@
       <c r="B52" s="9">
         <v>42870</v>
       </c>
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="41" t="s">
         <v>71</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -3076,10 +3100,10 @@
       <c r="B53" s="9">
         <v>42870</v>
       </c>
-      <c r="C53" s="39" t="s">
+      <c r="C53" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="41" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="8" t="s">
@@ -3102,10 +3126,10 @@
       <c r="B54" s="9">
         <v>42870</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="41" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -3128,10 +3152,10 @@
       <c r="B55" s="9">
         <v>42870</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="41" t="s">
         <v>73</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -3154,10 +3178,10 @@
       <c r="B56" s="9">
         <v>42871</v>
       </c>
-      <c r="C56" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="39" t="s">
+      <c r="C56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="41" t="s">
         <v>74</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -3180,10 +3204,10 @@
       <c r="B57" s="9">
         <v>42872</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="39" t="s">
+      <c r="C57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -3206,10 +3230,10 @@
       <c r="B58" s="9">
         <v>42882</v>
       </c>
-      <c r="C58" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="39" t="s">
+      <c r="C58" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -3232,10 +3256,10 @@
       <c r="B59" s="9">
         <v>42885</v>
       </c>
-      <c r="C59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="39" t="s">
+      <c r="C59" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -3258,10 +3282,10 @@
       <c r="B60" s="9">
         <v>42885</v>
       </c>
-      <c r="C60" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="39" t="s">
+      <c r="C60" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -3284,19 +3308,19 @@
       <c r="B61" s="30">
         <v>42886</v>
       </c>
-      <c r="C61" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="43" t="s">
+      <c r="C61" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="45" t="s">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="46">
+      <c r="F61" s="48">
         <v>10000000</v>
       </c>
-      <c r="G61" s="46"/>
+      <c r="G61" s="48"/>
       <c r="H61" s="12">
         <f t="shared" si="1"/>
         <v>73371000</v>
@@ -3310,10 +3334,10 @@
       <c r="B62" s="9">
         <v>42886</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C62" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="41" t="s">
         <v>80</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -3336,10 +3360,10 @@
       <c r="B63" s="9">
         <v>42887</v>
       </c>
-      <c r="C63" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="39" t="s">
+      <c r="C63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -3365,10 +3389,10 @@
       <c r="B64" s="9">
         <v>42887</v>
       </c>
-      <c r="C64" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="39" t="s">
+      <c r="C64" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="41" t="s">
         <v>82</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -3391,10 +3415,10 @@
       <c r="B65" s="9">
         <v>42887</v>
       </c>
-      <c r="C65" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="39" t="s">
+      <c r="C65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -3417,10 +3441,10 @@
       <c r="B66" s="9">
         <v>42887</v>
       </c>
-      <c r="C66" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="39" t="s">
+      <c r="C66" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="41" t="s">
         <v>59</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -3443,10 +3467,10 @@
       <c r="B67" s="9">
         <v>42888</v>
       </c>
-      <c r="C67" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="39" t="s">
+      <c r="C67" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="41" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -3469,10 +3493,10 @@
       <c r="B68" s="9">
         <v>42889</v>
       </c>
-      <c r="C68" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="39" t="s">
+      <c r="C68" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="41" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -3495,10 +3519,10 @@
       <c r="B69" s="9">
         <v>42890</v>
       </c>
-      <c r="C69" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="39" t="s">
+      <c r="C69" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="41" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -3521,10 +3545,10 @@
       <c r="B70" s="9">
         <v>42893</v>
       </c>
-      <c r="C70" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="39" t="s">
+      <c r="C70" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="41" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -3547,15 +3571,15 @@
       <c r="B71" s="15">
         <v>42893</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="52"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53">
+      <c r="F71" s="55"/>
+      <c r="G71" s="55">
         <v>1500000</v>
       </c>
       <c r="H71" s="18">
@@ -3571,15 +3595,15 @@
       <c r="B72" s="15">
         <v>42895</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="52"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53">
+      <c r="F72" s="55"/>
+      <c r="G72" s="55">
         <v>20000000</v>
       </c>
       <c r="H72" s="18">
@@ -3595,16 +3619,16 @@
       <c r="B73" s="9">
         <v>42899</v>
       </c>
-      <c r="C73" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="39" t="s">
+      <c r="C73" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="41" t="s">
         <v>87</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="46">
+      <c r="F73" s="48">
         <v>800000</v>
       </c>
       <c r="G73" s="20"/>
@@ -3621,16 +3645,16 @@
       <c r="B74" s="9">
         <v>42899</v>
       </c>
-      <c r="C74" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="39" t="s">
+      <c r="C74" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="41" t="s">
         <v>88</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="46">
+      <c r="F74" s="48">
         <v>1025000</v>
       </c>
       <c r="G74" s="20"/>
@@ -3647,16 +3671,16 @@
       <c r="B75" s="9">
         <v>42899</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="39" t="s">
+      <c r="C75" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="41" t="s">
         <v>89</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="46">
+      <c r="F75" s="48">
         <v>1000000</v>
       </c>
       <c r="G75" s="20"/>
@@ -3673,16 +3697,16 @@
       <c r="B76" s="9">
         <v>42899</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="C76" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="39" t="s">
+      <c r="D76" s="41" t="s">
         <v>90</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="46">
+      <c r="F76" s="48">
         <v>106000</v>
       </c>
       <c r="G76" s="20"/>
@@ -3699,16 +3723,16 @@
       <c r="B77" s="9">
         <v>42899</v>
       </c>
-      <c r="C77" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="39" t="s">
+      <c r="C77" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="41" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="46">
+      <c r="F77" s="48">
         <v>1000000</v>
       </c>
       <c r="G77" s="20"/>
@@ -3725,16 +3749,16 @@
       <c r="B78" s="9">
         <v>42899</v>
       </c>
-      <c r="C78" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="39" t="s">
+      <c r="C78" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="41" t="s">
         <v>92</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="46">
+      <c r="F78" s="48">
         <v>652000</v>
       </c>
       <c r="G78" s="20"/>
@@ -3751,16 +3775,16 @@
       <c r="B79" s="9">
         <v>42899</v>
       </c>
-      <c r="C79" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="39" t="s">
+      <c r="C79" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="41" t="s">
         <v>93</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="46">
+      <c r="F79" s="48">
         <v>106600</v>
       </c>
       <c r="G79" s="20"/>
@@ -3777,10 +3801,10 @@
       <c r="B80" s="9">
         <v>42899</v>
       </c>
-      <c r="C80" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="39" t="s">
+      <c r="C80" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="41" t="s">
         <v>94</v>
       </c>
       <c r="E80" s="8" t="s">
@@ -3803,10 +3827,10 @@
       <c r="B81" s="9">
         <v>42899</v>
       </c>
-      <c r="C81" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="39" t="s">
+      <c r="C81" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="41" t="s">
         <v>95</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -3829,10 +3853,10 @@
       <c r="B82" s="9">
         <v>42902</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="41"/>
       <c r="E82" s="8" t="s">
         <v>16</v>
       </c>
@@ -3853,10 +3877,10 @@
       <c r="B83" s="9">
         <v>42902</v>
       </c>
-      <c r="C83" s="39" t="s">
+      <c r="C83" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D83" s="39" t="s">
+      <c r="D83" s="41" t="s">
         <v>98</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -3879,10 +3903,10 @@
       <c r="B84" s="9">
         <v>42902</v>
       </c>
-      <c r="C84" s="39" t="s">
+      <c r="C84" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -3905,17 +3929,17 @@
       <c r="B85" s="15">
         <v>42902</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="54" t="s">
         <v>101</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="53"/>
-      <c r="G85" s="53">
+      <c r="F85" s="55"/>
+      <c r="G85" s="55">
         <v>1000000</v>
       </c>
       <c r="H85" s="18">
@@ -3931,17 +3955,17 @@
       <c r="B86" s="15">
         <v>42903</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="52" t="s">
+      <c r="D86" s="54" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53">
+      <c r="F86" s="55"/>
+      <c r="G86" s="55">
         <v>10000000</v>
       </c>
       <c r="H86" s="18">
@@ -3957,10 +3981,10 @@
       <c r="B87" s="9">
         <v>42904</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -3983,10 +4007,10 @@
       <c r="B88" s="9">
         <v>42904</v>
       </c>
-      <c r="C88" s="39" t="s">
+      <c r="C88" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="39"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="8" t="s">
         <v>16</v>
       </c>
@@ -4007,10 +4031,10 @@
       <c r="B89" s="9">
         <v>42904</v>
       </c>
-      <c r="C89" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="39" t="s">
+      <c r="C89" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E89" s="8" t="s">
@@ -4033,10 +4057,10 @@
       <c r="B90" s="9">
         <v>42904</v>
       </c>
-      <c r="C90" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="39" t="s">
+      <c r="C90" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="41" t="s">
         <v>105</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -4059,10 +4083,10 @@
       <c r="B91" s="9">
         <v>42905</v>
       </c>
-      <c r="C91" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="39" t="s">
+      <c r="C91" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="41" t="s">
         <v>106</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -4085,10 +4109,10 @@
       <c r="B92" s="9">
         <v>42907</v>
       </c>
-      <c r="C92" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="39" t="s">
+      <c r="C92" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="41" t="s">
         <v>107</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -4114,17 +4138,17 @@
       <c r="B93" s="15">
         <v>42908</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="54" t="s">
         <v>110</v>
       </c>
       <c r="E93" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="53"/>
-      <c r="G93" s="53">
+      <c r="F93" s="55"/>
+      <c r="G93" s="55">
         <v>13621000</v>
       </c>
       <c r="H93" s="18">
@@ -4143,17 +4167,17 @@
       <c r="B94" s="15">
         <v>42908</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C94" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="52" t="s">
+      <c r="D94" s="54" t="s">
         <v>111</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53">
+      <c r="F94" s="55"/>
+      <c r="G94" s="55">
         <v>6500</v>
       </c>
       <c r="H94" s="18">
@@ -4169,17 +4193,17 @@
       <c r="B95" s="15">
         <v>42908</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="54" t="s">
         <v>113</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53">
+      <c r="F95" s="55"/>
+      <c r="G95" s="55">
         <v>2900000</v>
       </c>
       <c r="H95" s="18">
@@ -4195,17 +4219,17 @@
       <c r="B96" s="15">
         <v>42908</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="34" t="s">
         <v>115</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55">
+      <c r="F96" s="35"/>
+      <c r="G96" s="35">
         <v>20000000</v>
       </c>
       <c r="H96" s="18">
@@ -4247,17 +4271,17 @@
       <c r="B98" s="15">
         <v>42909</v>
       </c>
-      <c r="C98" s="54" t="s">
+      <c r="C98" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D98" s="54" t="s">
+      <c r="D98" s="34" t="s">
         <v>118</v>
       </c>
       <c r="E98" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55">
+      <c r="F98" s="35"/>
+      <c r="G98" s="35">
         <v>25000000</v>
       </c>
       <c r="H98" s="18">
@@ -4545,17 +4569,17 @@
       <c r="B110" s="15">
         <v>42931</v>
       </c>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D110" s="54" t="s">
+      <c r="D110" s="34" t="s">
         <v>127</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F110" s="55"/>
-      <c r="G110" s="55">
+      <c r="F110" s="35"/>
+      <c r="G110" s="35">
         <v>5000000</v>
       </c>
       <c r="H110" s="18">
@@ -4571,17 +4595,17 @@
       <c r="B111" s="15">
         <v>42932</v>
       </c>
-      <c r="C111" s="54" t="s">
+      <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D111" s="54" t="s">
+      <c r="D111" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="55"/>
-      <c r="G111" s="55">
+      <c r="F111" s="35"/>
+      <c r="G111" s="35">
         <v>1550000</v>
       </c>
       <c r="H111" s="18">
@@ -4597,17 +4621,17 @@
       <c r="B112" s="15">
         <v>42934</v>
       </c>
-      <c r="C112" s="54" t="s">
+      <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D112" s="54" t="s">
+      <c r="D112" s="34" t="s">
         <v>129</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="55"/>
-      <c r="G112" s="55">
+      <c r="F112" s="35"/>
+      <c r="G112" s="35">
         <v>25000000</v>
       </c>
       <c r="H112" s="18">
@@ -4623,17 +4647,17 @@
       <c r="B113" s="15">
         <v>42935</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D113" s="54" t="s">
+      <c r="D113" s="34" t="s">
         <v>129</v>
       </c>
       <c r="E113" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="55"/>
-      <c r="G113" s="55">
+      <c r="F113" s="35"/>
+      <c r="G113" s="35">
         <v>25000000</v>
       </c>
       <c r="H113" s="18">
@@ -4649,17 +4673,17 @@
       <c r="B114" s="15">
         <v>42939</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C114" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D114" s="54" t="s">
+      <c r="D114" s="34" t="s">
         <v>129</v>
       </c>
       <c r="E114" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="55"/>
-      <c r="G114" s="55">
+      <c r="F114" s="35"/>
+      <c r="G114" s="35">
         <v>25000000</v>
       </c>
       <c r="H114" s="18">
@@ -4685,7 +4709,7 @@
         <v>10000</v>
       </c>
       <c r="G115" s="58"/>
-      <c r="H115" s="34">
+      <c r="H115" s="36">
         <f t="shared" ref="H115:H126" si="4">H114+F115-G115</f>
         <v>20375900</v>
       </c>
@@ -4708,7 +4732,7 @@
         <v>50000</v>
       </c>
       <c r="G116" s="58"/>
-      <c r="H116" s="34">
+      <c r="H116" s="36">
         <f t="shared" si="4"/>
         <v>20425900</v>
       </c>
@@ -4734,7 +4758,7 @@
         <v>202200</v>
       </c>
       <c r="G117" s="58"/>
-      <c r="H117" s="34">
+      <c r="H117" s="36">
         <f t="shared" si="4"/>
         <v>20628100</v>
       </c>
@@ -4757,7 +4781,7 @@
         <v>500000</v>
       </c>
       <c r="G118" s="58"/>
-      <c r="H118" s="34">
+      <c r="H118" s="36">
         <f t="shared" si="4"/>
         <v>21128100</v>
       </c>
@@ -4780,7 +4804,7 @@
         <v>500000</v>
       </c>
       <c r="G119" s="58"/>
-      <c r="H119" s="34">
+      <c r="H119" s="36">
         <f t="shared" si="4"/>
         <v>21628100</v>
       </c>
@@ -4803,7 +4827,7 @@
         <v>30000</v>
       </c>
       <c r="G120" s="58"/>
-      <c r="H120" s="34">
+      <c r="H120" s="36">
         <f t="shared" si="4"/>
         <v>21658100</v>
       </c>
@@ -4826,7 +4850,7 @@
         <v>200000</v>
       </c>
       <c r="G121" s="58"/>
-      <c r="H121" s="34">
+      <c r="H121" s="36">
         <f t="shared" si="4"/>
         <v>21858100</v>
       </c>
@@ -4836,17 +4860,17 @@
       <c r="B122" s="15">
         <v>42941</v>
       </c>
-      <c r="C122" s="54" t="s">
+      <c r="C122" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="D122" s="54" t="s">
+      <c r="D122" s="34" t="s">
         <v>132</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="55"/>
-      <c r="G122" s="55">
+      <c r="F122" s="35"/>
+      <c r="G122" s="35">
         <v>10000000</v>
       </c>
       <c r="H122" s="18">
@@ -4872,7 +4896,7 @@
         <v>12000000</v>
       </c>
       <c r="G123" s="58"/>
-      <c r="H123" s="34">
+      <c r="H123" s="36">
         <f t="shared" si="5"/>
         <v>23858100</v>
       </c>
@@ -4895,7 +4919,7 @@
         <v>1000000</v>
       </c>
       <c r="G124" s="58"/>
-      <c r="H124" s="34">
+      <c r="H124" s="36">
         <f t="shared" si="5"/>
         <v>24858100</v>
       </c>
@@ -4905,17 +4929,17 @@
       <c r="B125" s="15">
         <v>42942</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="C125" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="54" t="s">
+      <c r="D125" s="34" t="s">
         <v>117</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55">
+      <c r="F125" s="35"/>
+      <c r="G125" s="35">
         <v>12000000</v>
       </c>
       <c r="H125" s="18">
@@ -4941,76 +4965,268 @@
         <v>1000000</v>
       </c>
       <c r="G126" s="58"/>
-      <c r="H126" s="34">
+      <c r="H126" s="36">
         <f t="shared" si="5"/>
         <v>13858100</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" ht="30" spans="1:8">
       <c r="A127" s="8"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="57"/>
+      <c r="B127" s="9">
+        <v>42956</v>
+      </c>
+      <c r="C127" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="57" t="s">
+        <v>12</v>
+      </c>
       <c r="F127" s="58"/>
-      <c r="G127" s="58"/>
-      <c r="H127" s="34">
+      <c r="G127" s="58">
+        <v>1400000</v>
+      </c>
+      <c r="H127" s="36">
         <f t="shared" si="5"/>
-        <v>13858100</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" spans="1:10">
-      <c r="A128" s="8">
+        <v>12458100</v>
+      </c>
+    </row>
+    <row r="128" ht="45" spans="1:8">
+      <c r="A128" s="8"/>
+      <c r="B128" s="9">
+        <v>42956</v>
+      </c>
+      <c r="C128" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D128" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E128" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="58"/>
+      <c r="G128" s="58">
+        <v>10000000</v>
+      </c>
+      <c r="H128" s="36">
+        <f>H127+F128-G128</f>
+        <v>2458100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="8"/>
+      <c r="B129" s="9">
+        <v>42961</v>
+      </c>
+      <c r="C129" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E129" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="58">
+        <v>6000000</v>
+      </c>
+      <c r="G129" s="58"/>
+      <c r="H129" s="36">
+        <f>H128+F129-G129</f>
+        <v>8458100</v>
+      </c>
+    </row>
+    <row r="130" ht="45" spans="1:8">
+      <c r="A130" s="8"/>
+      <c r="B130" s="9">
+        <v>42961</v>
+      </c>
+      <c r="C130" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D130" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E130" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="58"/>
+      <c r="G130" s="58">
+        <v>6000000</v>
+      </c>
+      <c r="H130" s="36">
+        <f t="shared" ref="H130:H135" si="6">H129+F130-G130</f>
+        <v>2458100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="8"/>
+      <c r="B131" s="9">
+        <v>42966</v>
+      </c>
+      <c r="C131" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E131" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="58">
+        <v>2000000</v>
+      </c>
+      <c r="G131" s="58"/>
+      <c r="H131" s="36">
+        <f t="shared" si="6"/>
+        <v>4458100</v>
+      </c>
+    </row>
+    <row r="132" ht="30" spans="1:8">
+      <c r="A132" s="8"/>
+      <c r="B132" s="9">
+        <v>42966</v>
+      </c>
+      <c r="C132" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="58"/>
+      <c r="G132" s="58">
+        <v>2000000</v>
+      </c>
+      <c r="H132" s="36">
+        <f t="shared" si="6"/>
+        <v>2458100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="8"/>
+      <c r="B133" s="9">
+        <v>42967</v>
+      </c>
+      <c r="C133" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="58">
+        <v>194000</v>
+      </c>
+      <c r="G133" s="58"/>
+      <c r="H133" s="36">
+        <f t="shared" si="6"/>
+        <v>2652100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8"/>
+      <c r="B134" s="9">
+        <v>42967</v>
+      </c>
+      <c r="C134" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D134" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="58">
+        <v>33000</v>
+      </c>
+      <c r="G134" s="58"/>
+      <c r="H134" s="36">
+        <f>H133+F134-G134</f>
+        <v>2685100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="8"/>
+      <c r="B135" s="9">
+        <v>42967</v>
+      </c>
+      <c r="C135" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="58">
+        <v>970000</v>
+      </c>
+      <c r="G135" s="58"/>
+      <c r="H135" s="36">
+        <f>H134+F135-G135</f>
+        <v>3655100</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" spans="1:10">
+      <c r="A136" s="8">
         <f>A117+1</f>
         <v>113</v>
       </c>
-      <c r="B128" s="9">
-        <v>42928</v>
-      </c>
-      <c r="C128" s="56"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="58"/>
-      <c r="G128" s="58"/>
-      <c r="H128" s="34">
-        <f t="shared" si="5"/>
-        <v>13858100</v>
-      </c>
-      <c r="J128" t="b">
-        <f>H128=H129</f>
+      <c r="B136" s="9"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="58"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="36">
+        <f>H135+F136-G136</f>
+        <v>3655100</v>
+      </c>
+      <c r="J136" t="b">
+        <f>H136=H137</f>
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="15.75" spans="1:8">
-      <c r="A129" s="8">
-        <f>A128+1</f>
+    <row r="137" ht="15.75" spans="1:8">
+      <c r="A137" s="8">
+        <f>A136+1</f>
         <v>114</v>
       </c>
-      <c r="B129" s="59"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="60"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="61">
-        <f>SUM(F4:F128)</f>
-        <v>211435600</v>
-      </c>
-      <c r="G129" s="62">
-        <f>SUM(G4:G128)</f>
-        <v>197577500</v>
-      </c>
-      <c r="H129" s="61">
-        <f>F129-G129</f>
-        <v>13858100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="8"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="8"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="61">
+        <f>SUM(F4:F136)</f>
+        <v>220632600</v>
+      </c>
+      <c r="G137" s="62">
+        <f>SUM(G4:G136)</f>
+        <v>216977500</v>
+      </c>
+      <c r="H137" s="61">
+        <f>F137-G137</f>
+        <v>3655100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="8"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="8"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5033,8 +5249,8 @@
   <sheetPr/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5049,7 +5265,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -5158,7 +5374,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
@@ -5208,7 +5424,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
@@ -5258,7 +5474,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>16</v>
@@ -5308,7 +5524,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
@@ -5330,13 +5546,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17">
@@ -5383,7 +5599,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -5430,10 +5646,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
@@ -5508,7 +5724,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>16</v>
@@ -5558,7 +5774,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>16</v>
@@ -5580,10 +5796,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
@@ -5605,10 +5821,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -5680,10 +5896,10 @@
         <v>42876</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>12</v>
@@ -5708,7 +5924,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>12</v>
@@ -5730,7 +5946,7 @@
         <v>42880</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="25" t="s">
@@ -5753,7 +5969,7 @@
         <v>42906</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="1" t="s">
@@ -5791,18 +6007,35 @@
         <v>13117200</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:8">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33">
-        <f t="shared" si="0"/>
-        <v>13117200</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:8">
+    <row r="32" s="1" customFormat="1" ht="45" spans="1:8">
+      <c r="A32" s="14">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15">
+        <v>42951</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35">
+        <v>10000000</v>
+      </c>
+      <c r="H32" s="18">
+        <f t="shared" si="0"/>
+        <v>3117200</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:8">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
@@ -5810,7 +6043,7 @@
       <c r="G33" s="32"/>
       <c r="H33" s="33">
         <f t="shared" si="0"/>
-        <v>13117200</v>
+        <v>3117200</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="2:9">
@@ -5819,9 +6052,9 @@
       <c r="D34" s="31"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
-      <c r="H34" s="34">
-        <f t="shared" si="0"/>
-        <v>13117200</v>
+      <c r="H34" s="36">
+        <f t="shared" si="0"/>
+        <v>3117200</v>
       </c>
       <c r="I34" s="1" t="b">
         <f>H34=H35</f>
@@ -5829,17 +6062,17 @@
       </c>
     </row>
     <row r="35" spans="6:8">
-      <c r="F35" s="35">
+      <c r="F35" s="37">
         <f>SUM(F4:F34)</f>
         <v>53117200</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="37">
         <f>SUM(G4:G34)</f>
-        <v>40000000</v>
-      </c>
-      <c r="H35" s="35">
+        <v>50000000</v>
+      </c>
+      <c r="H35" s="37">
         <f>F35-G35</f>
-        <v>13117200</v>
+        <v>3117200</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -101,12 +101,18 @@
     <t>Abu Mas'ud Said</t>
   </si>
   <si>
+    <t>Hutang</t>
+  </si>
+  <si>
     <t>Hamba Allah NI 6b</t>
   </si>
   <si>
     <t>Fino</t>
   </si>
   <si>
+    <t>Net Hutang</t>
+  </si>
+  <si>
     <t>Hamba Allah Sumber</t>
   </si>
   <si>
@@ -123,6 +129,9 @@
   </si>
   <si>
     <t>Abu Kafka</t>
+  </si>
+  <si>
+    <t>Roof Top</t>
   </si>
   <si>
     <t>Hamba Allah Talangabang</t>
@@ -503,10 +512,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -526,15 +535,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,7 +564,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,21 +611,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,77 +664,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +705,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,19 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,31 +765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,31 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,13 +819,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,43 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,21 +981,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1002,15 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1022,17 +1007,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,15 +1038,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1088,130 +1097,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1677,10 +1686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1695,7 +1704,7 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="20.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="16.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="14.7142857142857"/>
+    <col min="12" max="13" width="14.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:8">
@@ -1757,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="11">
-        <f>H137</f>
+        <f>H138</f>
         <v>3655100</v>
       </c>
       <c r="M3">
@@ -1919,8 +1928,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="52">
-        <f>24495097-12000</f>
-        <v>24483097</v>
+        <v>4095097</v>
       </c>
       <c r="M8" s="53">
         <v>68535797</v>
@@ -1992,7 +2000,7 @@
       </c>
       <c r="K10" s="52">
         <f>K6-K8-K9</f>
-        <v>-20202997</v>
+        <v>185003</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2073,7 +2081,7 @@
         <v>18516000</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2098,8 +2106,15 @@
         <f t="shared" si="1"/>
         <v>20516000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="53">
+        <f>G137+G132+G130</f>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2108,10 +2123,10 @@
         <v>42847</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -2124,6 +2139,13 @@
         <f t="shared" si="1"/>
         <v>20566000</v>
       </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="53">
+        <f>K14-K3</f>
+        <v>8344900</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8">
@@ -2134,10 +2156,10 @@
         <v>42847</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
@@ -2163,7 +2185,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
@@ -2190,7 +2212,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>16</v>
@@ -2205,7 +2227,7 @@
       </c>
       <c r="K18" s="52"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:13">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2214,10 +2236,10 @@
         <v>42847</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>16</v>
@@ -2230,9 +2252,16 @@
         <f t="shared" si="1"/>
         <v>21666000</v>
       </c>
-      <c r="K19" s="52"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" s="53">
+        <f>120000*91</f>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2241,10 +2270,10 @@
         <v>42849</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>16</v>
@@ -2258,8 +2287,10 @@
         <v>21866000</v>
       </c>
       <c r="K20" s="52"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2271,7 +2302,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>12</v>
@@ -2284,8 +2315,9 @@
         <f t="shared" si="1"/>
         <v>22366000</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2311,8 +2343,9 @@
         <v>22416000</v>
       </c>
       <c r="K22" s="52"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2321,10 +2354,10 @@
         <v>42851</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
@@ -2337,8 +2370,9 @@
         <f t="shared" si="1"/>
         <v>22916000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2347,10 +2381,10 @@
         <v>42851</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -2363,8 +2397,9 @@
         <f t="shared" si="1"/>
         <v>23916000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2376,7 +2411,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>16</v>
@@ -2389,6 +2424,7 @@
         <f t="shared" si="1"/>
         <v>24266000</v>
       </c>
+      <c r="M25" s="53"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8">
@@ -2399,10 +2435,10 @@
         <v>42853</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>16</v>
@@ -2428,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>16</v>
@@ -2454,7 +2490,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>16</v>
@@ -2477,10 +2513,10 @@
         <v>42854</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>16</v>
@@ -2506,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>16</v>
@@ -2532,7 +2568,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>16</v>
@@ -2558,7 +2594,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>16</v>
@@ -2584,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>12</v>
@@ -2610,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>16</v>
@@ -2636,7 +2672,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>16</v>
@@ -2659,10 +2695,10 @@
         <v>42857</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
@@ -2685,10 +2721,10 @@
         <v>42857</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>12</v>
@@ -2711,10 +2747,10 @@
         <v>42859</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>16</v>
@@ -2737,10 +2773,10 @@
         <v>42860</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>16</v>
@@ -2766,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>12</v>
@@ -2792,7 +2828,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>16</v>
@@ -2818,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>16</v>
@@ -2844,7 +2880,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>16</v>
@@ -2870,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>16</v>
@@ -2893,10 +2929,10 @@
         <v>42863</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>16</v>
@@ -2922,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>16</v>
@@ -2948,7 +2984,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
@@ -2974,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>16</v>
@@ -3000,7 +3036,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>16</v>
@@ -3026,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>16</v>
@@ -3049,10 +3085,10 @@
         <v>42866</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>16</v>
@@ -3075,10 +3111,10 @@
         <v>42870</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>16</v>
@@ -3101,7 +3137,7 @@
         <v>42870</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D53" s="41" t="s">
         <v>19</v>
@@ -3153,10 +3189,10 @@
         <v>42870</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>12</v>
@@ -3182,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>16</v>
@@ -3208,7 +3244,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>12</v>
@@ -3260,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>12</v>
@@ -3286,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>12</v>
@@ -3312,7 +3348,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
@@ -3335,10 +3371,10 @@
         <v>42886</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>16</v>
@@ -3364,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>16</v>
@@ -3378,7 +3414,7 @@
         <v>76396000</v>
       </c>
       <c r="J63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3393,7 +3429,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>16</v>
@@ -3419,7 +3455,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>16</v>
@@ -3445,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>16</v>
@@ -3549,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>12</v>
@@ -3572,7 +3608,7 @@
         <v>42893</v>
       </c>
       <c r="C71" s="54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D71" s="54"/>
       <c r="E71" s="14" t="s">
@@ -3596,7 +3632,7 @@
         <v>42895</v>
       </c>
       <c r="C72" s="54" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D72" s="54"/>
       <c r="E72" s="14" t="s">
@@ -3623,7 +3659,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>16</v>
@@ -3649,7 +3685,7 @@
         <v>11</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>16</v>
@@ -3675,7 +3711,7 @@
         <v>11</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>16</v>
@@ -3698,10 +3734,10 @@
         <v>42899</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>16</v>
@@ -3727,7 +3763,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="41" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>16</v>
@@ -3753,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>16</v>
@@ -3779,7 +3815,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>16</v>
@@ -3805,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>16</v>
@@ -3831,7 +3867,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>16</v>
@@ -3854,7 +3890,7 @@
         <v>42902</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="8" t="s">
@@ -3878,10 +3914,10 @@
         <v>42902</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>16</v>
@@ -3904,10 +3940,10 @@
         <v>42902</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>16</v>
@@ -3930,10 +3966,10 @@
         <v>42902</v>
       </c>
       <c r="C85" s="54" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D85" s="54" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E85" s="14" t="s">
         <v>16</v>
@@ -3956,10 +3992,10 @@
         <v>42903</v>
       </c>
       <c r="C86" s="54" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D86" s="54" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>16</v>
@@ -3985,7 +4021,7 @@
         <v>22</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>16</v>
@@ -4008,7 +4044,7 @@
         <v>42904</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="8" t="s">
@@ -4035,7 +4071,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>16</v>
@@ -4061,7 +4097,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>16</v>
@@ -4087,7 +4123,7 @@
         <v>11</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>12</v>
@@ -4113,7 +4149,7 @@
         <v>11</v>
       </c>
       <c r="D92" s="41" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>12</v>
@@ -4127,7 +4163,7 @@
         <v>129835300</v>
       </c>
       <c r="J92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" ht="45" spans="1:10">
@@ -4139,10 +4175,10 @@
         <v>42908</v>
       </c>
       <c r="C93" s="54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D93" s="54" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E93" s="14" t="s">
         <v>12</v>
@@ -4156,7 +4192,7 @@
         <v>116214300</v>
       </c>
       <c r="J93" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4168,10 +4204,10 @@
         <v>42908</v>
       </c>
       <c r="C94" s="54" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>12</v>
@@ -4194,10 +4230,10 @@
         <v>42908</v>
       </c>
       <c r="C95" s="54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D95" s="54" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>12</v>
@@ -4220,10 +4256,10 @@
         <v>42908</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>12</v>
@@ -4249,7 +4285,7 @@
         <v>11</v>
       </c>
       <c r="D97" s="56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E97" s="57" t="s">
         <v>12</v>
@@ -4272,10 +4308,10 @@
         <v>42909</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E98" s="25" t="s">
         <v>12</v>
@@ -4298,7 +4334,7 @@
         <v>42909</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D99" s="56"/>
       <c r="E99" s="57" t="s">
@@ -4322,10 +4358,10 @@
         <v>42909</v>
       </c>
       <c r="C100" s="56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D100" s="56" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E100" s="57" t="s">
         <v>16</v>
@@ -4348,7 +4384,7 @@
         <v>42909</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D101" s="56"/>
       <c r="E101" s="57" t="s">
@@ -4372,7 +4408,7 @@
         <v>42909</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D102" s="56"/>
       <c r="E102" s="57" t="s">
@@ -4396,7 +4432,7 @@
         <v>42909</v>
       </c>
       <c r="C103" s="56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D103" s="56"/>
       <c r="E103" s="57" t="s">
@@ -4420,10 +4456,10 @@
         <v>42909</v>
       </c>
       <c r="C104" s="56" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E104" s="57" t="s">
         <v>16</v>
@@ -4446,7 +4482,7 @@
         <v>42909</v>
       </c>
       <c r="C105" s="56" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D105" s="56"/>
       <c r="E105" s="57" t="s">
@@ -4470,7 +4506,7 @@
         <v>42909</v>
       </c>
       <c r="C106" s="56" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D106" s="56"/>
       <c r="E106" s="57" t="s">
@@ -4494,7 +4530,7 @@
         <v>42909</v>
       </c>
       <c r="C107" s="56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D107" s="56"/>
       <c r="E107" s="57" t="s">
@@ -4521,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E108" s="57" t="s">
         <v>12</v>
@@ -4547,7 +4583,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E109" s="57" t="s">
         <v>16</v>
@@ -4570,10 +4606,10 @@
         <v>42931</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E110" s="25" t="s">
         <v>16</v>
@@ -4596,10 +4632,10 @@
         <v>42932</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E111" s="25" t="s">
         <v>12</v>
@@ -4622,10 +4658,10 @@
         <v>42934</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E112" s="25" t="s">
         <v>12</v>
@@ -4648,10 +4684,10 @@
         <v>42935</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E113" s="25" t="s">
         <v>12</v>
@@ -4674,10 +4710,10 @@
         <v>42939</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E114" s="25" t="s">
         <v>12</v>
@@ -4700,7 +4736,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E115" s="57" t="s">
         <v>16</v>
@@ -4723,7 +4759,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="56" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E116" s="57" t="s">
         <v>16</v>
@@ -4746,10 +4782,10 @@
         <v>42941</v>
       </c>
       <c r="C117" s="56" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D117" s="56" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E117" s="57" t="s">
         <v>16</v>
@@ -4772,7 +4808,7 @@
         <v>11</v>
       </c>
       <c r="D118" s="56" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E118" s="57" t="s">
         <v>16</v>
@@ -4795,7 +4831,7 @@
         <v>11</v>
       </c>
       <c r="D119" s="56" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E119" s="57" t="s">
         <v>16</v>
@@ -4815,7 +4851,7 @@
         <v>42941</v>
       </c>
       <c r="C120" s="56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D120" s="56" t="s">
         <v>22</v>
@@ -4841,7 +4877,7 @@
         <v>11</v>
       </c>
       <c r="D121" s="56" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E121" s="57" t="s">
         <v>16</v>
@@ -4861,10 +4897,10 @@
         <v>42941</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D122" s="34" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>12</v>
@@ -4874,7 +4910,7 @@
         <v>10000000</v>
       </c>
       <c r="H122" s="18">
-        <f t="shared" ref="H122:H128" si="5">H121+F122-G122</f>
+        <f t="shared" ref="H122:H129" si="5">H121+F122-G122</f>
         <v>11858100</v>
       </c>
     </row>
@@ -4884,10 +4920,10 @@
         <v>42941</v>
       </c>
       <c r="C123" s="56" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D123" s="56" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E123" s="57" t="s">
         <v>16</v>
@@ -4930,10 +4966,10 @@
         <v>42942</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E125" s="25" t="s">
         <v>16</v>
@@ -4976,10 +5012,10 @@
         <v>42956</v>
       </c>
       <c r="C127" s="56" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D127" s="56" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E127" s="57" t="s">
         <v>12</v>
@@ -4999,10 +5035,10 @@
         <v>42956</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D128" s="56" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E128" s="57" t="s">
         <v>12</v>
@@ -5012,7 +5048,7 @@
         <v>10000000</v>
       </c>
       <c r="H128" s="36">
-        <f>H127+F128-G128</f>
+        <f t="shared" si="5"/>
         <v>2458100</v>
       </c>
     </row>
@@ -5022,10 +5058,10 @@
         <v>42961</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D129" s="56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E129" s="57" t="s">
         <v>12</v>
@@ -5035,7 +5071,7 @@
       </c>
       <c r="G129" s="58"/>
       <c r="H129" s="36">
-        <f>H128+F129-G129</f>
+        <f t="shared" si="5"/>
         <v>8458100</v>
       </c>
     </row>
@@ -5045,10 +5081,10 @@
         <v>42961</v>
       </c>
       <c r="C130" s="56" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D130" s="56" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E130" s="57" t="s">
         <v>12</v>
@@ -5058,7 +5094,7 @@
         <v>6000000</v>
       </c>
       <c r="H130" s="36">
-        <f t="shared" ref="H130:H135" si="6">H129+F130-G130</f>
+        <f t="shared" ref="H130:H136" si="6">H129+F130-G130</f>
         <v>2458100</v>
       </c>
     </row>
@@ -5068,10 +5104,10 @@
         <v>42966</v>
       </c>
       <c r="C131" s="56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D131" s="56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E131" s="57" t="s">
         <v>16</v>
@@ -5091,10 +5127,10 @@
         <v>42966</v>
       </c>
       <c r="C132" s="56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D132" s="56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E132" s="57" t="s">
         <v>16</v>
@@ -5114,10 +5150,10 @@
         <v>42967</v>
       </c>
       <c r="C133" s="56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D133" s="56" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E133" s="57" t="s">
         <v>16</v>
@@ -5137,10 +5173,10 @@
         <v>42967</v>
       </c>
       <c r="C134" s="56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D134" s="56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E134" s="57" t="s">
         <v>16</v>
@@ -5150,7 +5186,7 @@
       </c>
       <c r="G134" s="58"/>
       <c r="H134" s="36">
-        <f>H133+F134-G134</f>
+        <f t="shared" si="6"/>
         <v>2685100</v>
       </c>
     </row>
@@ -5160,10 +5196,10 @@
         <v>42967</v>
       </c>
       <c r="C135" s="56" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D135" s="56" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E135" s="57" t="s">
         <v>16</v>
@@ -5173,60 +5209,93 @@
       </c>
       <c r="G135" s="58"/>
       <c r="H135" s="36">
-        <f>H134+F135-G135</f>
+        <f t="shared" si="6"/>
         <v>3655100</v>
       </c>
     </row>
-    <row r="136" ht="15.75" spans="1:10">
-      <c r="A136" s="8">
-        <f>A117+1</f>
-        <v>113</v>
-      </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="58"/>
+    <row r="136" spans="1:8">
+      <c r="A136" s="8"/>
+      <c r="B136" s="9">
+        <v>42971</v>
+      </c>
+      <c r="C136" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="58">
+        <v>4000000</v>
+      </c>
       <c r="G136" s="58"/>
       <c r="H136" s="36">
         <f>H135+F136-G136</f>
+        <v>7655100</v>
+      </c>
+    </row>
+    <row r="137" ht="45.75" spans="1:10">
+      <c r="A137" s="8">
+        <f>A117+1</f>
+        <v>113</v>
+      </c>
+      <c r="B137" s="9">
+        <v>42971</v>
+      </c>
+      <c r="C137" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="58"/>
+      <c r="G137" s="58">
+        <v>4000000</v>
+      </c>
+      <c r="H137" s="36">
+        <f>H136+F137-G137</f>
         <v>3655100</v>
       </c>
-      <c r="J136" t="b">
-        <f>H136=H137</f>
+      <c r="J137" t="b">
+        <f>H137=H138</f>
         <v>1</v>
       </c>
     </row>
-    <row r="137" ht="15.75" spans="1:8">
-      <c r="A137" s="8">
-        <f>A136+1</f>
+    <row r="138" ht="15.75" spans="1:8">
+      <c r="A138" s="8">
+        <f>A137+1</f>
         <v>114</v>
       </c>
-      <c r="B137" s="59"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="61">
-        <f>SUM(F4:F136)</f>
-        <v>220632600</v>
-      </c>
-      <c r="G137" s="62">
-        <f>SUM(G4:G136)</f>
-        <v>216977500</v>
-      </c>
-      <c r="H137" s="61">
-        <f>F137-G137</f>
+      <c r="B138" s="59"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="61">
+        <f>SUM(F4:F137)</f>
+        <v>224632600</v>
+      </c>
+      <c r="G138" s="62">
+        <f>SUM(G4:G137)</f>
+        <v>220977500</v>
+      </c>
+      <c r="H138" s="61">
+        <f>F138-G138</f>
         <v>3655100</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="8"/>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="8"/>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="8"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5249,8 +5318,8 @@
   <sheetPr/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5265,7 +5334,7 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -5374,7 +5443,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
@@ -5396,10 +5465,10 @@
         <v>42851</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>16</v>
@@ -5424,7 +5493,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
@@ -5446,10 +5515,10 @@
         <v>42854</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>16</v>
@@ -5474,7 +5543,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>16</v>
@@ -5499,7 +5568,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
@@ -5524,7 +5593,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
@@ -5546,13 +5615,13 @@
         <v>42856</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17">
@@ -5574,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>16</v>
@@ -5599,7 +5668,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -5621,10 +5690,10 @@
         <v>42857</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>12</v>
@@ -5646,10 +5715,10 @@
         <v>42858</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
@@ -5671,10 +5740,10 @@
         <v>42859</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>16</v>
@@ -5696,10 +5765,10 @@
         <v>42860</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>16</v>
@@ -5724,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>16</v>
@@ -5749,7 +5818,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
@@ -5774,7 +5843,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>16</v>
@@ -5796,10 +5865,10 @@
         <v>42864</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
@@ -5821,10 +5890,10 @@
         <v>42864</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -5849,7 +5918,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>16</v>
@@ -5874,7 +5943,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>16</v>
@@ -5896,10 +5965,10 @@
         <v>42876</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>12</v>
@@ -5924,7 +5993,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>12</v>
@@ -5946,7 +6015,7 @@
         <v>42880</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="25" t="s">
@@ -5969,7 +6038,7 @@
         <v>42906</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="1" t="s">
@@ -6015,10 +6084,10 @@
         <v>42951</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>12</v>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -449,6 +449,9 @@
     <t>Ikhwan Mojolaban</t>
   </si>
   <si>
+    <t>Dr Dewi via Mas Icok</t>
+  </si>
+  <si>
     <t>Penggalangan Dana Pembangunan Kanopi &amp; Penyempurnaan Masjid Ibnu Taimiyah</t>
   </si>
   <si>
@@ -504,6 +507,12 @@
   </si>
   <si>
     <t>TRANSFER KE Bpk YULI RAHMANTO Untuk ahmad padang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kembalian Uang Yang Dulu Dipinjam 10 Juta </t>
+  </si>
+  <si>
+    <t>Pemindahan Dana Masjid Dari Bendahara Lama</t>
   </si>
 </sst>
 </file>
@@ -513,9 +522,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -541,20 +550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -570,6 +565,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -578,9 +580,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,13 +611,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -617,8 +619,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -640,24 +665,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +681,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,19 +714,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,25 +744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,19 +768,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,25 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,19 +816,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,42 +864,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -966,21 +975,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1013,6 +1007,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1038,8 +1058,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,41 +1067,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1097,135 +1091,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1287,6 +1282,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1334,12 +1336,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1686,17 +1691,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.2857142857143" style="38" customWidth="1"/>
+    <col min="3" max="4" width="34.2857142857143" style="44" customWidth="1"/>
     <col min="5" max="5" width="12.8571428571429" customWidth="1"/>
     <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="12.1428571428571" customWidth="1"/>
@@ -1708,1708 +1713,1707 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="49" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="55" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="11">
-        <f>H138</f>
-        <v>3655100</v>
+      <c r="K3" s="12">
+        <f>H143</f>
+        <v>4655100</v>
       </c>
       <c r="M3">
         <v>58296000</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>42841</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>100000</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12">
+      <c r="G4" s="12"/>
+      <c r="H4" s="13">
         <f>F4-G4</f>
         <v>100000</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="11">
-        <f>Masjid!H35</f>
-        <v>3117200</v>
-      </c>
-      <c r="M4" s="11">
+      <c r="K4" s="12">
+        <f>Masjid!H41</f>
+        <v>18117200</v>
+      </c>
+      <c r="M4" s="12">
         <v>12117200</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>42842</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>500000</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
         <f t="shared" ref="H5:H68" si="1">H4+F5-G5</f>
         <v>600000</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>42844</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>10000000</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
         <f t="shared" si="1"/>
         <v>10600000</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="12">
         <f>SUM(K3:K5)</f>
-        <v>6772300</v>
-      </c>
-      <c r="M6" s="11">
+        <v>22772300</v>
+      </c>
+      <c r="M6" s="12">
         <f>SUM(M3:M5)</f>
         <v>70413200</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>42844</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="C7" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12">
         <v>1000000</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
         <f t="shared" si="1"/>
         <v>11600000</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>42844</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="12">
         <v>50000</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12">
+      <c r="G8" s="12"/>
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
         <v>11650000</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="58">
         <v>4095097</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="59">
         <v>68535797</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>42845</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12">
         <v>200000</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>11850000</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="58">
         <v>2492200</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="59">
         <f>M6-M8</f>
         <v>1877403</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>42845</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12">
         <v>600000</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>12450000</v>
       </c>
       <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="58">
         <f>K6-K8-K9</f>
-        <v>185003</v>
+        <v>16185003</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>42845</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12">
         <v>1016000</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>13466000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>42846</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>50000</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
         <f t="shared" si="1"/>
         <v>13516000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="48">
         <v>42847</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>5000000</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12">
+      <c r="G13" s="12"/>
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
         <v>18516000</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="42">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="48">
         <v>42847</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12">
         <v>2000000</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
         <v>20516000</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="59">
         <f>G137+G132+G130</f>
         <v>12000000</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="48">
         <v>42847</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="E15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12">
         <v>50000</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13">
         <f t="shared" si="1"/>
         <v>20566000</v>
       </c>
       <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="59">
         <f>K14-K3</f>
-        <v>8344900</v>
+        <v>7344900</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="48">
         <v>42847</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="E16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="12">
         <v>200000</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12">
+      <c r="G16" s="12"/>
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>20766000</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="48">
         <v>42847</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>300000</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>21066000</v>
       </c>
-      <c r="K17" s="53"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="48">
         <v>42847</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12">
         <v>500000</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12">
+      <c r="G18" s="12"/>
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
         <v>21566000</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="42">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="48">
         <v>42847</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12">
         <v>100000</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12">
+      <c r="G19" s="12"/>
+      <c r="H19" s="13">
         <f t="shared" si="1"/>
         <v>21666000</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="K19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="L19"/>
-      <c r="M19" s="53">
+      <c r="M19" s="59">
         <f>120000*91</f>
         <v>10920000</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="48">
         <v>42849</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="12">
         <v>200000</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12">
+      <c r="G20" s="12"/>
+      <c r="H20" s="13">
         <f t="shared" si="1"/>
         <v>21866000</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="48">
         <v>42850</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="12">
         <v>500000</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12">
+      <c r="G21" s="12"/>
+      <c r="H21" s="13">
         <f t="shared" si="1"/>
         <v>22366000</v>
       </c>
-      <c r="M21" s="53"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>42851</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="12">
         <v>50000</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12">
+      <c r="G22" s="12"/>
+      <c r="H22" s="13">
         <f t="shared" si="1"/>
         <v>22416000</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="M22" s="53"/>
+      <c r="K22" s="58"/>
+      <c r="M22" s="59"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>42851</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12">
         <v>500000</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12">
+      <c r="G23" s="12"/>
+      <c r="H23" s="13">
         <f t="shared" si="1"/>
         <v>22916000</v>
       </c>
-      <c r="M23" s="53"/>
+      <c r="M23" s="59"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>42851</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="E24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="12">
         <v>1000000</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12">
+      <c r="G24" s="12"/>
+      <c r="H24" s="13">
         <f t="shared" si="1"/>
         <v>23916000</v>
       </c>
-      <c r="M24" s="53"/>
+      <c r="M24" s="59"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="10">
         <v>42851</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="12">
         <v>350000</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12">
+      <c r="G25" s="12"/>
+      <c r="H25" s="13">
         <f t="shared" si="1"/>
         <v>24266000</v>
       </c>
-      <c r="M25" s="53"/>
+      <c r="M25" s="59"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="10">
         <v>42853</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="11">
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="12">
         <v>4253000</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12">
+      <c r="G26" s="12"/>
+      <c r="H26" s="13">
         <f t="shared" si="1"/>
         <v>28519000</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="10">
         <v>42854</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="12">
         <v>500000</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12">
+      <c r="G27" s="12"/>
+      <c r="H27" s="13">
         <f t="shared" si="1"/>
         <v>29019000</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="10">
         <v>42854</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="12">
         <v>400000</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12">
+      <c r="G28" s="12"/>
+      <c r="H28" s="13">
         <f t="shared" si="1"/>
         <v>29419000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="10">
         <v>42854</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="E29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="12">
         <v>500000</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12">
+      <c r="G29" s="12"/>
+      <c r="H29" s="13">
         <f t="shared" si="1"/>
         <v>29919000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="10">
         <v>42854</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="41" t="s">
+      <c r="C30" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="E30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="12">
         <v>2000000</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12">
+      <c r="G30" s="12"/>
+      <c r="H30" s="13">
         <f t="shared" si="1"/>
         <v>31919000</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="10">
         <v>42854</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="41" t="s">
+      <c r="C31" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="12">
         <v>300000</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12">
+      <c r="G31" s="12"/>
+      <c r="H31" s="13">
         <f t="shared" si="1"/>
         <v>32219000</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="10">
         <v>42854</v>
       </c>
-      <c r="C32" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="41" t="s">
+      <c r="C32" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="12">
         <v>50000</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12">
+      <c r="G32" s="12"/>
+      <c r="H32" s="13">
         <f t="shared" si="1"/>
         <v>32269000</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="10">
         <v>42854</v>
       </c>
-      <c r="C33" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="41" t="s">
+      <c r="C33" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="12">
         <v>1000000</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12">
+      <c r="G33" s="12"/>
+      <c r="H33" s="13">
         <f t="shared" si="1"/>
         <v>33269000</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>42856</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="45" t="s">
+      <c r="C34" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="51" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="33">
         <v>500000</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="12">
+      <c r="G34" s="9"/>
+      <c r="H34" s="13">
         <f t="shared" si="1"/>
         <v>33769000</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>42856</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="51" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="33">
         <v>400000</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="12">
+      <c r="G35" s="9"/>
+      <c r="H35" s="13">
         <f t="shared" si="1"/>
         <v>34169000</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8">
+      <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>42857</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="51" t="s">
         <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="33">
         <v>2500000</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="12">
+      <c r="G36" s="9"/>
+      <c r="H36" s="13">
         <f t="shared" si="1"/>
         <v>36669000</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <v>42857</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="12">
         <v>500000</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="12">
+      <c r="G37" s="9"/>
+      <c r="H37" s="13">
         <f t="shared" si="1"/>
         <v>37169000</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>42859</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="20">
+      <c r="E38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="21">
         <v>100000</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="12">
+      <c r="G38" s="9"/>
+      <c r="H38" s="13">
         <f t="shared" si="1"/>
         <v>37269000</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8">
+      <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="10">
         <v>42860</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="20">
+      <c r="E39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="21">
         <v>50000</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="12">
+      <c r="G39" s="9"/>
+      <c r="H39" s="13">
         <f t="shared" si="1"/>
         <v>37319000</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8">
+      <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="23">
         <v>42860</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="46" t="s">
+      <c r="C40" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="53">
         <v>2000000</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="12">
+      <c r="G40" s="22"/>
+      <c r="H40" s="13">
         <f t="shared" si="1"/>
         <v>39319000</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8">
+      <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="10">
         <v>42861</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="41" t="s">
+      <c r="C41" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="20">
+      <c r="E41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="21">
         <v>25000</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="12">
+      <c r="G41" s="9"/>
+      <c r="H41" s="13">
         <f t="shared" si="1"/>
         <v>39344000</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8">
+      <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <v>42861</v>
       </c>
-      <c r="C42" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="41" t="s">
+      <c r="C42" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="20">
+      <c r="E42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="21">
         <v>35000</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="12">
+      <c r="G42" s="9"/>
+      <c r="H42" s="13">
         <f t="shared" si="1"/>
         <v>39379000</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8">
+      <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="10">
         <v>42861</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="41" t="s">
+      <c r="C43" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="20">
+      <c r="E43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="21">
         <v>150000</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="12">
+      <c r="G43" s="9"/>
+      <c r="H43" s="13">
         <f t="shared" si="1"/>
         <v>39529000</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="8">
+      <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="10">
         <v>42862</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="41" t="s">
+      <c r="C44" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="20">
+      <c r="E44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="21">
         <v>12000</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="12">
+      <c r="G44" s="9"/>
+      <c r="H44" s="13">
         <f t="shared" si="1"/>
         <v>39541000</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="8">
+      <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="10">
         <v>42863</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="20">
+      <c r="E45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="21">
         <v>10000000</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="12">
+      <c r="G45" s="9"/>
+      <c r="H45" s="13">
         <f t="shared" si="1"/>
         <v>49541000</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="8">
+      <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <v>42864</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="41" t="s">
+      <c r="C46" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="20">
+      <c r="E46" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="21">
         <v>50000</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="12">
+      <c r="G46" s="9"/>
+      <c r="H46" s="13">
         <f t="shared" si="1"/>
         <v>49591000</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="8">
+      <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="10">
         <v>42865</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="41" t="s">
+      <c r="C47" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="20">
+      <c r="E47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="21">
         <v>500000</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="12">
+      <c r="G47" s="9"/>
+      <c r="H47" s="13">
         <f t="shared" si="1"/>
         <v>50091000</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="8">
+      <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>42865</v>
       </c>
-      <c r="C48" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="41" t="s">
+      <c r="C48" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="20">
+      <c r="E48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="21">
         <v>155000</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="12">
+      <c r="G48" s="9"/>
+      <c r="H48" s="13">
         <f t="shared" si="1"/>
         <v>50246000</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="8">
+      <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>42865</v>
       </c>
-      <c r="C49" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="41" t="s">
+      <c r="C49" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="20">
+      <c r="E49" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="21">
         <v>250000</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="12">
+      <c r="G49" s="9"/>
+      <c r="H49" s="13">
         <f t="shared" si="1"/>
         <v>50496000</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="8">
+      <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <v>42866</v>
       </c>
-      <c r="C50" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="41" t="s">
+      <c r="C50" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="20">
+      <c r="E50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="21">
         <v>200000</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="12">
+      <c r="G50" s="9"/>
+      <c r="H50" s="13">
         <f t="shared" si="1"/>
         <v>50696000</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="8">
+      <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <v>42866</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="20">
+      <c r="E51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="21">
         <v>5000</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="12">
+      <c r="G51" s="9"/>
+      <c r="H51" s="13">
         <f t="shared" si="1"/>
         <v>50701000</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="8">
+      <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>42870</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="20">
+      <c r="E52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="21">
         <v>5000</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="12">
+      <c r="G52" s="9"/>
+      <c r="H52" s="13">
         <f t="shared" si="1"/>
         <v>50706000</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="8">
+      <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="10">
         <v>42870</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="20">
+      <c r="E53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="21">
         <v>1500000</v>
       </c>
-      <c r="G53" s="20"/>
-      <c r="H53" s="12">
+      <c r="G53" s="21"/>
+      <c r="H53" s="13">
         <f t="shared" si="1"/>
         <v>52206000</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="8">
+      <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="10">
         <v>42870</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="20">
+      <c r="E54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="21">
         <v>910000</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="12">
+      <c r="G54" s="21"/>
+      <c r="H54" s="13">
         <f t="shared" si="1"/>
         <v>53116000</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="8">
+      <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="10">
         <v>42870</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="21">
         <v>200000</v>
       </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="12">
+      <c r="G55" s="21"/>
+      <c r="H55" s="13">
         <f t="shared" si="1"/>
         <v>53316000</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="8">
+      <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="10">
         <v>42871</v>
       </c>
-      <c r="C56" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="41" t="s">
+      <c r="C56" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="20">
+      <c r="E56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="21">
         <v>55000</v>
       </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="12">
+      <c r="G56" s="21"/>
+      <c r="H56" s="13">
         <f t="shared" si="1"/>
         <v>53371000</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="8">
+      <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="10">
         <v>42872</v>
       </c>
-      <c r="C57" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="41" t="s">
+      <c r="C57" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="21">
         <v>1500000</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="12">
+      <c r="G57" s="21"/>
+      <c r="H57" s="13">
         <f t="shared" si="1"/>
         <v>54871000</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="8">
+      <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="10">
         <v>42882</v>
       </c>
-      <c r="C58" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="41" t="s">
+      <c r="C58" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="21">
         <v>3000000</v>
       </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="12">
+      <c r="G58" s="21"/>
+      <c r="H58" s="13">
         <f t="shared" si="1"/>
         <v>57871000</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="8">
+      <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="10">
         <v>42885</v>
       </c>
-      <c r="C59" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="41" t="s">
+      <c r="C59" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="21">
         <v>5200000</v>
       </c>
-      <c r="G59" s="20"/>
-      <c r="H59" s="12">
+      <c r="G59" s="21"/>
+      <c r="H59" s="13">
         <f t="shared" si="1"/>
         <v>63071000</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="8">
+      <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="10">
         <v>42885</v>
       </c>
-      <c r="C60" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="41" t="s">
+      <c r="C60" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="21">
         <v>300000</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="12">
+      <c r="G60" s="21"/>
+      <c r="H60" s="13">
         <f t="shared" si="1"/>
         <v>63371000</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="8">
+      <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="31">
         <v>42886</v>
       </c>
-      <c r="C61" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="45" t="s">
+      <c r="C61" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="51" t="s">
         <v>81</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="48">
+      <c r="F61" s="54">
         <v>10000000</v>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="12">
+      <c r="G61" s="54"/>
+      <c r="H61" s="13">
         <f t="shared" si="1"/>
         <v>73371000</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="8">
+      <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <v>42886</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="20">
+      <c r="E62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="21">
         <v>3000000</v>
       </c>
-      <c r="G62" s="20"/>
-      <c r="H62" s="12">
+      <c r="G62" s="21"/>
+      <c r="H62" s="13">
         <f t="shared" si="1"/>
         <v>76371000</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="8">
+      <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <v>42887</v>
       </c>
-      <c r="C63" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="41" t="s">
+      <c r="C63" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="20">
+      <c r="E63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="21">
         <v>25000</v>
       </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="12">
+      <c r="G63" s="21"/>
+      <c r="H63" s="13">
         <f t="shared" si="1"/>
         <v>76396000</v>
       </c>
@@ -3418,747 +3422,747 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="8">
+      <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="10">
         <v>42887</v>
       </c>
-      <c r="C64" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="41" t="s">
+      <c r="C64" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="20">
+      <c r="E64" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="21">
         <v>50000</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="12">
+      <c r="G64" s="21"/>
+      <c r="H64" s="13">
         <f t="shared" si="1"/>
         <v>76446000</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="8">
+      <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="10">
         <v>42887</v>
       </c>
-      <c r="C65" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="41" t="s">
+      <c r="C65" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="20">
+      <c r="E65" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="21">
         <v>150000</v>
       </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="12">
+      <c r="G65" s="21"/>
+      <c r="H65" s="13">
         <f t="shared" si="1"/>
         <v>76596000</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="8">
+      <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="10">
         <v>42887</v>
       </c>
-      <c r="C66" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="41" t="s">
+      <c r="C66" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="20">
+      <c r="E66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="21">
         <v>100000</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="12">
+      <c r="G66" s="21"/>
+      <c r="H66" s="13">
         <f t="shared" si="1"/>
         <v>76696000</v>
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="8">
+      <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="10">
         <v>42888</v>
       </c>
-      <c r="C67" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="8" t="s">
+      <c r="C67" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="21">
         <v>500000</v>
       </c>
-      <c r="G67" s="20"/>
-      <c r="H67" s="12">
+      <c r="G67" s="21"/>
+      <c r="H67" s="13">
         <f t="shared" si="1"/>
         <v>77196000</v>
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="8">
+      <c r="A68" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="10">
         <v>42889</v>
       </c>
-      <c r="C68" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="8" t="s">
+      <c r="C68" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="21">
         <v>2000000</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="12">
+      <c r="G68" s="21"/>
+      <c r="H68" s="13">
         <f t="shared" si="1"/>
         <v>79196000</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <f t="shared" ref="A69:A114" si="2">A68+1</f>
         <v>66</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="10">
         <v>42890</v>
       </c>
-      <c r="C69" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="8" t="s">
+      <c r="C69" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="21">
         <v>200000</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="12">
+      <c r="G69" s="21"/>
+      <c r="H69" s="13">
         <f t="shared" ref="H69:H125" si="3">H68+F69-G69</f>
         <v>79396000</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="8">
+      <c r="A70" s="9">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="10">
         <v>42893</v>
       </c>
-      <c r="C70" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="41" t="s">
+      <c r="C70" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="21">
         <v>400000</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="12">
+      <c r="G70" s="21"/>
+      <c r="H70" s="13">
         <f t="shared" si="3"/>
         <v>79796000</v>
       </c>
     </row>
     <row r="71" ht="30" spans="1:8">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="16">
         <v>42893</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55">
+      <c r="D71" s="60"/>
+      <c r="E71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61">
         <v>1500000</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="19">
         <f t="shared" si="3"/>
         <v>78296000</v>
       </c>
     </row>
     <row r="72" ht="45" spans="1:8">
-      <c r="A72" s="8">
+      <c r="A72" s="9">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="16">
         <v>42895</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="14" t="s">
+      <c r="D72" s="60"/>
+      <c r="E72" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55">
+      <c r="F72" s="61"/>
+      <c r="G72" s="61">
         <v>20000000</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="19">
         <f t="shared" si="3"/>
         <v>58296000</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="8">
+      <c r="A73" s="9">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="10">
         <v>42899</v>
       </c>
-      <c r="C73" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="41" t="s">
+      <c r="C73" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="48">
+      <c r="E73" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="54">
         <v>800000</v>
       </c>
-      <c r="G73" s="20"/>
-      <c r="H73" s="12">
+      <c r="G73" s="21"/>
+      <c r="H73" s="13">
         <f t="shared" si="3"/>
         <v>59096000</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="8">
+      <c r="A74" s="9">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <v>42899</v>
       </c>
-      <c r="C74" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="41" t="s">
+      <c r="C74" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="48">
+      <c r="E74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="54">
         <v>1025000</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="12">
+      <c r="G74" s="21"/>
+      <c r="H74" s="13">
         <f t="shared" si="3"/>
         <v>60121000</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="8">
+      <c r="A75" s="9">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="10">
         <v>42899</v>
       </c>
-      <c r="C75" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="41" t="s">
+      <c r="C75" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="48">
+      <c r="E75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="54">
         <v>1000000</v>
       </c>
-      <c r="G75" s="20"/>
-      <c r="H75" s="12">
+      <c r="G75" s="21"/>
+      <c r="H75" s="13">
         <f t="shared" si="3"/>
         <v>61121000</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="8">
+      <c r="A76" s="9">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="10">
         <v>42899</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="48">
+      <c r="E76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="54">
         <v>106000</v>
       </c>
-      <c r="G76" s="20"/>
-      <c r="H76" s="12">
+      <c r="G76" s="21"/>
+      <c r="H76" s="13">
         <f t="shared" si="3"/>
         <v>61227000</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="8">
+      <c r="A77" s="9">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="10">
         <v>42899</v>
       </c>
-      <c r="C77" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="41" t="s">
+      <c r="C77" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="48">
+      <c r="E77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="54">
         <v>1000000</v>
       </c>
-      <c r="G77" s="20"/>
-      <c r="H77" s="12">
+      <c r="G77" s="21"/>
+      <c r="H77" s="13">
         <f t="shared" si="3"/>
         <v>62227000</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="8">
+      <c r="A78" s="9">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="10">
         <v>42899</v>
       </c>
-      <c r="C78" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="41" t="s">
+      <c r="C78" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="48">
+      <c r="E78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="54">
         <v>652000</v>
       </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="12">
+      <c r="G78" s="21"/>
+      <c r="H78" s="13">
         <f t="shared" si="3"/>
         <v>62879000</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="8">
+      <c r="A79" s="9">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="10">
         <v>42899</v>
       </c>
-      <c r="C79" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="41" t="s">
+      <c r="C79" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="48">
+      <c r="E79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="54">
         <v>106600</v>
       </c>
-      <c r="G79" s="20"/>
-      <c r="H79" s="12">
+      <c r="G79" s="21"/>
+      <c r="H79" s="13">
         <f t="shared" si="3"/>
         <v>62985600</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="8">
+      <c r="A80" s="9">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="10">
         <v>42899</v>
       </c>
-      <c r="C80" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="41" t="s">
+      <c r="C80" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="20">
+      <c r="E80" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="21">
         <v>50000</v>
       </c>
-      <c r="G80" s="20"/>
-      <c r="H80" s="12">
+      <c r="G80" s="21"/>
+      <c r="H80" s="13">
         <f t="shared" si="3"/>
         <v>63035600</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="8">
+      <c r="A81" s="9">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="10">
         <v>42899</v>
       </c>
-      <c r="C81" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="41" t="s">
+      <c r="C81" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="20">
+      <c r="E81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="21">
         <v>300000</v>
       </c>
-      <c r="G81" s="20"/>
-      <c r="H81" s="12">
+      <c r="G81" s="21"/>
+      <c r="H81" s="13">
         <f t="shared" si="3"/>
         <v>63335600</v>
       </c>
     </row>
     <row r="82" ht="30" spans="1:8">
-      <c r="A82" s="8">
+      <c r="A82" s="9">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="10">
         <v>42902</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="20">
+      <c r="D82" s="47"/>
+      <c r="E82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="21">
         <v>70000000</v>
       </c>
-      <c r="G82" s="20"/>
-      <c r="H82" s="12">
+      <c r="G82" s="21"/>
+      <c r="H82" s="13">
         <f t="shared" si="3"/>
         <v>133335600</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="8">
+      <c r="A83" s="9">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="10">
         <v>42902</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="20">
+      <c r="E83" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="21">
         <v>124200</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="12">
+      <c r="G83" s="21"/>
+      <c r="H83" s="13">
         <f t="shared" si="3"/>
         <v>133459800</v>
       </c>
     </row>
     <row r="84" ht="30" spans="1:8">
-      <c r="A84" s="8">
+      <c r="A84" s="9">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="10">
         <v>42902</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="20">
+      <c r="E84" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="21">
         <v>1000000</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="12">
+      <c r="G84" s="21"/>
+      <c r="H84" s="13">
         <f t="shared" si="3"/>
         <v>134459800</v>
       </c>
     </row>
     <row r="85" ht="45" spans="1:8">
-      <c r="A85" s="8">
+      <c r="A85" s="9">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="16">
         <v>42902</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D85" s="54" t="s">
+      <c r="D85" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55">
+      <c r="E85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61">
         <v>1000000</v>
       </c>
-      <c r="H85" s="18">
+      <c r="H85" s="19">
         <f t="shared" si="3"/>
         <v>133459800</v>
       </c>
     </row>
     <row r="86" ht="30" spans="1:8">
-      <c r="A86" s="8">
+      <c r="A86" s="9">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="16">
         <v>42903</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D86" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55">
+      <c r="E86" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61">
         <v>10000000</v>
       </c>
-      <c r="H86" s="18">
+      <c r="H86" s="19">
         <f t="shared" si="3"/>
         <v>123459800</v>
       </c>
     </row>
     <row r="87" ht="30" spans="1:8">
-      <c r="A87" s="8">
+      <c r="A87" s="9">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="10">
         <v>42904</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="41" t="s">
+      <c r="D87" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="20">
+      <c r="E87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="21">
         <v>75500</v>
       </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="12">
+      <c r="G87" s="21"/>
+      <c r="H87" s="13">
         <f t="shared" si="3"/>
         <v>123535300</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="8">
+      <c r="A88" s="9">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="10">
         <v>42904</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="20">
+      <c r="D88" s="47"/>
+      <c r="E88" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="21">
         <v>150000</v>
       </c>
-      <c r="G88" s="20"/>
-      <c r="H88" s="12">
+      <c r="G88" s="21"/>
+      <c r="H88" s="13">
         <f t="shared" si="3"/>
         <v>123685300</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="8">
+      <c r="A89" s="9">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="10">
         <v>42904</v>
       </c>
-      <c r="C89" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="41" t="s">
+      <c r="C89" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="20">
+      <c r="E89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="21">
         <v>50000</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="12">
+      <c r="G89" s="21"/>
+      <c r="H89" s="13">
         <f t="shared" si="3"/>
         <v>123735300</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="8">
+      <c r="A90" s="9">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="10">
         <v>42904</v>
       </c>
-      <c r="C90" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="41" t="s">
+      <c r="C90" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="20">
+      <c r="E90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="21">
         <v>100000</v>
       </c>
-      <c r="G90" s="20"/>
-      <c r="H90" s="12">
+      <c r="G90" s="21"/>
+      <c r="H90" s="13">
         <f t="shared" si="3"/>
         <v>123835300</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="8">
+      <c r="A91" s="9">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="10">
         <v>42905</v>
       </c>
-      <c r="C91" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="41" t="s">
+      <c r="C91" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="21">
         <v>1000000</v>
       </c>
-      <c r="G91" s="20"/>
-      <c r="H91" s="12">
+      <c r="G91" s="21"/>
+      <c r="H91" s="13">
         <f t="shared" si="3"/>
         <v>124835300</v>
       </c>
     </row>
     <row r="92" ht="30" spans="1:10">
-      <c r="A92" s="8">
+      <c r="A92" s="9">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="10">
         <v>42907</v>
       </c>
-      <c r="C92" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="41" t="s">
+      <c r="C92" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="21">
         <v>5000000</v>
       </c>
-      <c r="G92" s="20"/>
-      <c r="H92" s="12">
+      <c r="G92" s="21"/>
+      <c r="H92" s="13">
         <f t="shared" si="3"/>
         <v>129835300</v>
       </c>
@@ -4167,27 +4171,27 @@
       </c>
     </row>
     <row r="93" ht="45" spans="1:10">
-      <c r="A93" s="8">
+      <c r="A93" s="9">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="16">
         <v>42908</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55">
+      <c r="F93" s="61"/>
+      <c r="G93" s="61">
         <v>13621000</v>
       </c>
-      <c r="H93" s="18">
+      <c r="H93" s="19">
         <f t="shared" si="3"/>
         <v>116214300</v>
       </c>
@@ -4196,403 +4200,403 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="8">
+      <c r="A94" s="9">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B94" s="15">
+      <c r="B94" s="16">
         <v>42908</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55">
+      <c r="F94" s="61"/>
+      <c r="G94" s="61">
         <v>6500</v>
       </c>
-      <c r="H94" s="18">
+      <c r="H94" s="19">
         <f t="shared" si="3"/>
         <v>116207800</v>
       </c>
     </row>
     <row r="95" ht="30" spans="1:8">
-      <c r="A95" s="8">
+      <c r="A95" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B95" s="15">
+      <c r="B95" s="16">
         <v>42908</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55">
+      <c r="F95" s="61"/>
+      <c r="G95" s="61">
         <v>2900000</v>
       </c>
-      <c r="H95" s="18">
+      <c r="H95" s="19">
         <f t="shared" si="3"/>
         <v>113307800</v>
       </c>
     </row>
     <row r="96" ht="30" spans="1:8">
-      <c r="A96" s="8">
+      <c r="A96" s="9">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B96" s="16">
         <v>42908</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D96" s="34" t="s">
+      <c r="D96" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E96" s="25" t="s">
+      <c r="E96" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35">
+      <c r="F96" s="36"/>
+      <c r="G96" s="36">
         <v>20000000</v>
       </c>
-      <c r="H96" s="18">
+      <c r="H96" s="19">
         <f t="shared" si="3"/>
         <v>93307800</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="8">
+      <c r="A97" s="9">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="10">
         <v>42909</v>
       </c>
-      <c r="C97" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="56" t="s">
+      <c r="C97" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="E97" s="57" t="s">
+      <c r="E97" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F97" s="58">
+      <c r="F97" s="64">
         <v>25000000</v>
       </c>
-      <c r="G97" s="58"/>
-      <c r="H97" s="12">
+      <c r="G97" s="64"/>
+      <c r="H97" s="13">
         <f t="shared" si="3"/>
         <v>118307800</v>
       </c>
     </row>
     <row r="98" ht="45" spans="1:8">
-      <c r="A98" s="8">
+      <c r="A98" s="9">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B98" s="15">
+      <c r="B98" s="16">
         <v>42909</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E98" s="25" t="s">
+      <c r="E98" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35">
+      <c r="F98" s="36"/>
+      <c r="G98" s="36">
         <v>25000000</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="19">
         <f t="shared" si="3"/>
         <v>93307800</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="8">
+      <c r="A99" s="9">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="10">
         <v>42909</v>
       </c>
-      <c r="C99" s="56" t="s">
+      <c r="C99" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="58">
+      <c r="D99" s="62"/>
+      <c r="E99" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="64">
         <v>500000</v>
       </c>
-      <c r="G99" s="58"/>
-      <c r="H99" s="12">
+      <c r="G99" s="64"/>
+      <c r="H99" s="13">
         <f t="shared" si="3"/>
         <v>93807800</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="8">
+      <c r="A100" s="9">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="10">
         <v>42909</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D100" s="56" t="s">
+      <c r="D100" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E100" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="58">
+      <c r="E100" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="64">
         <v>100000</v>
       </c>
-      <c r="G100" s="58"/>
-      <c r="H100" s="12">
+      <c r="G100" s="64"/>
+      <c r="H100" s="13">
         <f t="shared" si="3"/>
         <v>93907800</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="8">
+      <c r="A101" s="9">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="10">
         <v>42909</v>
       </c>
-      <c r="C101" s="56" t="s">
+      <c r="C101" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D101" s="56"/>
-      <c r="E101" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="58">
+      <c r="D101" s="62"/>
+      <c r="E101" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="64">
         <v>500000</v>
       </c>
-      <c r="G101" s="58"/>
-      <c r="H101" s="12">
+      <c r="G101" s="64"/>
+      <c r="H101" s="13">
         <f t="shared" si="3"/>
         <v>94407800</v>
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="8">
+      <c r="A102" s="9">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="10">
         <v>42909</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C102" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D102" s="56"/>
-      <c r="E102" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="58">
+      <c r="D102" s="62"/>
+      <c r="E102" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="64">
         <v>250000</v>
       </c>
-      <c r="G102" s="58"/>
-      <c r="H102" s="12">
+      <c r="G102" s="64"/>
+      <c r="H102" s="13">
         <f t="shared" si="3"/>
         <v>94657800</v>
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="8">
+      <c r="A103" s="9">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="10">
         <v>42909</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D103" s="56"/>
-      <c r="E103" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="58">
+      <c r="D103" s="62"/>
+      <c r="E103" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="64">
         <v>370100</v>
       </c>
-      <c r="G103" s="58"/>
-      <c r="H103" s="12">
+      <c r="G103" s="64"/>
+      <c r="H103" s="13">
         <f t="shared" si="3"/>
         <v>95027900</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="8">
+      <c r="A104" s="9">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="10">
         <v>42909</v>
       </c>
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="D104" s="56" t="s">
+      <c r="D104" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="E104" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="58">
+      <c r="E104" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="64">
         <v>105000</v>
       </c>
-      <c r="G104" s="58"/>
-      <c r="H104" s="12">
+      <c r="G104" s="64"/>
+      <c r="H104" s="13">
         <f t="shared" si="3"/>
         <v>95132900</v>
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="8">
+      <c r="A105" s="9">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="10">
         <v>42909</v>
       </c>
-      <c r="C105" s="56" t="s">
+      <c r="C105" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="56"/>
-      <c r="E105" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="58">
+      <c r="D105" s="62"/>
+      <c r="E105" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="64">
         <v>3000</v>
       </c>
-      <c r="G105" s="58"/>
-      <c r="H105" s="12">
+      <c r="G105" s="64"/>
+      <c r="H105" s="13">
         <f t="shared" si="3"/>
         <v>95135900</v>
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="8">
+      <c r="A106" s="9">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="10">
         <v>42909</v>
       </c>
-      <c r="C106" s="56" t="s">
+      <c r="C106" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D106" s="56"/>
-      <c r="E106" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="58">
+      <c r="D106" s="62"/>
+      <c r="E106" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="64">
         <v>250000</v>
       </c>
-      <c r="G106" s="58"/>
-      <c r="H106" s="12">
+      <c r="G106" s="64"/>
+      <c r="H106" s="13">
         <f t="shared" si="3"/>
         <v>95385900</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="8">
+      <c r="A107" s="9">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="10">
         <v>42909</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D107" s="56"/>
-      <c r="E107" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="58">
+      <c r="D107" s="62"/>
+      <c r="E107" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="64">
         <v>30000</v>
       </c>
-      <c r="G107" s="58"/>
-      <c r="H107" s="12">
+      <c r="G107" s="64"/>
+      <c r="H107" s="13">
         <f t="shared" si="3"/>
         <v>95415900</v>
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="8">
+      <c r="A108" s="9">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="10">
         <v>42909</v>
       </c>
-      <c r="C108" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="56" t="s">
+      <c r="C108" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="E108" s="57" t="s">
+      <c r="E108" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="58">
+      <c r="F108" s="64">
         <v>3500000</v>
       </c>
-      <c r="G108" s="58"/>
-      <c r="H108" s="12">
+      <c r="G108" s="64"/>
+      <c r="H108" s="13">
         <f t="shared" si="3"/>
         <v>98915900</v>
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="8">
+      <c r="A109" s="9">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="10">
         <v>42928</v>
       </c>
-      <c r="C109" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" s="56" t="s">
+      <c r="C109" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="E109" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="58">
+      <c r="E109" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="64">
         <v>3000000</v>
       </c>
-      <c r="G109" s="58"/>
-      <c r="H109" s="12">
+      <c r="G109" s="64"/>
+      <c r="H109" s="13">
         <f t="shared" si="3"/>
         <v>101915900</v>
       </c>
@@ -4602,23 +4606,23 @@
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B110" s="15">
+      <c r="B110" s="16">
         <v>42931</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D110" s="34" t="s">
+      <c r="D110" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E110" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35">
+      <c r="E110" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36">
         <v>5000000</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110" s="19">
         <f t="shared" si="3"/>
         <v>96915900</v>
       </c>
@@ -4628,23 +4632,23 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="16">
         <v>42932</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="34" t="s">
+      <c r="D111" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E111" s="25" t="s">
+      <c r="E111" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35">
+      <c r="F111" s="36"/>
+      <c r="G111" s="36">
         <v>1550000</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111" s="19">
         <f t="shared" si="3"/>
         <v>95365900</v>
       </c>
@@ -4654,23 +4658,23 @@
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B112" s="15">
+      <c r="B112" s="16">
         <v>42934</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E112" s="25" t="s">
+      <c r="E112" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35">
+      <c r="F112" s="36"/>
+      <c r="G112" s="36">
         <v>25000000</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112" s="19">
         <f t="shared" si="3"/>
         <v>70365900</v>
       </c>
@@ -4680,23 +4684,23 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B113" s="16">
         <v>42935</v>
       </c>
-      <c r="C113" s="34" t="s">
+      <c r="C113" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D113" s="34" t="s">
+      <c r="D113" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35">
+      <c r="F113" s="36"/>
+      <c r="G113" s="36">
         <v>25000000</v>
       </c>
-      <c r="H113" s="18">
+      <c r="H113" s="19">
         <f t="shared" si="3"/>
         <v>45365900</v>
       </c>
@@ -4706,596 +4710,671 @@
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="16">
         <v>42939</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="25" t="s">
+      <c r="E114" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35">
+      <c r="F114" s="36"/>
+      <c r="G114" s="36">
         <v>25000000</v>
       </c>
-      <c r="H114" s="18">
+      <c r="H114" s="19">
         <f t="shared" si="3"/>
         <v>20365900</v>
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="8"/>
-      <c r="B115" s="9">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10">
         <v>42938</v>
       </c>
-      <c r="C115" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="56" t="s">
+      <c r="C115" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="58">
+      <c r="E115" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="64">
         <v>10000</v>
       </c>
-      <c r="G115" s="58"/>
-      <c r="H115" s="36">
+      <c r="G115" s="64"/>
+      <c r="H115" s="65">
         <f t="shared" ref="H115:H126" si="4">H114+F115-G115</f>
         <v>20375900</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="8"/>
-      <c r="B116" s="9">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10">
         <v>42938</v>
       </c>
-      <c r="C116" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="56" t="s">
+      <c r="C116" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E116" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="58">
+      <c r="E116" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="64">
         <v>50000</v>
       </c>
-      <c r="G116" s="58"/>
-      <c r="H116" s="36">
+      <c r="G116" s="64"/>
+      <c r="H116" s="65">
         <f t="shared" si="4"/>
         <v>20425900</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="8">
+      <c r="A117" s="9">
         <f>A114+1</f>
         <v>112</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="10">
         <v>42941</v>
       </c>
-      <c r="C117" s="56" t="s">
+      <c r="C117" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D117" s="56" t="s">
+      <c r="D117" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="E117" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="58">
+      <c r="E117" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="64">
         <v>202200</v>
       </c>
-      <c r="G117" s="58"/>
-      <c r="H117" s="36">
+      <c r="G117" s="64"/>
+      <c r="H117" s="65">
         <f t="shared" si="4"/>
         <v>20628100</v>
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="8"/>
-      <c r="B118" s="9">
+      <c r="A118" s="9"/>
+      <c r="B118" s="10">
         <v>42941</v>
       </c>
-      <c r="C118" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="56" t="s">
+      <c r="C118" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="E118" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="58">
+      <c r="E118" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="64">
         <v>500000</v>
       </c>
-      <c r="G118" s="58"/>
-      <c r="H118" s="36">
+      <c r="G118" s="64"/>
+      <c r="H118" s="65">
         <f t="shared" si="4"/>
         <v>21128100</v>
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="8"/>
-      <c r="B119" s="9">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10">
         <v>42941</v>
       </c>
-      <c r="C119" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="56" t="s">
+      <c r="C119" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="E119" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="58">
+      <c r="E119" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="64">
         <v>500000</v>
       </c>
-      <c r="G119" s="58"/>
-      <c r="H119" s="36">
+      <c r="G119" s="64"/>
+      <c r="H119" s="65">
         <f t="shared" si="4"/>
         <v>21628100</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="8"/>
-      <c r="B120" s="9">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10">
         <v>42941</v>
       </c>
-      <c r="C120" s="56" t="s">
+      <c r="C120" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E120" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="58">
+      <c r="E120" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="64">
         <v>30000</v>
       </c>
-      <c r="G120" s="58"/>
-      <c r="H120" s="36">
+      <c r="G120" s="64"/>
+      <c r="H120" s="65">
         <f t="shared" si="4"/>
         <v>21658100</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="8"/>
-      <c r="B121" s="9">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10">
         <v>42941</v>
       </c>
-      <c r="C121" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="56" t="s">
+      <c r="C121" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="E121" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="58">
+      <c r="E121" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="64">
         <v>200000</v>
       </c>
-      <c r="G121" s="58"/>
-      <c r="H121" s="36">
+      <c r="G121" s="64"/>
+      <c r="H121" s="65">
         <f t="shared" si="4"/>
         <v>21858100</v>
       </c>
     </row>
     <row r="122" ht="30" spans="1:8">
-      <c r="A122" s="8"/>
-      <c r="B122" s="15">
+      <c r="A122" s="9"/>
+      <c r="B122" s="16">
         <v>42941</v>
       </c>
-      <c r="C122" s="34" t="s">
+      <c r="C122" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="D122" s="34" t="s">
+      <c r="D122" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E122" s="25" t="s">
+      <c r="E122" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35">
+      <c r="F122" s="36"/>
+      <c r="G122" s="36">
         <v>10000000</v>
       </c>
-      <c r="H122" s="18">
+      <c r="H122" s="19">
         <f t="shared" ref="H122:H129" si="5">H121+F122-G122</f>
         <v>11858100</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="8"/>
-      <c r="B123" s="9">
+      <c r="A123" s="9"/>
+      <c r="B123" s="10">
         <v>42941</v>
       </c>
-      <c r="C123" s="56" t="s">
+      <c r="C123" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="56" t="s">
+      <c r="D123" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="E123" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="58">
+      <c r="E123" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="64">
         <v>12000000</v>
       </c>
-      <c r="G123" s="58"/>
-      <c r="H123" s="36">
+      <c r="G123" s="64"/>
+      <c r="H123" s="65">
         <f t="shared" si="5"/>
         <v>23858100</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="8"/>
-      <c r="B124" s="9">
+      <c r="A124" s="9"/>
+      <c r="B124" s="10">
         <v>42942</v>
       </c>
-      <c r="C124" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="56" t="s">
+      <c r="C124" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="58">
+      <c r="E124" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="64">
         <v>1000000</v>
       </c>
-      <c r="G124" s="58"/>
-      <c r="H124" s="36">
+      <c r="G124" s="64"/>
+      <c r="H124" s="65">
         <f t="shared" si="5"/>
         <v>24858100</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="8"/>
-      <c r="B125" s="15">
+      <c r="A125" s="9"/>
+      <c r="B125" s="16">
         <v>42942</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D125" s="34" t="s">
+      <c r="D125" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E125" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35">
+      <c r="E125" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36">
         <v>12000000</v>
       </c>
-      <c r="H125" s="18">
+      <c r="H125" s="19">
         <f t="shared" si="5"/>
         <v>12858100</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="8"/>
-      <c r="B126" s="9">
+      <c r="A126" s="9"/>
+      <c r="B126" s="10">
         <v>42949</v>
       </c>
-      <c r="C126" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126" s="58">
+      <c r="C126" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="64">
         <v>1000000</v>
       </c>
-      <c r="G126" s="58"/>
-      <c r="H126" s="36">
+      <c r="G126" s="64"/>
+      <c r="H126" s="65">
         <f t="shared" si="5"/>
         <v>13858100</v>
       </c>
     </row>
     <row r="127" ht="30" spans="1:8">
-      <c r="A127" s="8"/>
-      <c r="B127" s="9">
+      <c r="A127" s="9"/>
+      <c r="B127" s="10">
         <v>42956</v>
       </c>
-      <c r="C127" s="56" t="s">
+      <c r="C127" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="D127" s="56" t="s">
+      <c r="D127" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="57" t="s">
+      <c r="E127" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="58"/>
-      <c r="G127" s="58">
+      <c r="F127" s="64"/>
+      <c r="G127" s="64">
         <v>1400000</v>
       </c>
-      <c r="H127" s="36">
+      <c r="H127" s="65">
         <f t="shared" si="5"/>
         <v>12458100</v>
       </c>
     </row>
     <row r="128" ht="45" spans="1:8">
-      <c r="A128" s="8"/>
-      <c r="B128" s="9">
+      <c r="A128" s="9"/>
+      <c r="B128" s="10">
         <v>42956</v>
       </c>
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="56" t="s">
+      <c r="D128" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="E128" s="57" t="s">
+      <c r="E128" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="58"/>
-      <c r="G128" s="58">
+      <c r="F128" s="64"/>
+      <c r="G128" s="64">
         <v>10000000</v>
       </c>
-      <c r="H128" s="36">
+      <c r="H128" s="65">
         <f t="shared" si="5"/>
         <v>2458100</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="8"/>
-      <c r="B129" s="9">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10">
         <v>42961</v>
       </c>
-      <c r="C129" s="56" t="s">
+      <c r="C129" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="E129" s="57" t="s">
+      <c r="E129" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="58">
+      <c r="F129" s="64">
         <v>6000000</v>
       </c>
-      <c r="G129" s="58"/>
-      <c r="H129" s="36">
+      <c r="G129" s="64"/>
+      <c r="H129" s="65">
         <f t="shared" si="5"/>
         <v>8458100</v>
       </c>
     </row>
     <row r="130" ht="45" spans="1:8">
-      <c r="A130" s="8"/>
-      <c r="B130" s="9">
+      <c r="A130" s="9"/>
+      <c r="B130" s="10">
         <v>42961</v>
       </c>
-      <c r="C130" s="56" t="s">
+      <c r="C130" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D130" s="56" t="s">
+      <c r="D130" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E130" s="57" t="s">
+      <c r="E130" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="58"/>
-      <c r="G130" s="58">
+      <c r="F130" s="64"/>
+      <c r="G130" s="64">
         <v>6000000</v>
       </c>
-      <c r="H130" s="36">
-        <f t="shared" ref="H130:H136" si="6">H129+F130-G130</f>
+      <c r="H130" s="65">
+        <f t="shared" ref="H130:H142" si="6">H129+F130-G130</f>
         <v>2458100</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="8"/>
-      <c r="B131" s="9">
+      <c r="A131" s="9"/>
+      <c r="B131" s="10">
         <v>42966</v>
       </c>
-      <c r="C131" s="56" t="s">
+      <c r="C131" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="D131" s="56" t="s">
+      <c r="D131" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="E131" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" s="58">
+      <c r="E131" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="64">
         <v>2000000</v>
       </c>
-      <c r="G131" s="58"/>
-      <c r="H131" s="36">
+      <c r="G131" s="64"/>
+      <c r="H131" s="65">
         <f t="shared" si="6"/>
         <v>4458100</v>
       </c>
     </row>
     <row r="132" ht="30" spans="1:8">
-      <c r="A132" s="8"/>
-      <c r="B132" s="9">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10">
         <v>42966</v>
       </c>
-      <c r="C132" s="56" t="s">
+      <c r="C132" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="56" t="s">
+      <c r="D132" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="E132" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F132" s="58"/>
-      <c r="G132" s="58">
+      <c r="E132" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="64"/>
+      <c r="G132" s="64">
         <v>2000000</v>
       </c>
-      <c r="H132" s="36">
+      <c r="H132" s="65">
         <f t="shared" si="6"/>
         <v>2458100</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="8"/>
-      <c r="B133" s="9">
+      <c r="A133" s="9"/>
+      <c r="B133" s="10">
         <v>42967</v>
       </c>
-      <c r="C133" s="56" t="s">
+      <c r="C133" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="D133" s="56" t="s">
+      <c r="D133" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E133" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" s="58">
+      <c r="E133" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="64">
         <v>194000</v>
       </c>
-      <c r="G133" s="58"/>
-      <c r="H133" s="36">
+      <c r="G133" s="64"/>
+      <c r="H133" s="65">
         <f t="shared" si="6"/>
         <v>2652100</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="8"/>
-      <c r="B134" s="9">
+      <c r="A134" s="9"/>
+      <c r="B134" s="10">
         <v>42967</v>
       </c>
-      <c r="C134" s="56" t="s">
+      <c r="C134" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D134" s="56" t="s">
+      <c r="D134" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="E134" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134" s="58">
+      <c r="E134" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="64">
         <v>33000</v>
       </c>
-      <c r="G134" s="58"/>
-      <c r="H134" s="36">
+      <c r="G134" s="64"/>
+      <c r="H134" s="65">
         <f t="shared" si="6"/>
         <v>2685100</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="8"/>
-      <c r="B135" s="9">
+      <c r="A135" s="9"/>
+      <c r="B135" s="10">
         <v>42967</v>
       </c>
-      <c r="C135" s="56" t="s">
+      <c r="C135" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D135" s="56" t="s">
+      <c r="D135" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="E135" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="58">
+      <c r="E135" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="64">
         <v>970000</v>
       </c>
-      <c r="G135" s="58"/>
-      <c r="H135" s="36">
+      <c r="G135" s="64"/>
+      <c r="H135" s="65">
         <f t="shared" si="6"/>
         <v>3655100</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="8"/>
-      <c r="B136" s="9">
+      <c r="A136" s="9"/>
+      <c r="B136" s="10">
         <v>42971</v>
       </c>
-      <c r="C136" s="56" t="s">
+      <c r="C136" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="56" t="s">
+      <c r="D136" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="E136" s="57" t="s">
+      <c r="E136" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="58">
+      <c r="F136" s="64">
         <v>4000000</v>
       </c>
-      <c r="G136" s="58"/>
-      <c r="H136" s="36">
-        <f>H135+F136-G136</f>
+      <c r="G136" s="64"/>
+      <c r="H136" s="65">
+        <f t="shared" si="6"/>
         <v>7655100</v>
       </c>
     </row>
-    <row r="137" ht="45.75" spans="1:10">
-      <c r="A137" s="8">
+    <row r="137" ht="45" spans="1:8">
+      <c r="A137" s="63">
         <f>A117+1</f>
         <v>113</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="66">
         <v>42971</v>
       </c>
-      <c r="C137" s="56" t="s">
+      <c r="C137" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="56" t="s">
+      <c r="D137" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E137" s="57" t="s">
+      <c r="E137" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F137" s="58"/>
-      <c r="G137" s="58">
+      <c r="F137" s="64"/>
+      <c r="G137" s="64">
         <v>4000000</v>
       </c>
-      <c r="H137" s="36">
-        <f>H136+F137-G137</f>
+      <c r="H137" s="34">
+        <f t="shared" si="6"/>
         <v>3655100</v>
       </c>
-      <c r="J137" t="b">
-        <f>H137=H138</f>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="9"/>
+      <c r="B138" s="10">
+        <v>42973</v>
+      </c>
+      <c r="C138" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E138" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="G138" s="21"/>
+      <c r="H138" s="34">
+        <f t="shared" si="6"/>
+        <v>4655100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="9"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="34">
+        <f t="shared" si="6"/>
+        <v>4655100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="9"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="34">
+        <f t="shared" si="6"/>
+        <v>4655100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="9"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="34">
+        <f t="shared" si="6"/>
+        <v>4655100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="9"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="34">
+        <f t="shared" si="6"/>
+        <v>4655100</v>
+      </c>
+      <c r="J142" t="b">
+        <f>H142=H143</f>
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="15.75" spans="1:8">
-      <c r="A138" s="8">
+    <row r="143" spans="1:8">
+      <c r="A143" s="67">
         <f>A137+1</f>
         <v>114</v>
       </c>
-      <c r="B138" s="59"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="61">
-        <f>SUM(F4:F137)</f>
-        <v>224632600</v>
-      </c>
-      <c r="G138" s="62">
+      <c r="B143" s="68"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="69"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="70">
+        <f>SUM(F4:F142)</f>
+        <v>225632600</v>
+      </c>
+      <c r="G143" s="71">
         <f>SUM(G4:G137)</f>
         <v>220977500</v>
       </c>
-      <c r="H138" s="61">
-        <f>F138-G138</f>
-        <v>3655100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="8"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="8"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="8"/>
+      <c r="H143" s="70">
+        <f>F143-G143</f>
+        <v>4655100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="9"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="9"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5316,716 +5395,716 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="29.2857142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29.2857142857143" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="8" width="11.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>42844</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12">
         <v>500000</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12">
+      <c r="G4" s="12"/>
+      <c r="H4" s="13">
         <f>F4-G4</f>
         <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>42845</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12">
         <v>1000000</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12">
+      <c r="G5" s="12"/>
+      <c r="H5" s="13">
         <f>H4+F5-G5</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:8">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>42851</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>25000000</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12">
-        <f t="shared" ref="H6:H34" si="0">H5+F6-G6</f>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
+        <f t="shared" ref="H6:H40" si="0">H5+F6-G6</f>
         <v>26500000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>42851</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12">
         <v>2000000</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12">
+      <c r="G7" s="12"/>
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>28500000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>42853</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12">
+        <v>250000</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>28750000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10">
+        <v>42854</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>29250000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
+        <v>42854</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>30250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10">
+        <v>42854</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>31250000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10">
+        <v>42855</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>31300000</v>
+      </c>
+    </row>
+    <row r="13" ht="45" spans="1:8">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16">
+        <v>42856</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
+        <v>25000000</v>
+      </c>
+      <c r="H13" s="19">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10">
+        <v>42856</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
+        <v>42856</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10">
+        <v>42857</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10">
+        <v>42858</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10">
+        <v>42859</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>7550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="10">
+        <v>42860</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="10">
+        <v>42861</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>8100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10">
+        <v>42862</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="21">
+        <v>12000</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>8112000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>42864</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>8212000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10">
+        <v>42864</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12">
+        <v>85200</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>8297200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="10">
+        <v>42864</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="12">
+        <v>400000</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>8697200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10">
+        <v>42869</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="12">
+        <v>400000</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>9097200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="10">
+        <v>42871</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="12">
+        <v>20000</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>9117200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10">
+        <v>42876</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>12117200</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="1:8">
+      <c r="A28" s="22">
+        <v>25</v>
+      </c>
+      <c r="B28" s="23">
+        <v>42880</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E28" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11">
-        <v>250000</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12">
-        <f t="shared" si="0"/>
-        <v>28750000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9">
-        <v>42854</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="11">
-        <v>500000</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12">
-        <f t="shared" si="0"/>
-        <v>29250000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
-        <v>42854</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12">
-        <f t="shared" si="0"/>
-        <v>30250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9">
-        <v>42854</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F28" s="25">
+        <v>15000000</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>27117200</v>
+      </c>
+    </row>
+    <row r="29" ht="45" spans="1:8">
+      <c r="A29" s="26">
+        <v>26</v>
+      </c>
+      <c r="B29" s="27">
+        <v>42880</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12">
-        <f t="shared" si="0"/>
-        <v>31250000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9">
-        <v>42855</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>31300000</v>
-      </c>
-    </row>
-    <row r="13" ht="45" spans="1:8">
-      <c r="A13" s="14">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15">
-        <v>42856</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
-        <v>25000000</v>
-      </c>
-      <c r="H13" s="18">
-        <f t="shared" si="0"/>
-        <v>6300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9">
-        <v>42856</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="19">
-        <f t="shared" si="0"/>
-        <v>6400000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9">
-        <v>42856</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="19">
-        <f t="shared" si="0"/>
-        <v>6500000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9">
-        <v>42857</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="11">
-        <v>500000</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="19">
-        <f t="shared" si="0"/>
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9">
-        <v>42858</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="11">
-        <v>500000</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="19">
-        <f t="shared" si="0"/>
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9">
-        <v>42859</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="19">
-        <f t="shared" si="0"/>
-        <v>7550000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="8">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9">
-        <v>42860</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="19">
-        <f t="shared" si="0"/>
-        <v>7600000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="8">
-        <v>17</v>
-      </c>
-      <c r="B20" s="9">
-        <v>42861</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="11">
-        <v>500000</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="19">
-        <f t="shared" si="0"/>
-        <v>8100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="8">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9">
-        <v>42862</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="20">
-        <v>12000</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="19">
-        <f t="shared" si="0"/>
-        <v>8112000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="8">
-        <v>19</v>
-      </c>
-      <c r="B22" s="9">
-        <v>42864</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="19">
-        <f t="shared" si="0"/>
-        <v>8212000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9">
-        <v>42864</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="11">
-        <v>85200</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="19">
-        <f t="shared" si="0"/>
-        <v>8297200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8">
-        <v>21</v>
-      </c>
-      <c r="B24" s="9">
-        <v>42864</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="11">
-        <v>400000</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="19">
-        <f t="shared" si="0"/>
-        <v>8697200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="8">
-        <v>22</v>
-      </c>
-      <c r="B25" s="9">
-        <v>42869</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="11">
-        <v>400000</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="19">
-        <f t="shared" si="0"/>
-        <v>9097200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8">
-        <v>23</v>
-      </c>
-      <c r="B26" s="9">
-        <v>42871</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="19">
-        <f t="shared" si="0"/>
-        <v>9117200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8">
-        <v>24</v>
-      </c>
-      <c r="B27" s="9">
-        <v>42876</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="11">
-        <v>3000000</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="19">
-        <f t="shared" si="0"/>
-        <v>12117200</v>
-      </c>
-    </row>
-    <row r="28" ht="30" spans="1:8">
-      <c r="A28" s="21">
-        <v>25</v>
-      </c>
-      <c r="B28" s="22">
-        <v>42880</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="24">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29">
         <v>15000000</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="19">
-        <f t="shared" si="0"/>
-        <v>27117200</v>
-      </c>
-    </row>
-    <row r="29" ht="45" spans="1:8">
-      <c r="A29" s="25">
-        <v>26</v>
-      </c>
-      <c r="B29" s="26">
-        <v>42880</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28">
-        <v>15000000</v>
-      </c>
-      <c r="H29" s="29">
+      <c r="H29" s="30">
         <f t="shared" si="0"/>
         <v>12117200</v>
       </c>
@@ -6034,21 +6113,21 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="31">
         <v>42906</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="31"/>
+      <c r="C30" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="32"/>
       <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="33">
         <v>500000</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33">
+      <c r="G30" s="33"/>
+      <c r="H30" s="34">
         <f t="shared" si="0"/>
         <v>12617200</v>
       </c>
@@ -6057,91 +6136,205 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="31">
         <v>42907</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="31"/>
+      <c r="C31" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="32"/>
       <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="33">
         <v>500000</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33">
+      <c r="G31" s="33"/>
+      <c r="H31" s="34">
         <f t="shared" si="0"/>
         <v>13117200</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="45" spans="1:8">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="16">
         <v>42951</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="C32" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35">
+      <c r="F32" s="36"/>
+      <c r="G32" s="36">
         <v>10000000</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>3117200</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:8">
-      <c r="A33" s="1">
+    <row r="33" s="2" customFormat="1" spans="1:8">
+      <c r="A33" s="37">
         <v>30</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33">
-        <f t="shared" si="0"/>
-        <v>3117200</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="2:9">
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="36">
-        <f t="shared" si="0"/>
-        <v>3117200</v>
-      </c>
-      <c r="I34" s="1" t="b">
-        <f>H34=H35</f>
+      <c r="B33" s="38">
+        <v>42973</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="41">
+        <v>1000000</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42">
+        <f t="shared" si="0"/>
+        <v>4117200</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38">
+        <v>42744</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="41">
+        <v>7000000</v>
+      </c>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42">
+        <f t="shared" si="0"/>
+        <v>11117200</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38">
+        <v>42744</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="41">
+        <v>3000000</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42">
+        <f t="shared" si="0"/>
+        <v>14117200</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="30" spans="1:8">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38">
+        <v>42744</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="41">
+        <v>4000000</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42">
+        <f t="shared" si="0"/>
+        <v>18117200</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:8">
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42">
+        <f t="shared" si="0"/>
+        <v>18117200</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:8">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42">
+        <f t="shared" si="0"/>
+        <v>18117200</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:8">
+      <c r="A39" s="1">
+        <v>30</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="42">
+        <f t="shared" si="0"/>
+        <v>18117200</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="2:9">
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="42">
+        <f t="shared" si="0"/>
+        <v>18117200</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <f>H40=H41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:8">
-      <c r="F35" s="37">
-        <f>SUM(F4:F34)</f>
-        <v>53117200</v>
-      </c>
-      <c r="G35" s="37">
-        <f>SUM(G4:G34)</f>
+    <row r="41" spans="6:8">
+      <c r="F41" s="43">
+        <f>SUM(F4:F40)</f>
+        <v>68117200</v>
+      </c>
+      <c r="G41" s="43">
+        <f>SUM(G4:G40)</f>
         <v>50000000</v>
       </c>
-      <c r="H35" s="37">
-        <f>F35-G35</f>
-        <v>3117200</v>
+      <c r="H41" s="43">
+        <f>F41-G41</f>
+        <v>18117200</v>
       </c>
     </row>
   </sheetData>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -609,6 +609,12 @@
     <t>Pak Sawa</t>
   </si>
   <si>
+    <t>Hamba Allah Karanganyar Via Ummu Sufyan</t>
+  </si>
+  <si>
+    <t>Daru</t>
+  </si>
+  <si>
     <t>Pembebasan Tanah</t>
   </si>
   <si>
@@ -622,6 +628,12 @@
   </si>
   <si>
     <t>Hamba Allah Via Dr Dhiya</t>
+  </si>
+  <si>
+    <t>Diserahkan pas kirim tabung kosong</t>
+  </si>
+  <si>
+    <t>Diserahkan sebelum dars B arab</t>
   </si>
   <si>
     <t>Rekap Penggalangan Dana Pembangunan Gedung Banin dan Pembebasan Tanah</t>
@@ -670,24 +682,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -724,7 +728,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,7 +750,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,31 +771,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -788,14 +791,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,6 +810,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -822,10 +825,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -838,29 +857,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,19 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,19 +933,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,61 +975,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,19 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,25 +1047,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,28 +1248,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,6 +1296,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1317,31 +1322,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1360,127 +1352,127 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1517,16 +1509,16 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1543,21 +1535,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1589,19 +1581,19 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1646,15 +1638,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1676,10 +1668,10 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -1724,15 +1716,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -10749,8 +10741,8 @@
   <sheetPr/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K51"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
@@ -12123,7 +12115,7 @@
       </c>
       <c r="L40" s="40">
         <f>I61-J61</f>
-        <v>16180000</v>
+        <v>17580000</v>
       </c>
     </row>
     <row r="41" s="40" customFormat="1" spans="1:11">
@@ -12450,37 +12442,55 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="34">
+        <v>43100</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="F52" s="33"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="35">
+        <v>400000</v>
+      </c>
       <c r="J52" s="35"/>
       <c r="K52" s="35">
         <f t="shared" si="8"/>
-        <v>16180000</v>
-      </c>
-    </row>
-    <row r="53" s="40" customFormat="1" spans="1:11">
+        <v>16580000</v>
+      </c>
+    </row>
+    <row r="53" s="40" customFormat="1" ht="30" spans="1:11">
       <c r="A53" s="33">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
+      <c r="B53" s="34">
+        <v>42736</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>19</v>
+      </c>
       <c r="F53" s="33"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="35">
+        <v>1000000</v>
+      </c>
       <c r="J53" s="35"/>
       <c r="K53" s="35">
         <f t="shared" si="8"/>
-        <v>16180000</v>
+        <v>17580000</v>
       </c>
     </row>
     <row r="54" s="40" customFormat="1" spans="1:11">
@@ -12499,7 +12509,7 @@
       <c r="J54" s="35"/>
       <c r="K54" s="35">
         <f t="shared" si="8"/>
-        <v>16180000</v>
+        <v>17580000</v>
       </c>
     </row>
     <row r="55" s="40" customFormat="1" spans="1:11">
@@ -12518,7 +12528,7 @@
       <c r="J55" s="35"/>
       <c r="K55" s="35">
         <f t="shared" si="8"/>
-        <v>16180000</v>
+        <v>17580000</v>
       </c>
     </row>
     <row r="56" s="40" customFormat="1" spans="1:11">
@@ -12537,12 +12547,12 @@
       <c r="J56" s="35"/>
       <c r="K56" s="35">
         <f t="shared" si="8"/>
-        <v>16180000</v>
+        <v>17580000</v>
       </c>
     </row>
     <row r="57" s="40" customFormat="1" spans="1:11">
       <c r="A57" s="41">
-        <f>A56+1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B57" s="42"/>
@@ -12554,7 +12564,7 @@
     </row>
     <row r="58" s="40" customFormat="1" spans="1:11">
       <c r="A58" s="33">
-        <f>A57+1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B58" s="42"/>
@@ -12566,7 +12576,7 @@
     </row>
     <row r="59" s="40" customFormat="1" spans="1:11">
       <c r="A59" s="33">
-        <f>A58+1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B59" s="42"/>
@@ -12578,7 +12588,7 @@
     </row>
     <row r="60" s="40" customFormat="1" spans="1:11">
       <c r="A60" s="33">
-        <f>A59+1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B60" s="42"/>
@@ -12590,12 +12600,12 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="33">
-        <f>A60+1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="I61" s="28">
         <f>SUM(I4:I60)</f>
-        <v>70624000</v>
+        <v>72024000</v>
       </c>
       <c r="J61" s="28">
         <f>SUM(J4:J60)</f>
@@ -12608,25 +12618,25 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="33">
-        <f>A61+1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="33">
-        <f>A62+1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="33">
-        <f>A63+1</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="33">
-        <f>A64+1</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="I65">
@@ -12640,13 +12650,13 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="33">
-        <f>A65+1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="33">
-        <f>A66+1</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="J67">
@@ -12656,7 +12666,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="33">
-        <f>A67+1</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -12749,15 +12759,15 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.4285714285714"/>
     <col min="3" max="3" width="25.6285714285714" customWidth="1"/>
-    <col min="4" max="4" width="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="11.8761904761905" customWidth="1"/>
     <col min="6" max="6" width="9.12380952380952" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.752380952381" hidden="1" customWidth="1"/>
@@ -12769,7 +12779,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -12982,7 +12992,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>13</v>
@@ -13075,7 +13085,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>19</v>
@@ -13101,7 +13111,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>14</v>
@@ -13127,10 +13137,10 @@
         <v>43090</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>14</v>
@@ -13185,10 +13195,10 @@
         <v>43097</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>19</v>
@@ -13210,18 +13220,26 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="36">
+        <v>43100</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>202</v>
+      </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="E17" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>400000</v>
+      </c>
       <c r="J17" s="39"/>
       <c r="K17" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>22350000</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13229,18 +13247,28 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="36">
+        <v>42736</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="39">
+        <v>150000</v>
+      </c>
       <c r="J18" s="39"/>
       <c r="K18" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>22500000</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13248,18 +13276,28 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="36">
+        <v>42737</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="39"/>
+      <c r="I19" s="39">
+        <v>800000</v>
+      </c>
       <c r="J19" s="39"/>
       <c r="K19" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>23300000</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -13267,18 +13305,28 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="B20" s="36">
+        <v>42737</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>500000</v>
+      </c>
       <c r="J20" s="39"/>
       <c r="K20" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>23800000</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -13286,18 +13334,28 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="B21" s="36">
+        <v>42737</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <v>100000</v>
+      </c>
       <c r="J21" s="39"/>
       <c r="K21" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>23900000</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -13305,18 +13363,28 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="B22" s="36">
+        <v>42737</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="39"/>
+      <c r="I22" s="39">
+        <v>300000</v>
+      </c>
       <c r="J22" s="39"/>
       <c r="K22" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>24200000</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -13335,7 +13403,7 @@
       <c r="J23" s="39"/>
       <c r="K23" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>24200000</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -13354,7 +13422,7 @@
       <c r="J24" s="39"/>
       <c r="K24" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>24200000</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -13373,7 +13441,7 @@
       <c r="J25" s="39"/>
       <c r="K25" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>24200000</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -13392,13 +13460,13 @@
       <c r="J26" s="39"/>
       <c r="K26" s="38">
         <f t="shared" si="1"/>
-        <v>21950000</v>
+        <v>24200000</v>
       </c>
     </row>
     <row r="27" spans="9:11">
       <c r="I27">
         <f>SUM(I4:I26)</f>
-        <v>21950000</v>
+        <v>24200000</v>
       </c>
       <c r="J27">
         <f>SUM(J4:J26)</f>
@@ -13432,8 +13500,8 @@
   <sheetPr/>
   <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
@@ -13449,7 +13517,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -13459,7 +13527,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="4" t="str">
         <f ca="1">CONCATENATE("Per : "," ",TEXT(NOW(),"DD/MM/YYYY hh:mm:ss"))</f>
-        <v>Per :  30/12/2017 08:01:28</v>
+        <v>Per :  03/01/2018 05:13:49</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -13485,26 +13553,26 @@
     </row>
     <row r="5" ht="32.25" customHeight="1" spans="2:12">
       <c r="B5" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L5" s="28">
         <v>39097797</v>
@@ -13512,22 +13580,22 @@
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C6" s="17">
         <v>99000000</v>
       </c>
       <c r="D6" s="17">
         <f>MTS!K56</f>
-        <v>16180000</v>
+        <v>17580000</v>
       </c>
       <c r="E6" s="18">
         <f>D6/C6</f>
-        <v>0.163434343434343</v>
+        <v>0.177575757575758</v>
       </c>
       <c r="F6" s="17">
         <f>C6-D6</f>
-        <v>82820000</v>
+        <v>81420000</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -13539,25 +13607,25 @@
     </row>
     <row r="7" ht="15.75" spans="2:12">
       <c r="B7" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" s="20">
         <v>150000000</v>
       </c>
       <c r="D7" s="20">
         <f>'Pembebasan Tanah'!K26</f>
-        <v>21950000</v>
+        <v>24200000</v>
       </c>
       <c r="E7" s="21">
         <f>D7/C7</f>
-        <v>0.146333333333333</v>
+        <v>0.161333333333333</v>
       </c>
       <c r="F7" s="20">
         <f>C7-D7</f>
-        <v>128050000</v>
+        <v>125800000</v>
       </c>
       <c r="K7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L7" s="28">
         <f>L5+L6</f>
@@ -13566,7 +13634,7 @@
     </row>
     <row r="8" ht="15.75" spans="2:12">
       <c r="B8" s="22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C8" s="23">
         <f>SUM(C6:C7)</f>
@@ -13574,21 +13642,21 @@
       </c>
       <c r="D8" s="23">
         <f>SUM(D6:D7)</f>
-        <v>38130000</v>
+        <v>41780000</v>
       </c>
       <c r="E8" s="24">
         <f>D8/C8</f>
-        <v>0.153132530120482</v>
+        <v>0.167791164658635</v>
       </c>
       <c r="F8" s="23">
         <f>C8-D8</f>
-        <v>210870000</v>
+        <v>207220000</v>
       </c>
       <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="25" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -13596,7 +13664,7 @@
       <c r="F9" s="25"/>
       <c r="L9" s="28">
         <f>L7-D8</f>
-        <v>4318897</v>
+        <v>668897</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -13615,7 +13683,7 @@
     </row>
     <row r="12" hidden="1" spans="2:6">
       <c r="B12" s="126" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -13624,7 +13692,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="26" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -628,6 +628,9 @@
     <t>Agung Colomadu, Diserahkan pada saat rapotan</t>
   </si>
   <si>
+    <t>Mas Jatmiko Abu Zerico</t>
+  </si>
+  <si>
     <t>Pembebasan Tanah</t>
   </si>
   <si>
@@ -680,6 +683,9 @@
   </si>
   <si>
     <t>Kami dari tim penggalangan dana Ma'had Daarus Salaf mengucapkan jazakumullahu khairan</t>
+  </si>
+  <si>
+    <t>Selisih</t>
   </si>
   <si>
     <t>==========================================================================================</t>
@@ -713,13 +719,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -751,80 +757,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -833,9 +765,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,14 +781,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -872,9 +824,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,6 +886,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -940,7 +946,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +976,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,37 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,25 +1066,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,79 +1114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,16 +1271,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,30 +1314,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,6 +1339,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1352,23 +1367,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1380,134 +1386,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1591,7 +1597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1606,22 +1612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2164,7 +2161,7 @@
   <cols>
     <col min="1" max="1" width="3.62857142857143" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="34.247619047619" style="85" customWidth="1"/>
+    <col min="3" max="4" width="34.247619047619" style="82" customWidth="1"/>
     <col min="5" max="5" width="12.8761904761905" customWidth="1"/>
     <col min="6" max="6" width="12.8761904761905" style="43" customWidth="1"/>
     <col min="7" max="7" width="15.247619047619" customWidth="1"/>
@@ -2179,74 +2176,74 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:9">
-      <c r="A1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="53" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="K2" s="97" t="s">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="K2" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="95" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="53">
         <f>I156</f>
         <v>-43784900</v>
       </c>
-      <c r="M3" s="99"/>
+      <c r="M3" s="96"/>
       <c r="N3" t="s">
         <v>12</v>
       </c>
@@ -2262,39 +2259,39 @@
       <c r="B4" s="39">
         <v>42841</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="36"/>
-      <c r="G4" s="56">
+      <c r="G4" s="53">
         <v>100000</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57">
+      <c r="H4" s="53"/>
+      <c r="I4" s="54">
         <f>G4-H4</f>
         <v>100000</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="53">
         <f>Masjid!H40</f>
         <v>17617200</v>
       </c>
-      <c r="M4" s="99">
+      <c r="M4" s="96">
         <f t="shared" ref="M4:M67" si="0">F4*H4</f>
         <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="56">
+      <c r="O4" s="53">
         <f>-1*(L3+O5)</f>
         <v>15184900</v>
       </c>
@@ -2311,27 +2308,27 @@
       <c r="B5" s="39">
         <v>42842</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="85" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="36"/>
-      <c r="G5" s="56">
+      <c r="G5" s="53">
         <v>500000</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57">
+      <c r="H5" s="53"/>
+      <c r="I5" s="54">
         <f t="shared" ref="I5:I68" si="2">I4+G5-H5</f>
         <v>600000</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="99">
+      <c r="K5" s="97"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2351,31 +2348,31 @@
       <c r="B6" s="39">
         <v>42844</v>
       </c>
-      <c r="C6" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="56">
+      <c r="G6" s="53">
         <v>10000000</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57">
+      <c r="H6" s="53"/>
+      <c r="I6" s="54">
         <f t="shared" si="2"/>
         <v>10600000</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="56">
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="96">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="53">
         <f>O4+O5</f>
         <v>43784900</v>
       </c>
@@ -2388,25 +2385,25 @@
       <c r="B7" s="39">
         <v>42844</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="88" t="s">
+      <c r="C7" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="36"/>
-      <c r="G7" s="56">
+      <c r="G7" s="53">
         <v>1000000</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57">
+      <c r="H7" s="53"/>
+      <c r="I7" s="54">
         <f t="shared" si="2"/>
         <v>11600000</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2419,21 +2416,21 @@
       <c r="B8" s="39">
         <v>42844</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="85" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="36"/>
-      <c r="G8" s="56">
+      <c r="G8" s="53">
         <v>50000</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57">
+      <c r="H8" s="53"/>
+      <c r="I8" s="54">
         <f t="shared" si="2"/>
         <v>11650000</v>
       </c>
@@ -2443,7 +2440,7 @@
       <c r="L8" s="3">
         <v>7997797</v>
       </c>
-      <c r="M8" s="99">
+      <c r="M8" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2459,21 +2456,21 @@
       <c r="B9" s="39">
         <v>42845</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="85" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="36"/>
-      <c r="G9" s="56">
+      <c r="G9" s="53">
         <v>200000</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57">
+      <c r="H9" s="53"/>
+      <c r="I9" s="54">
         <f t="shared" si="2"/>
         <v>11850000</v>
       </c>
@@ -2483,7 +2480,7 @@
       <c r="L9" s="3">
         <v>702000</v>
       </c>
-      <c r="M9" s="99">
+      <c r="M9" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2500,26 +2497,26 @@
       <c r="B10" s="39">
         <v>42845</v>
       </c>
-      <c r="C10" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="88" t="s">
+      <c r="C10" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="85" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="36"/>
-      <c r="G10" s="56">
+      <c r="G10" s="53">
         <v>600000</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57">
+      <c r="H10" s="53"/>
+      <c r="I10" s="54">
         <f t="shared" si="2"/>
         <v>12450000</v>
       </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="99">
+      <c r="M10" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2532,25 +2529,25 @@
       <c r="B11" s="39">
         <v>42845</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="85" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="36"/>
-      <c r="G11" s="56">
+      <c r="G11" s="53">
         <v>1016000</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57">
+      <c r="H11" s="53"/>
+      <c r="I11" s="54">
         <f t="shared" si="2"/>
         <v>13466000</v>
       </c>
-      <c r="M11" s="99">
+      <c r="M11" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2563,21 +2560,21 @@
       <c r="B12" s="39">
         <v>42846</v>
       </c>
-      <c r="C12" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="88" t="s">
+      <c r="C12" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="85" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="36"/>
-      <c r="G12" s="56">
+      <c r="G12" s="53">
         <v>50000</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57">
+      <c r="H12" s="53"/>
+      <c r="I12" s="54">
         <f t="shared" si="2"/>
         <v>13516000</v>
       </c>
@@ -2585,7 +2582,7 @@
         <f>L4-L8</f>
         <v>9619403</v>
       </c>
-      <c r="M12" s="99">
+      <c r="M12" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2595,28 +2592,28 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B13" s="89">
+      <c r="B13" s="86">
         <v>42847</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="56">
+      <c r="F13" s="89"/>
+      <c r="G13" s="53">
         <v>5000000</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57">
+      <c r="H13" s="53"/>
+      <c r="I13" s="54">
         <f t="shared" si="2"/>
         <v>18516000</v>
       </c>
-      <c r="M13" s="99">
+      <c r="M13" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2626,29 +2623,29 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B14" s="89">
+      <c r="B14" s="86">
         <v>42847</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="56">
+      <c r="G14" s="53">
         <v>2000000</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57">
+      <c r="H14" s="53"/>
+      <c r="I14" s="54">
         <f t="shared" si="2"/>
         <v>20516000</v>
       </c>
       <c r="L14" s="31"/>
-      <c r="M14" s="99">
+      <c r="M14" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2658,29 +2655,29 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B15" s="89">
+      <c r="B15" s="86">
         <v>42847</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="85" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="36"/>
-      <c r="G15" s="56">
+      <c r="G15" s="53">
         <v>50000</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57">
+      <c r="H15" s="53"/>
+      <c r="I15" s="54">
         <f t="shared" si="2"/>
         <v>20566000</v>
       </c>
       <c r="L15" s="31"/>
-      <c r="M15" s="99">
+      <c r="M15" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2690,28 +2687,28 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B16" s="89">
+      <c r="B16" s="86">
         <v>42847</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="85" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="36"/>
-      <c r="G16" s="56">
+      <c r="G16" s="53">
         <v>200000</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57">
+      <c r="H16" s="53"/>
+      <c r="I16" s="54">
         <f t="shared" si="2"/>
         <v>20766000</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2721,29 +2718,29 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B17" s="89">
+      <c r="B17" s="86">
         <v>42847</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="88" t="s">
+      <c r="C17" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="85" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="36"/>
-      <c r="G17" s="56">
+      <c r="G17" s="53">
         <v>300000</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57">
+      <c r="H17" s="53"/>
+      <c r="I17" s="54">
         <f t="shared" si="2"/>
         <v>21066000</v>
       </c>
       <c r="L17" s="31"/>
-      <c r="M17" s="99">
+      <c r="M17" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2753,29 +2750,29 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B18" s="89">
+      <c r="B18" s="86">
         <v>42847</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="85" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="36"/>
-      <c r="G18" s="56">
+      <c r="G18" s="53">
         <v>500000</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57">
+      <c r="H18" s="53"/>
+      <c r="I18" s="54">
         <f t="shared" si="2"/>
         <v>21566000</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="99">
+      <c r="M18" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2785,29 +2782,29 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B19" s="89">
+      <c r="B19" s="86">
         <v>42847</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="85" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="36"/>
-      <c r="G19" s="56">
+      <c r="G19" s="53">
         <v>100000</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57">
+      <c r="H19" s="53"/>
+      <c r="I19" s="54">
         <f t="shared" si="2"/>
         <v>21666000</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="99">
+      <c r="M19" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2818,29 +2815,29 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B20" s="89">
+      <c r="B20" s="86">
         <v>42849</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="85" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="36"/>
-      <c r="G20" s="56">
+      <c r="G20" s="53">
         <v>200000</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57">
+      <c r="H20" s="53"/>
+      <c r="I20" s="54">
         <f t="shared" si="2"/>
         <v>21866000</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="99">
+      <c r="M20" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2852,28 +2849,28 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B21" s="89">
+      <c r="B21" s="86">
         <v>42850</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="88" t="s">
+      <c r="C21" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="36"/>
-      <c r="G21" s="56">
+      <c r="G21" s="53">
         <v>500000</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57">
+      <c r="H21" s="53"/>
+      <c r="I21" s="54">
         <f t="shared" si="2"/>
         <v>22366000</v>
       </c>
-      <c r="M21" s="99">
+      <c r="M21" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2887,26 +2884,26 @@
       <c r="B22" s="39">
         <v>42851</v>
       </c>
-      <c r="C22" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="88" t="s">
+      <c r="C22" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="85" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="36"/>
-      <c r="G22" s="56">
+      <c r="G22" s="53">
         <v>50000</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57">
+      <c r="H22" s="53"/>
+      <c r="I22" s="54">
         <f t="shared" si="2"/>
         <v>22416000</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="99">
+      <c r="M22" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2920,25 +2917,25 @@
       <c r="B23" s="39">
         <v>42851</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="36"/>
-      <c r="G23" s="56">
+      <c r="G23" s="53">
         <v>500000</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57">
+      <c r="H23" s="53"/>
+      <c r="I23" s="54">
         <f t="shared" si="2"/>
         <v>22916000</v>
       </c>
-      <c r="M23" s="99">
+      <c r="M23" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2952,25 +2949,25 @@
       <c r="B24" s="39">
         <v>42851</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="85" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="36"/>
-      <c r="G24" s="56">
+      <c r="G24" s="53">
         <v>1000000</v>
       </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57">
+      <c r="H24" s="53"/>
+      <c r="I24" s="54">
         <f t="shared" si="2"/>
         <v>23916000</v>
       </c>
-      <c r="M24" s="99">
+      <c r="M24" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2984,25 +2981,25 @@
       <c r="B25" s="39">
         <v>42851</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="85" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="36"/>
-      <c r="G25" s="56">
+      <c r="G25" s="53">
         <v>350000</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57">
+      <c r="H25" s="53"/>
+      <c r="I25" s="54">
         <f t="shared" si="2"/>
         <v>24266000</v>
       </c>
-      <c r="M25" s="99">
+      <c r="M25" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3016,25 +3013,25 @@
       <c r="B26" s="39">
         <v>42853</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="85" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="36"/>
-      <c r="G26" s="56">
+      <c r="G26" s="53">
         <v>4253000</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57">
+      <c r="H26" s="53"/>
+      <c r="I26" s="54">
         <f t="shared" si="2"/>
         <v>28519000</v>
       </c>
-      <c r="M26" s="99">
+      <c r="M26" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3047,25 +3044,25 @@
       <c r="B27" s="39">
         <v>42854</v>
       </c>
-      <c r="C27" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="88" t="s">
+      <c r="C27" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="85" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="36"/>
-      <c r="G27" s="56">
+      <c r="G27" s="53">
         <v>500000</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57">
+      <c r="H27" s="53"/>
+      <c r="I27" s="54">
         <f t="shared" si="2"/>
         <v>29019000</v>
       </c>
-      <c r="M27" s="99">
+      <c r="M27" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3078,25 +3075,25 @@
       <c r="B28" s="39">
         <v>42854</v>
       </c>
-      <c r="C28" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="88" t="s">
+      <c r="C28" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="85" t="s">
         <v>46</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="36"/>
-      <c r="G28" s="56">
+      <c r="G28" s="53">
         <v>400000</v>
       </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57">
+      <c r="H28" s="53"/>
+      <c r="I28" s="54">
         <f t="shared" si="2"/>
         <v>29419000</v>
       </c>
-      <c r="M28" s="99">
+      <c r="M28" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3109,25 +3106,25 @@
       <c r="B29" s="39">
         <v>42854</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="85" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="36"/>
-      <c r="G29" s="56">
+      <c r="G29" s="53">
         <v>500000</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57">
+      <c r="H29" s="53"/>
+      <c r="I29" s="54">
         <f t="shared" si="2"/>
         <v>29919000</v>
       </c>
-      <c r="M29" s="99">
+      <c r="M29" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3140,25 +3137,25 @@
       <c r="B30" s="39">
         <v>42854</v>
       </c>
-      <c r="C30" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="88" t="s">
+      <c r="C30" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="85" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="36"/>
-      <c r="G30" s="56">
+      <c r="G30" s="53">
         <v>2000000</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57">
+      <c r="H30" s="53"/>
+      <c r="I30" s="54">
         <f t="shared" si="2"/>
         <v>31919000</v>
       </c>
-      <c r="M30" s="99">
+      <c r="M30" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3171,25 +3168,25 @@
       <c r="B31" s="39">
         <v>42854</v>
       </c>
-      <c r="C31" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="88" t="s">
+      <c r="C31" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="85" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="36"/>
-      <c r="G31" s="56">
+      <c r="G31" s="53">
         <v>300000</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57">
+      <c r="H31" s="53"/>
+      <c r="I31" s="54">
         <f t="shared" si="2"/>
         <v>32219000</v>
       </c>
-      <c r="M31" s="99">
+      <c r="M31" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3202,25 +3199,25 @@
       <c r="B32" s="39">
         <v>42854</v>
       </c>
-      <c r="C32" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="88" t="s">
+      <c r="C32" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="85" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F32" s="36"/>
-      <c r="G32" s="56">
+      <c r="G32" s="53">
         <v>50000</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57">
+      <c r="H32" s="53"/>
+      <c r="I32" s="54">
         <f t="shared" si="2"/>
         <v>32269000</v>
       </c>
-      <c r="M32" s="99">
+      <c r="M32" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3233,25 +3230,25 @@
       <c r="B33" s="39">
         <v>42854</v>
       </c>
-      <c r="C33" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="88" t="s">
+      <c r="C33" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="85" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="36"/>
-      <c r="G33" s="56">
+      <c r="G33" s="53">
         <v>1000000</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57">
+      <c r="H33" s="53"/>
+      <c r="I33" s="54">
         <f t="shared" si="2"/>
         <v>33269000</v>
       </c>
-      <c r="M33" s="99">
+      <c r="M33" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3264,25 +3261,25 @@
       <c r="B34" s="39">
         <v>42856</v>
       </c>
-      <c r="C34" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="93" t="s">
+      <c r="C34" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76">
+      <c r="E34" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="72"/>
+      <c r="G34" s="73">
         <v>500000</v>
       </c>
       <c r="H34" s="40"/>
-      <c r="I34" s="57">
+      <c r="I34" s="54">
         <f t="shared" si="2"/>
         <v>33769000</v>
       </c>
-      <c r="M34" s="99">
+      <c r="M34" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3295,25 +3292,25 @@
       <c r="B35" s="39">
         <v>42856</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76">
+      <c r="E35" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73">
         <v>400000</v>
       </c>
       <c r="H35" s="40"/>
-      <c r="I35" s="57">
+      <c r="I35" s="54">
         <f t="shared" si="2"/>
         <v>34169000</v>
       </c>
-      <c r="M35" s="99">
+      <c r="M35" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3326,25 +3323,25 @@
       <c r="B36" s="39">
         <v>42857</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="93" t="s">
+      <c r="D36" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76">
+      <c r="F36" s="72"/>
+      <c r="G36" s="73">
         <v>2500000</v>
       </c>
       <c r="H36" s="40"/>
-      <c r="I36" s="57">
+      <c r="I36" s="54">
         <f t="shared" si="2"/>
         <v>36669000</v>
       </c>
-      <c r="M36" s="99">
+      <c r="M36" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3357,25 +3354,25 @@
       <c r="B37" s="39">
         <v>42857</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="85" t="s">
         <v>57</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="36"/>
-      <c r="G37" s="56">
+      <c r="G37" s="53">
         <v>500000</v>
       </c>
       <c r="H37" s="40"/>
-      <c r="I37" s="57">
+      <c r="I37" s="54">
         <f t="shared" si="2"/>
         <v>37169000</v>
       </c>
-      <c r="M37" s="99">
+      <c r="M37" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3388,10 +3385,10 @@
       <c r="B38" s="39">
         <v>42859</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="D38" s="85" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="40" t="s">
@@ -3402,11 +3399,11 @@
         <v>100000</v>
       </c>
       <c r="H38" s="40"/>
-      <c r="I38" s="57">
+      <c r="I38" s="54">
         <f t="shared" si="2"/>
         <v>37269000</v>
       </c>
-      <c r="M38" s="99">
+      <c r="M38" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3419,10 +3416,10 @@
       <c r="B39" s="39">
         <v>42860</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="85" t="s">
         <v>58</v>
       </c>
       <c r="E39" s="40" t="s">
@@ -3433,11 +3430,11 @@
         <v>50000</v>
       </c>
       <c r="H39" s="40"/>
-      <c r="I39" s="57">
+      <c r="I39" s="54">
         <f t="shared" si="2"/>
         <v>37319000</v>
       </c>
-      <c r="M39" s="99">
+      <c r="M39" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3447,28 +3444,28 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B40" s="65">
+      <c r="B40" s="62">
         <v>42860</v>
       </c>
-      <c r="C40" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="94" t="s">
+      <c r="C40" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="67" t="s">
+      <c r="E40" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="66"/>
-      <c r="G40" s="95">
+      <c r="F40" s="63"/>
+      <c r="G40" s="92">
         <v>2000000</v>
       </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="57">
+      <c r="H40" s="64"/>
+      <c r="I40" s="54">
         <f t="shared" si="2"/>
         <v>39319000</v>
       </c>
-      <c r="M40" s="99">
+      <c r="M40" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3481,10 +3478,10 @@
       <c r="B41" s="39">
         <v>42861</v>
       </c>
-      <c r="C41" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="88" t="s">
+      <c r="C41" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="85" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -3495,11 +3492,11 @@
         <v>25000</v>
       </c>
       <c r="H41" s="40"/>
-      <c r="I41" s="57">
+      <c r="I41" s="54">
         <f t="shared" si="2"/>
         <v>39344000</v>
       </c>
-      <c r="M41" s="99">
+      <c r="M41" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3512,10 +3509,10 @@
       <c r="B42" s="39">
         <v>42861</v>
       </c>
-      <c r="C42" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="88" t="s">
+      <c r="C42" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="85" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="40" t="s">
@@ -3526,11 +3523,11 @@
         <v>35000</v>
       </c>
       <c r="H42" s="40"/>
-      <c r="I42" s="57">
+      <c r="I42" s="54">
         <f t="shared" si="2"/>
         <v>39379000</v>
       </c>
-      <c r="M42" s="99">
+      <c r="M42" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3543,10 +3540,10 @@
       <c r="B43" s="39">
         <v>42861</v>
       </c>
-      <c r="C43" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="88" t="s">
+      <c r="C43" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="85" t="s">
         <v>61</v>
       </c>
       <c r="E43" s="40" t="s">
@@ -3557,11 +3554,11 @@
         <v>150000</v>
       </c>
       <c r="H43" s="40"/>
-      <c r="I43" s="57">
+      <c r="I43" s="54">
         <f t="shared" si="2"/>
         <v>39529000</v>
       </c>
-      <c r="M43" s="99">
+      <c r="M43" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3574,10 +3571,10 @@
       <c r="B44" s="39">
         <v>42862</v>
       </c>
-      <c r="C44" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="88" t="s">
+      <c r="C44" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="85" t="s">
         <v>62</v>
       </c>
       <c r="E44" s="40" t="s">
@@ -3588,11 +3585,11 @@
         <v>12000</v>
       </c>
       <c r="H44" s="40"/>
-      <c r="I44" s="57">
+      <c r="I44" s="54">
         <f t="shared" si="2"/>
         <v>39541000</v>
       </c>
-      <c r="M44" s="99">
+      <c r="M44" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3605,10 +3602,10 @@
       <c r="B45" s="39">
         <v>42863</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="85" t="s">
         <v>64</v>
       </c>
       <c r="E45" s="40" t="s">
@@ -3619,11 +3616,11 @@
         <v>10000000</v>
       </c>
       <c r="H45" s="40"/>
-      <c r="I45" s="57">
+      <c r="I45" s="54">
         <f t="shared" si="2"/>
         <v>49541000</v>
       </c>
-      <c r="M45" s="99">
+      <c r="M45" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3636,10 +3633,10 @@
       <c r="B46" s="39">
         <v>42864</v>
       </c>
-      <c r="C46" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="88" t="s">
+      <c r="C46" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="85" t="s">
         <v>65</v>
       </c>
       <c r="E46" s="40" t="s">
@@ -3650,11 +3647,11 @@
         <v>50000</v>
       </c>
       <c r="H46" s="40"/>
-      <c r="I46" s="57">
+      <c r="I46" s="54">
         <f t="shared" si="2"/>
         <v>49591000</v>
       </c>
-      <c r="M46" s="99">
+      <c r="M46" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3667,10 +3664,10 @@
       <c r="B47" s="39">
         <v>42865</v>
       </c>
-      <c r="C47" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="88" t="s">
+      <c r="C47" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="85" t="s">
         <v>66</v>
       </c>
       <c r="E47" s="40" t="s">
@@ -3681,11 +3678,11 @@
         <v>500000</v>
       </c>
       <c r="H47" s="40"/>
-      <c r="I47" s="57">
+      <c r="I47" s="54">
         <f t="shared" si="2"/>
         <v>50091000</v>
       </c>
-      <c r="M47" s="99">
+      <c r="M47" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3698,10 +3695,10 @@
       <c r="B48" s="39">
         <v>42865</v>
       </c>
-      <c r="C48" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="88" t="s">
+      <c r="C48" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="85" t="s">
         <v>67</v>
       </c>
       <c r="E48" s="40" t="s">
@@ -3712,11 +3709,11 @@
         <v>155000</v>
       </c>
       <c r="H48" s="40"/>
-      <c r="I48" s="57">
+      <c r="I48" s="54">
         <f t="shared" si="2"/>
         <v>50246000</v>
       </c>
-      <c r="M48" s="99">
+      <c r="M48" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3729,10 +3726,10 @@
       <c r="B49" s="39">
         <v>42865</v>
       </c>
-      <c r="C49" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="88" t="s">
+      <c r="C49" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="85" t="s">
         <v>68</v>
       </c>
       <c r="E49" s="40" t="s">
@@ -3743,11 +3740,11 @@
         <v>250000</v>
       </c>
       <c r="H49" s="40"/>
-      <c r="I49" s="57">
+      <c r="I49" s="54">
         <f t="shared" si="2"/>
         <v>50496000</v>
       </c>
-      <c r="M49" s="99">
+      <c r="M49" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3760,10 +3757,10 @@
       <c r="B50" s="39">
         <v>42866</v>
       </c>
-      <c r="C50" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="88" t="s">
+      <c r="C50" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="85" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="40" t="s">
@@ -3774,11 +3771,11 @@
         <v>200000</v>
       </c>
       <c r="H50" s="40"/>
-      <c r="I50" s="57">
+      <c r="I50" s="54">
         <f t="shared" si="2"/>
         <v>50696000</v>
       </c>
-      <c r="M50" s="99">
+      <c r="M50" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3791,10 +3788,10 @@
       <c r="B51" s="39">
         <v>42866</v>
       </c>
-      <c r="C51" s="88" t="s">
+      <c r="C51" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="85" t="s">
         <v>71</v>
       </c>
       <c r="E51" s="40" t="s">
@@ -3805,11 +3802,11 @@
         <v>5000</v>
       </c>
       <c r="H51" s="40"/>
-      <c r="I51" s="57">
+      <c r="I51" s="54">
         <f t="shared" si="2"/>
         <v>50701000</v>
       </c>
-      <c r="M51" s="99">
+      <c r="M51" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3822,10 +3819,10 @@
       <c r="B52" s="39">
         <v>42870</v>
       </c>
-      <c r="C52" s="88" t="s">
+      <c r="C52" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="D52" s="85" t="s">
         <v>73</v>
       </c>
       <c r="E52" s="40" t="s">
@@ -3836,11 +3833,11 @@
         <v>5000</v>
       </c>
       <c r="H52" s="40"/>
-      <c r="I52" s="57">
+      <c r="I52" s="54">
         <f t="shared" si="2"/>
         <v>50706000</v>
       </c>
-      <c r="M52" s="99">
+      <c r="M52" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3853,10 +3850,10 @@
       <c r="B53" s="39">
         <v>42870</v>
       </c>
-      <c r="C53" s="88" t="s">
+      <c r="C53" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" s="85" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="40" t="s">
@@ -3867,11 +3864,11 @@
         <v>1500000</v>
       </c>
       <c r="H53" s="42"/>
-      <c r="I53" s="57">
+      <c r="I53" s="54">
         <f t="shared" si="2"/>
         <v>52206000</v>
       </c>
-      <c r="M53" s="99">
+      <c r="M53" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3884,10 +3881,10 @@
       <c r="B54" s="39">
         <v>42870</v>
       </c>
-      <c r="C54" s="88" t="s">
+      <c r="C54" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="D54" s="85" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="40" t="s">
@@ -3898,11 +3895,11 @@
         <v>910000</v>
       </c>
       <c r="H54" s="42"/>
-      <c r="I54" s="57">
+      <c r="I54" s="54">
         <f t="shared" si="2"/>
         <v>53116000</v>
       </c>
-      <c r="M54" s="99">
+      <c r="M54" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3915,10 +3912,10 @@
       <c r="B55" s="39">
         <v>42870</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="D55" s="85" t="s">
         <v>75</v>
       </c>
       <c r="E55" s="40" t="s">
@@ -3929,11 +3926,11 @@
         <v>200000</v>
       </c>
       <c r="H55" s="42"/>
-      <c r="I55" s="57">
+      <c r="I55" s="54">
         <f t="shared" si="2"/>
         <v>53316000</v>
       </c>
-      <c r="M55" s="99">
+      <c r="M55" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3946,10 +3943,10 @@
       <c r="B56" s="39">
         <v>42871</v>
       </c>
-      <c r="C56" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="88" t="s">
+      <c r="C56" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E56" s="40" t="s">
@@ -3960,11 +3957,11 @@
         <v>55000</v>
       </c>
       <c r="H56" s="42"/>
-      <c r="I56" s="57">
+      <c r="I56" s="54">
         <f t="shared" si="2"/>
         <v>53371000</v>
       </c>
-      <c r="M56" s="99">
+      <c r="M56" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3977,10 +3974,10 @@
       <c r="B57" s="39">
         <v>42872</v>
       </c>
-      <c r="C57" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="88" t="s">
+      <c r="C57" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="85" t="s">
         <v>77</v>
       </c>
       <c r="E57" s="40" t="s">
@@ -3991,11 +3988,11 @@
         <v>1500000</v>
       </c>
       <c r="H57" s="42"/>
-      <c r="I57" s="57">
+      <c r="I57" s="54">
         <f t="shared" si="2"/>
         <v>54871000</v>
       </c>
-      <c r="M57" s="99">
+      <c r="M57" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4008,10 +4005,10 @@
       <c r="B58" s="39">
         <v>42882</v>
       </c>
-      <c r="C58" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="88" t="s">
+      <c r="C58" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E58" s="40" t="s">
@@ -4022,11 +4019,11 @@
         <v>3000000</v>
       </c>
       <c r="H58" s="42"/>
-      <c r="I58" s="57">
+      <c r="I58" s="54">
         <f t="shared" si="2"/>
         <v>57871000</v>
       </c>
-      <c r="M58" s="99">
+      <c r="M58" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4039,10 +4036,10 @@
       <c r="B59" s="39">
         <v>42885</v>
       </c>
-      <c r="C59" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="88" t="s">
+      <c r="C59" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="85" t="s">
         <v>78</v>
       </c>
       <c r="E59" s="40" t="s">
@@ -4053,11 +4050,11 @@
         <v>5200000</v>
       </c>
       <c r="H59" s="42"/>
-      <c r="I59" s="57">
+      <c r="I59" s="54">
         <f t="shared" si="2"/>
         <v>63071000</v>
       </c>
-      <c r="M59" s="99">
+      <c r="M59" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4070,10 +4067,10 @@
       <c r="B60" s="39">
         <v>42885</v>
       </c>
-      <c r="C60" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="88" t="s">
+      <c r="C60" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="85" t="s">
         <v>79</v>
       </c>
       <c r="E60" s="40" t="s">
@@ -4084,11 +4081,11 @@
         <v>300000</v>
       </c>
       <c r="H60" s="42"/>
-      <c r="I60" s="57">
+      <c r="I60" s="54">
         <f t="shared" si="2"/>
         <v>63371000</v>
       </c>
-      <c r="M60" s="99">
+      <c r="M60" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4098,28 +4095,28 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B61" s="74">
+      <c r="B61" s="71">
         <v>42886</v>
       </c>
-      <c r="C61" s="93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="93" t="s">
+      <c r="C61" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="75"/>
-      <c r="G61" s="96">
+      <c r="F61" s="72"/>
+      <c r="G61" s="93">
         <v>10000000</v>
       </c>
-      <c r="H61" s="96"/>
-      <c r="I61" s="57">
+      <c r="H61" s="93"/>
+      <c r="I61" s="54">
         <f t="shared" si="2"/>
         <v>73371000</v>
       </c>
-      <c r="M61" s="99">
+      <c r="M61" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4132,10 +4129,10 @@
       <c r="B62" s="39">
         <v>42886</v>
       </c>
-      <c r="C62" s="88" t="s">
+      <c r="C62" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="88" t="s">
+      <c r="D62" s="85" t="s">
         <v>82</v>
       </c>
       <c r="E62" s="40" t="s">
@@ -4146,11 +4143,11 @@
         <v>3000000</v>
       </c>
       <c r="H62" s="42"/>
-      <c r="I62" s="57">
+      <c r="I62" s="54">
         <f t="shared" si="2"/>
         <v>76371000</v>
       </c>
-      <c r="M62" s="99">
+      <c r="M62" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4163,10 +4160,10 @@
       <c r="B63" s="39">
         <v>42887</v>
       </c>
-      <c r="C63" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="88" t="s">
+      <c r="C63" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="85" t="s">
         <v>35</v>
       </c>
       <c r="E63" s="40" t="s">
@@ -4177,14 +4174,14 @@
         <v>25000</v>
       </c>
       <c r="H63" s="42"/>
-      <c r="I63" s="57">
+      <c r="I63" s="54">
         <f t="shared" si="2"/>
         <v>76396000</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M63" s="99">
+      <c r="M63" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4197,10 +4194,10 @@
       <c r="B64" s="39">
         <v>42887</v>
       </c>
-      <c r="C64" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="88" t="s">
+      <c r="C64" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="85" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="40" t="s">
@@ -4211,11 +4208,11 @@
         <v>50000</v>
       </c>
       <c r="H64" s="42"/>
-      <c r="I64" s="57">
+      <c r="I64" s="54">
         <f t="shared" si="2"/>
         <v>76446000</v>
       </c>
-      <c r="M64" s="99">
+      <c r="M64" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4228,10 +4225,10 @@
       <c r="B65" s="39">
         <v>42887</v>
       </c>
-      <c r="C65" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="88" t="s">
+      <c r="C65" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="85" t="s">
         <v>85</v>
       </c>
       <c r="E65" s="40" t="s">
@@ -4242,11 +4239,11 @@
         <v>150000</v>
       </c>
       <c r="H65" s="42"/>
-      <c r="I65" s="57">
+      <c r="I65" s="54">
         <f t="shared" si="2"/>
         <v>76596000</v>
       </c>
-      <c r="M65" s="99">
+      <c r="M65" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4259,10 +4256,10 @@
       <c r="B66" s="39">
         <v>42887</v>
       </c>
-      <c r="C66" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="88" t="s">
+      <c r="C66" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="85" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="40" t="s">
@@ -4273,11 +4270,11 @@
         <v>100000</v>
       </c>
       <c r="H66" s="42"/>
-      <c r="I66" s="57">
+      <c r="I66" s="54">
         <f t="shared" si="2"/>
         <v>76696000</v>
       </c>
-      <c r="M66" s="99">
+      <c r="M66" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4290,10 +4287,10 @@
       <c r="B67" s="39">
         <v>42888</v>
       </c>
-      <c r="C67" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="88" t="s">
+      <c r="C67" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E67" s="40" t="s">
@@ -4304,11 +4301,11 @@
         <v>500000</v>
       </c>
       <c r="H67" s="42"/>
-      <c r="I67" s="57">
+      <c r="I67" s="54">
         <f t="shared" si="2"/>
         <v>77196000</v>
       </c>
-      <c r="M67" s="99">
+      <c r="M67" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4321,10 +4318,10 @@
       <c r="B68" s="39">
         <v>42889</v>
       </c>
-      <c r="C68" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="88" t="s">
+      <c r="C68" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E68" s="40" t="s">
@@ -4335,11 +4332,11 @@
         <v>2000000</v>
       </c>
       <c r="H68" s="42"/>
-      <c r="I68" s="57">
+      <c r="I68" s="54">
         <f t="shared" si="2"/>
         <v>79196000</v>
       </c>
-      <c r="M68" s="99">
+      <c r="M68" s="96">
         <f t="shared" ref="M68:M131" si="3">F68*H68</f>
         <v>0</v>
       </c>
@@ -4352,10 +4349,10 @@
       <c r="B69" s="39">
         <v>42890</v>
       </c>
-      <c r="C69" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="88" t="s">
+      <c r="C69" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="40" t="s">
@@ -4366,11 +4363,11 @@
         <v>200000</v>
       </c>
       <c r="H69" s="42"/>
-      <c r="I69" s="57">
+      <c r="I69" s="54">
         <f t="shared" ref="I69:I114" si="5">I68+G69-H69</f>
         <v>79396000</v>
       </c>
-      <c r="M69" s="99">
+      <c r="M69" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4383,10 +4380,10 @@
       <c r="B70" s="39">
         <v>42893</v>
       </c>
-      <c r="C70" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="88" t="s">
+      <c r="C70" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="85" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="40" t="s">
@@ -4397,11 +4394,11 @@
         <v>400000</v>
       </c>
       <c r="H70" s="42"/>
-      <c r="I70" s="57">
+      <c r="I70" s="54">
         <f t="shared" si="5"/>
         <v>79796000</v>
       </c>
-      <c r="M70" s="99">
+      <c r="M70" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4411,26 +4408,26 @@
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="B71" s="59">
+      <c r="B71" s="56">
         <v>42893</v>
       </c>
-      <c r="C71" s="102" t="s">
+      <c r="C71" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="102"/>
-      <c r="E71" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="60"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103">
+      <c r="D71" s="99"/>
+      <c r="E71" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="57"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100">
         <v>1500000</v>
       </c>
-      <c r="I71" s="63">
+      <c r="I71" s="60">
         <f t="shared" si="5"/>
         <v>78296000</v>
       </c>
-      <c r="M71" s="99">
+      <c r="M71" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4440,26 +4437,26 @@
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="B72" s="59">
+      <c r="B72" s="56">
         <v>42895</v>
       </c>
-      <c r="C72" s="102" t="s">
+      <c r="C72" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="61" t="s">
+      <c r="D72" s="99"/>
+      <c r="E72" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="60"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="103">
+      <c r="F72" s="57"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100">
         <v>20000000</v>
       </c>
-      <c r="I72" s="63">
+      <c r="I72" s="60">
         <f t="shared" si="5"/>
         <v>58296000</v>
       </c>
-      <c r="M72" s="99">
+      <c r="M72" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4472,25 +4469,25 @@
       <c r="B73" s="39">
         <v>42899</v>
       </c>
-      <c r="C73" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="88" t="s">
+      <c r="C73" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="85" t="s">
         <v>89</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="36"/>
-      <c r="G73" s="96">
+      <c r="G73" s="93">
         <v>800000</v>
       </c>
       <c r="H73" s="42"/>
-      <c r="I73" s="57">
+      <c r="I73" s="54">
         <f t="shared" si="5"/>
         <v>59096000</v>
       </c>
-      <c r="M73" s="99">
+      <c r="M73" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4503,25 +4500,25 @@
       <c r="B74" s="39">
         <v>42899</v>
       </c>
-      <c r="C74" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="88" t="s">
+      <c r="C74" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="85" t="s">
         <v>90</v>
       </c>
       <c r="E74" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="36"/>
-      <c r="G74" s="96">
+      <c r="G74" s="93">
         <v>1025000</v>
       </c>
       <c r="H74" s="42"/>
-      <c r="I74" s="57">
+      <c r="I74" s="54">
         <f t="shared" si="5"/>
         <v>60121000</v>
       </c>
-      <c r="M74" s="99">
+      <c r="M74" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4534,25 +4531,25 @@
       <c r="B75" s="39">
         <v>42899</v>
       </c>
-      <c r="C75" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="88" t="s">
+      <c r="C75" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="85" t="s">
         <v>91</v>
       </c>
       <c r="E75" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="36"/>
-      <c r="G75" s="96">
+      <c r="G75" s="93">
         <v>1000000</v>
       </c>
       <c r="H75" s="42"/>
-      <c r="I75" s="57">
+      <c r="I75" s="54">
         <f t="shared" si="5"/>
         <v>61121000</v>
       </c>
-      <c r="M75" s="99">
+      <c r="M75" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4565,25 +4562,25 @@
       <c r="B76" s="39">
         <v>42899</v>
       </c>
-      <c r="C76" s="88" t="s">
+      <c r="C76" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="88" t="s">
+      <c r="D76" s="85" t="s">
         <v>92</v>
       </c>
       <c r="E76" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="36"/>
-      <c r="G76" s="96">
+      <c r="G76" s="93">
         <v>106000</v>
       </c>
       <c r="H76" s="42"/>
-      <c r="I76" s="57">
+      <c r="I76" s="54">
         <f t="shared" si="5"/>
         <v>61227000</v>
       </c>
-      <c r="M76" s="99">
+      <c r="M76" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4596,25 +4593,25 @@
       <c r="B77" s="39">
         <v>42899</v>
       </c>
-      <c r="C77" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="88" t="s">
+      <c r="C77" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="85" t="s">
         <v>93</v>
       </c>
       <c r="E77" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="36"/>
-      <c r="G77" s="96">
+      <c r="G77" s="93">
         <v>1000000</v>
       </c>
       <c r="H77" s="42"/>
-      <c r="I77" s="57">
+      <c r="I77" s="54">
         <f t="shared" si="5"/>
         <v>62227000</v>
       </c>
-      <c r="M77" s="99">
+      <c r="M77" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4627,25 +4624,25 @@
       <c r="B78" s="39">
         <v>42899</v>
       </c>
-      <c r="C78" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="88" t="s">
+      <c r="C78" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="85" t="s">
         <v>94</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="36"/>
-      <c r="G78" s="96">
+      <c r="G78" s="93">
         <v>652000</v>
       </c>
       <c r="H78" s="42"/>
-      <c r="I78" s="57">
+      <c r="I78" s="54">
         <f t="shared" si="5"/>
         <v>62879000</v>
       </c>
-      <c r="M78" s="99">
+      <c r="M78" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4658,25 +4655,25 @@
       <c r="B79" s="39">
         <v>42899</v>
       </c>
-      <c r="C79" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="88" t="s">
+      <c r="C79" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="85" t="s">
         <v>95</v>
       </c>
       <c r="E79" s="40" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="36"/>
-      <c r="G79" s="96">
+      <c r="G79" s="93">
         <v>106600</v>
       </c>
       <c r="H79" s="42"/>
-      <c r="I79" s="57">
+      <c r="I79" s="54">
         <f t="shared" si="5"/>
         <v>62985600</v>
       </c>
-      <c r="M79" s="99">
+      <c r="M79" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4689,10 +4686,10 @@
       <c r="B80" s="39">
         <v>42899</v>
       </c>
-      <c r="C80" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="88" t="s">
+      <c r="C80" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="85" t="s">
         <v>96</v>
       </c>
       <c r="E80" s="40" t="s">
@@ -4703,11 +4700,11 @@
         <v>50000</v>
       </c>
       <c r="H80" s="42"/>
-      <c r="I80" s="57">
+      <c r="I80" s="54">
         <f t="shared" si="5"/>
         <v>63035600</v>
       </c>
-      <c r="M80" s="99">
+      <c r="M80" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4720,10 +4717,10 @@
       <c r="B81" s="39">
         <v>42899</v>
       </c>
-      <c r="C81" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="88" t="s">
+      <c r="C81" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="85" t="s">
         <v>97</v>
       </c>
       <c r="E81" s="40" t="s">
@@ -4734,11 +4731,11 @@
         <v>300000</v>
       </c>
       <c r="H81" s="42"/>
-      <c r="I81" s="57">
+      <c r="I81" s="54">
         <f t="shared" si="5"/>
         <v>63335600</v>
       </c>
-      <c r="M81" s="99">
+      <c r="M81" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4751,10 +4748,10 @@
       <c r="B82" s="39">
         <v>42902</v>
       </c>
-      <c r="C82" s="88" t="s">
+      <c r="C82" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="88"/>
+      <c r="D82" s="85"/>
       <c r="E82" s="40" t="s">
         <v>19</v>
       </c>
@@ -4763,11 +4760,11 @@
         <v>70000000</v>
       </c>
       <c r="H82" s="42"/>
-      <c r="I82" s="57">
+      <c r="I82" s="54">
         <f t="shared" si="5"/>
         <v>133335600</v>
       </c>
-      <c r="M82" s="99">
+      <c r="M82" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4780,10 +4777,10 @@
       <c r="B83" s="39">
         <v>42902</v>
       </c>
-      <c r="C83" s="88" t="s">
+      <c r="C83" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D83" s="88" t="s">
+      <c r="D83" s="85" t="s">
         <v>100</v>
       </c>
       <c r="E83" s="40" t="s">
@@ -4794,11 +4791,11 @@
         <v>124200</v>
       </c>
       <c r="H83" s="42"/>
-      <c r="I83" s="57">
+      <c r="I83" s="54">
         <f t="shared" si="5"/>
         <v>133459800</v>
       </c>
-      <c r="M83" s="99">
+      <c r="M83" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4811,10 +4808,10 @@
       <c r="B84" s="39">
         <v>42902</v>
       </c>
-      <c r="C84" s="88" t="s">
+      <c r="C84" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D84" s="88" t="s">
+      <c r="D84" s="85" t="s">
         <v>101</v>
       </c>
       <c r="E84" s="40" t="s">
@@ -4825,11 +4822,11 @@
         <v>1000000</v>
       </c>
       <c r="H84" s="42"/>
-      <c r="I84" s="57">
+      <c r="I84" s="54">
         <f t="shared" si="5"/>
         <v>134459800</v>
       </c>
-      <c r="M84" s="99">
+      <c r="M84" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4839,28 +4836,28 @@
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="B85" s="59">
+      <c r="B85" s="56">
         <v>42902</v>
       </c>
-      <c r="C85" s="102" t="s">
+      <c r="C85" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="D85" s="102" t="s">
+      <c r="D85" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="60"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="103">
+      <c r="E85" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="57"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100">
         <v>1000000</v>
       </c>
-      <c r="I85" s="63">
+      <c r="I85" s="60">
         <f t="shared" si="5"/>
         <v>133459800</v>
       </c>
-      <c r="M85" s="99">
+      <c r="M85" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4870,28 +4867,28 @@
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="B86" s="59">
+      <c r="B86" s="56">
         <v>42903</v>
       </c>
-      <c r="C86" s="102" t="s">
+      <c r="C86" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="D86" s="102" t="s">
+      <c r="D86" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="F86" s="60"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="103">
+      <c r="E86" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="57"/>
+      <c r="G86" s="100"/>
+      <c r="H86" s="100">
         <v>10000000</v>
       </c>
-      <c r="I86" s="63">
+      <c r="I86" s="60">
         <f t="shared" si="5"/>
         <v>123459800</v>
       </c>
-      <c r="M86" s="99">
+      <c r="M86" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4904,10 +4901,10 @@
       <c r="B87" s="39">
         <v>42904</v>
       </c>
-      <c r="C87" s="88" t="s">
+      <c r="C87" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="88" t="s">
+      <c r="D87" s="85" t="s">
         <v>106</v>
       </c>
       <c r="E87" s="40" t="s">
@@ -4918,11 +4915,11 @@
         <v>75500</v>
       </c>
       <c r="H87" s="42"/>
-      <c r="I87" s="57">
+      <c r="I87" s="54">
         <f t="shared" si="5"/>
         <v>123535300</v>
       </c>
-      <c r="M87" s="99">
+      <c r="M87" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4935,10 +4932,10 @@
       <c r="B88" s="39">
         <v>42904</v>
       </c>
-      <c r="C88" s="88" t="s">
+      <c r="C88" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="D88" s="88"/>
+      <c r="D88" s="85"/>
       <c r="E88" s="40" t="s">
         <v>19</v>
       </c>
@@ -4947,11 +4944,11 @@
         <v>150000</v>
       </c>
       <c r="H88" s="42"/>
-      <c r="I88" s="57">
+      <c r="I88" s="54">
         <f t="shared" si="5"/>
         <v>123685300</v>
       </c>
-      <c r="M88" s="99">
+      <c r="M88" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4964,10 +4961,10 @@
       <c r="B89" s="39">
         <v>42904</v>
       </c>
-      <c r="C89" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="88" t="s">
+      <c r="C89" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="85" t="s">
         <v>69</v>
       </c>
       <c r="E89" s="40" t="s">
@@ -4978,11 +4975,11 @@
         <v>50000</v>
       </c>
       <c r="H89" s="42"/>
-      <c r="I89" s="57">
+      <c r="I89" s="54">
         <f t="shared" si="5"/>
         <v>123735300</v>
       </c>
-      <c r="M89" s="99">
+      <c r="M89" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4995,10 +4992,10 @@
       <c r="B90" s="39">
         <v>42904</v>
       </c>
-      <c r="C90" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="88" t="s">
+      <c r="C90" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="85" t="s">
         <v>107</v>
       </c>
       <c r="E90" s="40" t="s">
@@ -5009,11 +5006,11 @@
         <v>100000</v>
       </c>
       <c r="H90" s="42"/>
-      <c r="I90" s="57">
+      <c r="I90" s="54">
         <f t="shared" si="5"/>
         <v>123835300</v>
       </c>
-      <c r="M90" s="99">
+      <c r="M90" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5026,10 +5023,10 @@
       <c r="B91" s="39">
         <v>42905</v>
       </c>
-      <c r="C91" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="88" t="s">
+      <c r="C91" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="85" t="s">
         <v>108</v>
       </c>
       <c r="E91" s="40" t="s">
@@ -5040,11 +5037,11 @@
         <v>1000000</v>
       </c>
       <c r="H91" s="42"/>
-      <c r="I91" s="57">
+      <c r="I91" s="54">
         <f t="shared" si="5"/>
         <v>124835300</v>
       </c>
-      <c r="M91" s="99">
+      <c r="M91" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5057,10 +5054,10 @@
       <c r="B92" s="39">
         <v>42907</v>
       </c>
-      <c r="C92" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="88" t="s">
+      <c r="C92" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="85" t="s">
         <v>109</v>
       </c>
       <c r="E92" s="40" t="s">
@@ -5071,14 +5068,14 @@
         <v>5000000</v>
       </c>
       <c r="H92" s="42"/>
-      <c r="I92" s="57">
+      <c r="I92" s="54">
         <f t="shared" si="5"/>
         <v>129835300</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M92" s="99">
+      <c r="M92" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5088,31 +5085,31 @@
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="B93" s="59">
+      <c r="B93" s="56">
         <v>42908</v>
       </c>
-      <c r="C93" s="102" t="s">
+      <c r="C93" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="D93" s="102" t="s">
+      <c r="D93" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="E93" s="61" t="s">
+      <c r="E93" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="60"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="103">
+      <c r="F93" s="57"/>
+      <c r="G93" s="100"/>
+      <c r="H93" s="100">
         <v>13621000</v>
       </c>
-      <c r="I93" s="63">
+      <c r="I93" s="60">
         <f t="shared" si="5"/>
         <v>116214300</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M93" s="99">
+      <c r="M93" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5122,28 +5119,28 @@
         <f t="shared" si="4"/>
         <v>91</v>
       </c>
-      <c r="B94" s="59">
+      <c r="B94" s="56">
         <v>42908</v>
       </c>
-      <c r="C94" s="102" t="s">
+      <c r="C94" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="102" t="s">
+      <c r="D94" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="E94" s="61" t="s">
+      <c r="E94" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="60"/>
-      <c r="G94" s="103"/>
-      <c r="H94" s="103">
+      <c r="F94" s="57"/>
+      <c r="G94" s="100"/>
+      <c r="H94" s="100">
         <v>6500</v>
       </c>
-      <c r="I94" s="63">
+      <c r="I94" s="60">
         <f t="shared" si="5"/>
         <v>116207800</v>
       </c>
-      <c r="M94" s="99">
+      <c r="M94" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5153,28 +5150,28 @@
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="B95" s="59">
+      <c r="B95" s="56">
         <v>42908</v>
       </c>
-      <c r="C95" s="102" t="s">
+      <c r="C95" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="D95" s="102" t="s">
+      <c r="D95" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="E95" s="61" t="s">
+      <c r="E95" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="103"/>
-      <c r="H95" s="103">
+      <c r="F95" s="57"/>
+      <c r="G95" s="100"/>
+      <c r="H95" s="100">
         <v>2900000</v>
       </c>
-      <c r="I95" s="63">
+      <c r="I95" s="60">
         <f t="shared" si="5"/>
         <v>113307800</v>
       </c>
-      <c r="M95" s="99">
+      <c r="M95" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5184,28 +5181,28 @@
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="B96" s="59">
+      <c r="B96" s="56">
         <v>42908</v>
       </c>
-      <c r="C96" s="78" t="s">
+      <c r="C96" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="78" t="s">
+      <c r="D96" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="E96" s="71" t="s">
+      <c r="E96" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="70"/>
-      <c r="G96" s="79"/>
-      <c r="H96" s="79">
+      <c r="F96" s="67"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76">
         <v>20000000</v>
       </c>
-      <c r="I96" s="63">
+      <c r="I96" s="60">
         <f t="shared" si="5"/>
         <v>93307800</v>
       </c>
-      <c r="M96" s="99">
+      <c r="M96" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5218,25 +5215,25 @@
       <c r="B97" s="39">
         <v>42909</v>
       </c>
-      <c r="C97" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="104" t="s">
+      <c r="C97" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="101" t="s">
         <v>118</v>
       </c>
       <c r="E97" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="105"/>
-      <c r="G97" s="106">
+      <c r="F97" s="102"/>
+      <c r="G97" s="103">
         <v>25000000</v>
       </c>
-      <c r="H97" s="106"/>
-      <c r="I97" s="57">
+      <c r="H97" s="103"/>
+      <c r="I97" s="54">
         <f t="shared" si="5"/>
         <v>118307800</v>
       </c>
-      <c r="M97" s="99">
+      <c r="M97" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5246,28 +5243,28 @@
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="B98" s="59">
+      <c r="B98" s="56">
         <v>42909</v>
       </c>
-      <c r="C98" s="78" t="s">
+      <c r="C98" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D98" s="78" t="s">
+      <c r="D98" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="E98" s="71" t="s">
+      <c r="E98" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F98" s="70"/>
-      <c r="G98" s="79"/>
-      <c r="H98" s="79">
+      <c r="F98" s="67"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76">
         <v>25000000</v>
       </c>
-      <c r="I98" s="63">
+      <c r="I98" s="60">
         <f t="shared" si="5"/>
         <v>93307800</v>
       </c>
-      <c r="M98" s="99">
+      <c r="M98" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5280,23 +5277,23 @@
       <c r="B99" s="39">
         <v>42909</v>
       </c>
-      <c r="C99" s="104" t="s">
+      <c r="C99" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D99" s="104"/>
+      <c r="D99" s="101"/>
       <c r="E99" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="105"/>
-      <c r="G99" s="106">
+      <c r="F99" s="102"/>
+      <c r="G99" s="103">
         <v>500000</v>
       </c>
-      <c r="H99" s="106"/>
-      <c r="I99" s="57">
+      <c r="H99" s="103"/>
+      <c r="I99" s="54">
         <f t="shared" si="5"/>
         <v>93807800</v>
       </c>
-      <c r="M99" s="99">
+      <c r="M99" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5309,25 +5306,25 @@
       <c r="B100" s="39">
         <v>42909</v>
       </c>
-      <c r="C100" s="104" t="s">
+      <c r="C100" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="104" t="s">
+      <c r="D100" s="101" t="s">
         <v>121</v>
       </c>
       <c r="E100" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F100" s="105"/>
-      <c r="G100" s="106">
+      <c r="F100" s="102"/>
+      <c r="G100" s="103">
         <v>100000</v>
       </c>
-      <c r="H100" s="106"/>
-      <c r="I100" s="57">
+      <c r="H100" s="103"/>
+      <c r="I100" s="54">
         <f t="shared" si="5"/>
         <v>93907800</v>
       </c>
-      <c r="M100" s="99">
+      <c r="M100" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5340,23 +5337,23 @@
       <c r="B101" s="39">
         <v>42909</v>
       </c>
-      <c r="C101" s="104" t="s">
+      <c r="C101" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="104"/>
+      <c r="D101" s="101"/>
       <c r="E101" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F101" s="105"/>
-      <c r="G101" s="106">
+      <c r="F101" s="102"/>
+      <c r="G101" s="103">
         <v>500000</v>
       </c>
-      <c r="H101" s="106"/>
-      <c r="I101" s="57">
+      <c r="H101" s="103"/>
+      <c r="I101" s="54">
         <f t="shared" si="5"/>
         <v>94407800</v>
       </c>
-      <c r="M101" s="99">
+      <c r="M101" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5369,23 +5366,23 @@
       <c r="B102" s="39">
         <v>42909</v>
       </c>
-      <c r="C102" s="104" t="s">
+      <c r="C102" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="D102" s="104"/>
+      <c r="D102" s="101"/>
       <c r="E102" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F102" s="105"/>
-      <c r="G102" s="106">
+      <c r="F102" s="102"/>
+      <c r="G102" s="103">
         <v>250000</v>
       </c>
-      <c r="H102" s="106"/>
-      <c r="I102" s="57">
+      <c r="H102" s="103"/>
+      <c r="I102" s="54">
         <f t="shared" si="5"/>
         <v>94657800</v>
       </c>
-      <c r="M102" s="99">
+      <c r="M102" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5398,23 +5395,23 @@
       <c r="B103" s="39">
         <v>42909</v>
       </c>
-      <c r="C103" s="104" t="s">
+      <c r="C103" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="104"/>
+      <c r="D103" s="101"/>
       <c r="E103" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="105"/>
-      <c r="G103" s="106">
+      <c r="F103" s="102"/>
+      <c r="G103" s="103">
         <v>370100</v>
       </c>
-      <c r="H103" s="106"/>
-      <c r="I103" s="57">
+      <c r="H103" s="103"/>
+      <c r="I103" s="54">
         <f t="shared" si="5"/>
         <v>95027900</v>
       </c>
-      <c r="M103" s="99">
+      <c r="M103" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5427,25 +5424,25 @@
       <c r="B104" s="39">
         <v>42909</v>
       </c>
-      <c r="C104" s="104" t="s">
+      <c r="C104" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="104" t="s">
+      <c r="D104" s="101" t="s">
         <v>125</v>
       </c>
       <c r="E104" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="105"/>
-      <c r="G104" s="106">
+      <c r="F104" s="102"/>
+      <c r="G104" s="103">
         <v>105000</v>
       </c>
-      <c r="H104" s="106"/>
-      <c r="I104" s="57">
+      <c r="H104" s="103"/>
+      <c r="I104" s="54">
         <f t="shared" si="5"/>
         <v>95132900</v>
       </c>
-      <c r="M104" s="99">
+      <c r="M104" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5458,23 +5455,23 @@
       <c r="B105" s="39">
         <v>42909</v>
       </c>
-      <c r="C105" s="104" t="s">
+      <c r="C105" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="D105" s="104"/>
+      <c r="D105" s="101"/>
       <c r="E105" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F105" s="105"/>
-      <c r="G105" s="106">
+      <c r="F105" s="102"/>
+      <c r="G105" s="103">
         <v>3000</v>
       </c>
-      <c r="H105" s="106"/>
-      <c r="I105" s="57">
+      <c r="H105" s="103"/>
+      <c r="I105" s="54">
         <f t="shared" si="5"/>
         <v>95135900</v>
       </c>
-      <c r="M105" s="99">
+      <c r="M105" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5487,23 +5484,23 @@
       <c r="B106" s="39">
         <v>42909</v>
       </c>
-      <c r="C106" s="104" t="s">
+      <c r="C106" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="104"/>
+      <c r="D106" s="101"/>
       <c r="E106" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="105"/>
-      <c r="G106" s="106">
+      <c r="F106" s="102"/>
+      <c r="G106" s="103">
         <v>250000</v>
       </c>
-      <c r="H106" s="106"/>
-      <c r="I106" s="57">
+      <c r="H106" s="103"/>
+      <c r="I106" s="54">
         <f t="shared" si="5"/>
         <v>95385900</v>
       </c>
-      <c r="M106" s="99">
+      <c r="M106" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5516,23 +5513,23 @@
       <c r="B107" s="39">
         <v>42909</v>
       </c>
-      <c r="C107" s="104" t="s">
+      <c r="C107" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="104"/>
+      <c r="D107" s="101"/>
       <c r="E107" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F107" s="105"/>
-      <c r="G107" s="106">
+      <c r="F107" s="102"/>
+      <c r="G107" s="103">
         <v>30000</v>
       </c>
-      <c r="H107" s="106"/>
-      <c r="I107" s="57">
+      <c r="H107" s="103"/>
+      <c r="I107" s="54">
         <f t="shared" si="5"/>
         <v>95415900</v>
       </c>
-      <c r="M107" s="99">
+      <c r="M107" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5545,25 +5542,25 @@
       <c r="B108" s="39">
         <v>42909</v>
       </c>
-      <c r="C108" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="104" t="s">
+      <c r="C108" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="101" t="s">
         <v>108</v>
       </c>
       <c r="E108" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F108" s="105"/>
-      <c r="G108" s="106">
+      <c r="F108" s="102"/>
+      <c r="G108" s="103">
         <v>3500000</v>
       </c>
-      <c r="H108" s="106"/>
-      <c r="I108" s="57">
+      <c r="H108" s="103"/>
+      <c r="I108" s="54">
         <f t="shared" si="5"/>
         <v>98915900</v>
       </c>
-      <c r="M108" s="99">
+      <c r="M108" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5576,180 +5573,180 @@
       <c r="B109" s="39">
         <v>42928</v>
       </c>
-      <c r="C109" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="104" t="s">
+      <c r="C109" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="101" t="s">
         <v>128</v>
       </c>
       <c r="E109" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F109" s="105"/>
-      <c r="G109" s="106">
+      <c r="F109" s="102"/>
+      <c r="G109" s="103">
         <v>3000000</v>
       </c>
-      <c r="H109" s="106"/>
-      <c r="I109" s="57">
+      <c r="H109" s="103"/>
+      <c r="I109" s="54">
         <f t="shared" si="5"/>
         <v>101915900</v>
       </c>
-      <c r="M109" s="99">
+      <c r="M109" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="50">
+      <c r="A110" s="47">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="B110" s="59">
+      <c r="B110" s="56">
         <v>42931</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C110" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D110" s="78" t="s">
+      <c r="D110" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="E110" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="70"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="79">
+      <c r="E110" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="67"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76">
         <v>5000000</v>
       </c>
-      <c r="I110" s="63">
+      <c r="I110" s="60">
         <f t="shared" si="5"/>
         <v>96915900</v>
       </c>
-      <c r="M110" s="99">
+      <c r="M110" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" ht="45" spans="1:13">
-      <c r="A111" s="50">
+      <c r="A111" s="47">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="B111" s="59">
+      <c r="B111" s="56">
         <v>42932</v>
       </c>
-      <c r="C111" s="78" t="s">
+      <c r="C111" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D111" s="78" t="s">
+      <c r="D111" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="E111" s="71" t="s">
+      <c r="E111" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F111" s="70"/>
-      <c r="G111" s="79"/>
-      <c r="H111" s="79">
+      <c r="F111" s="67"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76">
         <v>1550000</v>
       </c>
-      <c r="I111" s="63">
+      <c r="I111" s="60">
         <f t="shared" si="5"/>
         <v>95365900</v>
       </c>
-      <c r="M111" s="99">
+      <c r="M111" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" ht="30" spans="1:13">
-      <c r="A112" s="50">
+      <c r="A112" s="47">
         <f t="shared" si="4"/>
         <v>109</v>
       </c>
-      <c r="B112" s="59">
+      <c r="B112" s="56">
         <v>42934</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="C112" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D112" s="78" t="s">
+      <c r="D112" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="E112" s="71" t="s">
+      <c r="E112" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="70"/>
-      <c r="G112" s="79"/>
-      <c r="H112" s="79">
+      <c r="F112" s="67"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76">
         <v>25000000</v>
       </c>
-      <c r="I112" s="63">
+      <c r="I112" s="60">
         <f t="shared" si="5"/>
         <v>70365900</v>
       </c>
-      <c r="M112" s="99">
+      <c r="M112" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" ht="30" spans="1:13">
-      <c r="A113" s="50">
+      <c r="A113" s="47">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="B113" s="59">
+      <c r="B113" s="56">
         <v>42935</v>
       </c>
-      <c r="C113" s="78" t="s">
+      <c r="C113" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D113" s="78" t="s">
+      <c r="D113" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="E113" s="71" t="s">
+      <c r="E113" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="70"/>
-      <c r="G113" s="79"/>
-      <c r="H113" s="79">
+      <c r="F113" s="67"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76">
         <v>25000000</v>
       </c>
-      <c r="I113" s="63">
+      <c r="I113" s="60">
         <f t="shared" si="5"/>
         <v>45365900</v>
       </c>
-      <c r="M113" s="99">
+      <c r="M113" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" ht="30" spans="1:13">
-      <c r="A114" s="50">
+      <c r="A114" s="47">
         <f t="shared" si="4"/>
         <v>111</v>
       </c>
-      <c r="B114" s="59">
+      <c r="B114" s="56">
         <v>42939</v>
       </c>
-      <c r="C114" s="78" t="s">
+      <c r="C114" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D114" s="78" t="s">
+      <c r="D114" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="E114" s="71" t="s">
+      <c r="E114" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="70"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="79">
+      <c r="F114" s="67"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76">
         <v>25000000</v>
       </c>
-      <c r="I114" s="63">
+      <c r="I114" s="60">
         <f t="shared" si="5"/>
         <v>20365900</v>
       </c>
-      <c r="M114" s="99">
+      <c r="M114" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5759,25 +5756,25 @@
       <c r="B115" s="39">
         <v>42938</v>
       </c>
-      <c r="C115" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="104" t="s">
+      <c r="C115" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="101" t="s">
         <v>61</v>
       </c>
       <c r="E115" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="105"/>
-      <c r="G115" s="106">
+      <c r="F115" s="102"/>
+      <c r="G115" s="103">
         <v>10000</v>
       </c>
-      <c r="H115" s="106"/>
-      <c r="I115" s="83">
+      <c r="H115" s="103"/>
+      <c r="I115" s="80">
         <f t="shared" ref="I115:I121" si="6">I114+G115-H115</f>
         <v>20375900</v>
       </c>
-      <c r="M115" s="99">
+      <c r="M115" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5787,25 +5784,25 @@
       <c r="B116" s="39">
         <v>42938</v>
       </c>
-      <c r="C116" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="104" t="s">
+      <c r="C116" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="101" t="s">
         <v>84</v>
       </c>
       <c r="E116" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="105"/>
-      <c r="G116" s="106">
+      <c r="F116" s="102"/>
+      <c r="G116" s="103">
         <v>50000</v>
       </c>
-      <c r="H116" s="106"/>
-      <c r="I116" s="83">
+      <c r="H116" s="103"/>
+      <c r="I116" s="80">
         <f t="shared" si="6"/>
         <v>20425900</v>
       </c>
-      <c r="M116" s="99">
+      <c r="M116" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5818,25 +5815,25 @@
       <c r="B117" s="39">
         <v>42941</v>
       </c>
-      <c r="C117" s="104" t="s">
+      <c r="C117" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="D117" s="104" t="s">
+      <c r="D117" s="101" t="s">
         <v>95</v>
       </c>
       <c r="E117" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F117" s="105"/>
-      <c r="G117" s="106">
+      <c r="F117" s="102"/>
+      <c r="G117" s="103">
         <v>202200</v>
       </c>
-      <c r="H117" s="106"/>
-      <c r="I117" s="83">
+      <c r="H117" s="103"/>
+      <c r="I117" s="80">
         <f t="shared" si="6"/>
         <v>20628100</v>
       </c>
-      <c r="M117" s="99">
+      <c r="M117" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5846,25 +5843,25 @@
       <c r="B118" s="39">
         <v>42941</v>
       </c>
-      <c r="C118" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="104" t="s">
+      <c r="C118" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="101" t="s">
         <v>132</v>
       </c>
       <c r="E118" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="105"/>
-      <c r="G118" s="106">
+      <c r="F118" s="102"/>
+      <c r="G118" s="103">
         <v>500000</v>
       </c>
-      <c r="H118" s="106"/>
-      <c r="I118" s="83">
+      <c r="H118" s="103"/>
+      <c r="I118" s="80">
         <f t="shared" si="6"/>
         <v>21128100</v>
       </c>
-      <c r="M118" s="99">
+      <c r="M118" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5874,25 +5871,25 @@
       <c r="B119" s="39">
         <v>42941</v>
       </c>
-      <c r="C119" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="104" t="s">
+      <c r="C119" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="101" t="s">
         <v>133</v>
       </c>
       <c r="E119" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="105"/>
-      <c r="G119" s="106">
+      <c r="F119" s="102"/>
+      <c r="G119" s="103">
         <v>500000</v>
       </c>
-      <c r="H119" s="106"/>
-      <c r="I119" s="83">
+      <c r="H119" s="103"/>
+      <c r="I119" s="80">
         <f t="shared" si="6"/>
         <v>21628100</v>
       </c>
-      <c r="M119" s="99">
+      <c r="M119" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5902,25 +5899,25 @@
       <c r="B120" s="39">
         <v>42941</v>
       </c>
-      <c r="C120" s="104" t="s">
+      <c r="C120" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="104" t="s">
+      <c r="D120" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E120" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F120" s="105"/>
-      <c r="G120" s="106">
+      <c r="F120" s="102"/>
+      <c r="G120" s="103">
         <v>30000</v>
       </c>
-      <c r="H120" s="106"/>
-      <c r="I120" s="83">
+      <c r="H120" s="103"/>
+      <c r="I120" s="80">
         <f t="shared" si="6"/>
         <v>21658100</v>
       </c>
-      <c r="M120" s="99">
+      <c r="M120" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5930,53 +5927,53 @@
       <c r="B121" s="39">
         <v>42941</v>
       </c>
-      <c r="C121" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="104" t="s">
+      <c r="C121" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="101" t="s">
         <v>97</v>
       </c>
       <c r="E121" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="105"/>
-      <c r="G121" s="106">
+      <c r="F121" s="102"/>
+      <c r="G121" s="103">
         <v>200000</v>
       </c>
-      <c r="H121" s="106"/>
-      <c r="I121" s="83">
+      <c r="H121" s="103"/>
+      <c r="I121" s="80">
         <f t="shared" si="6"/>
         <v>21858100</v>
       </c>
-      <c r="M121" s="99">
+      <c r="M121" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" ht="30" spans="1:13">
       <c r="A122" s="40"/>
-      <c r="B122" s="59">
+      <c r="B122" s="56">
         <v>42941</v>
       </c>
-      <c r="C122" s="78" t="s">
+      <c r="C122" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="D122" s="78" t="s">
+      <c r="D122" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="E122" s="71" t="s">
+      <c r="E122" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F122" s="70"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79">
+      <c r="F122" s="67"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76">
         <v>10000000</v>
       </c>
-      <c r="I122" s="63">
+      <c r="I122" s="60">
         <f t="shared" ref="I122:I129" si="7">I121+G122-H122</f>
         <v>11858100</v>
       </c>
-      <c r="M122" s="99">
+      <c r="M122" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -5986,25 +5983,25 @@
       <c r="B123" s="39">
         <v>42941</v>
       </c>
-      <c r="C123" s="104" t="s">
+      <c r="C123" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="D123" s="104" t="s">
+      <c r="D123" s="101" t="s">
         <v>135</v>
       </c>
       <c r="E123" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="105"/>
-      <c r="G123" s="106">
+      <c r="F123" s="102"/>
+      <c r="G123" s="103">
         <v>12000000</v>
       </c>
-      <c r="H123" s="106"/>
-      <c r="I123" s="83">
+      <c r="H123" s="103"/>
+      <c r="I123" s="80">
         <f t="shared" si="7"/>
         <v>23858100</v>
       </c>
-      <c r="M123" s="99">
+      <c r="M123" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6014,53 +6011,53 @@
       <c r="B124" s="39">
         <v>42942</v>
       </c>
-      <c r="C124" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="104" t="s">
+      <c r="C124" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="101" t="s">
         <v>29</v>
       </c>
       <c r="E124" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F124" s="105"/>
-      <c r="G124" s="106">
+      <c r="F124" s="102"/>
+      <c r="G124" s="103">
         <v>1000000</v>
       </c>
-      <c r="H124" s="106"/>
-      <c r="I124" s="83">
+      <c r="H124" s="103"/>
+      <c r="I124" s="80">
         <f t="shared" si="7"/>
         <v>24858100</v>
       </c>
-      <c r="M124" s="99">
+      <c r="M124" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="40"/>
-      <c r="B125" s="59">
+      <c r="B125" s="56">
         <v>42942</v>
       </c>
-      <c r="C125" s="78" t="s">
+      <c r="C125" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="78" t="s">
+      <c r="D125" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="E125" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="70"/>
-      <c r="G125" s="79"/>
-      <c r="H125" s="79">
+      <c r="E125" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="67"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76">
         <v>12000000</v>
       </c>
-      <c r="I125" s="63">
+      <c r="I125" s="60">
         <f t="shared" si="7"/>
         <v>12858100</v>
       </c>
-      <c r="M125" s="99">
+      <c r="M125" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6070,25 +6067,25 @@
       <c r="B126" s="39">
         <v>42949</v>
       </c>
-      <c r="C126" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="104" t="s">
+      <c r="C126" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="101" t="s">
         <v>13</v>
       </c>
       <c r="E126" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="105"/>
-      <c r="G126" s="106">
+      <c r="F126" s="102"/>
+      <c r="G126" s="103">
         <v>1000000</v>
       </c>
-      <c r="H126" s="106"/>
-      <c r="I126" s="83">
+      <c r="H126" s="103"/>
+      <c r="I126" s="80">
         <f t="shared" si="7"/>
         <v>13858100</v>
       </c>
-      <c r="M126" s="99">
+      <c r="M126" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6098,53 +6095,53 @@
       <c r="B127" s="39">
         <v>42956</v>
       </c>
-      <c r="C127" s="104" t="s">
+      <c r="C127" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="D127" s="104" t="s">
+      <c r="D127" s="101" t="s">
         <v>136</v>
       </c>
       <c r="E127" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="105"/>
-      <c r="G127" s="106"/>
-      <c r="H127" s="106">
+      <c r="F127" s="102"/>
+      <c r="G127" s="103"/>
+      <c r="H127" s="103">
         <v>1400000</v>
       </c>
-      <c r="I127" s="83">
+      <c r="I127" s="80">
         <f t="shared" si="7"/>
         <v>12458100</v>
       </c>
-      <c r="M127" s="99">
+      <c r="M127" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" ht="45" spans="1:13">
       <c r="A128" s="40"/>
-      <c r="B128" s="59">
+      <c r="B128" s="56">
         <v>42956</v>
       </c>
-      <c r="C128" s="78" t="s">
+      <c r="C128" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="D128" s="78" t="s">
+      <c r="D128" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="E128" s="71" t="s">
+      <c r="E128" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="70"/>
-      <c r="G128" s="79"/>
-      <c r="H128" s="79">
+      <c r="F128" s="67"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76">
         <v>10000000</v>
       </c>
-      <c r="I128" s="63">
+      <c r="I128" s="60">
         <f t="shared" si="7"/>
         <v>2458100</v>
       </c>
-      <c r="M128" s="99">
+      <c r="M128" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6154,60 +6151,60 @@
       <c r="B129" s="39">
         <v>42961</v>
       </c>
-      <c r="C129" s="104" t="s">
+      <c r="C129" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="D129" s="104" t="s">
+      <c r="D129" s="101" t="s">
         <v>138</v>
       </c>
       <c r="E129" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F129" s="105"/>
-      <c r="G129" s="106">
-        <v>0</v>
-      </c>
-      <c r="H129" s="106"/>
-      <c r="I129" s="83">
+      <c r="F129" s="102"/>
+      <c r="G129" s="103">
+        <v>0</v>
+      </c>
+      <c r="H129" s="103"/>
+      <c r="I129" s="80">
         <f t="shared" si="7"/>
         <v>2458100</v>
       </c>
-      <c r="K129" s="126"/>
-      <c r="M129" s="99">
+      <c r="K129" s="123"/>
+      <c r="M129" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" ht="45" spans="1:13">
       <c r="A130" s="40"/>
-      <c r="B130" s="107">
+      <c r="B130" s="104">
         <v>42961</v>
       </c>
-      <c r="C130" s="108" t="s">
+      <c r="C130" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="D130" s="108" t="s">
+      <c r="D130" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="E130" s="109" t="s">
+      <c r="E130" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="110">
+      <c r="F130" s="107">
         <v>1</v>
       </c>
-      <c r="G130" s="111"/>
-      <c r="H130" s="111">
+      <c r="G130" s="108"/>
+      <c r="H130" s="108">
         <v>6000000</v>
       </c>
-      <c r="I130" s="127">
+      <c r="I130" s="124">
         <f t="shared" ref="I130:I135" si="8">I129+G130-H130</f>
         <v>-3541900</v>
       </c>
-      <c r="K130" s="126">
+      <c r="K130" s="123">
         <f>H130</f>
         <v>6000000</v>
       </c>
-      <c r="M130" s="99">
+      <c r="M130" s="96">
         <f t="shared" si="3"/>
         <v>6000000</v>
       </c>
@@ -6217,26 +6214,26 @@
       <c r="B131" s="39">
         <v>42966</v>
       </c>
-      <c r="C131" s="104" t="s">
+      <c r="C131" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="D131" s="104" t="s">
+      <c r="D131" s="101" t="s">
         <v>138</v>
       </c>
       <c r="E131" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="105"/>
-      <c r="G131" s="106">
-        <v>0</v>
-      </c>
-      <c r="H131" s="106"/>
-      <c r="I131" s="83">
+      <c r="F131" s="102"/>
+      <c r="G131" s="103">
+        <v>0</v>
+      </c>
+      <c r="H131" s="103"/>
+      <c r="I131" s="80">
         <f t="shared" si="8"/>
         <v>-3541900</v>
       </c>
-      <c r="K131" s="126"/>
-      <c r="M131" s="99">
+      <c r="K131" s="123"/>
+      <c r="M131" s="96">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6246,60 +6243,60 @@
       <c r="B132" s="39">
         <v>42966</v>
       </c>
-      <c r="C132" s="104" t="s">
+      <c r="C132" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D132" s="104" t="s">
+      <c r="D132" s="101" t="s">
         <v>140</v>
       </c>
       <c r="E132" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F132" s="105"/>
-      <c r="G132" s="106"/>
-      <c r="H132" s="106">
+      <c r="F132" s="102"/>
+      <c r="G132" s="103"/>
+      <c r="H132" s="103">
         <v>1000000</v>
       </c>
-      <c r="I132" s="83">
+      <c r="I132" s="80">
         <f t="shared" si="8"/>
         <v>-4541900</v>
       </c>
-      <c r="K132" s="126"/>
-      <c r="M132" s="99">
+      <c r="K132" s="123"/>
+      <c r="M132" s="96">
         <f t="shared" ref="M132:M151" si="9">F132*H132</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" ht="30" spans="1:13">
       <c r="A133" s="40"/>
-      <c r="B133" s="107">
+      <c r="B133" s="104">
         <v>42966</v>
       </c>
-      <c r="C133" s="108" t="s">
+      <c r="C133" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="D133" s="108" t="s">
+      <c r="D133" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="E133" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="110">
+      <c r="E133" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" s="107">
         <v>1</v>
       </c>
-      <c r="G133" s="111"/>
-      <c r="H133" s="111">
+      <c r="G133" s="108"/>
+      <c r="H133" s="108">
         <v>1000000</v>
       </c>
-      <c r="I133" s="83">
+      <c r="I133" s="80">
         <f t="shared" si="8"/>
         <v>-5541900</v>
       </c>
-      <c r="K133" s="126">
+      <c r="K133" s="123">
         <f>H133</f>
         <v>1000000</v>
       </c>
-      <c r="M133" s="99">
+      <c r="M133" s="96">
         <f t="shared" si="9"/>
         <v>1000000</v>
       </c>
@@ -6309,26 +6306,26 @@
       <c r="B134" s="39">
         <v>42967</v>
       </c>
-      <c r="C134" s="104" t="s">
+      <c r="C134" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="D134" s="104" t="s">
+      <c r="D134" s="101" t="s">
         <v>142</v>
       </c>
       <c r="E134" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F134" s="105"/>
-      <c r="G134" s="106">
+      <c r="F134" s="102"/>
+      <c r="G134" s="103">
         <v>194000</v>
       </c>
-      <c r="H134" s="106"/>
-      <c r="I134" s="83">
+      <c r="H134" s="103"/>
+      <c r="I134" s="80">
         <f t="shared" si="8"/>
         <v>-5347900</v>
       </c>
-      <c r="K134" s="126"/>
-      <c r="M134" s="99">
+      <c r="K134" s="123"/>
+      <c r="M134" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6338,26 +6335,26 @@
       <c r="B135" s="39">
         <v>42967</v>
       </c>
-      <c r="C135" s="104" t="s">
+      <c r="C135" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="D135" s="104" t="s">
+      <c r="D135" s="101" t="s">
         <v>127</v>
       </c>
       <c r="E135" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F135" s="105"/>
-      <c r="G135" s="106">
+      <c r="F135" s="102"/>
+      <c r="G135" s="103">
         <v>33000</v>
       </c>
-      <c r="H135" s="106"/>
-      <c r="I135" s="83">
+      <c r="H135" s="103"/>
+      <c r="I135" s="80">
         <f t="shared" si="8"/>
         <v>-5314900</v>
       </c>
-      <c r="K135" s="126"/>
-      <c r="M135" s="99">
+      <c r="K135" s="123"/>
+      <c r="M135" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6367,26 +6364,26 @@
       <c r="B136" s="39">
         <v>42967</v>
       </c>
-      <c r="C136" s="104" t="s">
+      <c r="C136" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="D136" s="104" t="s">
+      <c r="D136" s="101" t="s">
         <v>143</v>
       </c>
       <c r="E136" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="105"/>
-      <c r="G136" s="106">
+      <c r="F136" s="102"/>
+      <c r="G136" s="103">
         <v>970000</v>
       </c>
-      <c r="H136" s="106"/>
-      <c r="I136" s="83">
+      <c r="H136" s="103"/>
+      <c r="I136" s="80">
         <f t="shared" ref="I136:I154" si="10">I135+G136-H136</f>
         <v>-4344900</v>
       </c>
-      <c r="K136" s="126"/>
-      <c r="M136" s="99">
+      <c r="K136" s="123"/>
+      <c r="M136" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6396,26 +6393,26 @@
       <c r="B137" s="39">
         <v>42971</v>
       </c>
-      <c r="C137" s="104" t="s">
+      <c r="C137" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="D137" s="104" t="s">
+      <c r="D137" s="101" t="s">
         <v>138</v>
       </c>
       <c r="E137" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F137" s="105"/>
-      <c r="G137" s="106">
-        <v>0</v>
-      </c>
-      <c r="H137" s="106"/>
-      <c r="I137" s="83">
+      <c r="F137" s="102"/>
+      <c r="G137" s="103">
+        <v>0</v>
+      </c>
+      <c r="H137" s="103"/>
+      <c r="I137" s="80">
         <f t="shared" si="10"/>
         <v>-4344900</v>
       </c>
-      <c r="K137" s="126"/>
-      <c r="M137" s="99">
+      <c r="K137" s="123"/>
+      <c r="M137" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6425,31 +6422,31 @@
         <f>A117+1</f>
         <v>113</v>
       </c>
-      <c r="B138" s="112">
+      <c r="B138" s="109">
         <v>42971</v>
       </c>
-      <c r="C138" s="108" t="s">
+      <c r="C138" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="D138" s="108" t="s">
+      <c r="D138" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="E138" s="109" t="s">
+      <c r="E138" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F138" s="110">
+      <c r="F138" s="107">
         <v>1</v>
       </c>
-      <c r="G138" s="111"/>
-      <c r="H138" s="111">
+      <c r="G138" s="108"/>
+      <c r="H138" s="108">
         <v>4000000</v>
       </c>
-      <c r="I138" s="128">
+      <c r="I138" s="125">
         <f t="shared" si="10"/>
         <v>-8344900</v>
       </c>
-      <c r="K138" s="126"/>
-      <c r="M138" s="99">
+      <c r="K138" s="123"/>
+      <c r="M138" s="96">
         <f t="shared" si="9"/>
         <v>4000000</v>
       </c>
@@ -6459,55 +6456,55 @@
       <c r="B139" s="39">
         <v>42973</v>
       </c>
-      <c r="C139" s="80" t="s">
+      <c r="C139" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D139" s="80" t="s">
+      <c r="D139" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="E139" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" s="113"/>
-      <c r="G139" s="82">
+      <c r="E139" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" s="110"/>
+      <c r="G139" s="79">
         <v>1000000</v>
       </c>
       <c r="H139" s="42"/>
-      <c r="I139" s="77">
+      <c r="I139" s="74">
         <f t="shared" si="10"/>
         <v>-7344900</v>
       </c>
-      <c r="K139" s="126"/>
-      <c r="M139" s="99">
+      <c r="K139" s="123"/>
+      <c r="M139" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" ht="45" spans="1:13">
       <c r="A140" s="40"/>
-      <c r="B140" s="107">
+      <c r="B140" s="104">
         <v>42975</v>
       </c>
-      <c r="C140" s="108" t="s">
+      <c r="C140" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="D140" s="108"/>
-      <c r="E140" s="109" t="s">
+      <c r="D140" s="105"/>
+      <c r="E140" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="110">
+      <c r="F140" s="107">
         <v>1</v>
       </c>
-      <c r="G140" s="111"/>
-      <c r="H140" s="114">
+      <c r="G140" s="108"/>
+      <c r="H140" s="111">
         <v>6000000</v>
       </c>
-      <c r="I140" s="77">
+      <c r="I140" s="74">
         <f t="shared" si="10"/>
         <v>-13344900</v>
       </c>
-      <c r="K140" s="126"/>
-      <c r="M140" s="99">
+      <c r="K140" s="123"/>
+      <c r="M140" s="96">
         <f t="shared" si="9"/>
         <v>6000000</v>
       </c>
@@ -6517,55 +6514,55 @@
       <c r="B141" s="39">
         <v>42977</v>
       </c>
-      <c r="C141" s="104" t="s">
+      <c r="C141" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="D141" s="80"/>
-      <c r="E141" s="81" t="s">
+      <c r="D141" s="77"/>
+      <c r="E141" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F141" s="113"/>
-      <c r="G141" s="82"/>
+      <c r="F141" s="110"/>
+      <c r="G141" s="79"/>
       <c r="H141" s="42">
         <v>12744000</v>
       </c>
-      <c r="I141" s="77">
+      <c r="I141" s="74">
         <f t="shared" si="10"/>
         <v>-26088900</v>
       </c>
-      <c r="K141" s="126"/>
-      <c r="M141" s="99">
+      <c r="K141" s="123"/>
+      <c r="M141" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="40"/>
-      <c r="B142" s="107">
+      <c r="B142" s="104">
         <v>42994</v>
       </c>
-      <c r="C142" s="115" t="s">
+      <c r="C142" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="D142" s="115" t="s">
+      <c r="D142" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E142" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="117">
+      <c r="E142" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" s="114">
         <v>1</v>
       </c>
-      <c r="G142" s="114"/>
-      <c r="H142" s="114">
+      <c r="G142" s="111"/>
+      <c r="H142" s="111">
         <v>4000000</v>
       </c>
-      <c r="I142" s="77">
+      <c r="I142" s="74">
         <f t="shared" si="10"/>
         <v>-30088900</v>
       </c>
-      <c r="K142" s="126"/>
-      <c r="M142" s="99">
+      <c r="K142" s="123"/>
+      <c r="M142" s="96">
         <f t="shared" si="9"/>
         <v>4000000</v>
       </c>
@@ -6575,10 +6572,10 @@
       <c r="B143" s="39">
         <v>42994</v>
       </c>
-      <c r="C143" s="88" t="s">
+      <c r="C143" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D143" s="88" t="s">
+      <c r="D143" s="85" t="s">
         <v>42</v>
       </c>
       <c r="E143" s="40" t="s">
@@ -6589,72 +6586,72 @@
       <c r="H143" s="42">
         <v>150000</v>
       </c>
-      <c r="I143" s="77">
+      <c r="I143" s="74">
         <f t="shared" si="10"/>
         <v>-30238900</v>
       </c>
-      <c r="K143" s="84"/>
-      <c r="M143" s="99">
+      <c r="K143" s="81"/>
+      <c r="M143" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="40"/>
-      <c r="B144" s="107">
+      <c r="B144" s="104">
         <v>43001</v>
       </c>
-      <c r="C144" s="115" t="s">
+      <c r="C144" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="115" t="s">
+      <c r="D144" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E144" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="117">
+      <c r="E144" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="114">
         <v>1</v>
       </c>
-      <c r="G144" s="114"/>
-      <c r="H144" s="114">
+      <c r="G144" s="111"/>
+      <c r="H144" s="111">
         <v>3000000</v>
       </c>
-      <c r="I144" s="77">
+      <c r="I144" s="74">
         <f t="shared" si="10"/>
         <v>-33238900</v>
       </c>
-      <c r="M144" s="99">
+      <c r="M144" s="96">
         <f t="shared" si="9"/>
         <v>3000000</v>
       </c>
     </row>
     <row r="145" ht="30" spans="1:13">
       <c r="A145" s="40"/>
-      <c r="B145" s="107">
+      <c r="B145" s="104">
         <v>43001</v>
       </c>
-      <c r="C145" s="115" t="s">
+      <c r="C145" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="D145" s="115" t="s">
+      <c r="D145" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="E145" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="117">
+      <c r="E145" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" s="114">
         <v>1</v>
       </c>
-      <c r="G145" s="114"/>
-      <c r="H145" s="114">
+      <c r="G145" s="111"/>
+      <c r="H145" s="111">
         <v>1600000</v>
       </c>
-      <c r="I145" s="77">
+      <c r="I145" s="74">
         <f t="shared" si="10"/>
         <v>-34838900</v>
       </c>
-      <c r="M145" s="99">
+      <c r="M145" s="96">
         <f t="shared" si="9"/>
         <v>1600000</v>
       </c>
@@ -6664,10 +6661,10 @@
       <c r="B146" s="39">
         <v>43003</v>
       </c>
-      <c r="C146" s="88" t="s">
+      <c r="C146" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="D146" s="88" t="s">
+      <c r="D146" s="85" t="s">
         <v>147</v>
       </c>
       <c r="E146" s="40" t="s">
@@ -6678,41 +6675,41 @@
         <v>902000</v>
       </c>
       <c r="H146" s="42"/>
-      <c r="I146" s="77">
+      <c r="I146" s="74">
         <f t="shared" si="10"/>
         <v>-33936900</v>
       </c>
-      <c r="M146" s="99">
+      <c r="M146" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="40"/>
-      <c r="B147" s="107">
+      <c r="B147" s="104">
         <v>43022</v>
       </c>
-      <c r="C147" s="115" t="s">
+      <c r="C147" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="D147" s="115" t="s">
+      <c r="D147" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E147" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="117">
+      <c r="E147" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="114">
         <v>1</v>
       </c>
-      <c r="G147" s="114"/>
-      <c r="H147" s="114">
+      <c r="G147" s="111"/>
+      <c r="H147" s="111">
         <v>3000000</v>
       </c>
-      <c r="I147" s="77">
+      <c r="I147" s="74">
         <f t="shared" si="10"/>
         <v>-36936900</v>
       </c>
-      <c r="M147" s="99">
+      <c r="M147" s="96">
         <f t="shared" si="9"/>
         <v>3000000</v>
       </c>
@@ -6720,17 +6717,17 @@
     <row r="148" spans="1:13">
       <c r="A148" s="40"/>
       <c r="B148" s="39"/>
-      <c r="C148" s="88"/>
-      <c r="D148" s="88"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
       <c r="E148" s="40"/>
       <c r="F148" s="36"/>
       <c r="G148" s="42"/>
       <c r="H148" s="42"/>
-      <c r="I148" s="77">
+      <c r="I148" s="74">
         <f t="shared" si="10"/>
         <v>-36936900</v>
       </c>
-      <c r="M148" s="99">
+      <c r="M148" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6740,10 +6737,10 @@
       <c r="B149" s="39">
         <v>43027</v>
       </c>
-      <c r="C149" s="88" t="s">
+      <c r="C149" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="D149" s="88" t="s">
+      <c r="D149" s="85" t="s">
         <v>148</v>
       </c>
       <c r="E149" s="40" t="s">
@@ -6754,11 +6751,11 @@
         <v>2000</v>
       </c>
       <c r="H149" s="42"/>
-      <c r="I149" s="77">
+      <c r="I149" s="74">
         <f t="shared" si="10"/>
         <v>-36934900</v>
       </c>
-      <c r="M149" s="99">
+      <c r="M149" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -6768,10 +6765,10 @@
       <c r="B150" s="39">
         <v>43028</v>
       </c>
-      <c r="C150" s="88" t="s">
+      <c r="C150" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="D150" s="88" t="s">
+      <c r="D150" s="85" t="s">
         <v>149</v>
       </c>
       <c r="E150" s="40"/>
@@ -6780,37 +6777,37 @@
         <v>50000</v>
       </c>
       <c r="H150" s="42"/>
-      <c r="I150" s="77">
+      <c r="I150" s="74">
         <f t="shared" si="10"/>
         <v>-36884900</v>
       </c>
-      <c r="M150" s="99">
+      <c r="M150" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="118"/>
-      <c r="B151" s="119">
+      <c r="A151" s="115"/>
+      <c r="B151" s="116">
         <v>43029</v>
       </c>
-      <c r="C151" s="115" t="s">
+      <c r="C151" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="D151" s="115" t="s">
+      <c r="D151" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E151" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F151" s="117">
+      <c r="E151" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="114">
         <v>1</v>
       </c>
-      <c r="G151" s="114"/>
-      <c r="H151" s="114">
+      <c r="G151" s="111"/>
+      <c r="H151" s="111">
         <v>4000000</v>
       </c>
-      <c r="I151" s="77">
+      <c r="I151" s="74">
         <f t="shared" si="10"/>
         <v>-40884900</v>
       </c>
@@ -6818,20 +6815,20 @@
         <f>I151=I156</f>
         <v>0</v>
       </c>
-      <c r="M151" s="99">
+      <c r="M151" s="96">
         <f t="shared" si="9"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="118"/>
+      <c r="A152" s="115"/>
       <c r="B152" s="39">
         <v>43031</v>
       </c>
-      <c r="C152" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="88" t="s">
+      <c r="C152" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="85" t="s">
         <v>150</v>
       </c>
       <c r="E152" s="40"/>
@@ -6840,90 +6837,90 @@
         <v>200000</v>
       </c>
       <c r="H152" s="42"/>
-      <c r="I152" s="77">
+      <c r="I152" s="74">
         <f t="shared" si="10"/>
         <v>-40684900</v>
       </c>
-      <c r="M152" s="99"/>
+      <c r="M152" s="96"/>
     </row>
     <row r="153" ht="30" spans="1:13">
-      <c r="A153" s="118"/>
-      <c r="B153" s="107">
+      <c r="A153" s="115"/>
+      <c r="B153" s="104">
         <v>43001</v>
       </c>
-      <c r="C153" s="115" t="s">
+      <c r="C153" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="D153" s="115" t="s">
+      <c r="D153" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="E153" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="117">
+      <c r="E153" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="114">
         <v>1</v>
       </c>
-      <c r="G153" s="114"/>
-      <c r="H153" s="114">
+      <c r="G153" s="111"/>
+      <c r="H153" s="111">
         <v>1600000</v>
       </c>
-      <c r="I153" s="77">
+      <c r="I153" s="74">
         <f t="shared" si="10"/>
         <v>-42284900</v>
       </c>
-      <c r="M153" s="99"/>
+      <c r="M153" s="96"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="118"/>
-      <c r="B154" s="119">
+      <c r="A154" s="115"/>
+      <c r="B154" s="116">
         <v>43036</v>
       </c>
-      <c r="C154" s="115" t="s">
+      <c r="C154" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="D154" s="115" t="s">
+      <c r="D154" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E154" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="117">
+      <c r="E154" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="114">
         <v>1</v>
       </c>
-      <c r="G154" s="120"/>
-      <c r="H154" s="120">
+      <c r="G154" s="117"/>
+      <c r="H154" s="117">
         <v>1500000</v>
       </c>
-      <c r="I154" s="77">
+      <c r="I154" s="74">
         <f t="shared" si="10"/>
         <v>-43784900</v>
       </c>
-      <c r="M154" s="99"/>
+      <c r="M154" s="96"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="118"/>
-      <c r="I155" s="129"/>
-      <c r="M155" s="99"/>
+      <c r="A155" s="115"/>
+      <c r="I155" s="126"/>
+      <c r="M155" s="96"/>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="118">
+      <c r="A156" s="115">
         <f>A138+1</f>
         <v>114</v>
       </c>
-      <c r="B156" s="121"/>
-      <c r="C156" s="122"/>
-      <c r="D156" s="122"/>
-      <c r="E156" s="121"/>
-      <c r="F156" s="123"/>
-      <c r="G156" s="124">
+      <c r="B156" s="118"/>
+      <c r="C156" s="119"/>
+      <c r="D156" s="119"/>
+      <c r="E156" s="118"/>
+      <c r="F156" s="120"/>
+      <c r="G156" s="121">
         <f>SUM(G4:G154)</f>
         <v>214786600</v>
       </c>
-      <c r="H156" s="125">
+      <c r="H156" s="122">
         <f>SUM(H4:H154)</f>
         <v>258571500</v>
       </c>
-      <c r="I156" s="124">
+      <c r="I156" s="121">
         <f>G156-H156</f>
         <v>-43784900</v>
       </c>
@@ -6978,54 +6975,54 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:8">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="40">
@@ -7043,11 +7040,11 @@
       <c r="E4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="53">
         <v>500000</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57">
+      <c r="G4" s="53"/>
+      <c r="H4" s="54">
         <f>F4-G4</f>
         <v>500000</v>
       </c>
@@ -7069,11 +7066,11 @@
       <c r="E5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="53">
         <v>1000000</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57">
+      <c r="G5" s="53"/>
+      <c r="H5" s="54">
         <f>H4+F5-G5</f>
         <v>1500000</v>
       </c>
@@ -7086,7 +7083,7 @@
       <c r="B6" s="39">
         <v>42851</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="36" t="s">
@@ -7095,11 +7092,11 @@
       <c r="E6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="53">
         <v>25000000</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57">
+      <c r="G6" s="53"/>
+      <c r="H6" s="54">
         <f t="shared" ref="H6:H39" si="1">H5+F6-G6</f>
         <v>26500000</v>
       </c>
@@ -7112,20 +7109,20 @@
       <c r="B7" s="39">
         <v>42851</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="53">
         <v>2000000</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57">
+      <c r="G7" s="53"/>
+      <c r="H7" s="54">
         <f t="shared" si="1"/>
         <v>28500000</v>
       </c>
@@ -7138,7 +7135,7 @@
       <c r="B8" s="39">
         <v>42853</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -7147,11 +7144,11 @@
       <c r="E8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="53">
         <v>250000</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57">
+      <c r="G8" s="53"/>
+      <c r="H8" s="54">
         <f t="shared" si="1"/>
         <v>28750000</v>
       </c>
@@ -7173,11 +7170,11 @@
       <c r="E9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="53">
         <v>500000</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57">
+      <c r="G9" s="53"/>
+      <c r="H9" s="54">
         <f t="shared" si="1"/>
         <v>29250000</v>
       </c>
@@ -7199,11 +7196,11 @@
       <c r="E10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="53">
         <v>1000000</v>
       </c>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57">
+      <c r="G10" s="53"/>
+      <c r="H10" s="54">
         <f t="shared" si="1"/>
         <v>30250000</v>
       </c>
@@ -7225,11 +7222,11 @@
       <c r="E11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="53">
         <v>1000000</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57">
+      <c r="G11" s="53"/>
+      <c r="H11" s="54">
         <f t="shared" si="1"/>
         <v>31250000</v>
       </c>
@@ -7251,11 +7248,11 @@
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="53">
         <v>50000</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57">
+      <c r="G12" s="53"/>
+      <c r="H12" s="54">
         <f t="shared" si="1"/>
         <v>31300000</v>
       </c>
@@ -7265,23 +7262,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="56">
         <v>42856</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62">
+      <c r="F13" s="59"/>
+      <c r="G13" s="59">
         <v>25000000</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="60">
         <f t="shared" si="1"/>
         <v>6300000</v>
       </c>
@@ -7303,11 +7300,11 @@
       <c r="E14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="53">
         <v>100000</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="64">
+      <c r="G14" s="53"/>
+      <c r="H14" s="61">
         <f t="shared" si="1"/>
         <v>6400000</v>
       </c>
@@ -7329,11 +7326,11 @@
       <c r="E15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="53">
         <v>100000</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="64">
+      <c r="G15" s="53"/>
+      <c r="H15" s="61">
         <f t="shared" si="1"/>
         <v>6500000</v>
       </c>
@@ -7355,11 +7352,11 @@
       <c r="E16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="53">
         <v>500000</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="64">
+      <c r="G16" s="53"/>
+      <c r="H16" s="61">
         <f t="shared" si="1"/>
         <v>7000000</v>
       </c>
@@ -7381,11 +7378,11 @@
       <c r="E17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="53">
         <v>500000</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="64">
+      <c r="G17" s="53"/>
+      <c r="H17" s="61">
         <f t="shared" si="1"/>
         <v>7500000</v>
       </c>
@@ -7407,11 +7404,11 @@
       <c r="E18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="53">
         <v>50000</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="64">
+      <c r="G18" s="53"/>
+      <c r="H18" s="61">
         <f t="shared" si="1"/>
         <v>7550000</v>
       </c>
@@ -7433,11 +7430,11 @@
       <c r="E19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="53">
         <v>50000</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="64">
+      <c r="G19" s="53"/>
+      <c r="H19" s="61">
         <f t="shared" si="1"/>
         <v>7600000</v>
       </c>
@@ -7459,11 +7456,11 @@
       <c r="E20" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="53">
         <v>500000</v>
       </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="64">
+      <c r="G20" s="53"/>
+      <c r="H20" s="61">
         <f t="shared" si="1"/>
         <v>8100000</v>
       </c>
@@ -7488,8 +7485,8 @@
       <c r="F21" s="42">
         <v>12000</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="64">
+      <c r="G21" s="53"/>
+      <c r="H21" s="61">
         <f t="shared" si="1"/>
         <v>8112000</v>
       </c>
@@ -7511,11 +7508,11 @@
       <c r="E22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="53">
         <v>100000</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="64">
+      <c r="G22" s="53"/>
+      <c r="H22" s="61">
         <f t="shared" si="1"/>
         <v>8212000</v>
       </c>
@@ -7537,11 +7534,11 @@
       <c r="E23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="56">
+      <c r="F23" s="53">
         <v>85200</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="64">
+      <c r="G23" s="53"/>
+      <c r="H23" s="61">
         <f t="shared" si="1"/>
         <v>8297200</v>
       </c>
@@ -7563,11 +7560,11 @@
       <c r="E24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="53">
         <v>400000</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="64">
+      <c r="G24" s="53"/>
+      <c r="H24" s="61">
         <f t="shared" si="1"/>
         <v>8697200</v>
       </c>
@@ -7589,11 +7586,11 @@
       <c r="E25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="53">
         <v>400000</v>
       </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="64">
+      <c r="G25" s="53"/>
+      <c r="H25" s="61">
         <f t="shared" si="1"/>
         <v>9097200</v>
       </c>
@@ -7615,11 +7612,11 @@
       <c r="E26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="53">
         <v>20000</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="64">
+      <c r="G26" s="53"/>
+      <c r="H26" s="61">
         <f t="shared" si="1"/>
         <v>9117200</v>
       </c>
@@ -7641,11 +7638,11 @@
       <c r="E27" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="53">
         <v>3000000</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="64">
+      <c r="G27" s="53"/>
+      <c r="H27" s="61">
         <f t="shared" si="1"/>
         <v>12117200</v>
       </c>
@@ -7655,23 +7652,23 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="62">
         <v>42880</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="65">
         <v>15000000</v>
       </c>
-      <c r="G28" s="68"/>
-      <c r="H28" s="64">
+      <c r="G28" s="65"/>
+      <c r="H28" s="61">
         <f t="shared" si="1"/>
         <v>27117200</v>
       </c>
@@ -7681,257 +7678,257 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="66">
         <v>42880</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C29" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72">
+      <c r="F29" s="69"/>
+      <c r="G29" s="69">
         <v>15000000</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="70">
         <f t="shared" si="1"/>
         <v>12117200</v>
       </c>
     </row>
-    <row r="30" s="50" customFormat="1" ht="30" spans="1:8">
+    <row r="30" s="47" customFormat="1" ht="30" spans="1:8">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="71">
         <v>42906</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="75"/>
-      <c r="E30" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="76">
+      <c r="D30" s="72"/>
+      <c r="E30" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="73">
         <v>500000</v>
       </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="77">
+      <c r="G30" s="73"/>
+      <c r="H30" s="74">
         <f t="shared" si="1"/>
         <v>12617200</v>
       </c>
     </row>
-    <row r="31" s="50" customFormat="1" spans="1:8">
+    <row r="31" s="47" customFormat="1" spans="1:8">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="74">
+      <c r="B31" s="71">
         <v>42907</v>
       </c>
-      <c r="C31" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="76">
+      <c r="C31" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="73">
         <v>500000</v>
       </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77">
+      <c r="G31" s="73"/>
+      <c r="H31" s="74">
         <f t="shared" si="1"/>
         <v>13117200</v>
       </c>
     </row>
-    <row r="32" s="50" customFormat="1" ht="45" spans="1:8">
+    <row r="32" s="47" customFormat="1" ht="45" spans="1:8">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="56">
         <v>42951</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79">
+      <c r="F32" s="76"/>
+      <c r="G32" s="76">
         <v>10000000</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="60">
         <f t="shared" si="1"/>
         <v>3117200</v>
       </c>
     </row>
-    <row r="33" s="50" customFormat="1" ht="30" spans="1:8">
+    <row r="33" s="47" customFormat="1" ht="30" spans="1:8">
       <c r="A33" s="40">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="74">
+      <c r="B33" s="71">
         <v>42744</v>
       </c>
-      <c r="C33" s="80" t="s">
+      <c r="C33" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="82">
+      <c r="D33" s="77"/>
+      <c r="E33" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="79">
         <v>7000000</v>
       </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83">
+      <c r="G33" s="79"/>
+      <c r="H33" s="80">
         <f t="shared" si="1"/>
         <v>10117200</v>
       </c>
     </row>
-    <row r="34" s="50" customFormat="1" ht="30" spans="1:8">
+    <row r="34" s="47" customFormat="1" ht="30" spans="1:8">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="71">
         <v>42744</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="82">
+      <c r="D34" s="77"/>
+      <c r="E34" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="79">
         <v>3000000</v>
       </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="83">
+      <c r="G34" s="79"/>
+      <c r="H34" s="80">
         <f t="shared" si="1"/>
         <v>13117200</v>
       </c>
     </row>
-    <row r="35" s="50" customFormat="1" ht="30" spans="1:8">
+    <row r="35" s="47" customFormat="1" ht="30" spans="1:8">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="74">
+      <c r="B35" s="71">
         <v>42744</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="82">
+      <c r="D35" s="77"/>
+      <c r="E35" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="79">
         <v>4000000</v>
       </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83">
+      <c r="G35" s="79"/>
+      <c r="H35" s="80">
         <f t="shared" si="1"/>
         <v>17117200</v>
       </c>
     </row>
-    <row r="36" s="50" customFormat="1" spans="1:8">
+    <row r="36" s="47" customFormat="1" spans="1:8">
       <c r="A36" s="40">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="74">
+      <c r="B36" s="71">
         <v>43022</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="82">
+      <c r="E36" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="79">
         <v>500000</v>
       </c>
-      <c r="G36" s="82"/>
-      <c r="H36" s="83">
+      <c r="G36" s="79"/>
+      <c r="H36" s="80">
         <f t="shared" si="1"/>
         <v>17617200</v>
       </c>
     </row>
-    <row r="37" s="50" customFormat="1" spans="1:8">
+    <row r="37" s="47" customFormat="1" spans="1:8">
       <c r="A37" s="40">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83">
+      <c r="B37" s="71"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80">
         <f t="shared" si="1"/>
         <v>17617200</v>
       </c>
     </row>
-    <row r="38" s="50" customFormat="1" spans="1:8">
+    <row r="38" s="47" customFormat="1" spans="1:8">
       <c r="A38" s="40">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="83">
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="80">
         <f t="shared" si="1"/>
         <v>17617200</v>
       </c>
     </row>
-    <row r="39" s="50" customFormat="1" spans="1:9">
+    <row r="39" s="47" customFormat="1" spans="1:9">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="83">
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="80">
         <f t="shared" si="1"/>
         <v>17617200</v>
       </c>
-      <c r="I39" s="50" t="b">
+      <c r="I39" s="47" t="b">
         <f>H39=H40</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="84">
+      <c r="F40" s="81">
         <f>SUM(F4:F39)</f>
         <v>67617200</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="81">
         <f>SUM(G4:G39)</f>
         <v>50000000</v>
       </c>
-      <c r="H40" s="84">
+      <c r="H40" s="81">
         <f>F40-G40</f>
         <v>17617200</v>
       </c>
@@ -8019,7 +8016,7 @@
       <c r="A4" s="40">
         <v>1</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="46">
         <v>42841</v>
       </c>
       <c r="C4" s="40" t="s">
@@ -8041,7 +8038,7 @@
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="46">
         <v>42842</v>
       </c>
       <c r="C5" s="40" t="s">
@@ -8063,7 +8060,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="46">
         <v>42844</v>
       </c>
       <c r="C6" s="40" t="s">
@@ -8085,7 +8082,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="46">
         <v>42844</v>
       </c>
       <c r="C7" s="40" t="s">
@@ -8107,7 +8104,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="46">
         <v>42844</v>
       </c>
       <c r="C8" s="40" t="s">
@@ -8129,7 +8126,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="46">
         <v>42845</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -8151,7 +8148,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="46">
         <v>42845</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -8173,7 +8170,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="46">
         <v>42845</v>
       </c>
       <c r="C11" s="40" t="s">
@@ -8195,7 +8192,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="46">
         <v>42846</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -8217,7 +8214,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="46">
         <v>42847</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -8239,7 +8236,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="46">
         <v>42847</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -8261,7 +8258,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="46">
         <v>42847</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -8283,7 +8280,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="46">
         <v>42847</v>
       </c>
       <c r="C16" s="40" t="s">
@@ -8305,7 +8302,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="46">
         <v>42847</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -8327,7 +8324,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="46">
         <v>42847</v>
       </c>
       <c r="C18" s="40" t="s">
@@ -8349,7 +8346,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="46">
         <v>42847</v>
       </c>
       <c r="C19" s="40" t="s">
@@ -8371,7 +8368,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="46">
         <v>42849</v>
       </c>
       <c r="C20" s="40" t="s">
@@ -8393,7 +8390,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="46">
         <v>42850</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -8415,7 +8412,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="46">
         <v>42851</v>
       </c>
       <c r="C22" s="40" t="s">
@@ -8437,7 +8434,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="46">
         <v>42851</v>
       </c>
       <c r="C23" s="40" t="s">
@@ -8459,7 +8456,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="46">
         <v>42851</v>
       </c>
       <c r="C24" s="40" t="s">
@@ -8481,7 +8478,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="49">
+      <c r="B25" s="46">
         <v>42851</v>
       </c>
       <c r="C25" s="40" t="s">
@@ -8503,7 +8500,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="46">
         <v>42853</v>
       </c>
       <c r="C26" s="40" t="s">
@@ -8525,7 +8522,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="46">
         <v>42854</v>
       </c>
       <c r="C27" s="40" t="s">
@@ -8547,7 +8544,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="46">
         <v>42854</v>
       </c>
       <c r="C28" s="40" t="s">
@@ -8569,7 +8566,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="46">
         <v>42854</v>
       </c>
       <c r="C29" s="40" t="s">
@@ -8591,7 +8588,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="46">
         <v>42854</v>
       </c>
       <c r="C30" s="40" t="s">
@@ -8613,7 +8610,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="46">
         <v>42854</v>
       </c>
       <c r="C31" s="40" t="s">
@@ -8635,7 +8632,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="46">
         <v>42854</v>
       </c>
       <c r="C32" s="40" t="s">
@@ -8657,7 +8654,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="49">
+      <c r="B33" s="46">
         <v>42854</v>
       </c>
       <c r="C33" s="40" t="s">
@@ -8679,7 +8676,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="46">
         <v>42856</v>
       </c>
       <c r="C34" s="40" t="s">
@@ -8701,7 +8698,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="46">
         <v>42856</v>
       </c>
       <c r="C35" s="40" t="s">
@@ -8723,7 +8720,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="46">
         <v>42857</v>
       </c>
       <c r="C36" s="40" t="s">
@@ -8745,7 +8742,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="46">
         <v>42857</v>
       </c>
       <c r="C37" s="40" t="s">
@@ -8767,7 +8764,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="46">
         <v>42859</v>
       </c>
       <c r="C38" s="40" t="s">
@@ -8789,7 +8786,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="46">
         <v>42860</v>
       </c>
       <c r="C39" s="40" t="s">
@@ -8811,7 +8808,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="46">
         <v>42860</v>
       </c>
       <c r="C40" s="40" t="s">
@@ -8833,7 +8830,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="46">
         <v>42861</v>
       </c>
       <c r="C41" s="40" t="s">
@@ -8855,7 +8852,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="46">
         <v>42861</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -8877,7 +8874,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="46">
         <v>42861</v>
       </c>
       <c r="C43" s="40" t="s">
@@ -8899,7 +8896,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="46">
         <v>42862</v>
       </c>
       <c r="C44" s="40" t="s">
@@ -8921,7 +8918,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="46">
         <v>42863</v>
       </c>
       <c r="C45" s="40" t="s">
@@ -8943,7 +8940,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="46">
         <v>42864</v>
       </c>
       <c r="C46" s="40" t="s">
@@ -8965,7 +8962,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="49">
+      <c r="B47" s="46">
         <v>42865</v>
       </c>
       <c r="C47" s="40" t="s">
@@ -8987,7 +8984,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="46">
         <v>42865</v>
       </c>
       <c r="C48" s="40" t="s">
@@ -9009,7 +9006,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="46">
         <v>42865</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -9031,7 +9028,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="46">
         <v>42866</v>
       </c>
       <c r="C50" s="40" t="s">
@@ -9053,7 +9050,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="46">
         <v>42866</v>
       </c>
       <c r="C51" s="40" t="s">
@@ -9075,7 +9072,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="49">
+      <c r="B52" s="46">
         <v>42870</v>
       </c>
       <c r="C52" s="40" t="s">
@@ -9097,7 +9094,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B53" s="49">
+      <c r="B53" s="46">
         <v>42870</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -9119,7 +9116,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="46">
         <v>42870</v>
       </c>
       <c r="C54" s="40" t="s">
@@ -9141,7 +9138,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="46">
         <v>42870</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -9163,7 +9160,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="46">
         <v>42871</v>
       </c>
       <c r="C56" s="40" t="s">
@@ -9185,7 +9182,7 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="46">
         <v>42872</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -9207,7 +9204,7 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="46">
         <v>42882</v>
       </c>
       <c r="C58" s="40" t="s">
@@ -9229,7 +9226,7 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="46">
         <v>42885</v>
       </c>
       <c r="C59" s="40" t="s">
@@ -9251,7 +9248,7 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="46">
         <v>42885</v>
       </c>
       <c r="C60" s="40" t="s">
@@ -9273,7 +9270,7 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="46">
         <v>42886</v>
       </c>
       <c r="C61" s="40" t="s">
@@ -9295,7 +9292,7 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="46">
         <v>42886</v>
       </c>
       <c r="C62" s="40" t="s">
@@ -9317,7 +9314,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="46">
         <v>42887</v>
       </c>
       <c r="C63" s="40" t="s">
@@ -9339,7 +9336,7 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="46">
         <v>42887</v>
       </c>
       <c r="C64" s="40" t="s">
@@ -9361,7 +9358,7 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="46">
         <v>42887</v>
       </c>
       <c r="C65" s="40" t="s">
@@ -9383,7 +9380,7 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="46">
         <v>42887</v>
       </c>
       <c r="C66" s="40" t="s">
@@ -9405,7 +9402,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B67" s="49">
+      <c r="B67" s="46">
         <v>42888</v>
       </c>
       <c r="C67" s="40" t="s">
@@ -9427,7 +9424,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="46">
         <v>42889</v>
       </c>
       <c r="C68" s="40" t="s">
@@ -9449,7 +9446,7 @@
         <f t="shared" ref="A69:A128" si="1">A68+1</f>
         <v>66</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="46">
         <v>42890</v>
       </c>
       <c r="C69" s="40" t="s">
@@ -9471,7 +9468,7 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="46">
         <v>42893</v>
       </c>
       <c r="C70" s="40" t="s">
@@ -9493,7 +9490,7 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="46">
         <v>42893</v>
       </c>
       <c r="C71" s="40" t="s">
@@ -9515,7 +9512,7 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="46">
         <v>42895</v>
       </c>
       <c r="C72" s="40" t="s">
@@ -9537,7 +9534,7 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B73" s="49">
+      <c r="B73" s="46">
         <v>42899</v>
       </c>
       <c r="C73" s="40" t="s">
@@ -9559,7 +9556,7 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B74" s="49">
+      <c r="B74" s="46">
         <v>42899</v>
       </c>
       <c r="C74" s="40" t="s">
@@ -9581,7 +9578,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B75" s="46">
         <v>42899</v>
       </c>
       <c r="C75" s="40" t="s">
@@ -9603,7 +9600,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B76" s="46">
         <v>42899</v>
       </c>
       <c r="C76" s="40" t="s">
@@ -9625,7 +9622,7 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B77" s="46">
         <v>42899</v>
       </c>
       <c r="C77" s="40" t="s">
@@ -9647,7 +9644,7 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B78" s="49">
+      <c r="B78" s="46">
         <v>42899</v>
       </c>
       <c r="C78" s="40" t="s">
@@ -9669,7 +9666,7 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B79" s="49">
+      <c r="B79" s="46">
         <v>42899</v>
       </c>
       <c r="C79" s="40" t="s">
@@ -9691,7 +9688,7 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B80" s="49">
+      <c r="B80" s="46">
         <v>42899</v>
       </c>
       <c r="C80" s="40" t="s">
@@ -9713,7 +9710,7 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B81" s="49">
+      <c r="B81" s="46">
         <v>42899</v>
       </c>
       <c r="C81" s="40" t="s">
@@ -9735,7 +9732,7 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B82" s="49">
+      <c r="B82" s="46">
         <v>42902</v>
       </c>
       <c r="C82" s="40" t="s">
@@ -9757,7 +9754,7 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B83" s="49">
+      <c r="B83" s="46">
         <v>42902</v>
       </c>
       <c r="C83" s="40" t="s">
@@ -9779,7 +9776,7 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B84" s="49">
+      <c r="B84" s="46">
         <v>42902</v>
       </c>
       <c r="C84" s="40" t="s">
@@ -9801,7 +9798,7 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B85" s="49">
+      <c r="B85" s="46">
         <v>42902</v>
       </c>
       <c r="C85" s="40" t="s">
@@ -9823,7 +9820,7 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B86" s="49">
+      <c r="B86" s="46">
         <v>42903</v>
       </c>
       <c r="C86" s="40" t="s">
@@ -9845,7 +9842,7 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B87" s="49">
+      <c r="B87" s="46">
         <v>42904</v>
       </c>
       <c r="C87" s="40" t="s">
@@ -9867,7 +9864,7 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B88" s="49">
+      <c r="B88" s="46">
         <v>42904</v>
       </c>
       <c r="C88" s="40" t="s">
@@ -9889,7 +9886,7 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B89" s="49">
+      <c r="B89" s="46">
         <v>42904</v>
       </c>
       <c r="C89" s="40" t="s">
@@ -9911,7 +9908,7 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B90" s="49">
+      <c r="B90" s="46">
         <v>42904</v>
       </c>
       <c r="C90" s="40" t="s">
@@ -9933,7 +9930,7 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B91" s="49">
+      <c r="B91" s="46">
         <v>42905</v>
       </c>
       <c r="C91" s="40" t="s">
@@ -9955,7 +9952,7 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B92" s="49">
+      <c r="B92" s="46">
         <v>42907</v>
       </c>
       <c r="C92" s="40" t="s">
@@ -9977,7 +9974,7 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B93" s="49">
+      <c r="B93" s="46">
         <v>42908</v>
       </c>
       <c r="C93" s="40" t="s">
@@ -9999,7 +9996,7 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B94" s="49">
+      <c r="B94" s="46">
         <v>42908</v>
       </c>
       <c r="C94" s="40" t="s">
@@ -10021,7 +10018,7 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B95" s="49">
+      <c r="B95" s="46">
         <v>42908</v>
       </c>
       <c r="C95" s="40" t="s">
@@ -10043,7 +10040,7 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B96" s="49">
+      <c r="B96" s="46">
         <v>42908</v>
       </c>
       <c r="C96" s="40" t="s">
@@ -10065,7 +10062,7 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B97" s="49">
+      <c r="B97" s="46">
         <v>42909</v>
       </c>
       <c r="C97" s="40" t="s">
@@ -10087,7 +10084,7 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B98" s="49">
+      <c r="B98" s="46">
         <v>42909</v>
       </c>
       <c r="C98" s="40" t="s">
@@ -10109,7 +10106,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B99" s="49">
+      <c r="B99" s="46">
         <v>42909</v>
       </c>
       <c r="C99" s="40" t="s">
@@ -10131,7 +10128,7 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B100" s="49">
+      <c r="B100" s="46">
         <v>42909</v>
       </c>
       <c r="C100" s="40" t="s">
@@ -10153,7 +10150,7 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B101" s="49">
+      <c r="B101" s="46">
         <v>42909</v>
       </c>
       <c r="C101" s="40" t="s">
@@ -10175,7 +10172,7 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B102" s="49">
+      <c r="B102" s="46">
         <v>42909</v>
       </c>
       <c r="C102" s="40" t="s">
@@ -10197,7 +10194,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B103" s="49">
+      <c r="B103" s="46">
         <v>42909</v>
       </c>
       <c r="C103" s="40" t="s">
@@ -10219,7 +10216,7 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B104" s="49">
+      <c r="B104" s="46">
         <v>42909</v>
       </c>
       <c r="C104" s="40" t="s">
@@ -10241,7 +10238,7 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B105" s="49">
+      <c r="B105" s="46">
         <v>42909</v>
       </c>
       <c r="C105" s="40" t="s">
@@ -10263,7 +10260,7 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B106" s="49">
+      <c r="B106" s="46">
         <v>42909</v>
       </c>
       <c r="C106" s="40" t="s">
@@ -10285,7 +10282,7 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B107" s="49">
+      <c r="B107" s="46">
         <v>42909</v>
       </c>
       <c r="C107" s="40" t="s">
@@ -10307,7 +10304,7 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B108" s="49">
+      <c r="B108" s="46">
         <v>42909</v>
       </c>
       <c r="C108" s="40" t="s">
@@ -10329,7 +10326,7 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B109" s="49">
+      <c r="B109" s="46">
         <v>42928</v>
       </c>
       <c r="C109" s="40" t="s">
@@ -10351,7 +10348,7 @@
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B110" s="49">
+      <c r="B110" s="46">
         <v>42931</v>
       </c>
       <c r="C110" s="40" t="s">
@@ -10373,7 +10370,7 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B111" s="49">
+      <c r="B111" s="46">
         <v>42932</v>
       </c>
       <c r="C111" s="40" t="s">
@@ -10395,7 +10392,7 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B112" s="49">
+      <c r="B112" s="46">
         <v>42934</v>
       </c>
       <c r="C112" s="40" t="s">
@@ -10417,7 +10414,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B113" s="49">
+      <c r="B113" s="46">
         <v>42935</v>
       </c>
       <c r="C113" s="40" t="s">
@@ -10439,7 +10436,7 @@
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B114" s="49">
+      <c r="B114" s="46">
         <v>42939</v>
       </c>
       <c r="C114" s="40" t="s">
@@ -10461,7 +10458,7 @@
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B115" s="49">
+      <c r="B115" s="46">
         <v>42938</v>
       </c>
       <c r="C115" s="40" t="s">
@@ -10483,7 +10480,7 @@
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B116" s="49">
+      <c r="B116" s="46">
         <v>42938</v>
       </c>
       <c r="C116" s="40" t="s">
@@ -10505,7 +10502,7 @@
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B117" s="49">
+      <c r="B117" s="46">
         <v>42941</v>
       </c>
       <c r="C117" s="40" t="s">
@@ -10527,7 +10524,7 @@
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B118" s="49">
+      <c r="B118" s="46">
         <v>42941</v>
       </c>
       <c r="C118" s="40" t="s">
@@ -10549,7 +10546,7 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B119" s="49">
+      <c r="B119" s="46">
         <v>42941</v>
       </c>
       <c r="C119" s="40" t="s">
@@ -10571,7 +10568,7 @@
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B120" s="49">
+      <c r="B120" s="46">
         <v>42941</v>
       </c>
       <c r="C120" s="40" t="s">
@@ -10593,7 +10590,7 @@
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B121" s="49">
+      <c r="B121" s="46">
         <v>42941</v>
       </c>
       <c r="C121" s="40" t="s">
@@ -10615,7 +10612,7 @@
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B122" s="49">
+      <c r="B122" s="46">
         <v>42941</v>
       </c>
       <c r="C122" s="40" t="s">
@@ -10637,7 +10634,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B123" s="49">
+      <c r="B123" s="46">
         <v>42941</v>
       </c>
       <c r="C123" s="40" t="s">
@@ -10659,7 +10656,7 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B124" s="49">
+      <c r="B124" s="46">
         <v>42942</v>
       </c>
       <c r="C124" s="40" t="s">
@@ -10681,7 +10678,7 @@
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B125" s="49">
+      <c r="B125" s="46">
         <v>42942</v>
       </c>
       <c r="C125" s="40" t="s">
@@ -10703,7 +10700,7 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B126" s="49">
+      <c r="B126" s="46">
         <v>42949</v>
       </c>
       <c r="C126" s="40" t="s">
@@ -10725,7 +10722,7 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B127" s="49">
+      <c r="B127" s="46">
         <v>42956</v>
       </c>
       <c r="C127" s="40" t="s">
@@ -10747,7 +10744,7 @@
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B128" s="49">
+      <c r="B128" s="46">
         <v>42956</v>
       </c>
       <c r="C128" s="40" t="s">
@@ -10797,8 +10794,8 @@
   <sheetPr/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K57"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
@@ -10917,7 +10914,7 @@
       <c r="N4" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="45">
         <f>SUM(H4:H120)</f>
         <v>30700000</v>
       </c>
@@ -10954,7 +10951,7 @@
         <f>K4+I5-J5</f>
         <v>8458100</v>
       </c>
-      <c r="O5" s="48"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" s="43" customFormat="1" ht="45" spans="1:17">
       <c r="A6" s="36">
@@ -10994,11 +10991,11 @@
       <c r="N6" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="45">
         <f>SUM(G4:G40)</f>
         <v>12784900</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="45">
         <f>O4+O6</f>
         <v>43484900</v>
       </c>
@@ -11043,11 +11040,11 @@
       <c r="N7" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="45">
         <f>3147797+902000+902000</f>
         <v>4951797</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="45">
         <f>Q6-O7</f>
         <v>38533103</v>
       </c>
@@ -11084,7 +11081,7 @@
         <f t="shared" ref="K8:K14" si="3">K7+I8-J8</f>
         <v>2458100</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="45">
         <f>O6+O7</f>
         <v>17736697</v>
       </c>
@@ -11124,7 +11121,7 @@
       <c r="M9" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="45">
         <f>Masjid!H40-O8</f>
         <v>-119497</v>
       </c>
@@ -12171,7 +12168,7 @@
       </c>
       <c r="L40" s="43">
         <f>I61-J61</f>
-        <v>18880000</v>
+        <v>19380000</v>
       </c>
     </row>
     <row r="41" s="43" customFormat="1" spans="1:11">
@@ -12526,7 +12523,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="37">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C53" s="36" t="s">
         <v>196</v>
@@ -12555,7 +12552,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="37">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="C54" s="36" t="s">
         <v>13</v>
@@ -12584,7 +12581,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="37">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="C55" s="36" t="s">
         <v>13</v>
@@ -12613,7 +12610,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="37">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="C56" s="36" t="s">
         <v>200</v>
@@ -12642,7 +12639,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="37">
-        <v>42739</v>
+        <v>43104</v>
       </c>
       <c r="C57" s="36" t="s">
         <v>13</v>
@@ -12650,16 +12647,16 @@
       <c r="D57" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E57" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45">
+      <c r="E57" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38">
         <v>200000</v>
       </c>
-      <c r="J57" s="45"/>
+      <c r="J57" s="38"/>
       <c r="K57" s="38">
         <f t="shared" si="8"/>
         <v>18880000</v>
@@ -12670,18 +12667,28 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
+      <c r="B58" s="37">
+        <v>43115</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="36"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38">
+        <v>500000</v>
+      </c>
+      <c r="J58" s="38"/>
       <c r="K58" s="38">
         <f t="shared" si="8"/>
-        <v>18880000</v>
+        <v>19380000</v>
       </c>
     </row>
     <row r="59" s="43" customFormat="1" spans="1:11">
@@ -12689,18 +12696,18 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
       <c r="K59" s="38">
         <f t="shared" si="8"/>
-        <v>18880000</v>
+        <v>19380000</v>
       </c>
     </row>
     <row r="60" s="43" customFormat="1" spans="1:11">
@@ -12708,28 +12715,28 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
       <c r="K60" s="38">
         <f t="shared" si="8"/>
-        <v>18880000</v>
+        <v>19380000</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="47">
+      <c r="A61" s="44">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="I61" s="31">
         <f>SUM(I4:I60)</f>
-        <v>73324000</v>
+        <v>73824000</v>
       </c>
       <c r="J61" s="31">
         <f>SUM(J4:J60)</f>
@@ -12737,7 +12744,7 @@
       </c>
       <c r="K61" t="b">
         <f>(I61-J61)=K57</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -12883,8 +12890,8 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
@@ -12903,7 +12910,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -13116,7 +13123,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>13</v>
@@ -13209,7 +13216,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>19</v>
@@ -13235,7 +13242,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>14</v>
@@ -13261,10 +13268,10 @@
         <v>43090</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>14</v>
@@ -13319,10 +13326,10 @@
         <v>43097</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>19</v>
@@ -13348,7 +13355,7 @@
         <v>43100</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40" t="s">
@@ -13433,10 +13440,10 @@
         <v>43102</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>19</v>
@@ -13462,10 +13469,10 @@
         <v>43102</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>19</v>
@@ -13491,10 +13498,10 @@
         <v>43102</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>19</v>
@@ -13549,10 +13556,10 @@
         <v>43113</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>19</v>
@@ -13578,10 +13585,10 @@
         <v>43113</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>19</v>
@@ -13654,8 +13661,8 @@
   <sheetPr/>
   <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
@@ -13671,7 +13678,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -13681,7 +13688,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="7" t="str">
         <f ca="1">CONCATENATE("Per : "," ",TEXT(NOW(),"DD/MM/YYYY hh:mm:ss"))</f>
-        <v>Per :  13/01/2018 07:58:26</v>
+        <v>Per :  17/01/2018 06:03:41</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -13693,7 +13700,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:12">
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -13703,65 +13710,72 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="31">
+        <f>'Pengeluaran Pembangunan Banin'!F30</f>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="5" ht="32.25" customHeight="1" spans="2:12">
       <c r="B5" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L5" s="31">
-        <v>39097797</v>
+        <f>13447797+25000000</f>
+        <v>38447797</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C6" s="20">
         <v>99000000</v>
       </c>
       <c r="D6" s="20">
         <f>MTS!K60</f>
-        <v>18880000</v>
+        <v>19380000</v>
       </c>
       <c r="E6" s="21">
         <f>D6/C6</f>
-        <v>0.190707070707071</v>
+        <v>0.195757575757576</v>
       </c>
       <c r="F6" s="20">
         <f>C6-D6</f>
-        <v>80120000</v>
+        <v>79620000</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="31">
-        <f>3300000+51100</f>
-        <v>3351100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
+        <f>1000000+200000+51000+10000</f>
+        <v>1261000</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="2:12">
       <c r="B7" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" s="23">
         <v>150000000</v>
@@ -13779,16 +13793,16 @@
         <v>125150000</v>
       </c>
       <c r="K7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L7" s="31">
-        <f>L5+L6</f>
-        <v>42448897</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="2:12">
+        <f>SUM(L4:L6)</f>
+        <v>44708797</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8" s="26">
         <f>SUM(C6:C7)</f>
@@ -13796,29 +13810,32 @@
       </c>
       <c r="D8" s="26">
         <f>SUM(D6:D7)</f>
-        <v>43730000</v>
+        <v>44230000</v>
       </c>
       <c r="E8" s="27">
         <f>D8/C8</f>
-        <v>0.175622489959839</v>
+        <v>0.177630522088353</v>
       </c>
       <c r="F8" s="26">
         <f>C8-D8</f>
-        <v>205270000</v>
+        <v>204770000</v>
       </c>
       <c r="L8" s="32"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
+      <c r="K9" t="s">
+        <v>221</v>
+      </c>
       <c r="L9" s="31">
         <f>L7-D8</f>
-        <v>-1281103</v>
+        <v>478797</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -13836,8 +13853,8 @@
       <c r="F11" s="28"/>
     </row>
     <row r="12" hidden="1" spans="2:6">
-      <c r="B12" s="130" t="s">
-        <v>220</v>
+      <c r="B12" s="127" t="s">
+        <v>222</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -13846,7 +13863,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -13925,8 +13942,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -13941,7 +13958,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13951,7 +13968,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -13970,13 +13987,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -13987,10 +14004,10 @@
         <v>42748</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E5" s="3">
         <v>5000000</v>
@@ -14002,103 +14019,178 @@
     </row>
     <row r="6" spans="5:6">
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <f t="shared" ref="F6:F30" si="0">F5+E6</f>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="7" spans="5:6">
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="8" spans="5:6">
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="9" spans="5:6">
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="10" spans="5:6">
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="11" spans="5:6">
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="12" spans="5:6">
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="13" spans="5:6">
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="14" spans="5:6">
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="15" spans="5:6">
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="16" spans="5:6">
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="18" spans="5:6">
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="19" spans="5:6">
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="21" spans="5:6">
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="22" spans="5:6">
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="23" spans="5:6">
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="24" spans="5:6">
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="25" spans="5:6">
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="26" spans="5:6">
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="27" spans="5:6">
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="28" spans="5:6">
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="29" spans="5:6">
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="30" spans="5:6">
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -13967,8 +13967,8 @@
   <sheetPr/>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="19890" windowHeight="8370" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>KW : 2782</t>
+  </si>
+  <si>
+    <t>Andjon Djatim , Musyahadah</t>
   </si>
   <si>
     <t>Masjid</t>
@@ -806,14 +809,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -859,6 +862,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -867,14 +871,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,26 +908,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -919,15 +939,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -941,40 +962,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -995,11 +984,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1066,7 +1069,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,13 +1153,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,85 +1213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,37 +1231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,12 +1244,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,17 +1421,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,31 +1441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1515,14 +1500,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1534,130 +1537,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1753,7 +1756,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="58" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1780,7 +1783,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="1" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1798,7 +1801,7 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1811,7 +1814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1835,7 +1838,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11013,8 +11016,8 @@
   <sheetPr/>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12380952380952" defaultRowHeight="15"/>
@@ -12386,7 +12389,7 @@
       </c>
       <c r="L40" s="75">
         <f>I67-J67</f>
-        <v>22730000</v>
+        <v>23730000</v>
       </c>
     </row>
     <row r="41" s="75" customFormat="1" spans="1:11">
@@ -13083,18 +13086,28 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
+      <c r="B65" s="71">
+        <v>43155</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" s="70" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" s="70"/>
       <c r="G65" s="72"/>
       <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
+      <c r="I65" s="72">
+        <v>1000000</v>
+      </c>
       <c r="J65" s="72"/>
       <c r="K65" s="72">
         <f t="shared" si="8"/>
-        <v>22730000</v>
+        <v>23730000</v>
       </c>
     </row>
     <row r="66" s="75" customFormat="1" spans="1:11">
@@ -13113,7 +13126,7 @@
       <c r="J66" s="72"/>
       <c r="K66" s="72">
         <f t="shared" si="8"/>
-        <v>22730000</v>
+        <v>23730000</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -13123,7 +13136,7 @@
       </c>
       <c r="I67" s="59">
         <f>SUM(I4:I66)</f>
-        <v>77174000</v>
+        <v>78174000</v>
       </c>
       <c r="J67" s="59">
         <f>SUM(J4:J66)</f>
@@ -13163,10 +13176,10 @@
         <v>67</v>
       </c>
       <c r="G70" s="80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H70" s="80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -13314,7 +13327,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -13527,7 +13540,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>13</v>
@@ -13620,7 +13633,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="70" t="s">
         <v>19</v>
@@ -13646,7 +13659,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>14</v>
@@ -13672,10 +13685,10 @@
         <v>43090</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E14" s="70" t="s">
         <v>14</v>
@@ -13730,10 +13743,10 @@
         <v>43097</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>19</v>
@@ -13759,7 +13772,7 @@
         <v>43100</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
@@ -13844,10 +13857,10 @@
         <v>43102</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>19</v>
@@ -13873,10 +13886,10 @@
         <v>43102</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>19</v>
@@ -13902,10 +13915,10 @@
         <v>43102</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>19</v>
@@ -13960,10 +13973,10 @@
         <v>43113</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>19</v>
@@ -13989,10 +14002,10 @@
         <v>43113</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E25" s="34" t="s">
         <v>19</v>
@@ -14018,7 +14031,7 @@
         <v>43138</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34" t="s">
@@ -14046,7 +14059,7 @@
         <v>43138</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
@@ -14105,10 +14118,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -14134,7 +14147,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E30" s="34" t="s">
         <v>19</v>
@@ -14163,7 +14176,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>19</v>
@@ -14265,7 +14278,7 @@
   <sheetPr/>
   <dimension ref="B2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -14287,7 +14300,7 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14302,7 +14315,7 @@
     <row r="3" spans="2:10">
       <c r="B3" s="8" t="str">
         <f ca="1">CONCATENATE("Per : "," ",TEXT(NOW(),"DD/MM/YYYY hh:mm:ss"))</f>
-        <v>Per :  22/02/2018 22:35:00</v>
+        <v>Per :  26/02/2018 06:45:29</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -14310,7 +14323,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56" t="s">
@@ -14325,7 +14338,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
       <c r="H4" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I4" s="57"/>
       <c r="J4" s="58">
@@ -14339,28 +14352,28 @@
     </row>
     <row r="5" ht="32.25" customHeight="1" spans="2:11">
       <c r="B5" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="61">
         <f>F33</f>
-        <v>12730000</v>
+        <v>13730000</v>
       </c>
       <c r="K5" s="59">
         <f>1547797+38000000</f>
@@ -14369,25 +14382,25 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C6" s="23">
         <v>99000000</v>
       </c>
       <c r="D6" s="23">
         <f>MTS!K66</f>
-        <v>22730000</v>
+        <v>23730000</v>
       </c>
       <c r="E6" s="24">
         <f>D6/C6</f>
-        <v>0.22959595959596</v>
+        <v>0.23969696969697</v>
       </c>
       <c r="F6" s="23">
         <f>C6-D6</f>
-        <v>76270000</v>
+        <v>75270000</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="61">
@@ -14401,7 +14414,7 @@
     </row>
     <row r="7" ht="15.75" spans="2:11">
       <c r="B7" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C7" s="27">
         <v>150000000</v>
@@ -14419,12 +14432,12 @@
         <v>114049400</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="63">
         <f>SUM(J4:J6)</f>
-        <v>53512900</v>
+        <v>54512900</v>
       </c>
       <c r="K7" s="59">
         <f>SUM(K4:K6)</f>
@@ -14433,7 +14446,7 @@
     </row>
     <row r="8" ht="15.75" spans="2:11">
       <c r="B8" s="29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="30">
         <f>SUM(C6:C7)</f>
@@ -14441,22 +14454,22 @@
       </c>
       <c r="D8" s="30">
         <f>SUM(D6:D7)</f>
-        <v>58680600</v>
+        <v>59680600</v>
       </c>
       <c r="E8" s="31">
         <f>D8/C8</f>
-        <v>0.235665060240964</v>
+        <v>0.239681124497992</v>
       </c>
       <c r="F8" s="30">
         <f>C8-D8</f>
-        <v>190319400</v>
+        <v>189319400</v>
       </c>
       <c r="H8" s="32"/>
       <c r="K8" s="64"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -14465,7 +14478,7 @@
       <c r="H9" s="32"/>
       <c r="K9" s="59">
         <f>K7-D8</f>
-        <v>-5281803</v>
+        <v>-6281803</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -14475,7 +14488,7 @@
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="H10" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
@@ -14487,7 +14500,7 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="H11" s="34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="61">
@@ -14496,7 +14509,7 @@
     </row>
     <row r="12" hidden="1" spans="2:10">
       <c r="B12" s="161" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -14508,14 +14521,14 @@
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="H13" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="61">
@@ -14554,7 +14567,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="H16" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="63">
@@ -14577,11 +14590,11 @@
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="H18" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J18" s="66">
         <f>J16-J7</f>
-        <v>1300000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -14606,7 +14619,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -14616,7 +14629,7 @@
     <row r="23" spans="2:6">
       <c r="B23" s="8" t="str">
         <f ca="1">CONCATENATE("Per : "," ",TEXT(NOW(),"DD/MM/YYYY hh:mm:ss"))</f>
-        <v>Per :  22/02/2018 22:35:00</v>
+        <v>Per :  26/02/2018 06:45:29</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -14632,13 +14645,13 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>2</v>
@@ -14649,14 +14662,14 @@
     </row>
     <row r="26" ht="30" spans="2:6">
       <c r="B26" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C26" s="39">
         <f>D6</f>
-        <v>22730000</v>
+        <v>23730000</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E26" s="41">
         <v>43113</v>
@@ -14669,7 +14682,7 @@
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="40" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E27" s="44">
         <v>43148</v>
@@ -14710,7 +14723,7 @@
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
       <c r="D32" s="48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="50">
@@ -14722,27 +14735,27 @@
       <c r="B33" s="51"/>
       <c r="C33" s="52"/>
       <c r="D33" s="53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="55">
         <f>C34-F32</f>
-        <v>12730000</v>
+        <v>13730000</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="50">
         <f>SUM(C26:C33)</f>
-        <v>22730000</v>
+        <v>23730000</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="49"/>
       <c r="F34" s="50">
         <f>F32+F33</f>
-        <v>22730000</v>
+        <v>23730000</v>
       </c>
     </row>
   </sheetData>
@@ -14788,7 +14801,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14798,7 +14811,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -14817,13 +14830,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -14834,10 +14847,10 @@
         <v>43113</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E5" s="4">
         <v>5000000</v>
@@ -14856,10 +14869,10 @@
         <v>43148</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E6" s="4">
         <v>5000000</v>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="292">
   <si>
     <t>Penggalangan Dana Pembangunan Gedung Banin - Banat MDS</t>
   </si>
@@ -916,8 +916,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1245,22 +1245,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,11 +1275,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1300,7 +1300,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1316,20 +1316,20 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1337,20 +1337,20 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1361,7 +1361,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1401,12 +1401,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1429,8 +1429,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,14 +1438,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1454,12 +1454,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1469,7 +1469,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1479,7 +1479,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1519,41 +1519,11 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1567,11 +1537,41 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -10584,8 +10584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13088,15 +13088,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.42578125"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="4" max="4" width="52" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
@@ -14201,18 +14201,28 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="64">
+        <v>43187</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="56"/>
+      <c r="I40" s="56">
+        <v>10000000</v>
+      </c>
       <c r="J40" s="56"/>
       <c r="K40" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -14231,7 +14241,7 @@
       <c r="J41" s="56"/>
       <c r="K41" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -14250,7 +14260,7 @@
       <c r="J42" s="56"/>
       <c r="K42" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -14269,7 +14279,7 @@
       <c r="J43" s="56"/>
       <c r="K43" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -14288,7 +14298,7 @@
       <c r="J44" s="56"/>
       <c r="K44" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -14307,7 +14317,7 @@
       <c r="J45" s="56"/>
       <c r="K45" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -14326,7 +14336,7 @@
       <c r="J46" s="56"/>
       <c r="K46" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -14345,7 +14355,7 @@
       <c r="J47" s="56"/>
       <c r="K47" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -14364,13 +14374,13 @@
       <c r="J48" s="56"/>
       <c r="K48" s="65">
         <f t="shared" si="1"/>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
     <row r="49" spans="9:11">
       <c r="I49" s="54">
         <f>SUM(I4:I48)</f>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
       <c r="J49">
         <f>SUM(J4:J48)</f>
@@ -14423,28 +14433,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="163" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
-      <c r="H2" s="159" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
+      <c r="H2" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="160" t="str">
+      <c r="B3" s="166" t="str">
         <f ca="1">CONCATENATE("Per : "," ",TEXT(NOW(),"DD/MM/YYYY hh:mm:ss"))</f>
-        <v>Per :  19/03/2018 16:48:14</v>
-      </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="162"/>
+        <v>Per :  28/03/2018 13:32:22</v>
+      </c>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="16"/>
       <c r="H3" s="17" t="s">
         <v>243</v>
@@ -14455,11 +14465,11 @@
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="18"/>
       <c r="H4" s="19" t="s">
         <v>244</v>
@@ -14529,7 +14539,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="56">
         <f>F47</f>
-        <v>5250600</v>
+        <v>15250600</v>
       </c>
       <c r="K6" s="54">
         <f>2600000+1000000+251000</f>
@@ -14545,15 +14555,15 @@
       </c>
       <c r="D7" s="29">
         <f>'Pembebasan Tanah'!K48</f>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
       <c r="E7" s="30">
         <f>D7/C7</f>
-        <v>0.37833733333333336</v>
+        <v>0.44500400000000001</v>
       </c>
       <c r="F7" s="29">
         <f>C7-D7</f>
-        <v>93249400</v>
+        <v>83249400</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>253</v>
@@ -14561,7 +14571,7 @@
       <c r="I7" s="57"/>
       <c r="J7" s="58">
         <f>SUM(J4:J6)</f>
-        <v>23937900</v>
+        <v>33937900</v>
       </c>
       <c r="K7" s="54">
         <f>SUM(K4:K6)</f>
@@ -14578,39 +14588,39 @@
       </c>
       <c r="D8" s="32">
         <f>SUM(D6:D7)</f>
-        <v>85805600</v>
+        <v>95805600</v>
       </c>
       <c r="E8" s="33">
         <f>D8/C8</f>
-        <v>0.34460080321285141</v>
+        <v>0.38476144578313254</v>
       </c>
       <c r="F8" s="32">
         <f>C8-D8</f>
-        <v>163194400</v>
+        <v>153194400</v>
       </c>
       <c r="H8" s="34"/>
       <c r="K8" s="59"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="167" t="s">
+      <c r="B9" s="162" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
       <c r="H9" s="34"/>
       <c r="K9" s="54">
         <f>K7-D8</f>
-        <v>-26706803</v>
+        <v>-36706803</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
       <c r="H10" s="23" t="s">
         <v>256</v>
       </c>
@@ -14618,64 +14628,64 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
       <c r="H11" s="6" t="s">
         <v>257</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="56">
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="12" spans="2:15" hidden="1">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="173" t="s">
         <v>258</v>
       </c>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="156" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
       <c r="H13" s="27" t="s">
         <v>260</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="56">
-        <v>20501200</v>
+        <v>30501200</v>
       </c>
       <c r="O13" s="60"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
       <c r="H14" s="27"/>
       <c r="I14" s="6"/>
       <c r="J14" s="56"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
       <c r="H15" s="27" t="s">
         <v>19</v>
       </c>
@@ -14686,80 +14696,80 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
       <c r="H16" s="23" t="s">
         <v>261</v>
       </c>
       <c r="I16" s="57"/>
       <c r="J16" s="58">
         <f>SUM(J11:J15)</f>
-        <v>26487800</v>
+        <v>34487800</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
       <c r="H18" s="34" t="s">
         <v>262</v>
       </c>
       <c r="J18" s="59">
         <f>J16-J7</f>
-        <v>2549900</v>
+        <v>549900</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
       <c r="H19" s="34"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="2:10">
       <c r="H21" s="34"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="163" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="165"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="160" t="str">
+      <c r="B23" s="166" t="str">
         <f ca="1">CONCATENATE("Per : "," ",TEXT(NOW(),"DD/MM/YYYY hh:mm:ss"))</f>
-        <v>Per :  19/03/2018 16:48:14</v>
-      </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="162"/>
+        <v>Per :  28/03/2018 13:32:22</v>
+      </c>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="168"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="13"/>
@@ -14857,8 +14867,8 @@
       <c r="F31" s="41"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="159"/>
       <c r="D32" s="45" t="s">
         <v>270</v>
       </c>
@@ -14869,8 +14879,8 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="170"/>
-      <c r="C33" s="171"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="161"/>
       <c r="D33" s="48" t="s">
         <v>271</v>
       </c>
@@ -14896,23 +14906,23 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="163" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="158"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="165"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="160" t="str">
+      <c r="B37" s="166" t="str">
         <f ca="1">CONCATENATE("Per : "," ",TEXT(NOW(),"DD/MM/YYYY hh:mm:ss"))</f>
-        <v>Per :  19/03/2018 16:48:14</v>
-      </c>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="162"/>
+        <v>Per :  28/03/2018 13:32:22</v>
+      </c>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="168"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="13"/>
@@ -14944,7 +14954,7 @@
       </c>
       <c r="C40" s="37">
         <f>D7</f>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>273</v>
@@ -15010,8 +15020,8 @@
       <c r="F45" s="41"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="168"/>
-      <c r="C46" s="169"/>
+      <c r="B46" s="158"/>
+      <c r="C46" s="159"/>
       <c r="D46" s="45" t="s">
         <v>270</v>
       </c>
@@ -15022,15 +15032,15 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="170"/>
-      <c r="C47" s="171"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="161"/>
       <c r="D47" s="48" t="s">
         <v>271</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="50">
         <f>C48-F46</f>
-        <v>5250600</v>
+        <v>15250600</v>
       </c>
     </row>
     <row r="48" spans="2:6">
@@ -15039,22 +15049,17 @@
       </c>
       <c r="C48" s="47">
         <f>SUM(C40:C47)</f>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="46"/>
       <c r="F48" s="47">
         <f>SUM(F46:F47)</f>
-        <v>56750600</v>
+        <v>66750600</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B13:F20"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="B9:F11"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B46:C47"/>
@@ -15063,6 +15068,11 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F20"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="B9:F11"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="F33">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -15101,24 +15111,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="169" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
@@ -15381,22 +15391,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="169" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="169" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="174" t="s">
@@ -15406,7 +15416,7 @@
       <c r="C3" s="174"/>
       <c r="D3" s="175">
         <f ca="1">NOW()</f>
-        <v>43178.700160763889</v>
+        <v>43187.564146990742</v>
       </c>
       <c r="E3" s="176"/>
     </row>

--- a/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
+++ b/Penggalangan Dana Pembangunan Gedung Banin - Banat MDS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="8370" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="8370" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Banin - Banat" sheetId="1" r:id="rId1"/>
@@ -10584,19 +10584,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="4" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="54" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="54" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="54" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="54" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
@@ -13088,8 +13089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-   